--- a/doc/DemoMotJDT-pittierfa.xlsx
+++ b/doc/DemoMotJDT-pittierfa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PROJETS\2016-2017\DemoMot\depotDemoMot\Demomot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PROJETS\2016-2017\DemoMot\depotDemoMot\Demomot\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
     <definedName name="objRealizedWeek" localSheetId="7">JNLTRAV!$A$1:$D$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Diagramme!$A$1:$PT$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Donnees!$A$1:$G$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">JNLTRAV!$A$1:$D$304</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">JNLTRAV!$A$1:$D$305</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Planning!$A$1:$D$224</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="87">
   <si>
     <t>Module :</t>
   </si>
@@ -283,6 +283,46 @@
   <si>
     <t>Mise à jour du journal de travail + commit sur gitKraken</t>
   </si>
+  <si>
+    <t>Daily scrum avec Jimmy</t>
+  </si>
+  <si>
+    <t>DailyScrum.txt</t>
+  </si>
+  <si>
+    <t>http://typo3buddy.com/typo3-template-tutorial/fluid/</t>
+  </si>
+  <si>
+    <t>Suit tuto conseillé par mme Hardeger afin de mettre les premiers contenus etc… Finit tuto jusqu'au point 5, en train de faire point 6 ("Ajout contenu dans page Home")</t>
+  </si>
+  <si>
+    <t>PAUSE MIDI</t>
+  </si>
+  <si>
+    <t>Problemes.docx</t>
+  </si>
+  <si>
+    <t>Mme Hardeger venue nous aider pour la mise en place de typo3 car on ne parvenait pas à résoudre le problème rencontré, le problème venait de Open SSL -&gt; le problème a été résolu en mettant en commentaire une ligne de code utilisant Open SSL + Rédaction du problème dans fichier word (Problème 1)</t>
+  </si>
+  <si>
+    <t>Bloqué sur le point 6 ("Ajout contenu dans page Home") car il y a une erreur "no rendering definition" au lancement de la page, recherches sur plusieurs forum mais aucune aide utile alors on demande de l'aide à Mme Hardeger, problème résolu: il fallait inclure un "gabarit" (extension) -&gt; Rédaction du problème dans fichier word (Problème 2)</t>
+  </si>
+  <si>
+    <t>Mise à jour du journal de travail</t>
+  </si>
+  <si>
+    <t>TYPO3 Fluid tutorial: build a TYPO3 website with Fluid templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue à avancer dans le tuto: point 6 jsqu'au dernier point (point 15 ("Ajouter contenu aux pages"))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Débute tuto supplémentaire </t>
+  </si>
+  <si>
+    <t>http://typo3buddy.com/typoscript/the-main-typoscript-template/</t>
+  </si>
 </sst>
 </file>
 
@@ -498,7 +538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1086,6 +1126,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1096,7 +1177,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1365,17 +1446,55 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1386,6 +1505,12 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1394,10 +1519,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2305,10 +2426,10 @@
     </row>
     <row r="19" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52"/>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="109"/>
+      <c r="C19" s="120"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
@@ -3154,27 +3275,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId4" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId4" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId4" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId4" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3204,27 +3325,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId8" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId8" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId8" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId8" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3262,474 +3383,474 @@
       <c r="C2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="112" t="s">
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="113"/>
-      <c r="AG2" s="113"/>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="113"/>
-      <c r="AJ2" s="113"/>
-      <c r="AK2" s="113"/>
-      <c r="AL2" s="113"/>
-      <c r="AM2" s="113"/>
-      <c r="AN2" s="113"/>
-      <c r="AO2" s="113"/>
-      <c r="AP2" s="113"/>
-      <c r="AQ2" s="113"/>
-      <c r="AR2" s="113"/>
-      <c r="AS2" s="113"/>
-      <c r="AT2" s="113"/>
-      <c r="AU2" s="113"/>
-      <c r="AV2" s="113"/>
-      <c r="AW2" s="113"/>
-      <c r="AX2" s="113"/>
-      <c r="AY2" s="113"/>
-      <c r="AZ2" s="113"/>
-      <c r="BA2" s="113"/>
-      <c r="BB2" s="113"/>
-      <c r="BC2" s="113"/>
-      <c r="BD2" s="113"/>
-      <c r="BE2" s="114"/>
-      <c r="BF2" s="112" t="s">
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122"/>
+      <c r="AQ2" s="122"/>
+      <c r="AR2" s="122"/>
+      <c r="AS2" s="122"/>
+      <c r="AT2" s="122"/>
+      <c r="AU2" s="122"/>
+      <c r="AV2" s="122"/>
+      <c r="AW2" s="122"/>
+      <c r="AX2" s="122"/>
+      <c r="AY2" s="122"/>
+      <c r="AZ2" s="122"/>
+      <c r="BA2" s="122"/>
+      <c r="BB2" s="122"/>
+      <c r="BC2" s="122"/>
+      <c r="BD2" s="122"/>
+      <c r="BE2" s="123"/>
+      <c r="BF2" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="BG2" s="113"/>
-      <c r="BH2" s="113"/>
-      <c r="BI2" s="113"/>
-      <c r="BJ2" s="113"/>
-      <c r="BK2" s="113"/>
-      <c r="BL2" s="113"/>
-      <c r="BM2" s="113"/>
-      <c r="BN2" s="113"/>
-      <c r="BO2" s="113"/>
-      <c r="BP2" s="113"/>
-      <c r="BQ2" s="113"/>
-      <c r="BR2" s="113"/>
-      <c r="BS2" s="113"/>
-      <c r="BT2" s="113"/>
-      <c r="BU2" s="113"/>
-      <c r="BV2" s="113"/>
-      <c r="BW2" s="113"/>
-      <c r="BX2" s="113"/>
-      <c r="BY2" s="113"/>
-      <c r="BZ2" s="113"/>
-      <c r="CA2" s="113"/>
-      <c r="CB2" s="113"/>
-      <c r="CC2" s="113"/>
-      <c r="CD2" s="113"/>
-      <c r="CE2" s="113"/>
-      <c r="CF2" s="114"/>
-      <c r="CG2" s="112" t="s">
+      <c r="BG2" s="122"/>
+      <c r="BH2" s="122"/>
+      <c r="BI2" s="122"/>
+      <c r="BJ2" s="122"/>
+      <c r="BK2" s="122"/>
+      <c r="BL2" s="122"/>
+      <c r="BM2" s="122"/>
+      <c r="BN2" s="122"/>
+      <c r="BO2" s="122"/>
+      <c r="BP2" s="122"/>
+      <c r="BQ2" s="122"/>
+      <c r="BR2" s="122"/>
+      <c r="BS2" s="122"/>
+      <c r="BT2" s="122"/>
+      <c r="BU2" s="122"/>
+      <c r="BV2" s="122"/>
+      <c r="BW2" s="122"/>
+      <c r="BX2" s="122"/>
+      <c r="BY2" s="122"/>
+      <c r="BZ2" s="122"/>
+      <c r="CA2" s="122"/>
+      <c r="CB2" s="122"/>
+      <c r="CC2" s="122"/>
+      <c r="CD2" s="122"/>
+      <c r="CE2" s="122"/>
+      <c r="CF2" s="123"/>
+      <c r="CG2" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="CH2" s="113"/>
-      <c r="CI2" s="113"/>
-      <c r="CJ2" s="113"/>
-      <c r="CK2" s="113"/>
-      <c r="CL2" s="113"/>
-      <c r="CM2" s="113"/>
-      <c r="CN2" s="113"/>
-      <c r="CO2" s="113"/>
-      <c r="CP2" s="113"/>
-      <c r="CQ2" s="113"/>
-      <c r="CR2" s="113"/>
-      <c r="CS2" s="113"/>
-      <c r="CT2" s="113"/>
-      <c r="CU2" s="113"/>
-      <c r="CV2" s="113"/>
-      <c r="CW2" s="113"/>
-      <c r="CX2" s="113"/>
-      <c r="CY2" s="113"/>
-      <c r="CZ2" s="113"/>
-      <c r="DA2" s="113"/>
-      <c r="DB2" s="113"/>
-      <c r="DC2" s="113"/>
-      <c r="DD2" s="113"/>
-      <c r="DE2" s="113"/>
-      <c r="DF2" s="113"/>
-      <c r="DG2" s="114"/>
-      <c r="DH2" s="112" t="s">
+      <c r="CH2" s="122"/>
+      <c r="CI2" s="122"/>
+      <c r="CJ2" s="122"/>
+      <c r="CK2" s="122"/>
+      <c r="CL2" s="122"/>
+      <c r="CM2" s="122"/>
+      <c r="CN2" s="122"/>
+      <c r="CO2" s="122"/>
+      <c r="CP2" s="122"/>
+      <c r="CQ2" s="122"/>
+      <c r="CR2" s="122"/>
+      <c r="CS2" s="122"/>
+      <c r="CT2" s="122"/>
+      <c r="CU2" s="122"/>
+      <c r="CV2" s="122"/>
+      <c r="CW2" s="122"/>
+      <c r="CX2" s="122"/>
+      <c r="CY2" s="122"/>
+      <c r="CZ2" s="122"/>
+      <c r="DA2" s="122"/>
+      <c r="DB2" s="122"/>
+      <c r="DC2" s="122"/>
+      <c r="DD2" s="122"/>
+      <c r="DE2" s="122"/>
+      <c r="DF2" s="122"/>
+      <c r="DG2" s="123"/>
+      <c r="DH2" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="DI2" s="113"/>
-      <c r="DJ2" s="113"/>
-      <c r="DK2" s="113"/>
-      <c r="DL2" s="113"/>
-      <c r="DM2" s="113"/>
-      <c r="DN2" s="113"/>
-      <c r="DO2" s="113"/>
-      <c r="DP2" s="113"/>
-      <c r="DQ2" s="113"/>
-      <c r="DR2" s="113"/>
-      <c r="DS2" s="113"/>
-      <c r="DT2" s="113"/>
-      <c r="DU2" s="113"/>
-      <c r="DV2" s="113"/>
-      <c r="DW2" s="113"/>
-      <c r="DX2" s="113"/>
-      <c r="DY2" s="113"/>
-      <c r="DZ2" s="113"/>
-      <c r="EA2" s="113"/>
-      <c r="EB2" s="113"/>
-      <c r="EC2" s="113"/>
-      <c r="ED2" s="113"/>
-      <c r="EE2" s="113"/>
-      <c r="EF2" s="113"/>
-      <c r="EG2" s="113"/>
-      <c r="EH2" s="114"/>
-      <c r="EI2" s="112" t="s">
+      <c r="DI2" s="122"/>
+      <c r="DJ2" s="122"/>
+      <c r="DK2" s="122"/>
+      <c r="DL2" s="122"/>
+      <c r="DM2" s="122"/>
+      <c r="DN2" s="122"/>
+      <c r="DO2" s="122"/>
+      <c r="DP2" s="122"/>
+      <c r="DQ2" s="122"/>
+      <c r="DR2" s="122"/>
+      <c r="DS2" s="122"/>
+      <c r="DT2" s="122"/>
+      <c r="DU2" s="122"/>
+      <c r="DV2" s="122"/>
+      <c r="DW2" s="122"/>
+      <c r="DX2" s="122"/>
+      <c r="DY2" s="122"/>
+      <c r="DZ2" s="122"/>
+      <c r="EA2" s="122"/>
+      <c r="EB2" s="122"/>
+      <c r="EC2" s="122"/>
+      <c r="ED2" s="122"/>
+      <c r="EE2" s="122"/>
+      <c r="EF2" s="122"/>
+      <c r="EG2" s="122"/>
+      <c r="EH2" s="123"/>
+      <c r="EI2" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="EJ2" s="113"/>
-      <c r="EK2" s="113"/>
-      <c r="EL2" s="113"/>
-      <c r="EM2" s="113"/>
-      <c r="EN2" s="113"/>
-      <c r="EO2" s="113"/>
-      <c r="EP2" s="113"/>
-      <c r="EQ2" s="113"/>
-      <c r="ER2" s="113"/>
-      <c r="ES2" s="113"/>
-      <c r="ET2" s="113"/>
-      <c r="EU2" s="113"/>
-      <c r="EV2" s="113"/>
-      <c r="EW2" s="113"/>
-      <c r="EX2" s="113"/>
-      <c r="EY2" s="113"/>
-      <c r="EZ2" s="113"/>
-      <c r="FA2" s="113"/>
-      <c r="FB2" s="113"/>
-      <c r="FC2" s="113"/>
-      <c r="FD2" s="113"/>
-      <c r="FE2" s="113"/>
-      <c r="FF2" s="113"/>
-      <c r="FG2" s="113"/>
-      <c r="FH2" s="113"/>
-      <c r="FI2" s="114"/>
-      <c r="FJ2" s="112" t="s">
+      <c r="EJ2" s="122"/>
+      <c r="EK2" s="122"/>
+      <c r="EL2" s="122"/>
+      <c r="EM2" s="122"/>
+      <c r="EN2" s="122"/>
+      <c r="EO2" s="122"/>
+      <c r="EP2" s="122"/>
+      <c r="EQ2" s="122"/>
+      <c r="ER2" s="122"/>
+      <c r="ES2" s="122"/>
+      <c r="ET2" s="122"/>
+      <c r="EU2" s="122"/>
+      <c r="EV2" s="122"/>
+      <c r="EW2" s="122"/>
+      <c r="EX2" s="122"/>
+      <c r="EY2" s="122"/>
+      <c r="EZ2" s="122"/>
+      <c r="FA2" s="122"/>
+      <c r="FB2" s="122"/>
+      <c r="FC2" s="122"/>
+      <c r="FD2" s="122"/>
+      <c r="FE2" s="122"/>
+      <c r="FF2" s="122"/>
+      <c r="FG2" s="122"/>
+      <c r="FH2" s="122"/>
+      <c r="FI2" s="123"/>
+      <c r="FJ2" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="FK2" s="113"/>
-      <c r="FL2" s="113"/>
-      <c r="FM2" s="113"/>
-      <c r="FN2" s="113"/>
-      <c r="FO2" s="113"/>
-      <c r="FP2" s="113"/>
-      <c r="FQ2" s="113"/>
-      <c r="FR2" s="113"/>
-      <c r="FS2" s="113"/>
-      <c r="FT2" s="113"/>
-      <c r="FU2" s="113"/>
-      <c r="FV2" s="113"/>
-      <c r="FW2" s="113"/>
-      <c r="FX2" s="113"/>
-      <c r="FY2" s="113"/>
-      <c r="FZ2" s="113"/>
-      <c r="GA2" s="113"/>
-      <c r="GB2" s="113"/>
-      <c r="GC2" s="113"/>
-      <c r="GD2" s="113"/>
-      <c r="GE2" s="113"/>
-      <c r="GF2" s="113"/>
-      <c r="GG2" s="113"/>
-      <c r="GH2" s="113"/>
-      <c r="GI2" s="113"/>
-      <c r="GJ2" s="114"/>
-      <c r="GK2" s="112" t="s">
+      <c r="FK2" s="122"/>
+      <c r="FL2" s="122"/>
+      <c r="FM2" s="122"/>
+      <c r="FN2" s="122"/>
+      <c r="FO2" s="122"/>
+      <c r="FP2" s="122"/>
+      <c r="FQ2" s="122"/>
+      <c r="FR2" s="122"/>
+      <c r="FS2" s="122"/>
+      <c r="FT2" s="122"/>
+      <c r="FU2" s="122"/>
+      <c r="FV2" s="122"/>
+      <c r="FW2" s="122"/>
+      <c r="FX2" s="122"/>
+      <c r="FY2" s="122"/>
+      <c r="FZ2" s="122"/>
+      <c r="GA2" s="122"/>
+      <c r="GB2" s="122"/>
+      <c r="GC2" s="122"/>
+      <c r="GD2" s="122"/>
+      <c r="GE2" s="122"/>
+      <c r="GF2" s="122"/>
+      <c r="GG2" s="122"/>
+      <c r="GH2" s="122"/>
+      <c r="GI2" s="122"/>
+      <c r="GJ2" s="123"/>
+      <c r="GK2" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="GL2" s="113"/>
-      <c r="GM2" s="113"/>
-      <c r="GN2" s="113"/>
-      <c r="GO2" s="113"/>
-      <c r="GP2" s="113"/>
-      <c r="GQ2" s="113"/>
-      <c r="GR2" s="113"/>
-      <c r="GS2" s="113"/>
-      <c r="GT2" s="113"/>
-      <c r="GU2" s="113"/>
-      <c r="GV2" s="113"/>
-      <c r="GW2" s="113"/>
-      <c r="GX2" s="113"/>
-      <c r="GY2" s="113"/>
-      <c r="GZ2" s="113"/>
-      <c r="HA2" s="113"/>
-      <c r="HB2" s="113"/>
-      <c r="HC2" s="113"/>
-      <c r="HD2" s="113"/>
-      <c r="HE2" s="113"/>
-      <c r="HF2" s="113"/>
-      <c r="HG2" s="113"/>
-      <c r="HH2" s="113"/>
-      <c r="HI2" s="113"/>
-      <c r="HJ2" s="113"/>
-      <c r="HK2" s="114"/>
-      <c r="HL2" s="112" t="s">
+      <c r="GL2" s="122"/>
+      <c r="GM2" s="122"/>
+      <c r="GN2" s="122"/>
+      <c r="GO2" s="122"/>
+      <c r="GP2" s="122"/>
+      <c r="GQ2" s="122"/>
+      <c r="GR2" s="122"/>
+      <c r="GS2" s="122"/>
+      <c r="GT2" s="122"/>
+      <c r="GU2" s="122"/>
+      <c r="GV2" s="122"/>
+      <c r="GW2" s="122"/>
+      <c r="GX2" s="122"/>
+      <c r="GY2" s="122"/>
+      <c r="GZ2" s="122"/>
+      <c r="HA2" s="122"/>
+      <c r="HB2" s="122"/>
+      <c r="HC2" s="122"/>
+      <c r="HD2" s="122"/>
+      <c r="HE2" s="122"/>
+      <c r="HF2" s="122"/>
+      <c r="HG2" s="122"/>
+      <c r="HH2" s="122"/>
+      <c r="HI2" s="122"/>
+      <c r="HJ2" s="122"/>
+      <c r="HK2" s="123"/>
+      <c r="HL2" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="HM2" s="113"/>
-      <c r="HN2" s="113"/>
-      <c r="HO2" s="113"/>
-      <c r="HP2" s="113"/>
-      <c r="HQ2" s="113"/>
-      <c r="HR2" s="113"/>
-      <c r="HS2" s="113"/>
-      <c r="HT2" s="113"/>
-      <c r="HU2" s="113"/>
-      <c r="HV2" s="113"/>
-      <c r="HW2" s="113"/>
-      <c r="HX2" s="113"/>
-      <c r="HY2" s="113"/>
-      <c r="HZ2" s="113"/>
-      <c r="IA2" s="113"/>
-      <c r="IB2" s="113"/>
-      <c r="IC2" s="113"/>
-      <c r="ID2" s="113"/>
-      <c r="IE2" s="113"/>
-      <c r="IF2" s="113"/>
-      <c r="IG2" s="113"/>
-      <c r="IH2" s="113"/>
-      <c r="II2" s="113"/>
-      <c r="IJ2" s="113"/>
-      <c r="IK2" s="113"/>
-      <c r="IL2" s="114"/>
-      <c r="IM2" s="112" t="s">
+      <c r="HM2" s="122"/>
+      <c r="HN2" s="122"/>
+      <c r="HO2" s="122"/>
+      <c r="HP2" s="122"/>
+      <c r="HQ2" s="122"/>
+      <c r="HR2" s="122"/>
+      <c r="HS2" s="122"/>
+      <c r="HT2" s="122"/>
+      <c r="HU2" s="122"/>
+      <c r="HV2" s="122"/>
+      <c r="HW2" s="122"/>
+      <c r="HX2" s="122"/>
+      <c r="HY2" s="122"/>
+      <c r="HZ2" s="122"/>
+      <c r="IA2" s="122"/>
+      <c r="IB2" s="122"/>
+      <c r="IC2" s="122"/>
+      <c r="ID2" s="122"/>
+      <c r="IE2" s="122"/>
+      <c r="IF2" s="122"/>
+      <c r="IG2" s="122"/>
+      <c r="IH2" s="122"/>
+      <c r="II2" s="122"/>
+      <c r="IJ2" s="122"/>
+      <c r="IK2" s="122"/>
+      <c r="IL2" s="123"/>
+      <c r="IM2" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="IN2" s="113"/>
-      <c r="IO2" s="113"/>
-      <c r="IP2" s="113"/>
-      <c r="IQ2" s="113"/>
-      <c r="IR2" s="113"/>
-      <c r="IS2" s="113"/>
-      <c r="IT2" s="113"/>
-      <c r="IU2" s="113"/>
-      <c r="IV2" s="113"/>
-      <c r="IW2" s="113"/>
-      <c r="IX2" s="113"/>
-      <c r="IY2" s="113"/>
-      <c r="IZ2" s="113"/>
-      <c r="JA2" s="113"/>
-      <c r="JB2" s="113"/>
-      <c r="JC2" s="113"/>
-      <c r="JD2" s="113"/>
-      <c r="JE2" s="113"/>
-      <c r="JF2" s="113"/>
-      <c r="JG2" s="113"/>
-      <c r="JH2" s="113"/>
-      <c r="JI2" s="113"/>
-      <c r="JJ2" s="113"/>
-      <c r="JK2" s="113"/>
-      <c r="JL2" s="113"/>
-      <c r="JM2" s="114"/>
-      <c r="JN2" s="112" t="s">
+      <c r="IN2" s="122"/>
+      <c r="IO2" s="122"/>
+      <c r="IP2" s="122"/>
+      <c r="IQ2" s="122"/>
+      <c r="IR2" s="122"/>
+      <c r="IS2" s="122"/>
+      <c r="IT2" s="122"/>
+      <c r="IU2" s="122"/>
+      <c r="IV2" s="122"/>
+      <c r="IW2" s="122"/>
+      <c r="IX2" s="122"/>
+      <c r="IY2" s="122"/>
+      <c r="IZ2" s="122"/>
+      <c r="JA2" s="122"/>
+      <c r="JB2" s="122"/>
+      <c r="JC2" s="122"/>
+      <c r="JD2" s="122"/>
+      <c r="JE2" s="122"/>
+      <c r="JF2" s="122"/>
+      <c r="JG2" s="122"/>
+      <c r="JH2" s="122"/>
+      <c r="JI2" s="122"/>
+      <c r="JJ2" s="122"/>
+      <c r="JK2" s="122"/>
+      <c r="JL2" s="122"/>
+      <c r="JM2" s="123"/>
+      <c r="JN2" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="JO2" s="113"/>
-      <c r="JP2" s="113"/>
-      <c r="JQ2" s="113"/>
-      <c r="JR2" s="113"/>
-      <c r="JS2" s="113"/>
-      <c r="JT2" s="113"/>
-      <c r="JU2" s="113"/>
-      <c r="JV2" s="113"/>
-      <c r="JW2" s="113"/>
-      <c r="JX2" s="113"/>
-      <c r="JY2" s="113"/>
-      <c r="JZ2" s="113"/>
-      <c r="KA2" s="113"/>
-      <c r="KB2" s="113"/>
-      <c r="KC2" s="113"/>
-      <c r="KD2" s="113"/>
-      <c r="KE2" s="113"/>
-      <c r="KF2" s="113"/>
-      <c r="KG2" s="113"/>
-      <c r="KH2" s="113"/>
-      <c r="KI2" s="113"/>
-      <c r="KJ2" s="113"/>
-      <c r="KK2" s="113"/>
-      <c r="KL2" s="113"/>
-      <c r="KM2" s="113"/>
-      <c r="KN2" s="114"/>
-      <c r="KO2" s="112" t="s">
+      <c r="JO2" s="122"/>
+      <c r="JP2" s="122"/>
+      <c r="JQ2" s="122"/>
+      <c r="JR2" s="122"/>
+      <c r="JS2" s="122"/>
+      <c r="JT2" s="122"/>
+      <c r="JU2" s="122"/>
+      <c r="JV2" s="122"/>
+      <c r="JW2" s="122"/>
+      <c r="JX2" s="122"/>
+      <c r="JY2" s="122"/>
+      <c r="JZ2" s="122"/>
+      <c r="KA2" s="122"/>
+      <c r="KB2" s="122"/>
+      <c r="KC2" s="122"/>
+      <c r="KD2" s="122"/>
+      <c r="KE2" s="122"/>
+      <c r="KF2" s="122"/>
+      <c r="KG2" s="122"/>
+      <c r="KH2" s="122"/>
+      <c r="KI2" s="122"/>
+      <c r="KJ2" s="122"/>
+      <c r="KK2" s="122"/>
+      <c r="KL2" s="122"/>
+      <c r="KM2" s="122"/>
+      <c r="KN2" s="123"/>
+      <c r="KO2" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="KP2" s="113"/>
-      <c r="KQ2" s="113"/>
-      <c r="KR2" s="113"/>
-      <c r="KS2" s="113"/>
-      <c r="KT2" s="113"/>
-      <c r="KU2" s="113"/>
-      <c r="KV2" s="113"/>
-      <c r="KW2" s="113"/>
-      <c r="KX2" s="113"/>
-      <c r="KY2" s="113"/>
-      <c r="KZ2" s="113"/>
-      <c r="LA2" s="113"/>
-      <c r="LB2" s="113"/>
-      <c r="LC2" s="113"/>
-      <c r="LD2" s="113"/>
-      <c r="LE2" s="113"/>
-      <c r="LF2" s="113"/>
-      <c r="LG2" s="113"/>
-      <c r="LH2" s="113"/>
-      <c r="LI2" s="113"/>
-      <c r="LJ2" s="113"/>
-      <c r="LK2" s="113"/>
-      <c r="LL2" s="113"/>
-      <c r="LM2" s="113"/>
-      <c r="LN2" s="113"/>
-      <c r="LO2" s="114"/>
-      <c r="LP2" s="112" t="s">
+      <c r="KP2" s="122"/>
+      <c r="KQ2" s="122"/>
+      <c r="KR2" s="122"/>
+      <c r="KS2" s="122"/>
+      <c r="KT2" s="122"/>
+      <c r="KU2" s="122"/>
+      <c r="KV2" s="122"/>
+      <c r="KW2" s="122"/>
+      <c r="KX2" s="122"/>
+      <c r="KY2" s="122"/>
+      <c r="KZ2" s="122"/>
+      <c r="LA2" s="122"/>
+      <c r="LB2" s="122"/>
+      <c r="LC2" s="122"/>
+      <c r="LD2" s="122"/>
+      <c r="LE2" s="122"/>
+      <c r="LF2" s="122"/>
+      <c r="LG2" s="122"/>
+      <c r="LH2" s="122"/>
+      <c r="LI2" s="122"/>
+      <c r="LJ2" s="122"/>
+      <c r="LK2" s="122"/>
+      <c r="LL2" s="122"/>
+      <c r="LM2" s="122"/>
+      <c r="LN2" s="122"/>
+      <c r="LO2" s="123"/>
+      <c r="LP2" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="LQ2" s="113"/>
-      <c r="LR2" s="113"/>
-      <c r="LS2" s="113"/>
-      <c r="LT2" s="113"/>
-      <c r="LU2" s="113"/>
-      <c r="LV2" s="113"/>
-      <c r="LW2" s="113"/>
-      <c r="LX2" s="113"/>
-      <c r="LY2" s="113"/>
-      <c r="LZ2" s="113"/>
-      <c r="MA2" s="113"/>
-      <c r="MB2" s="113"/>
-      <c r="MC2" s="113"/>
-      <c r="MD2" s="113"/>
-      <c r="ME2" s="113"/>
-      <c r="MF2" s="113"/>
-      <c r="MG2" s="113"/>
-      <c r="MH2" s="113"/>
-      <c r="MI2" s="113"/>
-      <c r="MJ2" s="113"/>
-      <c r="MK2" s="113"/>
-      <c r="ML2" s="113"/>
-      <c r="MM2" s="113"/>
-      <c r="MN2" s="113"/>
-      <c r="MO2" s="113"/>
-      <c r="MP2" s="114"/>
-      <c r="MQ2" s="112" t="s">
+      <c r="LQ2" s="122"/>
+      <c r="LR2" s="122"/>
+      <c r="LS2" s="122"/>
+      <c r="LT2" s="122"/>
+      <c r="LU2" s="122"/>
+      <c r="LV2" s="122"/>
+      <c r="LW2" s="122"/>
+      <c r="LX2" s="122"/>
+      <c r="LY2" s="122"/>
+      <c r="LZ2" s="122"/>
+      <c r="MA2" s="122"/>
+      <c r="MB2" s="122"/>
+      <c r="MC2" s="122"/>
+      <c r="MD2" s="122"/>
+      <c r="ME2" s="122"/>
+      <c r="MF2" s="122"/>
+      <c r="MG2" s="122"/>
+      <c r="MH2" s="122"/>
+      <c r="MI2" s="122"/>
+      <c r="MJ2" s="122"/>
+      <c r="MK2" s="122"/>
+      <c r="ML2" s="122"/>
+      <c r="MM2" s="122"/>
+      <c r="MN2" s="122"/>
+      <c r="MO2" s="122"/>
+      <c r="MP2" s="123"/>
+      <c r="MQ2" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="MR2" s="113"/>
-      <c r="MS2" s="113"/>
-      <c r="MT2" s="113"/>
-      <c r="MU2" s="113"/>
-      <c r="MV2" s="113"/>
-      <c r="MW2" s="113"/>
-      <c r="MX2" s="113"/>
-      <c r="MY2" s="113"/>
-      <c r="MZ2" s="113"/>
-      <c r="NA2" s="113"/>
-      <c r="NB2" s="113"/>
-      <c r="NC2" s="113"/>
-      <c r="ND2" s="113"/>
-      <c r="NE2" s="113"/>
-      <c r="NF2" s="113"/>
-      <c r="NG2" s="113"/>
-      <c r="NH2" s="113"/>
-      <c r="NI2" s="113"/>
-      <c r="NJ2" s="113"/>
-      <c r="NK2" s="113"/>
-      <c r="NL2" s="113"/>
-      <c r="NM2" s="113"/>
-      <c r="NN2" s="113"/>
-      <c r="NO2" s="113"/>
-      <c r="NP2" s="113"/>
-      <c r="NQ2" s="114"/>
-      <c r="NR2" s="112" t="s">
+      <c r="MR2" s="122"/>
+      <c r="MS2" s="122"/>
+      <c r="MT2" s="122"/>
+      <c r="MU2" s="122"/>
+      <c r="MV2" s="122"/>
+      <c r="MW2" s="122"/>
+      <c r="MX2" s="122"/>
+      <c r="MY2" s="122"/>
+      <c r="MZ2" s="122"/>
+      <c r="NA2" s="122"/>
+      <c r="NB2" s="122"/>
+      <c r="NC2" s="122"/>
+      <c r="ND2" s="122"/>
+      <c r="NE2" s="122"/>
+      <c r="NF2" s="122"/>
+      <c r="NG2" s="122"/>
+      <c r="NH2" s="122"/>
+      <c r="NI2" s="122"/>
+      <c r="NJ2" s="122"/>
+      <c r="NK2" s="122"/>
+      <c r="NL2" s="122"/>
+      <c r="NM2" s="122"/>
+      <c r="NN2" s="122"/>
+      <c r="NO2" s="122"/>
+      <c r="NP2" s="122"/>
+      <c r="NQ2" s="123"/>
+      <c r="NR2" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="NS2" s="113"/>
-      <c r="NT2" s="113"/>
-      <c r="NU2" s="113"/>
-      <c r="NV2" s="113"/>
-      <c r="NW2" s="113"/>
-      <c r="NX2" s="113"/>
-      <c r="NY2" s="113"/>
-      <c r="NZ2" s="113"/>
-      <c r="OA2" s="113"/>
-      <c r="OB2" s="113"/>
-      <c r="OC2" s="113"/>
-      <c r="OD2" s="113"/>
-      <c r="OE2" s="113"/>
-      <c r="OF2" s="113"/>
-      <c r="OG2" s="113"/>
-      <c r="OH2" s="113"/>
-      <c r="OI2" s="113"/>
-      <c r="OJ2" s="113"/>
-      <c r="OK2" s="113"/>
-      <c r="OL2" s="113"/>
-      <c r="OM2" s="113"/>
-      <c r="ON2" s="113"/>
-      <c r="OO2" s="113"/>
-      <c r="OP2" s="113"/>
-      <c r="OQ2" s="113"/>
-      <c r="OR2" s="114"/>
-      <c r="OS2" s="112" t="s">
+      <c r="NS2" s="122"/>
+      <c r="NT2" s="122"/>
+      <c r="NU2" s="122"/>
+      <c r="NV2" s="122"/>
+      <c r="NW2" s="122"/>
+      <c r="NX2" s="122"/>
+      <c r="NY2" s="122"/>
+      <c r="NZ2" s="122"/>
+      <c r="OA2" s="122"/>
+      <c r="OB2" s="122"/>
+      <c r="OC2" s="122"/>
+      <c r="OD2" s="122"/>
+      <c r="OE2" s="122"/>
+      <c r="OF2" s="122"/>
+      <c r="OG2" s="122"/>
+      <c r="OH2" s="122"/>
+      <c r="OI2" s="122"/>
+      <c r="OJ2" s="122"/>
+      <c r="OK2" s="122"/>
+      <c r="OL2" s="122"/>
+      <c r="OM2" s="122"/>
+      <c r="ON2" s="122"/>
+      <c r="OO2" s="122"/>
+      <c r="OP2" s="122"/>
+      <c r="OQ2" s="122"/>
+      <c r="OR2" s="123"/>
+      <c r="OS2" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="OT2" s="113"/>
-      <c r="OU2" s="113"/>
-      <c r="OV2" s="113"/>
-      <c r="OW2" s="113"/>
-      <c r="OX2" s="113"/>
-      <c r="OY2" s="113"/>
-      <c r="OZ2" s="113"/>
-      <c r="PA2" s="113"/>
-      <c r="PB2" s="113"/>
-      <c r="PC2" s="113"/>
-      <c r="PD2" s="113"/>
-      <c r="PE2" s="113"/>
-      <c r="PF2" s="113"/>
-      <c r="PG2" s="113"/>
-      <c r="PH2" s="113"/>
-      <c r="PI2" s="113"/>
-      <c r="PJ2" s="113"/>
-      <c r="PK2" s="113"/>
-      <c r="PL2" s="113"/>
-      <c r="PM2" s="113"/>
-      <c r="PN2" s="113"/>
-      <c r="PO2" s="113"/>
-      <c r="PP2" s="113"/>
-      <c r="PQ2" s="113"/>
-      <c r="PR2" s="113"/>
-      <c r="PS2" s="114"/>
+      <c r="OT2" s="122"/>
+      <c r="OU2" s="122"/>
+      <c r="OV2" s="122"/>
+      <c r="OW2" s="122"/>
+      <c r="OX2" s="122"/>
+      <c r="OY2" s="122"/>
+      <c r="OZ2" s="122"/>
+      <c r="PA2" s="122"/>
+      <c r="PB2" s="122"/>
+      <c r="PC2" s="122"/>
+      <c r="PD2" s="122"/>
+      <c r="PE2" s="122"/>
+      <c r="PF2" s="122"/>
+      <c r="PG2" s="122"/>
+      <c r="PH2" s="122"/>
+      <c r="PI2" s="122"/>
+      <c r="PJ2" s="122"/>
+      <c r="PK2" s="122"/>
+      <c r="PL2" s="122"/>
+      <c r="PM2" s="122"/>
+      <c r="PN2" s="122"/>
+      <c r="PO2" s="122"/>
+      <c r="PP2" s="122"/>
+      <c r="PQ2" s="122"/>
+      <c r="PR2" s="122"/>
+      <c r="PS2" s="123"/>
     </row>
     <row r="3" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="85"/>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="126" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="30">
@@ -4170,7 +4291,7 @@
     </row>
     <row r="4" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="85"/>
-      <c r="B4" s="116"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="44">
         <v>0</v>
       </c>
@@ -4608,7 +4729,7 @@
       <c r="PS4" s="95"/>
     </row>
     <row r="5" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="117" t="str">
+      <c r="B5" s="128" t="str">
         <f>Donnees!$C$21</f>
         <v>Rédaction CDC</v>
       </c>
@@ -5049,7 +5170,7 @@
       <c r="PS5" s="90"/>
     </row>
     <row r="6" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="111"/>
+      <c r="B6" s="125"/>
       <c r="C6" s="97">
         <v>0</v>
       </c>
@@ -5487,7 +5608,7 @@
       <c r="PS6" s="95"/>
     </row>
     <row r="7" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="110" t="str">
+      <c r="B7" s="124" t="str">
         <f>Donnees!$C$22</f>
         <v>Mise en place Trello</v>
       </c>
@@ -5928,7 +6049,7 @@
       <c r="PS7" s="90"/>
     </row>
     <row r="8" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="111"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="97">
         <v>0</v>
       </c>
@@ -6366,7 +6487,7 @@
       <c r="PS8" s="95"/>
     </row>
     <row r="9" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="110" t="str">
+      <c r="B9" s="124" t="str">
         <f>Donnees!$C$23</f>
         <v>Mise en place GitKraken</v>
       </c>
@@ -6807,7 +6928,7 @@
       <c r="PS9" s="90"/>
     </row>
     <row r="10" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="111"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="97">
         <v>0</v>
       </c>
@@ -7245,7 +7366,7 @@
       <c r="PS10" s="95"/>
     </row>
     <row r="11" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="110" t="str">
+      <c r="B11" s="124" t="str">
         <f>Donnees!$C$24</f>
         <v>Mise à jour Trello</v>
       </c>
@@ -7686,7 +7807,7 @@
       <c r="PS11" s="90"/>
     </row>
     <row r="12" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="111"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="97">
         <v>0</v>
       </c>
@@ -8124,7 +8245,7 @@
       <c r="PS12" s="95"/>
     </row>
     <row r="13" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="110" t="str">
+      <c r="B13" s="124" t="str">
         <f>Donnees!$C$25</f>
         <v>Mise à jour GitKraken</v>
       </c>
@@ -8565,7 +8686,7 @@
       <c r="PS13" s="90"/>
     </row>
     <row r="14" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="111"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="97">
         <v>0</v>
       </c>
@@ -9003,7 +9124,7 @@
       <c r="PS14" s="95"/>
     </row>
     <row r="15" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="110" t="str">
+      <c r="B15" s="124" t="str">
         <f>Donnees!$C$26</f>
         <v>Recherches</v>
       </c>
@@ -9445,7 +9566,7 @@
     </row>
     <row r="16" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="104"/>
-      <c r="B16" s="111"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="97">
         <v>0</v>
       </c>
@@ -9883,7 +10004,7 @@
       <c r="PS16" s="95"/>
     </row>
     <row r="17" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="110" t="str">
+      <c r="B17" s="124" t="str">
         <f>Donnees!$C$27</f>
         <v>Création plannif + JDT</v>
       </c>
@@ -10324,7 +10445,7 @@
       <c r="PS17" s="90"/>
     </row>
     <row r="18" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="111"/>
+      <c r="B18" s="125"/>
       <c r="C18" s="97">
         <v>0</v>
       </c>
@@ -10762,7 +10883,7 @@
       <c r="PS18" s="95"/>
     </row>
     <row r="19" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="110" t="str">
+      <c r="B19" s="124" t="str">
         <f>Donnees!$C$28</f>
         <v>Mise à jour du JDT</v>
       </c>
@@ -11203,7 +11324,7 @@
       <c r="PS19" s="90"/>
     </row>
     <row r="20" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="111"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="97">
         <v>0</v>
       </c>
@@ -11641,7 +11762,7 @@
       <c r="PS20" s="95"/>
     </row>
     <row r="21" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="110" t="str">
+      <c r="B21" s="124" t="str">
         <f>Donnees!$C$29</f>
         <v>Daily Scrum</v>
       </c>
@@ -12082,7 +12203,7 @@
       <c r="PS21" s="90"/>
     </row>
     <row r="22" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="111"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="97">
         <v>0</v>
       </c>
@@ -12520,7 +12641,7 @@
       <c r="PS22" s="95"/>
     </row>
     <row r="23" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="110" t="str">
+      <c r="B23" s="124" t="str">
         <f>Donnees!$C$30</f>
         <v>HTML</v>
       </c>
@@ -12961,7 +13082,7 @@
       <c r="PS23" s="90"/>
     </row>
     <row r="24" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="111"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="97">
         <v>0</v>
       </c>
@@ -13399,7 +13520,7 @@
       <c r="PS24" s="95"/>
     </row>
     <row r="25" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="110" t="str">
+      <c r="B25" s="124" t="str">
         <f>Donnees!$C$31</f>
         <v>Base de donnée</v>
       </c>
@@ -13840,7 +13961,7 @@
       <c r="PS25" s="90"/>
     </row>
     <row r="26" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="111"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="97">
         <v>0</v>
       </c>
@@ -14278,7 +14399,7 @@
       <c r="PS26" s="95"/>
     </row>
     <row r="27" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="110" t="str">
+      <c r="B27" s="124" t="str">
         <f>Donnees!$C$32</f>
         <v>PHP</v>
       </c>
@@ -14719,7 +14840,7 @@
       <c r="PS27" s="90"/>
     </row>
     <row r="28" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="111"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="97">
         <v>0</v>
       </c>
@@ -15157,7 +15278,7 @@
       <c r="PS28" s="95"/>
     </row>
     <row r="29" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="110" t="str">
+      <c r="B29" s="124" t="str">
         <f>Donnees!$C$33</f>
         <v>Typo3</v>
       </c>
@@ -15598,7 +15719,7 @@
       <c r="PS29" s="90"/>
     </row>
     <row r="30" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="111"/>
+      <c r="B30" s="125"/>
       <c r="C30" s="97">
         <v>0</v>
       </c>
@@ -16036,7 +16157,7 @@
       <c r="PS30" s="95"/>
     </row>
     <row r="31" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="110" t="str">
+      <c r="B31" s="124" t="str">
         <f>Donnees!$C$34</f>
         <v>Création jeu flash</v>
       </c>
@@ -16477,7 +16598,7 @@
       <c r="PS31" s="90"/>
     </row>
     <row r="32" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="111"/>
+      <c r="B32" s="125"/>
       <c r="C32" s="97">
         <v>0</v>
       </c>
@@ -17799,13 +17920,14 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" selectLockedCells="1"/>
   <mergeCells count="31">
-    <mergeCell ref="OS2:PS2"/>
-    <mergeCell ref="IM2:JM2"/>
-    <mergeCell ref="JN2:KN2"/>
-    <mergeCell ref="KO2:LO2"/>
-    <mergeCell ref="LP2:MP2"/>
-    <mergeCell ref="MQ2:NQ2"/>
-    <mergeCell ref="NR2:OR2"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="HL2:IL2"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="CG2:DG2"/>
+    <mergeCell ref="DH2:EH2"/>
+    <mergeCell ref="EI2:FI2"/>
+    <mergeCell ref="FJ2:GJ2"/>
+    <mergeCell ref="GK2:HK2"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="D2:AD2"/>
@@ -17822,14 +17944,13 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="HL2:IL2"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="CG2:DG2"/>
-    <mergeCell ref="DH2:EH2"/>
-    <mergeCell ref="EI2:FI2"/>
-    <mergeCell ref="FJ2:GJ2"/>
-    <mergeCell ref="GK2:HK2"/>
+    <mergeCell ref="OS2:PS2"/>
+    <mergeCell ref="IM2:JM2"/>
+    <mergeCell ref="JN2:KN2"/>
+    <mergeCell ref="KO2:LO2"/>
+    <mergeCell ref="LP2:MP2"/>
+    <mergeCell ref="MQ2:NQ2"/>
+    <mergeCell ref="NR2:OR2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="DureeTropLongue" error="Cette durée est invalide: ce n'est pas un chiffre entier positif ou elle dépasse la &quot;Durée totale&quot; définie plus haut ..." sqref="C33">
@@ -17879,7 +18000,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="126" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="30">
@@ -17888,7 +18009,7 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
-      <c r="B4" s="118"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="44">
         <v>0</v>
       </c>
@@ -20496,10 +20617,10 @@
   <sheetPr codeName="Feuil9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I305"/>
+  <dimension ref="A1:I306"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20755,7 +20876,7 @@
       <c r="C27" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="119" t="s">
+      <c r="D27" s="108" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="37"/>
@@ -20774,7 +20895,7 @@
       <c r="C28" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="119" t="s">
+      <c r="D28" s="108" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="37"/>
@@ -20791,7 +20912,7 @@
       <c r="C29" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="119" t="s">
+      <c r="D29" s="108" t="s">
         <v>69</v>
       </c>
       <c r="E29" s="37"/>
@@ -20808,7 +20929,7 @@
       <c r="C30" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="119" t="s">
+      <c r="D30" s="108" t="s">
         <v>72</v>
       </c>
       <c r="E30" s="37"/>
@@ -20952,51 +21073,107 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-    </row>
-    <row r="42" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-    </row>
-    <row r="43" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="A41" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="8">
+        <v>1</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="109" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="6">
+        <v>5</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="108" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+      <c r="A43" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="111">
+        <v>9</v>
+      </c>
+      <c r="C43" s="112" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="108" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="14"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="115" t="s">
+        <v>78</v>
+      </c>
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+    <row r="45" spans="1:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="A45" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="117">
+        <v>4</v>
+      </c>
+      <c r="C45" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="108" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="6">
+        <v>6</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="108" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="108" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="14"/>
+      <c r="A48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
@@ -21006,7 +21183,7 @@
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -21024,10 +21201,10 @@
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="79"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A54" s="79"/>
@@ -21035,70 +21212,70 @@
       <c r="C54" s="80"/>
       <c r="D54" s="80"/>
     </row>
-    <row r="55" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
+    <row r="55" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="79"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
     </row>
     <row r="56" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="76" t="s">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="76">
-        <f>SUM(B41:B55)</f>
-        <v>0</v>
-      </c>
-      <c r="C56" s="107" t="s">
+      <c r="B57" s="76">
+        <f>SUM(B41:B56)</f>
+        <v>27</v>
+      </c>
+      <c r="C57" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="77"/>
-    </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="78"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-    </row>
-    <row r="58" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="71" t="s">
+      <c r="D57" s="77"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="78"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+    </row>
+    <row r="59" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="72">
+      <c r="B59" s="72">
         <v>4</v>
       </c>
-      <c r="C58" s="73" t="s">
+      <c r="C59" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="82">
-        <v>42905</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="74" t="s">
+      <c r="D59" s="82">
+        <v>42888</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="75" t="s">
+      <c r="B60" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="74" t="s">
+      <c r="C60" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="74" t="s">
+      <c r="D60" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-    </row>
     <row r="61" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
@@ -21143,7 +21320,7 @@
       <c r="D68" s="14"/>
     </row>
     <row r="69" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
+      <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
@@ -21161,10 +21338,10 @@
       <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="79"/>
-      <c r="B72" s="79"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A73" s="79"/>
@@ -21172,70 +21349,70 @@
       <c r="C73" s="80"/>
       <c r="D73" s="80"/>
     </row>
-    <row r="74" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
+    <row r="74" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="79"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="80"/>
     </row>
     <row r="75" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="76" t="s">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+    </row>
+    <row r="76" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="76">
-        <f>SUM(B60:B74)</f>
+      <c r="B76" s="76">
+        <f>SUM(B61:B75)</f>
         <v>0</v>
       </c>
-      <c r="C75" s="107" t="s">
+      <c r="C76" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="77"/>
-    </row>
-    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="78"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="78"/>
-    </row>
-    <row r="77" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="71" t="s">
+      <c r="D76" s="77"/>
+    </row>
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="78"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="78"/>
+    </row>
+    <row r="78" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="72">
+      <c r="B78" s="72">
         <v>5</v>
       </c>
-      <c r="C77" s="73" t="s">
+      <c r="C78" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D77" s="82">
+      <c r="D78" s="82">
         <v>42912</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="74" t="s">
+    <row r="79" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="75" t="s">
+      <c r="B79" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="74" t="s">
+      <c r="C79" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="74" t="s">
+      <c r="D79" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-    </row>
     <row r="80" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
     </row>
     <row r="81" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
@@ -21280,7 +21457,7 @@
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="6"/>
+      <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
@@ -21298,10 +21475,10 @@
       <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="79"/>
-      <c r="B91" s="79"/>
-      <c r="C91" s="80"/>
-      <c r="D91" s="80"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A92" s="79"/>
@@ -21309,70 +21486,70 @@
       <c r="C92" s="80"/>
       <c r="D92" s="80"/>
     </row>
-    <row r="93" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
+    <row r="93" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="79"/>
+      <c r="B93" s="79"/>
+      <c r="C93" s="80"/>
+      <c r="D93" s="80"/>
     </row>
     <row r="94" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="76" t="s">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+    </row>
+    <row r="95" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B94" s="76">
-        <f>SUM(B79:B93)</f>
+      <c r="B95" s="76">
+        <f>SUM(B80:B94)</f>
         <v>0</v>
       </c>
-      <c r="C94" s="107" t="s">
+      <c r="C95" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D94" s="77"/>
-    </row>
-    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="78"/>
-      <c r="B95" s="78"/>
-      <c r="C95" s="78"/>
-      <c r="D95" s="78"/>
-    </row>
-    <row r="96" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="71" t="s">
+      <c r="D95" s="77"/>
+    </row>
+    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="78"/>
+      <c r="B96" s="78"/>
+      <c r="C96" s="78"/>
+      <c r="D96" s="78"/>
+    </row>
+    <row r="97" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="72">
+      <c r="B97" s="72">
         <v>6</v>
       </c>
-      <c r="C96" s="73" t="s">
+      <c r="C97" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D96" s="82">
+      <c r="D97" s="82">
         <v>42919</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="74" t="s">
+    <row r="98" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="75" t="s">
+      <c r="B98" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="74" t="s">
+      <c r="C98" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="74" t="s">
+      <c r="D98" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-    </row>
     <row r="99" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
     </row>
     <row r="100" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
@@ -21417,7 +21594,7 @@
       <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="6"/>
+      <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="14"/>
       <c r="D107" s="14"/>
@@ -21435,10 +21612,10 @@
       <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="79"/>
-      <c r="B110" s="79"/>
-      <c r="C110" s="80"/>
-      <c r="D110" s="80"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A111" s="79"/>
@@ -21446,70 +21623,70 @@
       <c r="C111" s="80"/>
       <c r="D111" s="80"/>
     </row>
-    <row r="112" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
+    <row r="112" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="79"/>
+      <c r="B112" s="79"/>
+      <c r="C112" s="80"/>
+      <c r="D112" s="80"/>
     </row>
     <row r="113" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="76" t="s">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+    </row>
+    <row r="114" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B113" s="76">
-        <f>SUM(B98:B112)</f>
+      <c r="B114" s="76">
+        <f>SUM(B99:B113)</f>
         <v>0</v>
       </c>
-      <c r="C113" s="107" t="s">
+      <c r="C114" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D113" s="77"/>
-    </row>
-    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="78"/>
-      <c r="B114" s="78"/>
-      <c r="C114" s="78"/>
-      <c r="D114" s="78"/>
-    </row>
-    <row r="115" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="71" t="s">
+      <c r="D114" s="77"/>
+    </row>
+    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="78"/>
+      <c r="B115" s="78"/>
+      <c r="C115" s="78"/>
+      <c r="D115" s="78"/>
+    </row>
+    <row r="116" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B115" s="72">
+      <c r="B116" s="72">
         <v>7</v>
       </c>
-      <c r="C115" s="73" t="s">
+      <c r="C116" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D115" s="82">
+      <c r="D116" s="82">
         <v>42926</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="74" t="s">
+    <row r="117" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="75" t="s">
+      <c r="B117" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C116" s="74" t="s">
+      <c r="C117" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D116" s="74" t="s">
+      <c r="D117" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="9"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-    </row>
     <row r="118" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="5"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
+      <c r="A118" s="9"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
     </row>
     <row r="119" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
@@ -21554,7 +21731,7 @@
       <c r="D125" s="14"/>
     </row>
     <row r="126" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="6"/>
+      <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="14"/>
       <c r="D126" s="14"/>
@@ -21572,10 +21749,10 @@
       <c r="D128" s="14"/>
     </row>
     <row r="129" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="79"/>
-      <c r="B129" s="79"/>
-      <c r="C129" s="80"/>
-      <c r="D129" s="80"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
     </row>
     <row r="130" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A130" s="79"/>
@@ -21583,70 +21760,70 @@
       <c r="C130" s="80"/>
       <c r="D130" s="80"/>
     </row>
-    <row r="131" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
+    <row r="131" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="79"/>
+      <c r="B131" s="79"/>
+      <c r="C131" s="80"/>
+      <c r="D131" s="80"/>
     </row>
     <row r="132" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="76" t="s">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+    </row>
+    <row r="133" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B132" s="76">
-        <f>SUM(B117:B131)</f>
+      <c r="B133" s="76">
+        <f>SUM(B118:B132)</f>
         <v>0</v>
       </c>
-      <c r="C132" s="107" t="s">
+      <c r="C133" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D132" s="77"/>
-    </row>
-    <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="78"/>
-      <c r="B133" s="78"/>
-      <c r="C133" s="78"/>
-      <c r="D133" s="78"/>
-    </row>
-    <row r="134" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="71" t="s">
+      <c r="D133" s="77"/>
+    </row>
+    <row r="134" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="78"/>
+      <c r="B134" s="78"/>
+      <c r="C134" s="78"/>
+      <c r="D134" s="78"/>
+    </row>
+    <row r="135" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B134" s="72">
+      <c r="B135" s="72">
         <v>8</v>
       </c>
-      <c r="C134" s="73" t="s">
+      <c r="C135" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D134" s="82">
+      <c r="D135" s="82">
         <v>42933</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="74" t="s">
+    <row r="136" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B135" s="75" t="s">
+      <c r="B136" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C135" s="74" t="s">
+      <c r="C136" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D135" s="74" t="s">
+      <c r="D136" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="9"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-    </row>
     <row r="137" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="5"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
+      <c r="A137" s="9"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
     </row>
     <row r="138" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
@@ -21691,7 +21868,7 @@
       <c r="D144" s="14"/>
     </row>
     <row r="145" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="6"/>
+      <c r="A145" s="5"/>
       <c r="B145" s="6"/>
       <c r="C145" s="14"/>
       <c r="D145" s="14"/>
@@ -21709,10 +21886,10 @@
       <c r="D147" s="14"/>
     </row>
     <row r="148" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="79"/>
-      <c r="B148" s="79"/>
-      <c r="C148" s="80"/>
-      <c r="D148" s="80"/>
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
     </row>
     <row r="149" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A149" s="79"/>
@@ -21720,70 +21897,70 @@
       <c r="C149" s="80"/>
       <c r="D149" s="80"/>
     </row>
-    <row r="150" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
+    <row r="150" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="79"/>
+      <c r="B150" s="79"/>
+      <c r="C150" s="80"/>
+      <c r="D150" s="80"/>
     </row>
     <row r="151" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="76" t="s">
+      <c r="A151" s="7"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+    </row>
+    <row r="152" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B151" s="76">
-        <f>SUM(B136:B150)</f>
+      <c r="B152" s="76">
+        <f>SUM(B137:B151)</f>
         <v>0</v>
       </c>
-      <c r="C151" s="107" t="s">
+      <c r="C152" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D151" s="77"/>
-    </row>
-    <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="78"/>
-      <c r="B152" s="78"/>
-      <c r="C152" s="78"/>
-      <c r="D152" s="78"/>
-    </row>
-    <row r="153" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="71" t="s">
+      <c r="D152" s="77"/>
+    </row>
+    <row r="153" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="78"/>
+      <c r="B153" s="78"/>
+      <c r="C153" s="78"/>
+      <c r="D153" s="78"/>
+    </row>
+    <row r="154" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B153" s="72">
+      <c r="B154" s="72">
         <v>9</v>
       </c>
-      <c r="C153" s="73" t="s">
+      <c r="C154" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D153" s="82">
+      <c r="D154" s="82">
         <v>42940</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="74" t="s">
+    <row r="155" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B154" s="75" t="s">
+      <c r="B155" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C154" s="74" t="s">
+      <c r="C155" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D154" s="74" t="s">
+      <c r="D155" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="9"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-    </row>
     <row r="156" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="5"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
+      <c r="A156" s="9"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
     </row>
     <row r="157" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
@@ -21828,7 +22005,7 @@
       <c r="D163" s="14"/>
     </row>
     <row r="164" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="6"/>
+      <c r="A164" s="5"/>
       <c r="B164" s="6"/>
       <c r="C164" s="14"/>
       <c r="D164" s="14"/>
@@ -21846,10 +22023,10 @@
       <c r="D166" s="14"/>
     </row>
     <row r="167" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="79"/>
-      <c r="B167" s="79"/>
-      <c r="C167" s="80"/>
-      <c r="D167" s="80"/>
+      <c r="A167" s="6"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
     </row>
     <row r="168" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A168" s="79"/>
@@ -21857,70 +22034,70 @@
       <c r="C168" s="80"/>
       <c r="D168" s="80"/>
     </row>
-    <row r="169" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
-      <c r="C169" s="15"/>
-      <c r="D169" s="15"/>
+    <row r="169" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A169" s="79"/>
+      <c r="B169" s="79"/>
+      <c r="C169" s="80"/>
+      <c r="D169" s="80"/>
     </row>
     <row r="170" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="76" t="s">
+      <c r="A170" s="7"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+    </row>
+    <row r="171" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B170" s="76">
-        <f>SUM(B155:B169)</f>
+      <c r="B171" s="76">
+        <f>SUM(B156:B170)</f>
         <v>0</v>
       </c>
-      <c r="C170" s="107" t="s">
+      <c r="C171" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D170" s="77"/>
-    </row>
-    <row r="171" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="78"/>
-      <c r="B171" s="78"/>
-      <c r="C171" s="78"/>
-      <c r="D171" s="78"/>
-    </row>
-    <row r="172" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="71" t="s">
+      <c r="D171" s="77"/>
+    </row>
+    <row r="172" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="78"/>
+      <c r="B172" s="78"/>
+      <c r="C172" s="78"/>
+      <c r="D172" s="78"/>
+    </row>
+    <row r="173" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B172" s="72">
+      <c r="B173" s="72">
         <v>10</v>
       </c>
-      <c r="C172" s="73" t="s">
+      <c r="C173" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D172" s="82">
+      <c r="D173" s="82">
         <v>42947</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="74" t="s">
+    <row r="174" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B173" s="75" t="s">
+      <c r="B174" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C173" s="74" t="s">
+      <c r="C174" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D173" s="74" t="s">
+      <c r="D174" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="9"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-    </row>
     <row r="175" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="5"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="14"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
     </row>
     <row r="176" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
@@ -21965,7 +22142,7 @@
       <c r="D182" s="14"/>
     </row>
     <row r="183" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="6"/>
+      <c r="A183" s="5"/>
       <c r="B183" s="6"/>
       <c r="C183" s="14"/>
       <c r="D183" s="14"/>
@@ -21983,10 +22160,10 @@
       <c r="D185" s="14"/>
     </row>
     <row r="186" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="79"/>
-      <c r="B186" s="79"/>
-      <c r="C186" s="80"/>
-      <c r="D186" s="80"/>
+      <c r="A186" s="6"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
     </row>
     <row r="187" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A187" s="79"/>
@@ -21994,70 +22171,70 @@
       <c r="C187" s="80"/>
       <c r="D187" s="80"/>
     </row>
-    <row r="188" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="7"/>
-      <c r="B188" s="7"/>
-      <c r="C188" s="15"/>
-      <c r="D188" s="15"/>
+    <row r="188" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A188" s="79"/>
+      <c r="B188" s="79"/>
+      <c r="C188" s="80"/>
+      <c r="D188" s="80"/>
     </row>
     <row r="189" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="76" t="s">
+      <c r="A189" s="7"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+    </row>
+    <row r="190" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B189" s="76">
-        <f>SUM(B174:B188)</f>
+      <c r="B190" s="76">
+        <f>SUM(B175:B189)</f>
         <v>0</v>
       </c>
-      <c r="C189" s="107" t="s">
+      <c r="C190" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D189" s="77"/>
-    </row>
-    <row r="190" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="78"/>
-      <c r="B190" s="78"/>
-      <c r="C190" s="78"/>
-      <c r="D190" s="78"/>
-    </row>
-    <row r="191" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="71" t="s">
+      <c r="D190" s="77"/>
+    </row>
+    <row r="191" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="78"/>
+      <c r="B191" s="78"/>
+      <c r="C191" s="78"/>
+      <c r="D191" s="78"/>
+    </row>
+    <row r="192" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B191" s="72">
+      <c r="B192" s="72">
         <v>11</v>
       </c>
-      <c r="C191" s="73" t="s">
+      <c r="C192" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D191" s="82">
+      <c r="D192" s="82">
         <v>42954</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="74" t="s">
+    <row r="193" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B192" s="75" t="s">
+      <c r="B193" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C192" s="74" t="s">
+      <c r="C193" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D192" s="74" t="s">
+      <c r="D193" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A193" s="9"/>
-      <c r="B193" s="8"/>
-      <c r="C193" s="13"/>
-      <c r="D193" s="13"/>
-    </row>
     <row r="194" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A194" s="5"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="14"/>
-      <c r="D194" s="14"/>
+      <c r="A194" s="9"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
     </row>
     <row r="195" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
@@ -22102,7 +22279,7 @@
       <c r="D201" s="14"/>
     </row>
     <row r="202" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A202" s="6"/>
+      <c r="A202" s="5"/>
       <c r="B202" s="6"/>
       <c r="C202" s="14"/>
       <c r="D202" s="14"/>
@@ -22120,10 +22297,10 @@
       <c r="D204" s="14"/>
     </row>
     <row r="205" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A205" s="79"/>
-      <c r="B205" s="79"/>
-      <c r="C205" s="80"/>
-      <c r="D205" s="80"/>
+      <c r="A205" s="6"/>
+      <c r="B205" s="6"/>
+      <c r="C205" s="14"/>
+      <c r="D205" s="14"/>
     </row>
     <row r="206" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A206" s="79"/>
@@ -22131,70 +22308,70 @@
       <c r="C206" s="80"/>
       <c r="D206" s="80"/>
     </row>
-    <row r="207" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="7"/>
-      <c r="B207" s="7"/>
-      <c r="C207" s="15"/>
-      <c r="D207" s="15"/>
+    <row r="207" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A207" s="79"/>
+      <c r="B207" s="79"/>
+      <c r="C207" s="80"/>
+      <c r="D207" s="80"/>
     </row>
     <row r="208" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="76" t="s">
+      <c r="A208" s="7"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="15"/>
+      <c r="D208" s="15"/>
+    </row>
+    <row r="209" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B208" s="76">
-        <f>SUM(B193:B207)</f>
+      <c r="B209" s="76">
+        <f>SUM(B194:B208)</f>
         <v>0</v>
       </c>
-      <c r="C208" s="107" t="s">
+      <c r="C209" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D208" s="77"/>
-    </row>
-    <row r="209" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="78"/>
-      <c r="B209" s="78"/>
-      <c r="C209" s="78"/>
-      <c r="D209" s="78"/>
-    </row>
-    <row r="210" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="71" t="s">
+      <c r="D209" s="77"/>
+    </row>
+    <row r="210" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="78"/>
+      <c r="B210" s="78"/>
+      <c r="C210" s="78"/>
+      <c r="D210" s="78"/>
+    </row>
+    <row r="211" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B210" s="72">
+      <c r="B211" s="72">
         <v>12</v>
       </c>
-      <c r="C210" s="73" t="s">
+      <c r="C211" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D210" s="82">
+      <c r="D211" s="82">
         <v>42961</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="74" t="s">
+    <row r="212" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B211" s="75" t="s">
+      <c r="B212" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C211" s="74" t="s">
+      <c r="C212" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D211" s="74" t="s">
+      <c r="D212" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="9"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="13"/>
-      <c r="D212" s="13"/>
-    </row>
     <row r="213" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A213" s="5"/>
-      <c r="B213" s="6"/>
-      <c r="C213" s="14"/>
-      <c r="D213" s="14"/>
+      <c r="A213" s="9"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="13"/>
     </row>
     <row r="214" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
@@ -22239,7 +22416,7 @@
       <c r="D220" s="14"/>
     </row>
     <row r="221" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A221" s="6"/>
+      <c r="A221" s="5"/>
       <c r="B221" s="6"/>
       <c r="C221" s="14"/>
       <c r="D221" s="14"/>
@@ -22257,10 +22434,10 @@
       <c r="D223" s="14"/>
     </row>
     <row r="224" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A224" s="79"/>
-      <c r="B224" s="79"/>
-      <c r="C224" s="80"/>
-      <c r="D224" s="80"/>
+      <c r="A224" s="6"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="14"/>
+      <c r="D224" s="14"/>
     </row>
     <row r="225" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A225" s="79"/>
@@ -22268,70 +22445,70 @@
       <c r="C225" s="80"/>
       <c r="D225" s="80"/>
     </row>
-    <row r="226" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="7"/>
-      <c r="B226" s="7"/>
-      <c r="C226" s="15"/>
-      <c r="D226" s="15"/>
+    <row r="226" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A226" s="79"/>
+      <c r="B226" s="79"/>
+      <c r="C226" s="80"/>
+      <c r="D226" s="80"/>
     </row>
     <row r="227" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="76" t="s">
+      <c r="A227" s="7"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="15"/>
+      <c r="D227" s="15"/>
+    </row>
+    <row r="228" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B227" s="76">
-        <f>SUM(B212:B226)</f>
+      <c r="B228" s="76">
+        <f>SUM(B213:B227)</f>
         <v>0</v>
       </c>
-      <c r="C227" s="107" t="s">
+      <c r="C228" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D227" s="77"/>
-    </row>
-    <row r="228" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="78"/>
-      <c r="B228" s="78"/>
-      <c r="C228" s="78"/>
-      <c r="D228" s="78"/>
-    </row>
-    <row r="229" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="71" t="s">
+      <c r="D228" s="77"/>
+    </row>
+    <row r="229" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="78"/>
+      <c r="B229" s="78"/>
+      <c r="C229" s="78"/>
+      <c r="D229" s="78"/>
+    </row>
+    <row r="230" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B229" s="72">
+      <c r="B230" s="72">
         <v>13</v>
       </c>
-      <c r="C229" s="73" t="s">
+      <c r="C230" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D229" s="82">
+      <c r="D230" s="82">
         <v>42968</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="74" t="s">
+    <row r="231" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B230" s="75" t="s">
+      <c r="B231" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C230" s="74" t="s">
+      <c r="C231" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D230" s="74" t="s">
+      <c r="D231" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A231" s="9"/>
-      <c r="B231" s="8"/>
-      <c r="C231" s="13"/>
-      <c r="D231" s="13"/>
-    </row>
     <row r="232" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A232" s="5"/>
-      <c r="B232" s="6"/>
-      <c r="C232" s="14"/>
-      <c r="D232" s="14"/>
+      <c r="A232" s="9"/>
+      <c r="B232" s="8"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="13"/>
     </row>
     <row r="233" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
@@ -22376,7 +22553,7 @@
       <c r="D239" s="14"/>
     </row>
     <row r="240" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A240" s="6"/>
+      <c r="A240" s="5"/>
       <c r="B240" s="6"/>
       <c r="C240" s="14"/>
       <c r="D240" s="14"/>
@@ -22394,10 +22571,10 @@
       <c r="D242" s="14"/>
     </row>
     <row r="243" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A243" s="79"/>
-      <c r="B243" s="79"/>
-      <c r="C243" s="80"/>
-      <c r="D243" s="80"/>
+      <c r="A243" s="6"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="14"/>
+      <c r="D243" s="14"/>
     </row>
     <row r="244" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A244" s="79"/>
@@ -22405,70 +22582,70 @@
       <c r="C244" s="80"/>
       <c r="D244" s="80"/>
     </row>
-    <row r="245" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
-      <c r="C245" s="15"/>
-      <c r="D245" s="15"/>
+    <row r="245" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A245" s="79"/>
+      <c r="B245" s="79"/>
+      <c r="C245" s="80"/>
+      <c r="D245" s="80"/>
     </row>
     <row r="246" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="76" t="s">
+      <c r="A246" s="7"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="15"/>
+      <c r="D246" s="15"/>
+    </row>
+    <row r="247" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B246" s="76">
-        <f>SUM(B231:B245)</f>
+      <c r="B247" s="76">
+        <f>SUM(B232:B246)</f>
         <v>0</v>
       </c>
-      <c r="C246" s="107" t="s">
+      <c r="C247" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D246" s="77"/>
-    </row>
-    <row r="247" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="78"/>
-      <c r="B247" s="78"/>
-      <c r="C247" s="78"/>
-      <c r="D247" s="78"/>
-    </row>
-    <row r="248" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="71" t="s">
+      <c r="D247" s="77"/>
+    </row>
+    <row r="248" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="78"/>
+      <c r="B248" s="78"/>
+      <c r="C248" s="78"/>
+      <c r="D248" s="78"/>
+    </row>
+    <row r="249" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B248" s="72">
+      <c r="B249" s="72">
         <v>14</v>
       </c>
-      <c r="C248" s="73" t="s">
+      <c r="C249" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D248" s="82">
+      <c r="D249" s="82">
         <v>42975</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="74" t="s">
+    <row r="250" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B249" s="75" t="s">
+      <c r="B250" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C249" s="74" t="s">
+      <c r="C250" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D249" s="74" t="s">
+      <c r="D250" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A250" s="9"/>
-      <c r="B250" s="8"/>
-      <c r="C250" s="13"/>
-      <c r="D250" s="13"/>
-    </row>
     <row r="251" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A251" s="5"/>
-      <c r="B251" s="6"/>
-      <c r="C251" s="14"/>
-      <c r="D251" s="14"/>
+      <c r="A251" s="9"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="13"/>
     </row>
     <row r="252" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
@@ -22513,7 +22690,7 @@
       <c r="D258" s="14"/>
     </row>
     <row r="259" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A259" s="6"/>
+      <c r="A259" s="5"/>
       <c r="B259" s="6"/>
       <c r="C259" s="14"/>
       <c r="D259" s="14"/>
@@ -22531,10 +22708,10 @@
       <c r="D261" s="14"/>
     </row>
     <row r="262" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A262" s="79"/>
-      <c r="B262" s="79"/>
-      <c r="C262" s="80"/>
-      <c r="D262" s="80"/>
+      <c r="A262" s="6"/>
+      <c r="B262" s="6"/>
+      <c r="C262" s="14"/>
+      <c r="D262" s="14"/>
     </row>
     <row r="263" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A263" s="79"/>
@@ -22542,70 +22719,70 @@
       <c r="C263" s="80"/>
       <c r="D263" s="80"/>
     </row>
-    <row r="264" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="7"/>
-      <c r="B264" s="7"/>
-      <c r="C264" s="15"/>
-      <c r="D264" s="15"/>
+    <row r="264" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="79"/>
+      <c r="B264" s="79"/>
+      <c r="C264" s="80"/>
+      <c r="D264" s="80"/>
     </row>
     <row r="265" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="76" t="s">
+      <c r="A265" s="7"/>
+      <c r="B265" s="7"/>
+      <c r="C265" s="15"/>
+      <c r="D265" s="15"/>
+    </row>
+    <row r="266" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B265" s="76">
-        <f>SUM(B250:B264)</f>
+      <c r="B266" s="76">
+        <f>SUM(B251:B265)</f>
         <v>0</v>
       </c>
-      <c r="C265" s="107" t="s">
+      <c r="C266" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D265" s="77"/>
-    </row>
-    <row r="266" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="78"/>
-      <c r="B266" s="78"/>
-      <c r="C266" s="78"/>
-      <c r="D266" s="78"/>
-    </row>
-    <row r="267" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="71" t="s">
+      <c r="D266" s="77"/>
+    </row>
+    <row r="267" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="78"/>
+      <c r="B267" s="78"/>
+      <c r="C267" s="78"/>
+      <c r="D267" s="78"/>
+    </row>
+    <row r="268" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B267" s="72">
+      <c r="B268" s="72">
         <v>15</v>
       </c>
-      <c r="C267" s="73" t="s">
+      <c r="C268" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D267" s="82">
+      <c r="D268" s="82">
         <v>42982</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="74" t="s">
+    <row r="269" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B268" s="75" t="s">
+      <c r="B269" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C268" s="74" t="s">
+      <c r="C269" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D268" s="74" t="s">
+      <c r="D269" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A269" s="9"/>
-      <c r="B269" s="8"/>
-      <c r="C269" s="13"/>
-      <c r="D269" s="13"/>
-    </row>
     <row r="270" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="5"/>
-      <c r="B270" s="6"/>
-      <c r="C270" s="14"/>
-      <c r="D270" s="14"/>
+      <c r="A270" s="9"/>
+      <c r="B270" s="8"/>
+      <c r="C270" s="13"/>
+      <c r="D270" s="13"/>
     </row>
     <row r="271" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
@@ -22650,7 +22827,7 @@
       <c r="D277" s="14"/>
     </row>
     <row r="278" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="6"/>
+      <c r="A278" s="5"/>
       <c r="B278" s="6"/>
       <c r="C278" s="14"/>
       <c r="D278" s="14"/>
@@ -22668,10 +22845,10 @@
       <c r="D280" s="14"/>
     </row>
     <row r="281" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="79"/>
-      <c r="B281" s="79"/>
-      <c r="C281" s="80"/>
-      <c r="D281" s="80"/>
+      <c r="A281" s="6"/>
+      <c r="B281" s="6"/>
+      <c r="C281" s="14"/>
+      <c r="D281" s="14"/>
     </row>
     <row r="282" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A282" s="79"/>
@@ -22679,70 +22856,70 @@
       <c r="C282" s="80"/>
       <c r="D282" s="80"/>
     </row>
-    <row r="283" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="7"/>
-      <c r="B283" s="7"/>
-      <c r="C283" s="15"/>
-      <c r="D283" s="15"/>
+    <row r="283" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A283" s="79"/>
+      <c r="B283" s="79"/>
+      <c r="C283" s="80"/>
+      <c r="D283" s="80"/>
     </row>
     <row r="284" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="76" t="s">
+      <c r="A284" s="7"/>
+      <c r="B284" s="7"/>
+      <c r="C284" s="15"/>
+      <c r="D284" s="15"/>
+    </row>
+    <row r="285" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B284" s="76">
-        <f>SUM(B269:B283)</f>
+      <c r="B285" s="76">
+        <f>SUM(B270:B284)</f>
         <v>0</v>
       </c>
-      <c r="C284" s="107" t="s">
+      <c r="C285" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D284" s="77"/>
-    </row>
-    <row r="285" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="78"/>
-      <c r="B285" s="78"/>
-      <c r="C285" s="78"/>
-      <c r="D285" s="78"/>
-    </row>
-    <row r="286" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="71" t="s">
+      <c r="D285" s="77"/>
+    </row>
+    <row r="286" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="78"/>
+      <c r="B286" s="78"/>
+      <c r="C286" s="78"/>
+      <c r="D286" s="78"/>
+    </row>
+    <row r="287" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B286" s="72">
+      <c r="B287" s="72">
         <v>16</v>
       </c>
-      <c r="C286" s="73" t="s">
+      <c r="C287" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D286" s="82">
+      <c r="D287" s="82">
         <v>42989</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="74" t="s">
+    <row r="288" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B287" s="75" t="s">
+      <c r="B288" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C287" s="74" t="s">
+      <c r="C288" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D287" s="74" t="s">
+      <c r="D288" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A288" s="9"/>
-      <c r="B288" s="8"/>
-      <c r="C288" s="13"/>
-      <c r="D288" s="13"/>
-    </row>
     <row r="289" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A289" s="5"/>
-      <c r="B289" s="6"/>
-      <c r="C289" s="14"/>
-      <c r="D289" s="14"/>
+      <c r="A289" s="9"/>
+      <c r="B289" s="8"/>
+      <c r="C289" s="13"/>
+      <c r="D289" s="13"/>
     </row>
     <row r="290" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
@@ -22787,7 +22964,7 @@
       <c r="D296" s="14"/>
     </row>
     <row r="297" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="6"/>
+      <c r="A297" s="5"/>
       <c r="B297" s="6"/>
       <c r="C297" s="14"/>
       <c r="D297" s="14"/>
@@ -22805,10 +22982,10 @@
       <c r="D299" s="14"/>
     </row>
     <row r="300" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="79"/>
-      <c r="B300" s="79"/>
-      <c r="C300" s="80"/>
-      <c r="D300" s="80"/>
+      <c r="A300" s="6"/>
+      <c r="B300" s="6"/>
+      <c r="C300" s="14"/>
+      <c r="D300" s="14"/>
     </row>
     <row r="301" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A301" s="79"/>
@@ -22816,33 +22993,39 @@
       <c r="C301" s="80"/>
       <c r="D301" s="80"/>
     </row>
-    <row r="302" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="7"/>
-      <c r="B302" s="7"/>
-      <c r="C302" s="15"/>
-      <c r="D302" s="15"/>
+    <row r="302" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="79"/>
+      <c r="B302" s="79"/>
+      <c r="C302" s="80"/>
+      <c r="D302" s="80"/>
     </row>
     <row r="303" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="76" t="s">
+      <c r="A303" s="7"/>
+      <c r="B303" s="7"/>
+      <c r="C303" s="15"/>
+      <c r="D303" s="15"/>
+    </row>
+    <row r="304" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B303" s="76">
-        <f>SUM(B288:B302)</f>
+      <c r="B304" s="76">
+        <f>SUM(B289:B303)</f>
         <v>0</v>
       </c>
-      <c r="C303" s="107" t="s">
+      <c r="C304" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D303" s="77"/>
-    </row>
-    <row r="304" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A304" s="78"/>
-      <c r="B304" s="78"/>
-      <c r="C304" s="78"/>
-      <c r="D304" s="78"/>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" s="106" t="s">
+      <c r="D304" s="77"/>
+    </row>
+    <row r="305" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A305" s="78"/>
+      <c r="B305" s="78"/>
+      <c r="C305" s="78"/>
+      <c r="D305" s="78"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="106" t="s">
         <v>46</v>
       </c>
     </row>
@@ -22852,14 +23035,14 @@
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B3:B17 B22:B36 B41:B55 B60:B74 B79:B93 B98:B112 B117:B131 B136:B150 B155:B169 B174:B188 B193:B207 B212:B226 B231:B245 B250:B264 B269:B283 B288:B302">
+    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B3:B17 B22:B36 B41:B56 B61:B75 B80:B94 B99:B113 B118:B132 B137:B151 B156:B170 B175:B189 B194:B208 B213:B227 B232:B246 B251:B265 B270:B284 B289:B303">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B18 B37 B56 B75 B94 B113 B132 B151 B170 B189 B208 B227 B246 B265 B284 B303">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B18 B37 B57 B76 B95 B114 B133 B152 B171 B190 B209 B228 B247 B266 B285 B304">
       <formula1>0</formula1>
       <formula2>NbPerWeek * NbQuartPer</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A17 A22:A36 A41:A55 A60:A74 A79:A93 A98:A112 A117:A131 A136:A150 A155:A169 A174:A188 A193:A207 A212:A226 A231:A245 A250:A264 A269:A283 A288:A302">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A17 A22:A36 A41:A56 A61:A75 A80:A94 A99:A113 A118:A132 A137:A151 A156:A170 A175:A189 A194:A208 A213:A227 A232:A246 A251:A265 A270:A284 A289:A303">
       <formula1>lstTasks</formula1>
     </dataValidation>
   </dataValidations>
@@ -22868,21 +23051,27 @@
     <hyperlink ref="D28" r:id="rId2"/>
     <hyperlink ref="D29" r:id="rId3"/>
     <hyperlink ref="D30" r:id="rId4"/>
+    <hyperlink ref="D42" r:id="rId5"/>
+    <hyperlink ref="D41" r:id="rId6"/>
+    <hyperlink ref="D43" r:id="rId7"/>
+    <hyperlink ref="D45" r:id="rId8"/>
+    <hyperlink ref="D46" r:id="rId9"/>
+    <hyperlink ref="D47" r:id="rId10"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" cellComments="atEnd" r:id="rId5"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" cellComments="atEnd" r:id="rId11"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ETML L,Normal"&amp;24ETML</oddHeader>
     <oddFooter>&amp;C&amp;F&amp;L&amp;D</oddFooter>
   </headerFooter>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <drawing r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="44033" r:id="rId8" name="btnImportRealisation">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="44033" r:id="rId14" name="btnImportRealisation">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -22901,7 +23090,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="44033" r:id="rId8" name="btnImportRealisation"/>
+        <control shapeId="44033" r:id="rId14" name="btnImportRealisation"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/doc/DemoMotJDT-pittierfa.xlsx
+++ b/doc/DemoMotJDT-pittierfa.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="97">
   <si>
     <t>Module :</t>
   </si>
@@ -322,6 +322,36 @@
   </si>
   <si>
     <t>http://typo3buddy.com/typoscript/the-main-typoscript-template/</t>
+  </si>
+  <si>
+    <t>Commit des modifs effectuées la dernière fois, on merge tous nos branches sur master. On comprends pas pourquoi jimmy ne voit pas me doccuments depuis sa branche et moi pas les siens depuis sa branche. Demande l'aide de gruaz -&gt; Il faut recréer une branche depuis Master pour voir toutes les modifs effectuées sur Master -&gt; Création branche "FPR01" depuis Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue le tuto supplémentaire, dans le tuto on apprend à faire les include: header, top menu, Breadcrumb menu, Menu à gauche de la page, footer. Mais 1 prolème:  Mettre image </t>
+  </si>
+  <si>
+    <t>Problème: On arrive pas à afficher une image comme fait dans le tuto, qui se situe dans le header. Problème non résolu.</t>
+  </si>
+  <si>
+    <t>http://typo3buddy.com/typoscript/adding-sub-templates/</t>
+  </si>
+  <si>
+    <t>Résolution du problème(Avec l'aide de Mme Hardegger): Le lien de l'image était faux, il y avait un "/" en trop devant le lien de l'image (En tentant de résoudre le problème j'ai fait une manipulation qui a supprimé la base de donnée donc j'ai récupérer le site que Jimmy faisait en même temps que moi en parrallele)</t>
+  </si>
+  <si>
+    <t>Mise à jour du jdt</t>
+  </si>
+  <si>
+    <t>Commit des modifs du jdt</t>
+  </si>
+  <si>
+    <t>Maquête Site</t>
+  </si>
+  <si>
+    <t>Réalisation des maquêtes de nos deux pages du site, tout d'abbord chacun avons fait une maquette de notre côté ensuite on a regroupé nos idées pour faire les 2 maquêtes finales du site</t>
+  </si>
+  <si>
+    <t>&lt;Lien Maquette a  Mettre&gt;</t>
   </si>
 </sst>
 </file>
@@ -1496,6 +1526,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1504,12 +1540,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2214,8 +2244,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2678,7 +2708,9 @@
       <c r="B36" s="66">
         <v>16</v>
       </c>
-      <c r="C36" s="28"/>
+      <c r="C36" s="28" t="s">
+        <v>94</v>
+      </c>
       <c r="D36" s="37"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
@@ -3275,27 +3307,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId4" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId4" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId4" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId4" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3325,27 +3357,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId8" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId8" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId8" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId8" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3383,470 +3415,470 @@
       <c r="C2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="121" t="s">
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="122"/>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
-      <c r="AX2" s="122"/>
-      <c r="AY2" s="122"/>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="122"/>
-      <c r="BB2" s="122"/>
-      <c r="BC2" s="122"/>
-      <c r="BD2" s="122"/>
-      <c r="BE2" s="123"/>
-      <c r="BF2" s="121" t="s">
+      <c r="AF2" s="124"/>
+      <c r="AG2" s="124"/>
+      <c r="AH2" s="124"/>
+      <c r="AI2" s="124"/>
+      <c r="AJ2" s="124"/>
+      <c r="AK2" s="124"/>
+      <c r="AL2" s="124"/>
+      <c r="AM2" s="124"/>
+      <c r="AN2" s="124"/>
+      <c r="AO2" s="124"/>
+      <c r="AP2" s="124"/>
+      <c r="AQ2" s="124"/>
+      <c r="AR2" s="124"/>
+      <c r="AS2" s="124"/>
+      <c r="AT2" s="124"/>
+      <c r="AU2" s="124"/>
+      <c r="AV2" s="124"/>
+      <c r="AW2" s="124"/>
+      <c r="AX2" s="124"/>
+      <c r="AY2" s="124"/>
+      <c r="AZ2" s="124"/>
+      <c r="BA2" s="124"/>
+      <c r="BB2" s="124"/>
+      <c r="BC2" s="124"/>
+      <c r="BD2" s="124"/>
+      <c r="BE2" s="125"/>
+      <c r="BF2" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="BG2" s="122"/>
-      <c r="BH2" s="122"/>
-      <c r="BI2" s="122"/>
-      <c r="BJ2" s="122"/>
-      <c r="BK2" s="122"/>
-      <c r="BL2" s="122"/>
-      <c r="BM2" s="122"/>
-      <c r="BN2" s="122"/>
-      <c r="BO2" s="122"/>
-      <c r="BP2" s="122"/>
-      <c r="BQ2" s="122"/>
-      <c r="BR2" s="122"/>
-      <c r="BS2" s="122"/>
-      <c r="BT2" s="122"/>
-      <c r="BU2" s="122"/>
-      <c r="BV2" s="122"/>
-      <c r="BW2" s="122"/>
-      <c r="BX2" s="122"/>
-      <c r="BY2" s="122"/>
-      <c r="BZ2" s="122"/>
-      <c r="CA2" s="122"/>
-      <c r="CB2" s="122"/>
-      <c r="CC2" s="122"/>
-      <c r="CD2" s="122"/>
-      <c r="CE2" s="122"/>
-      <c r="CF2" s="123"/>
-      <c r="CG2" s="121" t="s">
+      <c r="BG2" s="124"/>
+      <c r="BH2" s="124"/>
+      <c r="BI2" s="124"/>
+      <c r="BJ2" s="124"/>
+      <c r="BK2" s="124"/>
+      <c r="BL2" s="124"/>
+      <c r="BM2" s="124"/>
+      <c r="BN2" s="124"/>
+      <c r="BO2" s="124"/>
+      <c r="BP2" s="124"/>
+      <c r="BQ2" s="124"/>
+      <c r="BR2" s="124"/>
+      <c r="BS2" s="124"/>
+      <c r="BT2" s="124"/>
+      <c r="BU2" s="124"/>
+      <c r="BV2" s="124"/>
+      <c r="BW2" s="124"/>
+      <c r="BX2" s="124"/>
+      <c r="BY2" s="124"/>
+      <c r="BZ2" s="124"/>
+      <c r="CA2" s="124"/>
+      <c r="CB2" s="124"/>
+      <c r="CC2" s="124"/>
+      <c r="CD2" s="124"/>
+      <c r="CE2" s="124"/>
+      <c r="CF2" s="125"/>
+      <c r="CG2" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="CH2" s="122"/>
-      <c r="CI2" s="122"/>
-      <c r="CJ2" s="122"/>
-      <c r="CK2" s="122"/>
-      <c r="CL2" s="122"/>
-      <c r="CM2" s="122"/>
-      <c r="CN2" s="122"/>
-      <c r="CO2" s="122"/>
-      <c r="CP2" s="122"/>
-      <c r="CQ2" s="122"/>
-      <c r="CR2" s="122"/>
-      <c r="CS2" s="122"/>
-      <c r="CT2" s="122"/>
-      <c r="CU2" s="122"/>
-      <c r="CV2" s="122"/>
-      <c r="CW2" s="122"/>
-      <c r="CX2" s="122"/>
-      <c r="CY2" s="122"/>
-      <c r="CZ2" s="122"/>
-      <c r="DA2" s="122"/>
-      <c r="DB2" s="122"/>
-      <c r="DC2" s="122"/>
-      <c r="DD2" s="122"/>
-      <c r="DE2" s="122"/>
-      <c r="DF2" s="122"/>
-      <c r="DG2" s="123"/>
-      <c r="DH2" s="121" t="s">
+      <c r="CH2" s="124"/>
+      <c r="CI2" s="124"/>
+      <c r="CJ2" s="124"/>
+      <c r="CK2" s="124"/>
+      <c r="CL2" s="124"/>
+      <c r="CM2" s="124"/>
+      <c r="CN2" s="124"/>
+      <c r="CO2" s="124"/>
+      <c r="CP2" s="124"/>
+      <c r="CQ2" s="124"/>
+      <c r="CR2" s="124"/>
+      <c r="CS2" s="124"/>
+      <c r="CT2" s="124"/>
+      <c r="CU2" s="124"/>
+      <c r="CV2" s="124"/>
+      <c r="CW2" s="124"/>
+      <c r="CX2" s="124"/>
+      <c r="CY2" s="124"/>
+      <c r="CZ2" s="124"/>
+      <c r="DA2" s="124"/>
+      <c r="DB2" s="124"/>
+      <c r="DC2" s="124"/>
+      <c r="DD2" s="124"/>
+      <c r="DE2" s="124"/>
+      <c r="DF2" s="124"/>
+      <c r="DG2" s="125"/>
+      <c r="DH2" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="DI2" s="122"/>
-      <c r="DJ2" s="122"/>
-      <c r="DK2" s="122"/>
-      <c r="DL2" s="122"/>
-      <c r="DM2" s="122"/>
-      <c r="DN2" s="122"/>
-      <c r="DO2" s="122"/>
-      <c r="DP2" s="122"/>
-      <c r="DQ2" s="122"/>
-      <c r="DR2" s="122"/>
-      <c r="DS2" s="122"/>
-      <c r="DT2" s="122"/>
-      <c r="DU2" s="122"/>
-      <c r="DV2" s="122"/>
-      <c r="DW2" s="122"/>
-      <c r="DX2" s="122"/>
-      <c r="DY2" s="122"/>
-      <c r="DZ2" s="122"/>
-      <c r="EA2" s="122"/>
-      <c r="EB2" s="122"/>
-      <c r="EC2" s="122"/>
-      <c r="ED2" s="122"/>
-      <c r="EE2" s="122"/>
-      <c r="EF2" s="122"/>
-      <c r="EG2" s="122"/>
-      <c r="EH2" s="123"/>
-      <c r="EI2" s="121" t="s">
+      <c r="DI2" s="124"/>
+      <c r="DJ2" s="124"/>
+      <c r="DK2" s="124"/>
+      <c r="DL2" s="124"/>
+      <c r="DM2" s="124"/>
+      <c r="DN2" s="124"/>
+      <c r="DO2" s="124"/>
+      <c r="DP2" s="124"/>
+      <c r="DQ2" s="124"/>
+      <c r="DR2" s="124"/>
+      <c r="DS2" s="124"/>
+      <c r="DT2" s="124"/>
+      <c r="DU2" s="124"/>
+      <c r="DV2" s="124"/>
+      <c r="DW2" s="124"/>
+      <c r="DX2" s="124"/>
+      <c r="DY2" s="124"/>
+      <c r="DZ2" s="124"/>
+      <c r="EA2" s="124"/>
+      <c r="EB2" s="124"/>
+      <c r="EC2" s="124"/>
+      <c r="ED2" s="124"/>
+      <c r="EE2" s="124"/>
+      <c r="EF2" s="124"/>
+      <c r="EG2" s="124"/>
+      <c r="EH2" s="125"/>
+      <c r="EI2" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="EJ2" s="122"/>
-      <c r="EK2" s="122"/>
-      <c r="EL2" s="122"/>
-      <c r="EM2" s="122"/>
-      <c r="EN2" s="122"/>
-      <c r="EO2" s="122"/>
-      <c r="EP2" s="122"/>
-      <c r="EQ2" s="122"/>
-      <c r="ER2" s="122"/>
-      <c r="ES2" s="122"/>
-      <c r="ET2" s="122"/>
-      <c r="EU2" s="122"/>
-      <c r="EV2" s="122"/>
-      <c r="EW2" s="122"/>
-      <c r="EX2" s="122"/>
-      <c r="EY2" s="122"/>
-      <c r="EZ2" s="122"/>
-      <c r="FA2" s="122"/>
-      <c r="FB2" s="122"/>
-      <c r="FC2" s="122"/>
-      <c r="FD2" s="122"/>
-      <c r="FE2" s="122"/>
-      <c r="FF2" s="122"/>
-      <c r="FG2" s="122"/>
-      <c r="FH2" s="122"/>
-      <c r="FI2" s="123"/>
-      <c r="FJ2" s="121" t="s">
+      <c r="EJ2" s="124"/>
+      <c r="EK2" s="124"/>
+      <c r="EL2" s="124"/>
+      <c r="EM2" s="124"/>
+      <c r="EN2" s="124"/>
+      <c r="EO2" s="124"/>
+      <c r="EP2" s="124"/>
+      <c r="EQ2" s="124"/>
+      <c r="ER2" s="124"/>
+      <c r="ES2" s="124"/>
+      <c r="ET2" s="124"/>
+      <c r="EU2" s="124"/>
+      <c r="EV2" s="124"/>
+      <c r="EW2" s="124"/>
+      <c r="EX2" s="124"/>
+      <c r="EY2" s="124"/>
+      <c r="EZ2" s="124"/>
+      <c r="FA2" s="124"/>
+      <c r="FB2" s="124"/>
+      <c r="FC2" s="124"/>
+      <c r="FD2" s="124"/>
+      <c r="FE2" s="124"/>
+      <c r="FF2" s="124"/>
+      <c r="FG2" s="124"/>
+      <c r="FH2" s="124"/>
+      <c r="FI2" s="125"/>
+      <c r="FJ2" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="FK2" s="122"/>
-      <c r="FL2" s="122"/>
-      <c r="FM2" s="122"/>
-      <c r="FN2" s="122"/>
-      <c r="FO2" s="122"/>
-      <c r="FP2" s="122"/>
-      <c r="FQ2" s="122"/>
-      <c r="FR2" s="122"/>
-      <c r="FS2" s="122"/>
-      <c r="FT2" s="122"/>
-      <c r="FU2" s="122"/>
-      <c r="FV2" s="122"/>
-      <c r="FW2" s="122"/>
-      <c r="FX2" s="122"/>
-      <c r="FY2" s="122"/>
-      <c r="FZ2" s="122"/>
-      <c r="GA2" s="122"/>
-      <c r="GB2" s="122"/>
-      <c r="GC2" s="122"/>
-      <c r="GD2" s="122"/>
-      <c r="GE2" s="122"/>
-      <c r="GF2" s="122"/>
-      <c r="GG2" s="122"/>
-      <c r="GH2" s="122"/>
-      <c r="GI2" s="122"/>
-      <c r="GJ2" s="123"/>
-      <c r="GK2" s="121" t="s">
+      <c r="FK2" s="124"/>
+      <c r="FL2" s="124"/>
+      <c r="FM2" s="124"/>
+      <c r="FN2" s="124"/>
+      <c r="FO2" s="124"/>
+      <c r="FP2" s="124"/>
+      <c r="FQ2" s="124"/>
+      <c r="FR2" s="124"/>
+      <c r="FS2" s="124"/>
+      <c r="FT2" s="124"/>
+      <c r="FU2" s="124"/>
+      <c r="FV2" s="124"/>
+      <c r="FW2" s="124"/>
+      <c r="FX2" s="124"/>
+      <c r="FY2" s="124"/>
+      <c r="FZ2" s="124"/>
+      <c r="GA2" s="124"/>
+      <c r="GB2" s="124"/>
+      <c r="GC2" s="124"/>
+      <c r="GD2" s="124"/>
+      <c r="GE2" s="124"/>
+      <c r="GF2" s="124"/>
+      <c r="GG2" s="124"/>
+      <c r="GH2" s="124"/>
+      <c r="GI2" s="124"/>
+      <c r="GJ2" s="125"/>
+      <c r="GK2" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="GL2" s="122"/>
-      <c r="GM2" s="122"/>
-      <c r="GN2" s="122"/>
-      <c r="GO2" s="122"/>
-      <c r="GP2" s="122"/>
-      <c r="GQ2" s="122"/>
-      <c r="GR2" s="122"/>
-      <c r="GS2" s="122"/>
-      <c r="GT2" s="122"/>
-      <c r="GU2" s="122"/>
-      <c r="GV2" s="122"/>
-      <c r="GW2" s="122"/>
-      <c r="GX2" s="122"/>
-      <c r="GY2" s="122"/>
-      <c r="GZ2" s="122"/>
-      <c r="HA2" s="122"/>
-      <c r="HB2" s="122"/>
-      <c r="HC2" s="122"/>
-      <c r="HD2" s="122"/>
-      <c r="HE2" s="122"/>
-      <c r="HF2" s="122"/>
-      <c r="HG2" s="122"/>
-      <c r="HH2" s="122"/>
-      <c r="HI2" s="122"/>
-      <c r="HJ2" s="122"/>
-      <c r="HK2" s="123"/>
-      <c r="HL2" s="121" t="s">
+      <c r="GL2" s="124"/>
+      <c r="GM2" s="124"/>
+      <c r="GN2" s="124"/>
+      <c r="GO2" s="124"/>
+      <c r="GP2" s="124"/>
+      <c r="GQ2" s="124"/>
+      <c r="GR2" s="124"/>
+      <c r="GS2" s="124"/>
+      <c r="GT2" s="124"/>
+      <c r="GU2" s="124"/>
+      <c r="GV2" s="124"/>
+      <c r="GW2" s="124"/>
+      <c r="GX2" s="124"/>
+      <c r="GY2" s="124"/>
+      <c r="GZ2" s="124"/>
+      <c r="HA2" s="124"/>
+      <c r="HB2" s="124"/>
+      <c r="HC2" s="124"/>
+      <c r="HD2" s="124"/>
+      <c r="HE2" s="124"/>
+      <c r="HF2" s="124"/>
+      <c r="HG2" s="124"/>
+      <c r="HH2" s="124"/>
+      <c r="HI2" s="124"/>
+      <c r="HJ2" s="124"/>
+      <c r="HK2" s="125"/>
+      <c r="HL2" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="HM2" s="122"/>
-      <c r="HN2" s="122"/>
-      <c r="HO2" s="122"/>
-      <c r="HP2" s="122"/>
-      <c r="HQ2" s="122"/>
-      <c r="HR2" s="122"/>
-      <c r="HS2" s="122"/>
-      <c r="HT2" s="122"/>
-      <c r="HU2" s="122"/>
-      <c r="HV2" s="122"/>
-      <c r="HW2" s="122"/>
-      <c r="HX2" s="122"/>
-      <c r="HY2" s="122"/>
-      <c r="HZ2" s="122"/>
-      <c r="IA2" s="122"/>
-      <c r="IB2" s="122"/>
-      <c r="IC2" s="122"/>
-      <c r="ID2" s="122"/>
-      <c r="IE2" s="122"/>
-      <c r="IF2" s="122"/>
-      <c r="IG2" s="122"/>
-      <c r="IH2" s="122"/>
-      <c r="II2" s="122"/>
-      <c r="IJ2" s="122"/>
-      <c r="IK2" s="122"/>
-      <c r="IL2" s="123"/>
-      <c r="IM2" s="121" t="s">
+      <c r="HM2" s="124"/>
+      <c r="HN2" s="124"/>
+      <c r="HO2" s="124"/>
+      <c r="HP2" s="124"/>
+      <c r="HQ2" s="124"/>
+      <c r="HR2" s="124"/>
+      <c r="HS2" s="124"/>
+      <c r="HT2" s="124"/>
+      <c r="HU2" s="124"/>
+      <c r="HV2" s="124"/>
+      <c r="HW2" s="124"/>
+      <c r="HX2" s="124"/>
+      <c r="HY2" s="124"/>
+      <c r="HZ2" s="124"/>
+      <c r="IA2" s="124"/>
+      <c r="IB2" s="124"/>
+      <c r="IC2" s="124"/>
+      <c r="ID2" s="124"/>
+      <c r="IE2" s="124"/>
+      <c r="IF2" s="124"/>
+      <c r="IG2" s="124"/>
+      <c r="IH2" s="124"/>
+      <c r="II2" s="124"/>
+      <c r="IJ2" s="124"/>
+      <c r="IK2" s="124"/>
+      <c r="IL2" s="125"/>
+      <c r="IM2" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="IN2" s="122"/>
-      <c r="IO2" s="122"/>
-      <c r="IP2" s="122"/>
-      <c r="IQ2" s="122"/>
-      <c r="IR2" s="122"/>
-      <c r="IS2" s="122"/>
-      <c r="IT2" s="122"/>
-      <c r="IU2" s="122"/>
-      <c r="IV2" s="122"/>
-      <c r="IW2" s="122"/>
-      <c r="IX2" s="122"/>
-      <c r="IY2" s="122"/>
-      <c r="IZ2" s="122"/>
-      <c r="JA2" s="122"/>
-      <c r="JB2" s="122"/>
-      <c r="JC2" s="122"/>
-      <c r="JD2" s="122"/>
-      <c r="JE2" s="122"/>
-      <c r="JF2" s="122"/>
-      <c r="JG2" s="122"/>
-      <c r="JH2" s="122"/>
-      <c r="JI2" s="122"/>
-      <c r="JJ2" s="122"/>
-      <c r="JK2" s="122"/>
-      <c r="JL2" s="122"/>
-      <c r="JM2" s="123"/>
-      <c r="JN2" s="121" t="s">
+      <c r="IN2" s="124"/>
+      <c r="IO2" s="124"/>
+      <c r="IP2" s="124"/>
+      <c r="IQ2" s="124"/>
+      <c r="IR2" s="124"/>
+      <c r="IS2" s="124"/>
+      <c r="IT2" s="124"/>
+      <c r="IU2" s="124"/>
+      <c r="IV2" s="124"/>
+      <c r="IW2" s="124"/>
+      <c r="IX2" s="124"/>
+      <c r="IY2" s="124"/>
+      <c r="IZ2" s="124"/>
+      <c r="JA2" s="124"/>
+      <c r="JB2" s="124"/>
+      <c r="JC2" s="124"/>
+      <c r="JD2" s="124"/>
+      <c r="JE2" s="124"/>
+      <c r="JF2" s="124"/>
+      <c r="JG2" s="124"/>
+      <c r="JH2" s="124"/>
+      <c r="JI2" s="124"/>
+      <c r="JJ2" s="124"/>
+      <c r="JK2" s="124"/>
+      <c r="JL2" s="124"/>
+      <c r="JM2" s="125"/>
+      <c r="JN2" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="JO2" s="122"/>
-      <c r="JP2" s="122"/>
-      <c r="JQ2" s="122"/>
-      <c r="JR2" s="122"/>
-      <c r="JS2" s="122"/>
-      <c r="JT2" s="122"/>
-      <c r="JU2" s="122"/>
-      <c r="JV2" s="122"/>
-      <c r="JW2" s="122"/>
-      <c r="JX2" s="122"/>
-      <c r="JY2" s="122"/>
-      <c r="JZ2" s="122"/>
-      <c r="KA2" s="122"/>
-      <c r="KB2" s="122"/>
-      <c r="KC2" s="122"/>
-      <c r="KD2" s="122"/>
-      <c r="KE2" s="122"/>
-      <c r="KF2" s="122"/>
-      <c r="KG2" s="122"/>
-      <c r="KH2" s="122"/>
-      <c r="KI2" s="122"/>
-      <c r="KJ2" s="122"/>
-      <c r="KK2" s="122"/>
-      <c r="KL2" s="122"/>
-      <c r="KM2" s="122"/>
-      <c r="KN2" s="123"/>
-      <c r="KO2" s="121" t="s">
+      <c r="JO2" s="124"/>
+      <c r="JP2" s="124"/>
+      <c r="JQ2" s="124"/>
+      <c r="JR2" s="124"/>
+      <c r="JS2" s="124"/>
+      <c r="JT2" s="124"/>
+      <c r="JU2" s="124"/>
+      <c r="JV2" s="124"/>
+      <c r="JW2" s="124"/>
+      <c r="JX2" s="124"/>
+      <c r="JY2" s="124"/>
+      <c r="JZ2" s="124"/>
+      <c r="KA2" s="124"/>
+      <c r="KB2" s="124"/>
+      <c r="KC2" s="124"/>
+      <c r="KD2" s="124"/>
+      <c r="KE2" s="124"/>
+      <c r="KF2" s="124"/>
+      <c r="KG2" s="124"/>
+      <c r="KH2" s="124"/>
+      <c r="KI2" s="124"/>
+      <c r="KJ2" s="124"/>
+      <c r="KK2" s="124"/>
+      <c r="KL2" s="124"/>
+      <c r="KM2" s="124"/>
+      <c r="KN2" s="125"/>
+      <c r="KO2" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="KP2" s="122"/>
-      <c r="KQ2" s="122"/>
-      <c r="KR2" s="122"/>
-      <c r="KS2" s="122"/>
-      <c r="KT2" s="122"/>
-      <c r="KU2" s="122"/>
-      <c r="KV2" s="122"/>
-      <c r="KW2" s="122"/>
-      <c r="KX2" s="122"/>
-      <c r="KY2" s="122"/>
-      <c r="KZ2" s="122"/>
-      <c r="LA2" s="122"/>
-      <c r="LB2" s="122"/>
-      <c r="LC2" s="122"/>
-      <c r="LD2" s="122"/>
-      <c r="LE2" s="122"/>
-      <c r="LF2" s="122"/>
-      <c r="LG2" s="122"/>
-      <c r="LH2" s="122"/>
-      <c r="LI2" s="122"/>
-      <c r="LJ2" s="122"/>
-      <c r="LK2" s="122"/>
-      <c r="LL2" s="122"/>
-      <c r="LM2" s="122"/>
-      <c r="LN2" s="122"/>
-      <c r="LO2" s="123"/>
-      <c r="LP2" s="121" t="s">
+      <c r="KP2" s="124"/>
+      <c r="KQ2" s="124"/>
+      <c r="KR2" s="124"/>
+      <c r="KS2" s="124"/>
+      <c r="KT2" s="124"/>
+      <c r="KU2" s="124"/>
+      <c r="KV2" s="124"/>
+      <c r="KW2" s="124"/>
+      <c r="KX2" s="124"/>
+      <c r="KY2" s="124"/>
+      <c r="KZ2" s="124"/>
+      <c r="LA2" s="124"/>
+      <c r="LB2" s="124"/>
+      <c r="LC2" s="124"/>
+      <c r="LD2" s="124"/>
+      <c r="LE2" s="124"/>
+      <c r="LF2" s="124"/>
+      <c r="LG2" s="124"/>
+      <c r="LH2" s="124"/>
+      <c r="LI2" s="124"/>
+      <c r="LJ2" s="124"/>
+      <c r="LK2" s="124"/>
+      <c r="LL2" s="124"/>
+      <c r="LM2" s="124"/>
+      <c r="LN2" s="124"/>
+      <c r="LO2" s="125"/>
+      <c r="LP2" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="LQ2" s="122"/>
-      <c r="LR2" s="122"/>
-      <c r="LS2" s="122"/>
-      <c r="LT2" s="122"/>
-      <c r="LU2" s="122"/>
-      <c r="LV2" s="122"/>
-      <c r="LW2" s="122"/>
-      <c r="LX2" s="122"/>
-      <c r="LY2" s="122"/>
-      <c r="LZ2" s="122"/>
-      <c r="MA2" s="122"/>
-      <c r="MB2" s="122"/>
-      <c r="MC2" s="122"/>
-      <c r="MD2" s="122"/>
-      <c r="ME2" s="122"/>
-      <c r="MF2" s="122"/>
-      <c r="MG2" s="122"/>
-      <c r="MH2" s="122"/>
-      <c r="MI2" s="122"/>
-      <c r="MJ2" s="122"/>
-      <c r="MK2" s="122"/>
-      <c r="ML2" s="122"/>
-      <c r="MM2" s="122"/>
-      <c r="MN2" s="122"/>
-      <c r="MO2" s="122"/>
-      <c r="MP2" s="123"/>
-      <c r="MQ2" s="121" t="s">
+      <c r="LQ2" s="124"/>
+      <c r="LR2" s="124"/>
+      <c r="LS2" s="124"/>
+      <c r="LT2" s="124"/>
+      <c r="LU2" s="124"/>
+      <c r="LV2" s="124"/>
+      <c r="LW2" s="124"/>
+      <c r="LX2" s="124"/>
+      <c r="LY2" s="124"/>
+      <c r="LZ2" s="124"/>
+      <c r="MA2" s="124"/>
+      <c r="MB2" s="124"/>
+      <c r="MC2" s="124"/>
+      <c r="MD2" s="124"/>
+      <c r="ME2" s="124"/>
+      <c r="MF2" s="124"/>
+      <c r="MG2" s="124"/>
+      <c r="MH2" s="124"/>
+      <c r="MI2" s="124"/>
+      <c r="MJ2" s="124"/>
+      <c r="MK2" s="124"/>
+      <c r="ML2" s="124"/>
+      <c r="MM2" s="124"/>
+      <c r="MN2" s="124"/>
+      <c r="MO2" s="124"/>
+      <c r="MP2" s="125"/>
+      <c r="MQ2" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="MR2" s="122"/>
-      <c r="MS2" s="122"/>
-      <c r="MT2" s="122"/>
-      <c r="MU2" s="122"/>
-      <c r="MV2" s="122"/>
-      <c r="MW2" s="122"/>
-      <c r="MX2" s="122"/>
-      <c r="MY2" s="122"/>
-      <c r="MZ2" s="122"/>
-      <c r="NA2" s="122"/>
-      <c r="NB2" s="122"/>
-      <c r="NC2" s="122"/>
-      <c r="ND2" s="122"/>
-      <c r="NE2" s="122"/>
-      <c r="NF2" s="122"/>
-      <c r="NG2" s="122"/>
-      <c r="NH2" s="122"/>
-      <c r="NI2" s="122"/>
-      <c r="NJ2" s="122"/>
-      <c r="NK2" s="122"/>
-      <c r="NL2" s="122"/>
-      <c r="NM2" s="122"/>
-      <c r="NN2" s="122"/>
-      <c r="NO2" s="122"/>
-      <c r="NP2" s="122"/>
-      <c r="NQ2" s="123"/>
-      <c r="NR2" s="121" t="s">
+      <c r="MR2" s="124"/>
+      <c r="MS2" s="124"/>
+      <c r="MT2" s="124"/>
+      <c r="MU2" s="124"/>
+      <c r="MV2" s="124"/>
+      <c r="MW2" s="124"/>
+      <c r="MX2" s="124"/>
+      <c r="MY2" s="124"/>
+      <c r="MZ2" s="124"/>
+      <c r="NA2" s="124"/>
+      <c r="NB2" s="124"/>
+      <c r="NC2" s="124"/>
+      <c r="ND2" s="124"/>
+      <c r="NE2" s="124"/>
+      <c r="NF2" s="124"/>
+      <c r="NG2" s="124"/>
+      <c r="NH2" s="124"/>
+      <c r="NI2" s="124"/>
+      <c r="NJ2" s="124"/>
+      <c r="NK2" s="124"/>
+      <c r="NL2" s="124"/>
+      <c r="NM2" s="124"/>
+      <c r="NN2" s="124"/>
+      <c r="NO2" s="124"/>
+      <c r="NP2" s="124"/>
+      <c r="NQ2" s="125"/>
+      <c r="NR2" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="NS2" s="122"/>
-      <c r="NT2" s="122"/>
-      <c r="NU2" s="122"/>
-      <c r="NV2" s="122"/>
-      <c r="NW2" s="122"/>
-      <c r="NX2" s="122"/>
-      <c r="NY2" s="122"/>
-      <c r="NZ2" s="122"/>
-      <c r="OA2" s="122"/>
-      <c r="OB2" s="122"/>
-      <c r="OC2" s="122"/>
-      <c r="OD2" s="122"/>
-      <c r="OE2" s="122"/>
-      <c r="OF2" s="122"/>
-      <c r="OG2" s="122"/>
-      <c r="OH2" s="122"/>
-      <c r="OI2" s="122"/>
-      <c r="OJ2" s="122"/>
-      <c r="OK2" s="122"/>
-      <c r="OL2" s="122"/>
-      <c r="OM2" s="122"/>
-      <c r="ON2" s="122"/>
-      <c r="OO2" s="122"/>
-      <c r="OP2" s="122"/>
-      <c r="OQ2" s="122"/>
-      <c r="OR2" s="123"/>
-      <c r="OS2" s="121" t="s">
+      <c r="NS2" s="124"/>
+      <c r="NT2" s="124"/>
+      <c r="NU2" s="124"/>
+      <c r="NV2" s="124"/>
+      <c r="NW2" s="124"/>
+      <c r="NX2" s="124"/>
+      <c r="NY2" s="124"/>
+      <c r="NZ2" s="124"/>
+      <c r="OA2" s="124"/>
+      <c r="OB2" s="124"/>
+      <c r="OC2" s="124"/>
+      <c r="OD2" s="124"/>
+      <c r="OE2" s="124"/>
+      <c r="OF2" s="124"/>
+      <c r="OG2" s="124"/>
+      <c r="OH2" s="124"/>
+      <c r="OI2" s="124"/>
+      <c r="OJ2" s="124"/>
+      <c r="OK2" s="124"/>
+      <c r="OL2" s="124"/>
+      <c r="OM2" s="124"/>
+      <c r="ON2" s="124"/>
+      <c r="OO2" s="124"/>
+      <c r="OP2" s="124"/>
+      <c r="OQ2" s="124"/>
+      <c r="OR2" s="125"/>
+      <c r="OS2" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="OT2" s="122"/>
-      <c r="OU2" s="122"/>
-      <c r="OV2" s="122"/>
-      <c r="OW2" s="122"/>
-      <c r="OX2" s="122"/>
-      <c r="OY2" s="122"/>
-      <c r="OZ2" s="122"/>
-      <c r="PA2" s="122"/>
-      <c r="PB2" s="122"/>
-      <c r="PC2" s="122"/>
-      <c r="PD2" s="122"/>
-      <c r="PE2" s="122"/>
-      <c r="PF2" s="122"/>
-      <c r="PG2" s="122"/>
-      <c r="PH2" s="122"/>
-      <c r="PI2" s="122"/>
-      <c r="PJ2" s="122"/>
-      <c r="PK2" s="122"/>
-      <c r="PL2" s="122"/>
-      <c r="PM2" s="122"/>
-      <c r="PN2" s="122"/>
-      <c r="PO2" s="122"/>
-      <c r="PP2" s="122"/>
-      <c r="PQ2" s="122"/>
-      <c r="PR2" s="122"/>
-      <c r="PS2" s="123"/>
+      <c r="OT2" s="124"/>
+      <c r="OU2" s="124"/>
+      <c r="OV2" s="124"/>
+      <c r="OW2" s="124"/>
+      <c r="OX2" s="124"/>
+      <c r="OY2" s="124"/>
+      <c r="OZ2" s="124"/>
+      <c r="PA2" s="124"/>
+      <c r="PB2" s="124"/>
+      <c r="PC2" s="124"/>
+      <c r="PD2" s="124"/>
+      <c r="PE2" s="124"/>
+      <c r="PF2" s="124"/>
+      <c r="PG2" s="124"/>
+      <c r="PH2" s="124"/>
+      <c r="PI2" s="124"/>
+      <c r="PJ2" s="124"/>
+      <c r="PK2" s="124"/>
+      <c r="PL2" s="124"/>
+      <c r="PM2" s="124"/>
+      <c r="PN2" s="124"/>
+      <c r="PO2" s="124"/>
+      <c r="PP2" s="124"/>
+      <c r="PQ2" s="124"/>
+      <c r="PR2" s="124"/>
+      <c r="PS2" s="125"/>
     </row>
     <row r="3" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="85"/>
@@ -5170,7 +5202,7 @@
       <c r="PS5" s="90"/>
     </row>
     <row r="6" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="125"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="97">
         <v>0</v>
       </c>
@@ -5608,7 +5640,7 @@
       <c r="PS6" s="95"/>
     </row>
     <row r="7" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="124" t="str">
+      <c r="B7" s="121" t="str">
         <f>Donnees!$C$22</f>
         <v>Mise en place Trello</v>
       </c>
@@ -6049,7 +6081,7 @@
       <c r="PS7" s="90"/>
     </row>
     <row r="8" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="125"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="97">
         <v>0</v>
       </c>
@@ -6487,7 +6519,7 @@
       <c r="PS8" s="95"/>
     </row>
     <row r="9" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="124" t="str">
+      <c r="B9" s="121" t="str">
         <f>Donnees!$C$23</f>
         <v>Mise en place GitKraken</v>
       </c>
@@ -6928,7 +6960,7 @@
       <c r="PS9" s="90"/>
     </row>
     <row r="10" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="125"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="97">
         <v>0</v>
       </c>
@@ -7366,7 +7398,7 @@
       <c r="PS10" s="95"/>
     </row>
     <row r="11" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="124" t="str">
+      <c r="B11" s="121" t="str">
         <f>Donnees!$C$24</f>
         <v>Mise à jour Trello</v>
       </c>
@@ -7807,7 +7839,7 @@
       <c r="PS11" s="90"/>
     </row>
     <row r="12" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="125"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="97">
         <v>0</v>
       </c>
@@ -8245,7 +8277,7 @@
       <c r="PS12" s="95"/>
     </row>
     <row r="13" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="124" t="str">
+      <c r="B13" s="121" t="str">
         <f>Donnees!$C$25</f>
         <v>Mise à jour GitKraken</v>
       </c>
@@ -8686,7 +8718,7 @@
       <c r="PS13" s="90"/>
     </row>
     <row r="14" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="125"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="97">
         <v>0</v>
       </c>
@@ -9124,7 +9156,7 @@
       <c r="PS14" s="95"/>
     </row>
     <row r="15" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="124" t="str">
+      <c r="B15" s="121" t="str">
         <f>Donnees!$C$26</f>
         <v>Recherches</v>
       </c>
@@ -9566,7 +9598,7 @@
     </row>
     <row r="16" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="104"/>
-      <c r="B16" s="125"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="97">
         <v>0</v>
       </c>
@@ -10004,7 +10036,7 @@
       <c r="PS16" s="95"/>
     </row>
     <row r="17" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="124" t="str">
+      <c r="B17" s="121" t="str">
         <f>Donnees!$C$27</f>
         <v>Création plannif + JDT</v>
       </c>
@@ -10445,7 +10477,7 @@
       <c r="PS17" s="90"/>
     </row>
     <row r="18" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="125"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="97">
         <v>0</v>
       </c>
@@ -10883,7 +10915,7 @@
       <c r="PS18" s="95"/>
     </row>
     <row r="19" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="124" t="str">
+      <c r="B19" s="121" t="str">
         <f>Donnees!$C$28</f>
         <v>Mise à jour du JDT</v>
       </c>
@@ -11324,7 +11356,7 @@
       <c r="PS19" s="90"/>
     </row>
     <row r="20" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="125"/>
+      <c r="B20" s="122"/>
       <c r="C20" s="97">
         <v>0</v>
       </c>
@@ -11762,7 +11794,7 @@
       <c r="PS20" s="95"/>
     </row>
     <row r="21" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="124" t="str">
+      <c r="B21" s="121" t="str">
         <f>Donnees!$C$29</f>
         <v>Daily Scrum</v>
       </c>
@@ -12203,7 +12235,7 @@
       <c r="PS21" s="90"/>
     </row>
     <row r="22" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="125"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="97">
         <v>0</v>
       </c>
@@ -12641,7 +12673,7 @@
       <c r="PS22" s="95"/>
     </row>
     <row r="23" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="124" t="str">
+      <c r="B23" s="121" t="str">
         <f>Donnees!$C$30</f>
         <v>HTML</v>
       </c>
@@ -13082,7 +13114,7 @@
       <c r="PS23" s="90"/>
     </row>
     <row r="24" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="125"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="97">
         <v>0</v>
       </c>
@@ -13520,7 +13552,7 @@
       <c r="PS24" s="95"/>
     </row>
     <row r="25" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="124" t="str">
+      <c r="B25" s="121" t="str">
         <f>Donnees!$C$31</f>
         <v>Base de donnée</v>
       </c>
@@ -13961,7 +13993,7 @@
       <c r="PS25" s="90"/>
     </row>
     <row r="26" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="125"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="97">
         <v>0</v>
       </c>
@@ -14399,7 +14431,7 @@
       <c r="PS26" s="95"/>
     </row>
     <row r="27" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="124" t="str">
+      <c r="B27" s="121" t="str">
         <f>Donnees!$C$32</f>
         <v>PHP</v>
       </c>
@@ -14840,7 +14872,7 @@
       <c r="PS27" s="90"/>
     </row>
     <row r="28" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="125"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="97">
         <v>0</v>
       </c>
@@ -15278,7 +15310,7 @@
       <c r="PS28" s="95"/>
     </row>
     <row r="29" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="124" t="str">
+      <c r="B29" s="121" t="str">
         <f>Donnees!$C$33</f>
         <v>Typo3</v>
       </c>
@@ -15719,7 +15751,7 @@
       <c r="PS29" s="90"/>
     </row>
     <row r="30" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="125"/>
+      <c r="B30" s="122"/>
       <c r="C30" s="97">
         <v>0</v>
       </c>
@@ -16157,7 +16189,7 @@
       <c r="PS30" s="95"/>
     </row>
     <row r="31" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="124" t="str">
+      <c r="B31" s="121" t="str">
         <f>Donnees!$C$34</f>
         <v>Création jeu flash</v>
       </c>
@@ -16598,7 +16630,7 @@
       <c r="PS31" s="90"/>
     </row>
     <row r="32" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="125"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="97">
         <v>0</v>
       </c>
@@ -17920,14 +17952,13 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" selectLockedCells="1"/>
   <mergeCells count="31">
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="HL2:IL2"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="CG2:DG2"/>
-    <mergeCell ref="DH2:EH2"/>
-    <mergeCell ref="EI2:FI2"/>
-    <mergeCell ref="FJ2:GJ2"/>
-    <mergeCell ref="GK2:HK2"/>
+    <mergeCell ref="OS2:PS2"/>
+    <mergeCell ref="IM2:JM2"/>
+    <mergeCell ref="JN2:KN2"/>
+    <mergeCell ref="KO2:LO2"/>
+    <mergeCell ref="LP2:MP2"/>
+    <mergeCell ref="MQ2:NQ2"/>
+    <mergeCell ref="NR2:OR2"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="D2:AD2"/>
@@ -17944,13 +17975,14 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="OS2:PS2"/>
-    <mergeCell ref="IM2:JM2"/>
-    <mergeCell ref="JN2:KN2"/>
-    <mergeCell ref="KO2:LO2"/>
-    <mergeCell ref="LP2:MP2"/>
-    <mergeCell ref="MQ2:NQ2"/>
-    <mergeCell ref="NR2:OR2"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="HL2:IL2"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="CG2:DG2"/>
+    <mergeCell ref="DH2:EH2"/>
+    <mergeCell ref="EI2:FI2"/>
+    <mergeCell ref="FJ2:GJ2"/>
+    <mergeCell ref="GK2:HK2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="DureeTropLongue" error="Cette durée est invalide: ce n'est pas un chiffre entier positif ou elle dépasse la &quot;Durée totale&quot; définie plus haut ..." sqref="C33">
@@ -20619,8 +20651,8 @@
   </sheetPr>
   <dimension ref="A1:I306"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B67" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21050,7 +21082,7 @@
         <v>23</v>
       </c>
       <c r="D39" s="82">
-        <v>42898</v>
+        <v>42886</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
@@ -21272,57 +21304,111 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-    </row>
-    <row r="62" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="14"/>
+      <c r="A61" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="8">
+        <v>1</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="109" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="6">
+        <v>5</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="D62" s="14"/>
     </row>
-    <row r="63" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="14"/>
+    <row r="63" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="6">
+        <v>6</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="108" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A64" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="111">
+        <v>3</v>
+      </c>
+      <c r="C64" s="112" t="s">
+        <v>89</v>
+      </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="14"/>
+      <c r="A65" s="113"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="115" t="s">
+        <v>78</v>
+      </c>
       <c r="D65" s="14"/>
     </row>
-    <row r="66" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="14"/>
+    <row r="66" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A66" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="117">
+        <v>8</v>
+      </c>
+      <c r="C66" s="118" t="s">
+        <v>91</v>
+      </c>
       <c r="D66" s="14"/>
     </row>
-    <row r="67" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
+    <row r="67" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="6">
+        <v>3</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="14"/>
+      <c r="A68" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="6">
+        <v>1</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="D68" s="14"/>
     </row>
     <row r="69" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
+      <c r="A69" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="B69" s="6"/>
-      <c r="C69" s="14"/>
+      <c r="C69" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
@@ -21367,7 +21453,7 @@
       </c>
       <c r="B76" s="76">
         <f>SUM(B61:B75)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C76" s="107" t="s">
         <v>45</v>
@@ -21391,7 +21477,7 @@
         <v>23</v>
       </c>
       <c r="D78" s="82">
-        <v>42912</v>
+        <v>42892</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -23057,21 +23143,23 @@
     <hyperlink ref="D45" r:id="rId8"/>
     <hyperlink ref="D46" r:id="rId9"/>
     <hyperlink ref="D47" r:id="rId10"/>
+    <hyperlink ref="D61" r:id="rId11"/>
+    <hyperlink ref="D63" r:id="rId12"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" cellComments="atEnd" r:id="rId11"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" cellComments="atEnd" r:id="rId13"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ETML L,Normal"&amp;24ETML</oddHeader>
     <oddFooter>&amp;C&amp;F&amp;L&amp;D</oddFooter>
   </headerFooter>
-  <drawing r:id="rId12"/>
-  <legacyDrawing r:id="rId13"/>
+  <drawing r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="44033" r:id="rId14" name="btnImportRealisation">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="44033" r:id="rId16" name="btnImportRealisation">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -23090,7 +23178,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="44033" r:id="rId14" name="btnImportRealisation"/>
+        <control shapeId="44033" r:id="rId16" name="btnImportRealisation"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/doc/DemoMotJDT-pittierfa.xlsx
+++ b/doc/DemoMotJDT-pittierfa.xlsx
@@ -36,7 +36,7 @@
     <definedName name="objRealizedWeek" localSheetId="7">JNLTRAV!$A$1:$D$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Diagramme!$A$1:$PT$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Donnees!$A$1:$G$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">JNLTRAV!$A$1:$D$305</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">JNLTRAV!$A$1:$D$306</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Planning!$A$1:$D$224</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="100">
   <si>
     <t>Module :</t>
   </si>
@@ -352,6 +352,15 @@
   </si>
   <si>
     <t>&lt;Lien Maquette a  Mettre&gt;</t>
+  </si>
+  <si>
+    <t>Logo + bande + background =&gt; Accords avec Jimmy</t>
+  </si>
+  <si>
+    <t>Mettre contenus (textes) au centre (Problème: dans le css de base, Main.css la fonctionnalité permettant d'afficher le texte à gauche, droite ou au centre n'est pas prise en charge =&gt; Crée fichier custom.css qui ajoute ces fonctionnalités)</t>
+  </si>
+  <si>
+    <t>custom.css</t>
   </si>
 </sst>
 </file>
@@ -1526,12 +1535,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1540,6 +1543,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -3307,27 +3316,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId4" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId4" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId4" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId4" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3357,27 +3366,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId8" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId8" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId8" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId8" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3415,470 +3424,470 @@
       <c r="C2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="123" t="s">
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="124"/>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
-      <c r="AL2" s="124"/>
-      <c r="AM2" s="124"/>
-      <c r="AN2" s="124"/>
-      <c r="AO2" s="124"/>
-      <c r="AP2" s="124"/>
-      <c r="AQ2" s="124"/>
-      <c r="AR2" s="124"/>
-      <c r="AS2" s="124"/>
-      <c r="AT2" s="124"/>
-      <c r="AU2" s="124"/>
-      <c r="AV2" s="124"/>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="124"/>
-      <c r="AY2" s="124"/>
-      <c r="AZ2" s="124"/>
-      <c r="BA2" s="124"/>
-      <c r="BB2" s="124"/>
-      <c r="BC2" s="124"/>
-      <c r="BD2" s="124"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="123" t="s">
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122"/>
+      <c r="AQ2" s="122"/>
+      <c r="AR2" s="122"/>
+      <c r="AS2" s="122"/>
+      <c r="AT2" s="122"/>
+      <c r="AU2" s="122"/>
+      <c r="AV2" s="122"/>
+      <c r="AW2" s="122"/>
+      <c r="AX2" s="122"/>
+      <c r="AY2" s="122"/>
+      <c r="AZ2" s="122"/>
+      <c r="BA2" s="122"/>
+      <c r="BB2" s="122"/>
+      <c r="BC2" s="122"/>
+      <c r="BD2" s="122"/>
+      <c r="BE2" s="123"/>
+      <c r="BF2" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="BG2" s="124"/>
-      <c r="BH2" s="124"/>
-      <c r="BI2" s="124"/>
-      <c r="BJ2" s="124"/>
-      <c r="BK2" s="124"/>
-      <c r="BL2" s="124"/>
-      <c r="BM2" s="124"/>
-      <c r="BN2" s="124"/>
-      <c r="BO2" s="124"/>
-      <c r="BP2" s="124"/>
-      <c r="BQ2" s="124"/>
-      <c r="BR2" s="124"/>
-      <c r="BS2" s="124"/>
-      <c r="BT2" s="124"/>
-      <c r="BU2" s="124"/>
-      <c r="BV2" s="124"/>
-      <c r="BW2" s="124"/>
-      <c r="BX2" s="124"/>
-      <c r="BY2" s="124"/>
-      <c r="BZ2" s="124"/>
-      <c r="CA2" s="124"/>
-      <c r="CB2" s="124"/>
-      <c r="CC2" s="124"/>
-      <c r="CD2" s="124"/>
-      <c r="CE2" s="124"/>
-      <c r="CF2" s="125"/>
-      <c r="CG2" s="123" t="s">
+      <c r="BG2" s="122"/>
+      <c r="BH2" s="122"/>
+      <c r="BI2" s="122"/>
+      <c r="BJ2" s="122"/>
+      <c r="BK2" s="122"/>
+      <c r="BL2" s="122"/>
+      <c r="BM2" s="122"/>
+      <c r="BN2" s="122"/>
+      <c r="BO2" s="122"/>
+      <c r="BP2" s="122"/>
+      <c r="BQ2" s="122"/>
+      <c r="BR2" s="122"/>
+      <c r="BS2" s="122"/>
+      <c r="BT2" s="122"/>
+      <c r="BU2" s="122"/>
+      <c r="BV2" s="122"/>
+      <c r="BW2" s="122"/>
+      <c r="BX2" s="122"/>
+      <c r="BY2" s="122"/>
+      <c r="BZ2" s="122"/>
+      <c r="CA2" s="122"/>
+      <c r="CB2" s="122"/>
+      <c r="CC2" s="122"/>
+      <c r="CD2" s="122"/>
+      <c r="CE2" s="122"/>
+      <c r="CF2" s="123"/>
+      <c r="CG2" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="CH2" s="124"/>
-      <c r="CI2" s="124"/>
-      <c r="CJ2" s="124"/>
-      <c r="CK2" s="124"/>
-      <c r="CL2" s="124"/>
-      <c r="CM2" s="124"/>
-      <c r="CN2" s="124"/>
-      <c r="CO2" s="124"/>
-      <c r="CP2" s="124"/>
-      <c r="CQ2" s="124"/>
-      <c r="CR2" s="124"/>
-      <c r="CS2" s="124"/>
-      <c r="CT2" s="124"/>
-      <c r="CU2" s="124"/>
-      <c r="CV2" s="124"/>
-      <c r="CW2" s="124"/>
-      <c r="CX2" s="124"/>
-      <c r="CY2" s="124"/>
-      <c r="CZ2" s="124"/>
-      <c r="DA2" s="124"/>
-      <c r="DB2" s="124"/>
-      <c r="DC2" s="124"/>
-      <c r="DD2" s="124"/>
-      <c r="DE2" s="124"/>
-      <c r="DF2" s="124"/>
-      <c r="DG2" s="125"/>
-      <c r="DH2" s="123" t="s">
+      <c r="CH2" s="122"/>
+      <c r="CI2" s="122"/>
+      <c r="CJ2" s="122"/>
+      <c r="CK2" s="122"/>
+      <c r="CL2" s="122"/>
+      <c r="CM2" s="122"/>
+      <c r="CN2" s="122"/>
+      <c r="CO2" s="122"/>
+      <c r="CP2" s="122"/>
+      <c r="CQ2" s="122"/>
+      <c r="CR2" s="122"/>
+      <c r="CS2" s="122"/>
+      <c r="CT2" s="122"/>
+      <c r="CU2" s="122"/>
+      <c r="CV2" s="122"/>
+      <c r="CW2" s="122"/>
+      <c r="CX2" s="122"/>
+      <c r="CY2" s="122"/>
+      <c r="CZ2" s="122"/>
+      <c r="DA2" s="122"/>
+      <c r="DB2" s="122"/>
+      <c r="DC2" s="122"/>
+      <c r="DD2" s="122"/>
+      <c r="DE2" s="122"/>
+      <c r="DF2" s="122"/>
+      <c r="DG2" s="123"/>
+      <c r="DH2" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="DI2" s="124"/>
-      <c r="DJ2" s="124"/>
-      <c r="DK2" s="124"/>
-      <c r="DL2" s="124"/>
-      <c r="DM2" s="124"/>
-      <c r="DN2" s="124"/>
-      <c r="DO2" s="124"/>
-      <c r="DP2" s="124"/>
-      <c r="DQ2" s="124"/>
-      <c r="DR2" s="124"/>
-      <c r="DS2" s="124"/>
-      <c r="DT2" s="124"/>
-      <c r="DU2" s="124"/>
-      <c r="DV2" s="124"/>
-      <c r="DW2" s="124"/>
-      <c r="DX2" s="124"/>
-      <c r="DY2" s="124"/>
-      <c r="DZ2" s="124"/>
-      <c r="EA2" s="124"/>
-      <c r="EB2" s="124"/>
-      <c r="EC2" s="124"/>
-      <c r="ED2" s="124"/>
-      <c r="EE2" s="124"/>
-      <c r="EF2" s="124"/>
-      <c r="EG2" s="124"/>
-      <c r="EH2" s="125"/>
-      <c r="EI2" s="123" t="s">
+      <c r="DI2" s="122"/>
+      <c r="DJ2" s="122"/>
+      <c r="DK2" s="122"/>
+      <c r="DL2" s="122"/>
+      <c r="DM2" s="122"/>
+      <c r="DN2" s="122"/>
+      <c r="DO2" s="122"/>
+      <c r="DP2" s="122"/>
+      <c r="DQ2" s="122"/>
+      <c r="DR2" s="122"/>
+      <c r="DS2" s="122"/>
+      <c r="DT2" s="122"/>
+      <c r="DU2" s="122"/>
+      <c r="DV2" s="122"/>
+      <c r="DW2" s="122"/>
+      <c r="DX2" s="122"/>
+      <c r="DY2" s="122"/>
+      <c r="DZ2" s="122"/>
+      <c r="EA2" s="122"/>
+      <c r="EB2" s="122"/>
+      <c r="EC2" s="122"/>
+      <c r="ED2" s="122"/>
+      <c r="EE2" s="122"/>
+      <c r="EF2" s="122"/>
+      <c r="EG2" s="122"/>
+      <c r="EH2" s="123"/>
+      <c r="EI2" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="EJ2" s="124"/>
-      <c r="EK2" s="124"/>
-      <c r="EL2" s="124"/>
-      <c r="EM2" s="124"/>
-      <c r="EN2" s="124"/>
-      <c r="EO2" s="124"/>
-      <c r="EP2" s="124"/>
-      <c r="EQ2" s="124"/>
-      <c r="ER2" s="124"/>
-      <c r="ES2" s="124"/>
-      <c r="ET2" s="124"/>
-      <c r="EU2" s="124"/>
-      <c r="EV2" s="124"/>
-      <c r="EW2" s="124"/>
-      <c r="EX2" s="124"/>
-      <c r="EY2" s="124"/>
-      <c r="EZ2" s="124"/>
-      <c r="FA2" s="124"/>
-      <c r="FB2" s="124"/>
-      <c r="FC2" s="124"/>
-      <c r="FD2" s="124"/>
-      <c r="FE2" s="124"/>
-      <c r="FF2" s="124"/>
-      <c r="FG2" s="124"/>
-      <c r="FH2" s="124"/>
-      <c r="FI2" s="125"/>
-      <c r="FJ2" s="123" t="s">
+      <c r="EJ2" s="122"/>
+      <c r="EK2" s="122"/>
+      <c r="EL2" s="122"/>
+      <c r="EM2" s="122"/>
+      <c r="EN2" s="122"/>
+      <c r="EO2" s="122"/>
+      <c r="EP2" s="122"/>
+      <c r="EQ2" s="122"/>
+      <c r="ER2" s="122"/>
+      <c r="ES2" s="122"/>
+      <c r="ET2" s="122"/>
+      <c r="EU2" s="122"/>
+      <c r="EV2" s="122"/>
+      <c r="EW2" s="122"/>
+      <c r="EX2" s="122"/>
+      <c r="EY2" s="122"/>
+      <c r="EZ2" s="122"/>
+      <c r="FA2" s="122"/>
+      <c r="FB2" s="122"/>
+      <c r="FC2" s="122"/>
+      <c r="FD2" s="122"/>
+      <c r="FE2" s="122"/>
+      <c r="FF2" s="122"/>
+      <c r="FG2" s="122"/>
+      <c r="FH2" s="122"/>
+      <c r="FI2" s="123"/>
+      <c r="FJ2" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="FK2" s="124"/>
-      <c r="FL2" s="124"/>
-      <c r="FM2" s="124"/>
-      <c r="FN2" s="124"/>
-      <c r="FO2" s="124"/>
-      <c r="FP2" s="124"/>
-      <c r="FQ2" s="124"/>
-      <c r="FR2" s="124"/>
-      <c r="FS2" s="124"/>
-      <c r="FT2" s="124"/>
-      <c r="FU2" s="124"/>
-      <c r="FV2" s="124"/>
-      <c r="FW2" s="124"/>
-      <c r="FX2" s="124"/>
-      <c r="FY2" s="124"/>
-      <c r="FZ2" s="124"/>
-      <c r="GA2" s="124"/>
-      <c r="GB2" s="124"/>
-      <c r="GC2" s="124"/>
-      <c r="GD2" s="124"/>
-      <c r="GE2" s="124"/>
-      <c r="GF2" s="124"/>
-      <c r="GG2" s="124"/>
-      <c r="GH2" s="124"/>
-      <c r="GI2" s="124"/>
-      <c r="GJ2" s="125"/>
-      <c r="GK2" s="123" t="s">
+      <c r="FK2" s="122"/>
+      <c r="FL2" s="122"/>
+      <c r="FM2" s="122"/>
+      <c r="FN2" s="122"/>
+      <c r="FO2" s="122"/>
+      <c r="FP2" s="122"/>
+      <c r="FQ2" s="122"/>
+      <c r="FR2" s="122"/>
+      <c r="FS2" s="122"/>
+      <c r="FT2" s="122"/>
+      <c r="FU2" s="122"/>
+      <c r="FV2" s="122"/>
+      <c r="FW2" s="122"/>
+      <c r="FX2" s="122"/>
+      <c r="FY2" s="122"/>
+      <c r="FZ2" s="122"/>
+      <c r="GA2" s="122"/>
+      <c r="GB2" s="122"/>
+      <c r="GC2" s="122"/>
+      <c r="GD2" s="122"/>
+      <c r="GE2" s="122"/>
+      <c r="GF2" s="122"/>
+      <c r="GG2" s="122"/>
+      <c r="GH2" s="122"/>
+      <c r="GI2" s="122"/>
+      <c r="GJ2" s="123"/>
+      <c r="GK2" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="GL2" s="124"/>
-      <c r="GM2" s="124"/>
-      <c r="GN2" s="124"/>
-      <c r="GO2" s="124"/>
-      <c r="GP2" s="124"/>
-      <c r="GQ2" s="124"/>
-      <c r="GR2" s="124"/>
-      <c r="GS2" s="124"/>
-      <c r="GT2" s="124"/>
-      <c r="GU2" s="124"/>
-      <c r="GV2" s="124"/>
-      <c r="GW2" s="124"/>
-      <c r="GX2" s="124"/>
-      <c r="GY2" s="124"/>
-      <c r="GZ2" s="124"/>
-      <c r="HA2" s="124"/>
-      <c r="HB2" s="124"/>
-      <c r="HC2" s="124"/>
-      <c r="HD2" s="124"/>
-      <c r="HE2" s="124"/>
-      <c r="HF2" s="124"/>
-      <c r="HG2" s="124"/>
-      <c r="HH2" s="124"/>
-      <c r="HI2" s="124"/>
-      <c r="HJ2" s="124"/>
-      <c r="HK2" s="125"/>
-      <c r="HL2" s="123" t="s">
+      <c r="GL2" s="122"/>
+      <c r="GM2" s="122"/>
+      <c r="GN2" s="122"/>
+      <c r="GO2" s="122"/>
+      <c r="GP2" s="122"/>
+      <c r="GQ2" s="122"/>
+      <c r="GR2" s="122"/>
+      <c r="GS2" s="122"/>
+      <c r="GT2" s="122"/>
+      <c r="GU2" s="122"/>
+      <c r="GV2" s="122"/>
+      <c r="GW2" s="122"/>
+      <c r="GX2" s="122"/>
+      <c r="GY2" s="122"/>
+      <c r="GZ2" s="122"/>
+      <c r="HA2" s="122"/>
+      <c r="HB2" s="122"/>
+      <c r="HC2" s="122"/>
+      <c r="HD2" s="122"/>
+      <c r="HE2" s="122"/>
+      <c r="HF2" s="122"/>
+      <c r="HG2" s="122"/>
+      <c r="HH2" s="122"/>
+      <c r="HI2" s="122"/>
+      <c r="HJ2" s="122"/>
+      <c r="HK2" s="123"/>
+      <c r="HL2" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="HM2" s="124"/>
-      <c r="HN2" s="124"/>
-      <c r="HO2" s="124"/>
-      <c r="HP2" s="124"/>
-      <c r="HQ2" s="124"/>
-      <c r="HR2" s="124"/>
-      <c r="HS2" s="124"/>
-      <c r="HT2" s="124"/>
-      <c r="HU2" s="124"/>
-      <c r="HV2" s="124"/>
-      <c r="HW2" s="124"/>
-      <c r="HX2" s="124"/>
-      <c r="HY2" s="124"/>
-      <c r="HZ2" s="124"/>
-      <c r="IA2" s="124"/>
-      <c r="IB2" s="124"/>
-      <c r="IC2" s="124"/>
-      <c r="ID2" s="124"/>
-      <c r="IE2" s="124"/>
-      <c r="IF2" s="124"/>
-      <c r="IG2" s="124"/>
-      <c r="IH2" s="124"/>
-      <c r="II2" s="124"/>
-      <c r="IJ2" s="124"/>
-      <c r="IK2" s="124"/>
-      <c r="IL2" s="125"/>
-      <c r="IM2" s="123" t="s">
+      <c r="HM2" s="122"/>
+      <c r="HN2" s="122"/>
+      <c r="HO2" s="122"/>
+      <c r="HP2" s="122"/>
+      <c r="HQ2" s="122"/>
+      <c r="HR2" s="122"/>
+      <c r="HS2" s="122"/>
+      <c r="HT2" s="122"/>
+      <c r="HU2" s="122"/>
+      <c r="HV2" s="122"/>
+      <c r="HW2" s="122"/>
+      <c r="HX2" s="122"/>
+      <c r="HY2" s="122"/>
+      <c r="HZ2" s="122"/>
+      <c r="IA2" s="122"/>
+      <c r="IB2" s="122"/>
+      <c r="IC2" s="122"/>
+      <c r="ID2" s="122"/>
+      <c r="IE2" s="122"/>
+      <c r="IF2" s="122"/>
+      <c r="IG2" s="122"/>
+      <c r="IH2" s="122"/>
+      <c r="II2" s="122"/>
+      <c r="IJ2" s="122"/>
+      <c r="IK2" s="122"/>
+      <c r="IL2" s="123"/>
+      <c r="IM2" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="IN2" s="124"/>
-      <c r="IO2" s="124"/>
-      <c r="IP2" s="124"/>
-      <c r="IQ2" s="124"/>
-      <c r="IR2" s="124"/>
-      <c r="IS2" s="124"/>
-      <c r="IT2" s="124"/>
-      <c r="IU2" s="124"/>
-      <c r="IV2" s="124"/>
-      <c r="IW2" s="124"/>
-      <c r="IX2" s="124"/>
-      <c r="IY2" s="124"/>
-      <c r="IZ2" s="124"/>
-      <c r="JA2" s="124"/>
-      <c r="JB2" s="124"/>
-      <c r="JC2" s="124"/>
-      <c r="JD2" s="124"/>
-      <c r="JE2" s="124"/>
-      <c r="JF2" s="124"/>
-      <c r="JG2" s="124"/>
-      <c r="JH2" s="124"/>
-      <c r="JI2" s="124"/>
-      <c r="JJ2" s="124"/>
-      <c r="JK2" s="124"/>
-      <c r="JL2" s="124"/>
-      <c r="JM2" s="125"/>
-      <c r="JN2" s="123" t="s">
+      <c r="IN2" s="122"/>
+      <c r="IO2" s="122"/>
+      <c r="IP2" s="122"/>
+      <c r="IQ2" s="122"/>
+      <c r="IR2" s="122"/>
+      <c r="IS2" s="122"/>
+      <c r="IT2" s="122"/>
+      <c r="IU2" s="122"/>
+      <c r="IV2" s="122"/>
+      <c r="IW2" s="122"/>
+      <c r="IX2" s="122"/>
+      <c r="IY2" s="122"/>
+      <c r="IZ2" s="122"/>
+      <c r="JA2" s="122"/>
+      <c r="JB2" s="122"/>
+      <c r="JC2" s="122"/>
+      <c r="JD2" s="122"/>
+      <c r="JE2" s="122"/>
+      <c r="JF2" s="122"/>
+      <c r="JG2" s="122"/>
+      <c r="JH2" s="122"/>
+      <c r="JI2" s="122"/>
+      <c r="JJ2" s="122"/>
+      <c r="JK2" s="122"/>
+      <c r="JL2" s="122"/>
+      <c r="JM2" s="123"/>
+      <c r="JN2" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="JO2" s="124"/>
-      <c r="JP2" s="124"/>
-      <c r="JQ2" s="124"/>
-      <c r="JR2" s="124"/>
-      <c r="JS2" s="124"/>
-      <c r="JT2" s="124"/>
-      <c r="JU2" s="124"/>
-      <c r="JV2" s="124"/>
-      <c r="JW2" s="124"/>
-      <c r="JX2" s="124"/>
-      <c r="JY2" s="124"/>
-      <c r="JZ2" s="124"/>
-      <c r="KA2" s="124"/>
-      <c r="KB2" s="124"/>
-      <c r="KC2" s="124"/>
-      <c r="KD2" s="124"/>
-      <c r="KE2" s="124"/>
-      <c r="KF2" s="124"/>
-      <c r="KG2" s="124"/>
-      <c r="KH2" s="124"/>
-      <c r="KI2" s="124"/>
-      <c r="KJ2" s="124"/>
-      <c r="KK2" s="124"/>
-      <c r="KL2" s="124"/>
-      <c r="KM2" s="124"/>
-      <c r="KN2" s="125"/>
-      <c r="KO2" s="123" t="s">
+      <c r="JO2" s="122"/>
+      <c r="JP2" s="122"/>
+      <c r="JQ2" s="122"/>
+      <c r="JR2" s="122"/>
+      <c r="JS2" s="122"/>
+      <c r="JT2" s="122"/>
+      <c r="JU2" s="122"/>
+      <c r="JV2" s="122"/>
+      <c r="JW2" s="122"/>
+      <c r="JX2" s="122"/>
+      <c r="JY2" s="122"/>
+      <c r="JZ2" s="122"/>
+      <c r="KA2" s="122"/>
+      <c r="KB2" s="122"/>
+      <c r="KC2" s="122"/>
+      <c r="KD2" s="122"/>
+      <c r="KE2" s="122"/>
+      <c r="KF2" s="122"/>
+      <c r="KG2" s="122"/>
+      <c r="KH2" s="122"/>
+      <c r="KI2" s="122"/>
+      <c r="KJ2" s="122"/>
+      <c r="KK2" s="122"/>
+      <c r="KL2" s="122"/>
+      <c r="KM2" s="122"/>
+      <c r="KN2" s="123"/>
+      <c r="KO2" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="KP2" s="124"/>
-      <c r="KQ2" s="124"/>
-      <c r="KR2" s="124"/>
-      <c r="KS2" s="124"/>
-      <c r="KT2" s="124"/>
-      <c r="KU2" s="124"/>
-      <c r="KV2" s="124"/>
-      <c r="KW2" s="124"/>
-      <c r="KX2" s="124"/>
-      <c r="KY2" s="124"/>
-      <c r="KZ2" s="124"/>
-      <c r="LA2" s="124"/>
-      <c r="LB2" s="124"/>
-      <c r="LC2" s="124"/>
-      <c r="LD2" s="124"/>
-      <c r="LE2" s="124"/>
-      <c r="LF2" s="124"/>
-      <c r="LG2" s="124"/>
-      <c r="LH2" s="124"/>
-      <c r="LI2" s="124"/>
-      <c r="LJ2" s="124"/>
-      <c r="LK2" s="124"/>
-      <c r="LL2" s="124"/>
-      <c r="LM2" s="124"/>
-      <c r="LN2" s="124"/>
-      <c r="LO2" s="125"/>
-      <c r="LP2" s="123" t="s">
+      <c r="KP2" s="122"/>
+      <c r="KQ2" s="122"/>
+      <c r="KR2" s="122"/>
+      <c r="KS2" s="122"/>
+      <c r="KT2" s="122"/>
+      <c r="KU2" s="122"/>
+      <c r="KV2" s="122"/>
+      <c r="KW2" s="122"/>
+      <c r="KX2" s="122"/>
+      <c r="KY2" s="122"/>
+      <c r="KZ2" s="122"/>
+      <c r="LA2" s="122"/>
+      <c r="LB2" s="122"/>
+      <c r="LC2" s="122"/>
+      <c r="LD2" s="122"/>
+      <c r="LE2" s="122"/>
+      <c r="LF2" s="122"/>
+      <c r="LG2" s="122"/>
+      <c r="LH2" s="122"/>
+      <c r="LI2" s="122"/>
+      <c r="LJ2" s="122"/>
+      <c r="LK2" s="122"/>
+      <c r="LL2" s="122"/>
+      <c r="LM2" s="122"/>
+      <c r="LN2" s="122"/>
+      <c r="LO2" s="123"/>
+      <c r="LP2" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="LQ2" s="124"/>
-      <c r="LR2" s="124"/>
-      <c r="LS2" s="124"/>
-      <c r="LT2" s="124"/>
-      <c r="LU2" s="124"/>
-      <c r="LV2" s="124"/>
-      <c r="LW2" s="124"/>
-      <c r="LX2" s="124"/>
-      <c r="LY2" s="124"/>
-      <c r="LZ2" s="124"/>
-      <c r="MA2" s="124"/>
-      <c r="MB2" s="124"/>
-      <c r="MC2" s="124"/>
-      <c r="MD2" s="124"/>
-      <c r="ME2" s="124"/>
-      <c r="MF2" s="124"/>
-      <c r="MG2" s="124"/>
-      <c r="MH2" s="124"/>
-      <c r="MI2" s="124"/>
-      <c r="MJ2" s="124"/>
-      <c r="MK2" s="124"/>
-      <c r="ML2" s="124"/>
-      <c r="MM2" s="124"/>
-      <c r="MN2" s="124"/>
-      <c r="MO2" s="124"/>
-      <c r="MP2" s="125"/>
-      <c r="MQ2" s="123" t="s">
+      <c r="LQ2" s="122"/>
+      <c r="LR2" s="122"/>
+      <c r="LS2" s="122"/>
+      <c r="LT2" s="122"/>
+      <c r="LU2" s="122"/>
+      <c r="LV2" s="122"/>
+      <c r="LW2" s="122"/>
+      <c r="LX2" s="122"/>
+      <c r="LY2" s="122"/>
+      <c r="LZ2" s="122"/>
+      <c r="MA2" s="122"/>
+      <c r="MB2" s="122"/>
+      <c r="MC2" s="122"/>
+      <c r="MD2" s="122"/>
+      <c r="ME2" s="122"/>
+      <c r="MF2" s="122"/>
+      <c r="MG2" s="122"/>
+      <c r="MH2" s="122"/>
+      <c r="MI2" s="122"/>
+      <c r="MJ2" s="122"/>
+      <c r="MK2" s="122"/>
+      <c r="ML2" s="122"/>
+      <c r="MM2" s="122"/>
+      <c r="MN2" s="122"/>
+      <c r="MO2" s="122"/>
+      <c r="MP2" s="123"/>
+      <c r="MQ2" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="MR2" s="124"/>
-      <c r="MS2" s="124"/>
-      <c r="MT2" s="124"/>
-      <c r="MU2" s="124"/>
-      <c r="MV2" s="124"/>
-      <c r="MW2" s="124"/>
-      <c r="MX2" s="124"/>
-      <c r="MY2" s="124"/>
-      <c r="MZ2" s="124"/>
-      <c r="NA2" s="124"/>
-      <c r="NB2" s="124"/>
-      <c r="NC2" s="124"/>
-      <c r="ND2" s="124"/>
-      <c r="NE2" s="124"/>
-      <c r="NF2" s="124"/>
-      <c r="NG2" s="124"/>
-      <c r="NH2" s="124"/>
-      <c r="NI2" s="124"/>
-      <c r="NJ2" s="124"/>
-      <c r="NK2" s="124"/>
-      <c r="NL2" s="124"/>
-      <c r="NM2" s="124"/>
-      <c r="NN2" s="124"/>
-      <c r="NO2" s="124"/>
-      <c r="NP2" s="124"/>
-      <c r="NQ2" s="125"/>
-      <c r="NR2" s="123" t="s">
+      <c r="MR2" s="122"/>
+      <c r="MS2" s="122"/>
+      <c r="MT2" s="122"/>
+      <c r="MU2" s="122"/>
+      <c r="MV2" s="122"/>
+      <c r="MW2" s="122"/>
+      <c r="MX2" s="122"/>
+      <c r="MY2" s="122"/>
+      <c r="MZ2" s="122"/>
+      <c r="NA2" s="122"/>
+      <c r="NB2" s="122"/>
+      <c r="NC2" s="122"/>
+      <c r="ND2" s="122"/>
+      <c r="NE2" s="122"/>
+      <c r="NF2" s="122"/>
+      <c r="NG2" s="122"/>
+      <c r="NH2" s="122"/>
+      <c r="NI2" s="122"/>
+      <c r="NJ2" s="122"/>
+      <c r="NK2" s="122"/>
+      <c r="NL2" s="122"/>
+      <c r="NM2" s="122"/>
+      <c r="NN2" s="122"/>
+      <c r="NO2" s="122"/>
+      <c r="NP2" s="122"/>
+      <c r="NQ2" s="123"/>
+      <c r="NR2" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="NS2" s="124"/>
-      <c r="NT2" s="124"/>
-      <c r="NU2" s="124"/>
-      <c r="NV2" s="124"/>
-      <c r="NW2" s="124"/>
-      <c r="NX2" s="124"/>
-      <c r="NY2" s="124"/>
-      <c r="NZ2" s="124"/>
-      <c r="OA2" s="124"/>
-      <c r="OB2" s="124"/>
-      <c r="OC2" s="124"/>
-      <c r="OD2" s="124"/>
-      <c r="OE2" s="124"/>
-      <c r="OF2" s="124"/>
-      <c r="OG2" s="124"/>
-      <c r="OH2" s="124"/>
-      <c r="OI2" s="124"/>
-      <c r="OJ2" s="124"/>
-      <c r="OK2" s="124"/>
-      <c r="OL2" s="124"/>
-      <c r="OM2" s="124"/>
-      <c r="ON2" s="124"/>
-      <c r="OO2" s="124"/>
-      <c r="OP2" s="124"/>
-      <c r="OQ2" s="124"/>
-      <c r="OR2" s="125"/>
-      <c r="OS2" s="123" t="s">
+      <c r="NS2" s="122"/>
+      <c r="NT2" s="122"/>
+      <c r="NU2" s="122"/>
+      <c r="NV2" s="122"/>
+      <c r="NW2" s="122"/>
+      <c r="NX2" s="122"/>
+      <c r="NY2" s="122"/>
+      <c r="NZ2" s="122"/>
+      <c r="OA2" s="122"/>
+      <c r="OB2" s="122"/>
+      <c r="OC2" s="122"/>
+      <c r="OD2" s="122"/>
+      <c r="OE2" s="122"/>
+      <c r="OF2" s="122"/>
+      <c r="OG2" s="122"/>
+      <c r="OH2" s="122"/>
+      <c r="OI2" s="122"/>
+      <c r="OJ2" s="122"/>
+      <c r="OK2" s="122"/>
+      <c r="OL2" s="122"/>
+      <c r="OM2" s="122"/>
+      <c r="ON2" s="122"/>
+      <c r="OO2" s="122"/>
+      <c r="OP2" s="122"/>
+      <c r="OQ2" s="122"/>
+      <c r="OR2" s="123"/>
+      <c r="OS2" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="OT2" s="124"/>
-      <c r="OU2" s="124"/>
-      <c r="OV2" s="124"/>
-      <c r="OW2" s="124"/>
-      <c r="OX2" s="124"/>
-      <c r="OY2" s="124"/>
-      <c r="OZ2" s="124"/>
-      <c r="PA2" s="124"/>
-      <c r="PB2" s="124"/>
-      <c r="PC2" s="124"/>
-      <c r="PD2" s="124"/>
-      <c r="PE2" s="124"/>
-      <c r="PF2" s="124"/>
-      <c r="PG2" s="124"/>
-      <c r="PH2" s="124"/>
-      <c r="PI2" s="124"/>
-      <c r="PJ2" s="124"/>
-      <c r="PK2" s="124"/>
-      <c r="PL2" s="124"/>
-      <c r="PM2" s="124"/>
-      <c r="PN2" s="124"/>
-      <c r="PO2" s="124"/>
-      <c r="PP2" s="124"/>
-      <c r="PQ2" s="124"/>
-      <c r="PR2" s="124"/>
-      <c r="PS2" s="125"/>
+      <c r="OT2" s="122"/>
+      <c r="OU2" s="122"/>
+      <c r="OV2" s="122"/>
+      <c r="OW2" s="122"/>
+      <c r="OX2" s="122"/>
+      <c r="OY2" s="122"/>
+      <c r="OZ2" s="122"/>
+      <c r="PA2" s="122"/>
+      <c r="PB2" s="122"/>
+      <c r="PC2" s="122"/>
+      <c r="PD2" s="122"/>
+      <c r="PE2" s="122"/>
+      <c r="PF2" s="122"/>
+      <c r="PG2" s="122"/>
+      <c r="PH2" s="122"/>
+      <c r="PI2" s="122"/>
+      <c r="PJ2" s="122"/>
+      <c r="PK2" s="122"/>
+      <c r="PL2" s="122"/>
+      <c r="PM2" s="122"/>
+      <c r="PN2" s="122"/>
+      <c r="PO2" s="122"/>
+      <c r="PP2" s="122"/>
+      <c r="PQ2" s="122"/>
+      <c r="PR2" s="122"/>
+      <c r="PS2" s="123"/>
     </row>
     <row r="3" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="85"/>
@@ -5202,7 +5211,7 @@
       <c r="PS5" s="90"/>
     </row>
     <row r="6" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="122"/>
+      <c r="B6" s="125"/>
       <c r="C6" s="97">
         <v>0</v>
       </c>
@@ -5640,7 +5649,7 @@
       <c r="PS6" s="95"/>
     </row>
     <row r="7" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="121" t="str">
+      <c r="B7" s="124" t="str">
         <f>Donnees!$C$22</f>
         <v>Mise en place Trello</v>
       </c>
@@ -6081,7 +6090,7 @@
       <c r="PS7" s="90"/>
     </row>
     <row r="8" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="122"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="97">
         <v>0</v>
       </c>
@@ -6519,7 +6528,7 @@
       <c r="PS8" s="95"/>
     </row>
     <row r="9" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="121" t="str">
+      <c r="B9" s="124" t="str">
         <f>Donnees!$C$23</f>
         <v>Mise en place GitKraken</v>
       </c>
@@ -6960,7 +6969,7 @@
       <c r="PS9" s="90"/>
     </row>
     <row r="10" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="122"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="97">
         <v>0</v>
       </c>
@@ -7398,7 +7407,7 @@
       <c r="PS10" s="95"/>
     </row>
     <row r="11" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="121" t="str">
+      <c r="B11" s="124" t="str">
         <f>Donnees!$C$24</f>
         <v>Mise à jour Trello</v>
       </c>
@@ -7839,7 +7848,7 @@
       <c r="PS11" s="90"/>
     </row>
     <row r="12" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="122"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="97">
         <v>0</v>
       </c>
@@ -8277,7 +8286,7 @@
       <c r="PS12" s="95"/>
     </row>
     <row r="13" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="121" t="str">
+      <c r="B13" s="124" t="str">
         <f>Donnees!$C$25</f>
         <v>Mise à jour GitKraken</v>
       </c>
@@ -8718,7 +8727,7 @@
       <c r="PS13" s="90"/>
     </row>
     <row r="14" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="122"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="97">
         <v>0</v>
       </c>
@@ -9156,7 +9165,7 @@
       <c r="PS14" s="95"/>
     </row>
     <row r="15" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="121" t="str">
+      <c r="B15" s="124" t="str">
         <f>Donnees!$C$26</f>
         <v>Recherches</v>
       </c>
@@ -9598,7 +9607,7 @@
     </row>
     <row r="16" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="104"/>
-      <c r="B16" s="122"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="97">
         <v>0</v>
       </c>
@@ -10036,7 +10045,7 @@
       <c r="PS16" s="95"/>
     </row>
     <row r="17" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="121" t="str">
+      <c r="B17" s="124" t="str">
         <f>Donnees!$C$27</f>
         <v>Création plannif + JDT</v>
       </c>
@@ -10477,7 +10486,7 @@
       <c r="PS17" s="90"/>
     </row>
     <row r="18" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="122"/>
+      <c r="B18" s="125"/>
       <c r="C18" s="97">
         <v>0</v>
       </c>
@@ -10915,7 +10924,7 @@
       <c r="PS18" s="95"/>
     </row>
     <row r="19" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="121" t="str">
+      <c r="B19" s="124" t="str">
         <f>Donnees!$C$28</f>
         <v>Mise à jour du JDT</v>
       </c>
@@ -11356,7 +11365,7 @@
       <c r="PS19" s="90"/>
     </row>
     <row r="20" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="122"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="97">
         <v>0</v>
       </c>
@@ -11794,7 +11803,7 @@
       <c r="PS20" s="95"/>
     </row>
     <row r="21" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="121" t="str">
+      <c r="B21" s="124" t="str">
         <f>Donnees!$C$29</f>
         <v>Daily Scrum</v>
       </c>
@@ -12235,7 +12244,7 @@
       <c r="PS21" s="90"/>
     </row>
     <row r="22" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="122"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="97">
         <v>0</v>
       </c>
@@ -12673,7 +12682,7 @@
       <c r="PS22" s="95"/>
     </row>
     <row r="23" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="121" t="str">
+      <c r="B23" s="124" t="str">
         <f>Donnees!$C$30</f>
         <v>HTML</v>
       </c>
@@ -13114,7 +13123,7 @@
       <c r="PS23" s="90"/>
     </row>
     <row r="24" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="122"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="97">
         <v>0</v>
       </c>
@@ -13552,7 +13561,7 @@
       <c r="PS24" s="95"/>
     </row>
     <row r="25" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="121" t="str">
+      <c r="B25" s="124" t="str">
         <f>Donnees!$C$31</f>
         <v>Base de donnée</v>
       </c>
@@ -13993,7 +14002,7 @@
       <c r="PS25" s="90"/>
     </row>
     <row r="26" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="122"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="97">
         <v>0</v>
       </c>
@@ -14431,7 +14440,7 @@
       <c r="PS26" s="95"/>
     </row>
     <row r="27" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="121" t="str">
+      <c r="B27" s="124" t="str">
         <f>Donnees!$C$32</f>
         <v>PHP</v>
       </c>
@@ -14872,7 +14881,7 @@
       <c r="PS27" s="90"/>
     </row>
     <row r="28" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="122"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="97">
         <v>0</v>
       </c>
@@ -15310,7 +15319,7 @@
       <c r="PS28" s="95"/>
     </row>
     <row r="29" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="121" t="str">
+      <c r="B29" s="124" t="str">
         <f>Donnees!$C$33</f>
         <v>Typo3</v>
       </c>
@@ -15751,7 +15760,7 @@
       <c r="PS29" s="90"/>
     </row>
     <row r="30" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="122"/>
+      <c r="B30" s="125"/>
       <c r="C30" s="97">
         <v>0</v>
       </c>
@@ -16189,7 +16198,7 @@
       <c r="PS30" s="95"/>
     </row>
     <row r="31" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="121" t="str">
+      <c r="B31" s="124" t="str">
         <f>Donnees!$C$34</f>
         <v>Création jeu flash</v>
       </c>
@@ -16630,7 +16639,7 @@
       <c r="PS31" s="90"/>
     </row>
     <row r="32" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="122"/>
+      <c r="B32" s="125"/>
       <c r="C32" s="97">
         <v>0</v>
       </c>
@@ -17952,13 +17961,14 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" selectLockedCells="1"/>
   <mergeCells count="31">
-    <mergeCell ref="OS2:PS2"/>
-    <mergeCell ref="IM2:JM2"/>
-    <mergeCell ref="JN2:KN2"/>
-    <mergeCell ref="KO2:LO2"/>
-    <mergeCell ref="LP2:MP2"/>
-    <mergeCell ref="MQ2:NQ2"/>
-    <mergeCell ref="NR2:OR2"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="HL2:IL2"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="CG2:DG2"/>
+    <mergeCell ref="DH2:EH2"/>
+    <mergeCell ref="EI2:FI2"/>
+    <mergeCell ref="FJ2:GJ2"/>
+    <mergeCell ref="GK2:HK2"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="D2:AD2"/>
@@ -17975,14 +17985,13 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="HL2:IL2"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="CG2:DG2"/>
-    <mergeCell ref="DH2:EH2"/>
-    <mergeCell ref="EI2:FI2"/>
-    <mergeCell ref="FJ2:GJ2"/>
-    <mergeCell ref="GK2:HK2"/>
+    <mergeCell ref="OS2:PS2"/>
+    <mergeCell ref="IM2:JM2"/>
+    <mergeCell ref="JN2:KN2"/>
+    <mergeCell ref="KO2:LO2"/>
+    <mergeCell ref="LP2:MP2"/>
+    <mergeCell ref="MQ2:NQ2"/>
+    <mergeCell ref="NR2:OR2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="DureeTropLongue" error="Cette durée est invalide: ce n'est pas un chiffre entier positif ou elle dépasse la &quot;Durée totale&quot; définie plus haut ..." sqref="C33">
@@ -20649,10 +20658,10 @@
   <sheetPr codeName="Feuil9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I306"/>
+  <dimension ref="A1:I307"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B67" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21495,10 +21504,16 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
+      <c r="A80" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="8">
+        <v>15</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="109"/>
     </row>
     <row r="81" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
@@ -21507,39 +21522,73 @@
       <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-    </row>
-    <row r="83" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
+      <c r="A82" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="6">
+        <v>1</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" s="108" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" s="6">
+        <v>9</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" s="108" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="84" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
+      <c r="C84" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D84" s="108"/>
     </row>
     <row r="85" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="14"/>
+      <c r="A85" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" s="6">
+        <v>1</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="14"/>
+      <c r="A86" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" s="6">
+        <v>1</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="5"/>
+      <c r="A87" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="B87" s="6"/>
-      <c r="C87" s="14"/>
+      <c r="C87" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
@@ -21549,7 +21598,7 @@
       <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="6"/>
+      <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
@@ -21567,10 +21616,10 @@
       <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="79"/>
-      <c r="B92" s="79"/>
-      <c r="C92" s="80"/>
-      <c r="D92" s="80"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A93" s="79"/>
@@ -21578,70 +21627,70 @@
       <c r="C93" s="80"/>
       <c r="D93" s="80"/>
     </row>
-    <row r="94" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
+    <row r="94" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="79"/>
+      <c r="B94" s="79"/>
+      <c r="C94" s="80"/>
+      <c r="D94" s="80"/>
     </row>
     <row r="95" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="76" t="s">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+    </row>
+    <row r="96" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="76">
-        <f>SUM(B80:B94)</f>
-        <v>0</v>
-      </c>
-      <c r="C95" s="107" t="s">
+      <c r="B96" s="76">
+        <f>SUM(B80:B95)</f>
+        <v>27</v>
+      </c>
+      <c r="C96" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D95" s="77"/>
-    </row>
-    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="78"/>
-      <c r="B96" s="78"/>
-      <c r="C96" s="78"/>
-      <c r="D96" s="78"/>
-    </row>
-    <row r="97" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="71" t="s">
+      <c r="D96" s="77"/>
+    </row>
+    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="78"/>
+      <c r="B97" s="78"/>
+      <c r="C97" s="78"/>
+      <c r="D97" s="78"/>
+    </row>
+    <row r="98" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B97" s="72">
+      <c r="B98" s="72">
         <v>6</v>
       </c>
-      <c r="C97" s="73" t="s">
+      <c r="C98" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D97" s="82">
+      <c r="D98" s="82">
         <v>42919</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="74" t="s">
+    <row r="99" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="75" t="s">
+      <c r="B99" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C98" s="74" t="s">
+      <c r="C99" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D98" s="74" t="s">
+      <c r="D99" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="9"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-    </row>
     <row r="100" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
@@ -21686,7 +21735,7 @@
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="6"/>
+      <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="14"/>
       <c r="D108" s="14"/>
@@ -21704,10 +21753,10 @@
       <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="79"/>
-      <c r="B111" s="79"/>
-      <c r="C111" s="80"/>
-      <c r="D111" s="80"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A112" s="79"/>
@@ -21715,70 +21764,70 @@
       <c r="C112" s="80"/>
       <c r="D112" s="80"/>
     </row>
-    <row r="113" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
+    <row r="113" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="79"/>
+      <c r="B113" s="79"/>
+      <c r="C113" s="80"/>
+      <c r="D113" s="80"/>
     </row>
     <row r="114" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="76" t="s">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+    </row>
+    <row r="115" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B114" s="76">
-        <f>SUM(B99:B113)</f>
+      <c r="B115" s="76">
+        <f>SUM(B100:B114)</f>
         <v>0</v>
       </c>
-      <c r="C114" s="107" t="s">
+      <c r="C115" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D114" s="77"/>
-    </row>
-    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="78"/>
-      <c r="B115" s="78"/>
-      <c r="C115" s="78"/>
-      <c r="D115" s="78"/>
-    </row>
-    <row r="116" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="71" t="s">
+      <c r="D115" s="77"/>
+    </row>
+    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="78"/>
+      <c r="B116" s="78"/>
+      <c r="C116" s="78"/>
+      <c r="D116" s="78"/>
+    </row>
+    <row r="117" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B116" s="72">
+      <c r="B117" s="72">
         <v>7</v>
       </c>
-      <c r="C116" s="73" t="s">
+      <c r="C117" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D116" s="82">
+      <c r="D117" s="82">
         <v>42926</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="74" t="s">
+    <row r="118" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B117" s="75" t="s">
+      <c r="B118" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C117" s="74" t="s">
+      <c r="C118" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D117" s="74" t="s">
+      <c r="D118" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="9"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-    </row>
     <row r="119" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="5"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
+      <c r="A119" s="9"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
     </row>
     <row r="120" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
@@ -21823,7 +21872,7 @@
       <c r="D126" s="14"/>
     </row>
     <row r="127" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="6"/>
+      <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="14"/>
       <c r="D127" s="14"/>
@@ -21841,10 +21890,10 @@
       <c r="D129" s="14"/>
     </row>
     <row r="130" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="79"/>
-      <c r="B130" s="79"/>
-      <c r="C130" s="80"/>
-      <c r="D130" s="80"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
     </row>
     <row r="131" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A131" s="79"/>
@@ -21852,70 +21901,70 @@
       <c r="C131" s="80"/>
       <c r="D131" s="80"/>
     </row>
-    <row r="132" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
+    <row r="132" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="79"/>
+      <c r="B132" s="79"/>
+      <c r="C132" s="80"/>
+      <c r="D132" s="80"/>
     </row>
     <row r="133" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="76" t="s">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+    </row>
+    <row r="134" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B133" s="76">
-        <f>SUM(B118:B132)</f>
+      <c r="B134" s="76">
+        <f>SUM(B119:B133)</f>
         <v>0</v>
       </c>
-      <c r="C133" s="107" t="s">
+      <c r="C134" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D133" s="77"/>
-    </row>
-    <row r="134" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="78"/>
-      <c r="B134" s="78"/>
-      <c r="C134" s="78"/>
-      <c r="D134" s="78"/>
-    </row>
-    <row r="135" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="71" t="s">
+      <c r="D134" s="77"/>
+    </row>
+    <row r="135" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="78"/>
+      <c r="B135" s="78"/>
+      <c r="C135" s="78"/>
+      <c r="D135" s="78"/>
+    </row>
+    <row r="136" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B135" s="72">
+      <c r="B136" s="72">
         <v>8</v>
       </c>
-      <c r="C135" s="73" t="s">
+      <c r="C136" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D135" s="82">
+      <c r="D136" s="82">
         <v>42933</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="74" t="s">
+    <row r="137" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B136" s="75" t="s">
+      <c r="B137" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C136" s="74" t="s">
+      <c r="C137" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D136" s="74" t="s">
+      <c r="D137" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="9"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-    </row>
     <row r="138" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="5"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
+      <c r="A138" s="9"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
     </row>
     <row r="139" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
@@ -21960,7 +22009,7 @@
       <c r="D145" s="14"/>
     </row>
     <row r="146" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="6"/>
+      <c r="A146" s="5"/>
       <c r="B146" s="6"/>
       <c r="C146" s="14"/>
       <c r="D146" s="14"/>
@@ -21978,10 +22027,10 @@
       <c r="D148" s="14"/>
     </row>
     <row r="149" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="79"/>
-      <c r="B149" s="79"/>
-      <c r="C149" s="80"/>
-      <c r="D149" s="80"/>
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
     </row>
     <row r="150" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A150" s="79"/>
@@ -21989,70 +22038,70 @@
       <c r="C150" s="80"/>
       <c r="D150" s="80"/>
     </row>
-    <row r="151" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
+    <row r="151" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A151" s="79"/>
+      <c r="B151" s="79"/>
+      <c r="C151" s="80"/>
+      <c r="D151" s="80"/>
     </row>
     <row r="152" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="76" t="s">
+      <c r="A152" s="7"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+    </row>
+    <row r="153" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B152" s="76">
-        <f>SUM(B137:B151)</f>
+      <c r="B153" s="76">
+        <f>SUM(B138:B152)</f>
         <v>0</v>
       </c>
-      <c r="C152" s="107" t="s">
+      <c r="C153" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D152" s="77"/>
-    </row>
-    <row r="153" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="78"/>
-      <c r="B153" s="78"/>
-      <c r="C153" s="78"/>
-      <c r="D153" s="78"/>
-    </row>
-    <row r="154" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="71" t="s">
+      <c r="D153" s="77"/>
+    </row>
+    <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="78"/>
+      <c r="B154" s="78"/>
+      <c r="C154" s="78"/>
+      <c r="D154" s="78"/>
+    </row>
+    <row r="155" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B154" s="72">
+      <c r="B155" s="72">
         <v>9</v>
       </c>
-      <c r="C154" s="73" t="s">
+      <c r="C155" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D154" s="82">
+      <c r="D155" s="82">
         <v>42940</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="74" t="s">
+    <row r="156" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B155" s="75" t="s">
+      <c r="B156" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C155" s="74" t="s">
+      <c r="C156" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D155" s="74" t="s">
+      <c r="D156" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="9"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-    </row>
     <row r="157" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="5"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
+      <c r="A157" s="9"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
     </row>
     <row r="158" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
@@ -22097,7 +22146,7 @@
       <c r="D164" s="14"/>
     </row>
     <row r="165" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="6"/>
+      <c r="A165" s="5"/>
       <c r="B165" s="6"/>
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
@@ -22115,10 +22164,10 @@
       <c r="D167" s="14"/>
     </row>
     <row r="168" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="79"/>
-      <c r="B168" s="79"/>
-      <c r="C168" s="80"/>
-      <c r="D168" s="80"/>
+      <c r="A168" s="6"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
     </row>
     <row r="169" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A169" s="79"/>
@@ -22126,70 +22175,70 @@
       <c r="C169" s="80"/>
       <c r="D169" s="80"/>
     </row>
-    <row r="170" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
-      <c r="C170" s="15"/>
-      <c r="D170" s="15"/>
+    <row r="170" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A170" s="79"/>
+      <c r="B170" s="79"/>
+      <c r="C170" s="80"/>
+      <c r="D170" s="80"/>
     </row>
     <row r="171" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="76" t="s">
+      <c r="A171" s="7"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+    </row>
+    <row r="172" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B171" s="76">
-        <f>SUM(B156:B170)</f>
+      <c r="B172" s="76">
+        <f>SUM(B157:B171)</f>
         <v>0</v>
       </c>
-      <c r="C171" s="107" t="s">
+      <c r="C172" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D171" s="77"/>
-    </row>
-    <row r="172" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="78"/>
-      <c r="B172" s="78"/>
-      <c r="C172" s="78"/>
-      <c r="D172" s="78"/>
-    </row>
-    <row r="173" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="71" t="s">
+      <c r="D172" s="77"/>
+    </row>
+    <row r="173" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="78"/>
+      <c r="B173" s="78"/>
+      <c r="C173" s="78"/>
+      <c r="D173" s="78"/>
+    </row>
+    <row r="174" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B173" s="72">
+      <c r="B174" s="72">
         <v>10</v>
       </c>
-      <c r="C173" s="73" t="s">
+      <c r="C174" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D173" s="82">
+      <c r="D174" s="82">
         <v>42947</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="74" t="s">
+    <row r="175" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B174" s="75" t="s">
+      <c r="B175" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C174" s="74" t="s">
+      <c r="C175" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D174" s="74" t="s">
+      <c r="D175" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="9"/>
-      <c r="B175" s="8"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
-    </row>
     <row r="176" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="5"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="14"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
     </row>
     <row r="177" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
@@ -22234,7 +22283,7 @@
       <c r="D183" s="14"/>
     </row>
     <row r="184" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A184" s="6"/>
+      <c r="A184" s="5"/>
       <c r="B184" s="6"/>
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
@@ -22252,10 +22301,10 @@
       <c r="D186" s="14"/>
     </row>
     <row r="187" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A187" s="79"/>
-      <c r="B187" s="79"/>
-      <c r="C187" s="80"/>
-      <c r="D187" s="80"/>
+      <c r="A187" s="6"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
     </row>
     <row r="188" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A188" s="79"/>
@@ -22263,70 +22312,70 @@
       <c r="C188" s="80"/>
       <c r="D188" s="80"/>
     </row>
-    <row r="189" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="7"/>
-      <c r="B189" s="7"/>
-      <c r="C189" s="15"/>
-      <c r="D189" s="15"/>
+    <row r="189" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A189" s="79"/>
+      <c r="B189" s="79"/>
+      <c r="C189" s="80"/>
+      <c r="D189" s="80"/>
     </row>
     <row r="190" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="76" t="s">
+      <c r="A190" s="7"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="15"/>
+      <c r="D190" s="15"/>
+    </row>
+    <row r="191" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B190" s="76">
-        <f>SUM(B175:B189)</f>
+      <c r="B191" s="76">
+        <f>SUM(B176:B190)</f>
         <v>0</v>
       </c>
-      <c r="C190" s="107" t="s">
+      <c r="C191" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D190" s="77"/>
-    </row>
-    <row r="191" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="78"/>
-      <c r="B191" s="78"/>
-      <c r="C191" s="78"/>
-      <c r="D191" s="78"/>
-    </row>
-    <row r="192" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="71" t="s">
+      <c r="D191" s="77"/>
+    </row>
+    <row r="192" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="78"/>
+      <c r="B192" s="78"/>
+      <c r="C192" s="78"/>
+      <c r="D192" s="78"/>
+    </row>
+    <row r="193" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B192" s="72">
+      <c r="B193" s="72">
         <v>11</v>
       </c>
-      <c r="C192" s="73" t="s">
+      <c r="C193" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D192" s="82">
+      <c r="D193" s="82">
         <v>42954</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="74" t="s">
+    <row r="194" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B193" s="75" t="s">
+      <c r="B194" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C193" s="74" t="s">
+      <c r="C194" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D193" s="74" t="s">
+      <c r="D194" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A194" s="9"/>
-      <c r="B194" s="8"/>
-      <c r="C194" s="13"/>
-      <c r="D194" s="13"/>
-    </row>
     <row r="195" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="5"/>
-      <c r="B195" s="6"/>
-      <c r="C195" s="14"/>
-      <c r="D195" s="14"/>
+      <c r="A195" s="9"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
     </row>
     <row r="196" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
@@ -22371,7 +22420,7 @@
       <c r="D202" s="14"/>
     </row>
     <row r="203" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A203" s="6"/>
+      <c r="A203" s="5"/>
       <c r="B203" s="6"/>
       <c r="C203" s="14"/>
       <c r="D203" s="14"/>
@@ -22389,10 +22438,10 @@
       <c r="D205" s="14"/>
     </row>
     <row r="206" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A206" s="79"/>
-      <c r="B206" s="79"/>
-      <c r="C206" s="80"/>
-      <c r="D206" s="80"/>
+      <c r="A206" s="6"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="14"/>
+      <c r="D206" s="14"/>
     </row>
     <row r="207" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A207" s="79"/>
@@ -22400,70 +22449,70 @@
       <c r="C207" s="80"/>
       <c r="D207" s="80"/>
     </row>
-    <row r="208" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="7"/>
-      <c r="B208" s="7"/>
-      <c r="C208" s="15"/>
-      <c r="D208" s="15"/>
+    <row r="208" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A208" s="79"/>
+      <c r="B208" s="79"/>
+      <c r="C208" s="80"/>
+      <c r="D208" s="80"/>
     </row>
     <row r="209" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="76" t="s">
+      <c r="A209" s="7"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+    </row>
+    <row r="210" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B209" s="76">
-        <f>SUM(B194:B208)</f>
+      <c r="B210" s="76">
+        <f>SUM(B195:B209)</f>
         <v>0</v>
       </c>
-      <c r="C209" s="107" t="s">
+      <c r="C210" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D209" s="77"/>
-    </row>
-    <row r="210" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="78"/>
-      <c r="B210" s="78"/>
-      <c r="C210" s="78"/>
-      <c r="D210" s="78"/>
-    </row>
-    <row r="211" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="71" t="s">
+      <c r="D210" s="77"/>
+    </row>
+    <row r="211" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="78"/>
+      <c r="B211" s="78"/>
+      <c r="C211" s="78"/>
+      <c r="D211" s="78"/>
+    </row>
+    <row r="212" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B211" s="72">
+      <c r="B212" s="72">
         <v>12</v>
       </c>
-      <c r="C211" s="73" t="s">
+      <c r="C212" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D211" s="82">
+      <c r="D212" s="82">
         <v>42961</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="74" t="s">
+    <row r="213" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B212" s="75" t="s">
+      <c r="B213" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C212" s="74" t="s">
+      <c r="C213" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D212" s="74" t="s">
+      <c r="D213" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A213" s="9"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="13"/>
-      <c r="D213" s="13"/>
-    </row>
     <row r="214" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A214" s="5"/>
-      <c r="B214" s="6"/>
-      <c r="C214" s="14"/>
-      <c r="D214" s="14"/>
+      <c r="A214" s="9"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="13"/>
     </row>
     <row r="215" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
@@ -22508,7 +22557,7 @@
       <c r="D221" s="14"/>
     </row>
     <row r="222" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A222" s="6"/>
+      <c r="A222" s="5"/>
       <c r="B222" s="6"/>
       <c r="C222" s="14"/>
       <c r="D222" s="14"/>
@@ -22526,10 +22575,10 @@
       <c r="D224" s="14"/>
     </row>
     <row r="225" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A225" s="79"/>
-      <c r="B225" s="79"/>
-      <c r="C225" s="80"/>
-      <c r="D225" s="80"/>
+      <c r="A225" s="6"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="14"/>
+      <c r="D225" s="14"/>
     </row>
     <row r="226" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A226" s="79"/>
@@ -22537,70 +22586,70 @@
       <c r="C226" s="80"/>
       <c r="D226" s="80"/>
     </row>
-    <row r="227" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="7"/>
-      <c r="B227" s="7"/>
-      <c r="C227" s="15"/>
-      <c r="D227" s="15"/>
+    <row r="227" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A227" s="79"/>
+      <c r="B227" s="79"/>
+      <c r="C227" s="80"/>
+      <c r="D227" s="80"/>
     </row>
     <row r="228" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="76" t="s">
+      <c r="A228" s="7"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="15"/>
+      <c r="D228" s="15"/>
+    </row>
+    <row r="229" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B228" s="76">
-        <f>SUM(B213:B227)</f>
+      <c r="B229" s="76">
+        <f>SUM(B214:B228)</f>
         <v>0</v>
       </c>
-      <c r="C228" s="107" t="s">
+      <c r="C229" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D228" s="77"/>
-    </row>
-    <row r="229" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="78"/>
-      <c r="B229" s="78"/>
-      <c r="C229" s="78"/>
-      <c r="D229" s="78"/>
-    </row>
-    <row r="230" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="71" t="s">
+      <c r="D229" s="77"/>
+    </row>
+    <row r="230" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="78"/>
+      <c r="B230" s="78"/>
+      <c r="C230" s="78"/>
+      <c r="D230" s="78"/>
+    </row>
+    <row r="231" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B230" s="72">
+      <c r="B231" s="72">
         <v>13</v>
       </c>
-      <c r="C230" s="73" t="s">
+      <c r="C231" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D230" s="82">
+      <c r="D231" s="82">
         <v>42968</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="74" t="s">
+    <row r="232" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B231" s="75" t="s">
+      <c r="B232" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C231" s="74" t="s">
+      <c r="C232" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D231" s="74" t="s">
+      <c r="D232" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A232" s="9"/>
-      <c r="B232" s="8"/>
-      <c r="C232" s="13"/>
-      <c r="D232" s="13"/>
-    </row>
     <row r="233" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A233" s="5"/>
-      <c r="B233" s="6"/>
-      <c r="C233" s="14"/>
-      <c r="D233" s="14"/>
+      <c r="A233" s="9"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="13"/>
+      <c r="D233" s="13"/>
     </row>
     <row r="234" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
@@ -22645,7 +22694,7 @@
       <c r="D240" s="14"/>
     </row>
     <row r="241" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A241" s="6"/>
+      <c r="A241" s="5"/>
       <c r="B241" s="6"/>
       <c r="C241" s="14"/>
       <c r="D241" s="14"/>
@@ -22663,10 +22712,10 @@
       <c r="D243" s="14"/>
     </row>
     <row r="244" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A244" s="79"/>
-      <c r="B244" s="79"/>
-      <c r="C244" s="80"/>
-      <c r="D244" s="80"/>
+      <c r="A244" s="6"/>
+      <c r="B244" s="6"/>
+      <c r="C244" s="14"/>
+      <c r="D244" s="14"/>
     </row>
     <row r="245" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A245" s="79"/>
@@ -22674,70 +22723,70 @@
       <c r="C245" s="80"/>
       <c r="D245" s="80"/>
     </row>
-    <row r="246" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
-      <c r="C246" s="15"/>
-      <c r="D246" s="15"/>
+    <row r="246" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A246" s="79"/>
+      <c r="B246" s="79"/>
+      <c r="C246" s="80"/>
+      <c r="D246" s="80"/>
     </row>
     <row r="247" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="76" t="s">
+      <c r="A247" s="7"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="15"/>
+      <c r="D247" s="15"/>
+    </row>
+    <row r="248" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B247" s="76">
-        <f>SUM(B232:B246)</f>
+      <c r="B248" s="76">
+        <f>SUM(B233:B247)</f>
         <v>0</v>
       </c>
-      <c r="C247" s="107" t="s">
+      <c r="C248" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D247" s="77"/>
-    </row>
-    <row r="248" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="78"/>
-      <c r="B248" s="78"/>
-      <c r="C248" s="78"/>
-      <c r="D248" s="78"/>
-    </row>
-    <row r="249" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="71" t="s">
+      <c r="D248" s="77"/>
+    </row>
+    <row r="249" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="78"/>
+      <c r="B249" s="78"/>
+      <c r="C249" s="78"/>
+      <c r="D249" s="78"/>
+    </row>
+    <row r="250" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B249" s="72">
+      <c r="B250" s="72">
         <v>14</v>
       </c>
-      <c r="C249" s="73" t="s">
+      <c r="C250" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D249" s="82">
+      <c r="D250" s="82">
         <v>42975</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="74" t="s">
+    <row r="251" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B250" s="75" t="s">
+      <c r="B251" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C250" s="74" t="s">
+      <c r="C251" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D250" s="74" t="s">
+      <c r="D251" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A251" s="9"/>
-      <c r="B251" s="8"/>
-      <c r="C251" s="13"/>
-      <c r="D251" s="13"/>
-    </row>
     <row r="252" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A252" s="5"/>
-      <c r="B252" s="6"/>
-      <c r="C252" s="14"/>
-      <c r="D252" s="14"/>
+      <c r="A252" s="9"/>
+      <c r="B252" s="8"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="13"/>
     </row>
     <row r="253" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
@@ -22782,7 +22831,7 @@
       <c r="D259" s="14"/>
     </row>
     <row r="260" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="6"/>
+      <c r="A260" s="5"/>
       <c r="B260" s="6"/>
       <c r="C260" s="14"/>
       <c r="D260" s="14"/>
@@ -22800,10 +22849,10 @@
       <c r="D262" s="14"/>
     </row>
     <row r="263" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A263" s="79"/>
-      <c r="B263" s="79"/>
-      <c r="C263" s="80"/>
-      <c r="D263" s="80"/>
+      <c r="A263" s="6"/>
+      <c r="B263" s="6"/>
+      <c r="C263" s="14"/>
+      <c r="D263" s="14"/>
     </row>
     <row r="264" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A264" s="79"/>
@@ -22811,70 +22860,70 @@
       <c r="C264" s="80"/>
       <c r="D264" s="80"/>
     </row>
-    <row r="265" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="7"/>
-      <c r="B265" s="7"/>
-      <c r="C265" s="15"/>
-      <c r="D265" s="15"/>
+    <row r="265" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="79"/>
+      <c r="B265" s="79"/>
+      <c r="C265" s="80"/>
+      <c r="D265" s="80"/>
     </row>
     <row r="266" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="76" t="s">
+      <c r="A266" s="7"/>
+      <c r="B266" s="7"/>
+      <c r="C266" s="15"/>
+      <c r="D266" s="15"/>
+    </row>
+    <row r="267" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B266" s="76">
-        <f>SUM(B251:B265)</f>
+      <c r="B267" s="76">
+        <f>SUM(B252:B266)</f>
         <v>0</v>
       </c>
-      <c r="C266" s="107" t="s">
+      <c r="C267" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D266" s="77"/>
-    </row>
-    <row r="267" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="78"/>
-      <c r="B267" s="78"/>
-      <c r="C267" s="78"/>
-      <c r="D267" s="78"/>
-    </row>
-    <row r="268" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="71" t="s">
+      <c r="D267" s="77"/>
+    </row>
+    <row r="268" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="78"/>
+      <c r="B268" s="78"/>
+      <c r="C268" s="78"/>
+      <c r="D268" s="78"/>
+    </row>
+    <row r="269" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B268" s="72">
+      <c r="B269" s="72">
         <v>15</v>
       </c>
-      <c r="C268" s="73" t="s">
+      <c r="C269" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D268" s="82">
+      <c r="D269" s="82">
         <v>42982</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="74" t="s">
+    <row r="270" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B269" s="75" t="s">
+      <c r="B270" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C269" s="74" t="s">
+      <c r="C270" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D269" s="74" t="s">
+      <c r="D270" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="9"/>
-      <c r="B270" s="8"/>
-      <c r="C270" s="13"/>
-      <c r="D270" s="13"/>
-    </row>
     <row r="271" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A271" s="5"/>
-      <c r="B271" s="6"/>
-      <c r="C271" s="14"/>
-      <c r="D271" s="14"/>
+      <c r="A271" s="9"/>
+      <c r="B271" s="8"/>
+      <c r="C271" s="13"/>
+      <c r="D271" s="13"/>
     </row>
     <row r="272" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
@@ -22919,7 +22968,7 @@
       <c r="D278" s="14"/>
     </row>
     <row r="279" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A279" s="6"/>
+      <c r="A279" s="5"/>
       <c r="B279" s="6"/>
       <c r="C279" s="14"/>
       <c r="D279" s="14"/>
@@ -22937,10 +22986,10 @@
       <c r="D281" s="14"/>
     </row>
     <row r="282" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="79"/>
-      <c r="B282" s="79"/>
-      <c r="C282" s="80"/>
-      <c r="D282" s="80"/>
+      <c r="A282" s="6"/>
+      <c r="B282" s="6"/>
+      <c r="C282" s="14"/>
+      <c r="D282" s="14"/>
     </row>
     <row r="283" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A283" s="79"/>
@@ -22948,70 +22997,70 @@
       <c r="C283" s="80"/>
       <c r="D283" s="80"/>
     </row>
-    <row r="284" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="7"/>
-      <c r="B284" s="7"/>
-      <c r="C284" s="15"/>
-      <c r="D284" s="15"/>
+    <row r="284" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A284" s="79"/>
+      <c r="B284" s="79"/>
+      <c r="C284" s="80"/>
+      <c r="D284" s="80"/>
     </row>
     <row r="285" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="76" t="s">
+      <c r="A285" s="7"/>
+      <c r="B285" s="7"/>
+      <c r="C285" s="15"/>
+      <c r="D285" s="15"/>
+    </row>
+    <row r="286" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B285" s="76">
-        <f>SUM(B270:B284)</f>
+      <c r="B286" s="76">
+        <f>SUM(B271:B285)</f>
         <v>0</v>
       </c>
-      <c r="C285" s="107" t="s">
+      <c r="C286" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D285" s="77"/>
-    </row>
-    <row r="286" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="78"/>
-      <c r="B286" s="78"/>
-      <c r="C286" s="78"/>
-      <c r="D286" s="78"/>
-    </row>
-    <row r="287" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="71" t="s">
+      <c r="D286" s="77"/>
+    </row>
+    <row r="287" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="78"/>
+      <c r="B287" s="78"/>
+      <c r="C287" s="78"/>
+      <c r="D287" s="78"/>
+    </row>
+    <row r="288" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B287" s="72">
+      <c r="B288" s="72">
         <v>16</v>
       </c>
-      <c r="C287" s="73" t="s">
+      <c r="C288" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D287" s="82">
+      <c r="D288" s="82">
         <v>42989</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="74" t="s">
+    <row r="289" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B288" s="75" t="s">
+      <c r="B289" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C288" s="74" t="s">
+      <c r="C289" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D288" s="74" t="s">
+      <c r="D289" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A289" s="9"/>
-      <c r="B289" s="8"/>
-      <c r="C289" s="13"/>
-      <c r="D289" s="13"/>
-    </row>
     <row r="290" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="5"/>
-      <c r="B290" s="6"/>
-      <c r="C290" s="14"/>
-      <c r="D290" s="14"/>
+      <c r="A290" s="9"/>
+      <c r="B290" s="8"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="13"/>
     </row>
     <row r="291" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
@@ -23056,7 +23105,7 @@
       <c r="D297" s="14"/>
     </row>
     <row r="298" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A298" s="6"/>
+      <c r="A298" s="5"/>
       <c r="B298" s="6"/>
       <c r="C298" s="14"/>
       <c r="D298" s="14"/>
@@ -23074,10 +23123,10 @@
       <c r="D300" s="14"/>
     </row>
     <row r="301" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="79"/>
-      <c r="B301" s="79"/>
-      <c r="C301" s="80"/>
-      <c r="D301" s="80"/>
+      <c r="A301" s="6"/>
+      <c r="B301" s="6"/>
+      <c r="C301" s="14"/>
+      <c r="D301" s="14"/>
     </row>
     <row r="302" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A302" s="79"/>
@@ -23085,33 +23134,39 @@
       <c r="C302" s="80"/>
       <c r="D302" s="80"/>
     </row>
-    <row r="303" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="7"/>
-      <c r="B303" s="7"/>
-      <c r="C303" s="15"/>
-      <c r="D303" s="15"/>
+    <row r="303" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="79"/>
+      <c r="B303" s="79"/>
+      <c r="C303" s="80"/>
+      <c r="D303" s="80"/>
     </row>
     <row r="304" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="76" t="s">
+      <c r="A304" s="7"/>
+      <c r="B304" s="7"/>
+      <c r="C304" s="15"/>
+      <c r="D304" s="15"/>
+    </row>
+    <row r="305" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B304" s="76">
-        <f>SUM(B289:B303)</f>
+      <c r="B305" s="76">
+        <f>SUM(B290:B304)</f>
         <v>0</v>
       </c>
-      <c r="C304" s="107" t="s">
+      <c r="C305" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D304" s="77"/>
-    </row>
-    <row r="305" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A305" s="78"/>
-      <c r="B305" s="78"/>
-      <c r="C305" s="78"/>
-      <c r="D305" s="78"/>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="106" t="s">
+      <c r="D305" s="77"/>
+    </row>
+    <row r="306" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A306" s="78"/>
+      <c r="B306" s="78"/>
+      <c r="C306" s="78"/>
+      <c r="D306" s="78"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="106" t="s">
         <v>46</v>
       </c>
     </row>
@@ -23121,14 +23176,14 @@
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B3:B17 B22:B36 B41:B56 B61:B75 B80:B94 B99:B113 B118:B132 B137:B151 B156:B170 B175:B189 B194:B208 B213:B227 B232:B246 B251:B265 B270:B284 B289:B303">
+    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B3:B17 B22:B36 B41:B56 B61:B75 B80:B95 B100:B114 B119:B133 B138:B152 B157:B171 B176:B190 B195:B209 B214:B228 B233:B247 B252:B266 B271:B285 B290:B304">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B18 B37 B57 B76 B95 B114 B133 B152 B171 B190 B209 B228 B247 B266 B285 B304">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B18 B37 B57 B76 B96 B115 B134 B153 B172 B191 B210 B229 B248 B267 B286 B305">
       <formula1>0</formula1>
       <formula2>NbPerWeek * NbQuartPer</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A17 A22:A36 A41:A56 A61:A75 A80:A94 A99:A113 A118:A132 A137:A151 A156:A170 A175:A189 A194:A208 A213:A227 A232:A246 A251:A265 A270:A284 A289:A303">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A17 A22:A36 A41:A56 A61:A75 A80:A95 A100:A114 A119:A133 A138:A152 A157:A171 A176:A190 A195:A209 A214:A228 A233:A247 A252:A266 A271:A285 A290:A304">
       <formula1>lstTasks</formula1>
     </dataValidation>
   </dataValidations>
@@ -23145,21 +23200,23 @@
     <hyperlink ref="D47" r:id="rId10"/>
     <hyperlink ref="D61" r:id="rId11"/>
     <hyperlink ref="D63" r:id="rId12"/>
+    <hyperlink ref="D83" r:id="rId13"/>
+    <hyperlink ref="D82" r:id="rId14"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" cellComments="atEnd" r:id="rId13"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" cellComments="atEnd" r:id="rId15"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ETML L,Normal"&amp;24ETML</oddHeader>
     <oddFooter>&amp;C&amp;F&amp;L&amp;D</oddFooter>
   </headerFooter>
-  <drawing r:id="rId14"/>
-  <legacyDrawing r:id="rId15"/>
+  <drawing r:id="rId16"/>
+  <legacyDrawing r:id="rId17"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="44033" r:id="rId16" name="btnImportRealisation">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="44033" r:id="rId18" name="btnImportRealisation">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -23178,7 +23235,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="44033" r:id="rId16" name="btnImportRealisation"/>
+        <control shapeId="44033" r:id="rId18" name="btnImportRealisation"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/doc/DemoMotJDT-pittierfa.xlsx
+++ b/doc/DemoMotJDT-pittierfa.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="111">
   <si>
     <t>Module :</t>
   </si>
@@ -351,9 +351,6 @@
     <t>Réalisation des maquêtes de nos deux pages du site, tout d'abbord chacun avons fait une maquette de notre côté ensuite on a regroupé nos idées pour faire les 2 maquêtes finales du site</t>
   </si>
   <si>
-    <t>&lt;Lien Maquette a  Mettre&gt;</t>
-  </si>
-  <si>
     <t>Logo + bande + background =&gt; Accords avec Jimmy</t>
   </si>
   <si>
@@ -361,6 +358,42 @@
   </si>
   <si>
     <t>custom.css</t>
+  </si>
+  <si>
+    <t>Mise en place de contenu comme voulu dans la maquete sur le site (titre, 2 colonnes dans page compte etc..)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Résolution problème: J'ai ajouté les images dans la mauvaise arborescence et modifié le mauvais css (ancien site) -&gt; Modifié dans bon site -&gt; Problème résolu </t>
+  </si>
+  <si>
+    <t>Problème: nos propres images ne s'affichent pas sur le site (image par défaut reste) et l'image de background ne se change pas (ajoutée dans le css)</t>
+  </si>
+  <si>
+    <t>Regarde avec prof pour mettre typo3 sur gitkrkaken car typo3 trop lourd pour mettre sur gitkrkaken -&gt; Prof nous montre .gitignore -&gt; Mise en place de .gitignore sur notre dépôt (Permet de pas prendre en compte tous les fichiers de typo3)</t>
+  </si>
+  <si>
+    <t>Rédaction problème</t>
+  </si>
+  <si>
+    <t>Commit modifications du jour (Site + JDT + mise à jour)</t>
+  </si>
+  <si>
+    <t>Rédaction problème rencontré + remet au prore problème rencontré avant</t>
+  </si>
+  <si>
+    <t>Finalisation de la mise en place du contenu comme voulu dans maquête</t>
+  </si>
+  <si>
+    <t>Temps pour réviser examens allemand accordé par Doyen</t>
+  </si>
+  <si>
+    <t>..\typo3\fileadmin\templates\images</t>
+  </si>
+  <si>
+    <t>..\typo3\fileadmin\templates\css\custom.css</t>
+  </si>
+  <si>
+    <t>Maquettes</t>
   </si>
 </sst>
 </file>
@@ -2253,7 +2286,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -2736,7 +2769,9 @@
       <c r="B37" s="66">
         <v>17</v>
       </c>
-      <c r="C37" s="28"/>
+      <c r="C37" s="28" t="s">
+        <v>103</v>
+      </c>
       <c r="D37" s="37"/>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
@@ -3400,7 +3435,7 @@
   </sheetPr>
   <dimension ref="A1:PS34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -20660,8 +20695,8 @@
   </sheetPr>
   <dimension ref="A1:I307"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A91" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21394,8 +21429,8 @@
       <c r="C67" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D67" s="14" t="s">
-        <v>96</v>
+      <c r="D67" s="108" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
@@ -21543,7 +21578,7 @@
         <v>9</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D83" s="108" t="s">
         <v>79</v>
@@ -21553,9 +21588,11 @@
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D84" s="108"/>
+        <v>98</v>
+      </c>
+      <c r="D84" s="108" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="85" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -21565,9 +21602,11 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="D85" s="108" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="86" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
@@ -21687,75 +21726,143 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="9"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-    </row>
-    <row r="101" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="14"/>
+      <c r="A100" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B100" s="8">
+        <v>1</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D100" s="109" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" s="6">
+        <v>3</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="D101" s="14"/>
     </row>
-    <row r="102" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="14"/>
+    <row r="102" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B102" s="6">
+        <v>6</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="D102" s="14"/>
     </row>
-    <row r="103" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
+    <row r="103" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A103" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B103" s="111">
+        <v>5</v>
+      </c>
+      <c r="C103" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="D103" s="108" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="104" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="14"/>
+      <c r="A104" s="113"/>
+      <c r="B104" s="114"/>
+      <c r="C104" s="115" t="s">
+        <v>78</v>
+      </c>
       <c r="D104" s="14"/>
     </row>
-    <row r="105" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
+    <row r="105" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A105" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="B105" s="117">
+        <v>2</v>
+      </c>
+      <c r="C105" s="118" t="s">
+        <v>100</v>
+      </c>
+      <c r="D105" s="108" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="106" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
+      <c r="A106" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="6">
+        <v>3</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D106" s="108" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="107" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="5"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="14"/>
+      <c r="A107" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B107" s="6">
+        <v>3</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="14"/>
+      <c r="A108" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" s="6">
+        <v>1</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="6"/>
+      <c r="A109" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="B109" s="6"/>
-      <c r="C109" s="14"/>
+      <c r="C109" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="14"/>
+      <c r="A110" s="79"/>
+      <c r="B110" s="79"/>
+      <c r="C110" s="80"/>
       <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="14"/>
+      <c r="A111" s="117" t="s">
+        <v>62</v>
+      </c>
+      <c r="B111" s="117">
+        <v>3</v>
+      </c>
+      <c r="C111" s="118" t="s">
+        <v>107</v>
+      </c>
       <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
@@ -21782,7 +21889,7 @@
       </c>
       <c r="B115" s="76">
         <f>SUM(B100:B114)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C115" s="107" t="s">
         <v>45</v>
@@ -23202,21 +23309,28 @@
     <hyperlink ref="D63" r:id="rId12"/>
     <hyperlink ref="D83" r:id="rId13"/>
     <hyperlink ref="D82" r:id="rId14"/>
+    <hyperlink ref="D100" r:id="rId15"/>
+    <hyperlink ref="D103" r:id="rId16"/>
+    <hyperlink ref="D105" r:id="rId17"/>
+    <hyperlink ref="D106" r:id="rId18"/>
+    <hyperlink ref="D84" r:id="rId19"/>
+    <hyperlink ref="D85" r:id="rId20"/>
+    <hyperlink ref="D67" r:id="rId21"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" cellComments="atEnd" r:id="rId15"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" cellComments="atEnd" r:id="rId22"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ETML L,Normal"&amp;24ETML</oddHeader>
     <oddFooter>&amp;C&amp;F&amp;L&amp;D</oddFooter>
   </headerFooter>
-  <drawing r:id="rId16"/>
-  <legacyDrawing r:id="rId17"/>
+  <drawing r:id="rId23"/>
+  <legacyDrawing r:id="rId24"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="44033" r:id="rId18" name="btnImportRealisation">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+        <control shapeId="44033" r:id="rId25" name="btnImportRealisation">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId26">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -23235,7 +23349,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="44033" r:id="rId18" name="btnImportRealisation"/>
+        <control shapeId="44033" r:id="rId25" name="btnImportRealisation"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/doc/DemoMotJDT-pittierfa.xlsx
+++ b/doc/DemoMotJDT-pittierfa.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="117">
   <si>
     <t>Module :</t>
   </si>
@@ -375,9 +375,6 @@
     <t>Rédaction problème</t>
   </si>
   <si>
-    <t>Commit modifications du jour (Site + JDT + mise à jour)</t>
-  </si>
-  <si>
     <t>Rédaction problème rencontré + remet au prore problème rencontré avant</t>
   </si>
   <si>
@@ -394,6 +391,33 @@
   </si>
   <si>
     <t>Maquettes</t>
+  </si>
+  <si>
+    <t>La derniere fois on a enlevé .gitignore car il ne fonctionne pas (sauvegarde pas tous les fichiers et nous avons besoin de certains fichiers qu'il ne sauvegarde pas) -&gt; Met typo3 complet -&gt; vu qu'il y a beaucoup de fichiers gitkraken met longtemps pour faire commit (maintenant on travail avec 3 branches: FPR02, JLZ02, DEV)</t>
+  </si>
+  <si>
+    <t>Crée des utilisateurs pour le site, quand pas connecté -&gt; sur page compte -&gt; demande connexion 
+Essaie de pouvoir mettre du contenu sur une colonne en dessus de contenu sur 2 colonnes -&gt; test plein d'idées mais ne trouve pas comment faire
+Sur internet trouve pas de pages / forums qui expliquent comment faire</t>
+  </si>
+  <si>
+    <t>https://docs.typo3.org/typo3cms/extensions/extension_builder/Introduction/Index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherche à résoudre problème d'ajout de contenu sur toute la longueur du site en dessus des 2 collones 
+Mise en place pages connexion et deconnexion -&gt; problemes de redirection
+cherche comment utiliser extension builder -&gt; lit doc 
+</t>
+  </si>
+  <si>
+    <t>il fallait ajouter colonnes dans: Liste -&gt; storage folder -&gt; edit: main 2 column without menu 
+connexion/ deconnexion -&gt; il y avait redirection de page de base vers une page qui n'existait pas</t>
+  </si>
+  <si>
+    <t>Commit modifications du jour (Site + JDT)</t>
+  </si>
+  <si>
+    <t>Commit modifications du jour (Site + JDT + mise à jour daily scrum)</t>
   </si>
 </sst>
 </file>
@@ -1568,6 +1592,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1576,12 +1606,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -3351,27 +3375,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId4" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId4" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId4" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId4" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3401,27 +3425,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId8" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId8" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId8" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId8" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3459,470 +3483,470 @@
       <c r="C2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="121" t="s">
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="122"/>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
-      <c r="AX2" s="122"/>
-      <c r="AY2" s="122"/>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="122"/>
-      <c r="BB2" s="122"/>
-      <c r="BC2" s="122"/>
-      <c r="BD2" s="122"/>
-      <c r="BE2" s="123"/>
-      <c r="BF2" s="121" t="s">
+      <c r="AF2" s="124"/>
+      <c r="AG2" s="124"/>
+      <c r="AH2" s="124"/>
+      <c r="AI2" s="124"/>
+      <c r="AJ2" s="124"/>
+      <c r="AK2" s="124"/>
+      <c r="AL2" s="124"/>
+      <c r="AM2" s="124"/>
+      <c r="AN2" s="124"/>
+      <c r="AO2" s="124"/>
+      <c r="AP2" s="124"/>
+      <c r="AQ2" s="124"/>
+      <c r="AR2" s="124"/>
+      <c r="AS2" s="124"/>
+      <c r="AT2" s="124"/>
+      <c r="AU2" s="124"/>
+      <c r="AV2" s="124"/>
+      <c r="AW2" s="124"/>
+      <c r="AX2" s="124"/>
+      <c r="AY2" s="124"/>
+      <c r="AZ2" s="124"/>
+      <c r="BA2" s="124"/>
+      <c r="BB2" s="124"/>
+      <c r="BC2" s="124"/>
+      <c r="BD2" s="124"/>
+      <c r="BE2" s="125"/>
+      <c r="BF2" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="BG2" s="122"/>
-      <c r="BH2" s="122"/>
-      <c r="BI2" s="122"/>
-      <c r="BJ2" s="122"/>
-      <c r="BK2" s="122"/>
-      <c r="BL2" s="122"/>
-      <c r="BM2" s="122"/>
-      <c r="BN2" s="122"/>
-      <c r="BO2" s="122"/>
-      <c r="BP2" s="122"/>
-      <c r="BQ2" s="122"/>
-      <c r="BR2" s="122"/>
-      <c r="BS2" s="122"/>
-      <c r="BT2" s="122"/>
-      <c r="BU2" s="122"/>
-      <c r="BV2" s="122"/>
-      <c r="BW2" s="122"/>
-      <c r="BX2" s="122"/>
-      <c r="BY2" s="122"/>
-      <c r="BZ2" s="122"/>
-      <c r="CA2" s="122"/>
-      <c r="CB2" s="122"/>
-      <c r="CC2" s="122"/>
-      <c r="CD2" s="122"/>
-      <c r="CE2" s="122"/>
-      <c r="CF2" s="123"/>
-      <c r="CG2" s="121" t="s">
+      <c r="BG2" s="124"/>
+      <c r="BH2" s="124"/>
+      <c r="BI2" s="124"/>
+      <c r="BJ2" s="124"/>
+      <c r="BK2" s="124"/>
+      <c r="BL2" s="124"/>
+      <c r="BM2" s="124"/>
+      <c r="BN2" s="124"/>
+      <c r="BO2" s="124"/>
+      <c r="BP2" s="124"/>
+      <c r="BQ2" s="124"/>
+      <c r="BR2" s="124"/>
+      <c r="BS2" s="124"/>
+      <c r="BT2" s="124"/>
+      <c r="BU2" s="124"/>
+      <c r="BV2" s="124"/>
+      <c r="BW2" s="124"/>
+      <c r="BX2" s="124"/>
+      <c r="BY2" s="124"/>
+      <c r="BZ2" s="124"/>
+      <c r="CA2" s="124"/>
+      <c r="CB2" s="124"/>
+      <c r="CC2" s="124"/>
+      <c r="CD2" s="124"/>
+      <c r="CE2" s="124"/>
+      <c r="CF2" s="125"/>
+      <c r="CG2" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="CH2" s="122"/>
-      <c r="CI2" s="122"/>
-      <c r="CJ2" s="122"/>
-      <c r="CK2" s="122"/>
-      <c r="CL2" s="122"/>
-      <c r="CM2" s="122"/>
-      <c r="CN2" s="122"/>
-      <c r="CO2" s="122"/>
-      <c r="CP2" s="122"/>
-      <c r="CQ2" s="122"/>
-      <c r="CR2" s="122"/>
-      <c r="CS2" s="122"/>
-      <c r="CT2" s="122"/>
-      <c r="CU2" s="122"/>
-      <c r="CV2" s="122"/>
-      <c r="CW2" s="122"/>
-      <c r="CX2" s="122"/>
-      <c r="CY2" s="122"/>
-      <c r="CZ2" s="122"/>
-      <c r="DA2" s="122"/>
-      <c r="DB2" s="122"/>
-      <c r="DC2" s="122"/>
-      <c r="DD2" s="122"/>
-      <c r="DE2" s="122"/>
-      <c r="DF2" s="122"/>
-      <c r="DG2" s="123"/>
-      <c r="DH2" s="121" t="s">
+      <c r="CH2" s="124"/>
+      <c r="CI2" s="124"/>
+      <c r="CJ2" s="124"/>
+      <c r="CK2" s="124"/>
+      <c r="CL2" s="124"/>
+      <c r="CM2" s="124"/>
+      <c r="CN2" s="124"/>
+      <c r="CO2" s="124"/>
+      <c r="CP2" s="124"/>
+      <c r="CQ2" s="124"/>
+      <c r="CR2" s="124"/>
+      <c r="CS2" s="124"/>
+      <c r="CT2" s="124"/>
+      <c r="CU2" s="124"/>
+      <c r="CV2" s="124"/>
+      <c r="CW2" s="124"/>
+      <c r="CX2" s="124"/>
+      <c r="CY2" s="124"/>
+      <c r="CZ2" s="124"/>
+      <c r="DA2" s="124"/>
+      <c r="DB2" s="124"/>
+      <c r="DC2" s="124"/>
+      <c r="DD2" s="124"/>
+      <c r="DE2" s="124"/>
+      <c r="DF2" s="124"/>
+      <c r="DG2" s="125"/>
+      <c r="DH2" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="DI2" s="122"/>
-      <c r="DJ2" s="122"/>
-      <c r="DK2" s="122"/>
-      <c r="DL2" s="122"/>
-      <c r="DM2" s="122"/>
-      <c r="DN2" s="122"/>
-      <c r="DO2" s="122"/>
-      <c r="DP2" s="122"/>
-      <c r="DQ2" s="122"/>
-      <c r="DR2" s="122"/>
-      <c r="DS2" s="122"/>
-      <c r="DT2" s="122"/>
-      <c r="DU2" s="122"/>
-      <c r="DV2" s="122"/>
-      <c r="DW2" s="122"/>
-      <c r="DX2" s="122"/>
-      <c r="DY2" s="122"/>
-      <c r="DZ2" s="122"/>
-      <c r="EA2" s="122"/>
-      <c r="EB2" s="122"/>
-      <c r="EC2" s="122"/>
-      <c r="ED2" s="122"/>
-      <c r="EE2" s="122"/>
-      <c r="EF2" s="122"/>
-      <c r="EG2" s="122"/>
-      <c r="EH2" s="123"/>
-      <c r="EI2" s="121" t="s">
+      <c r="DI2" s="124"/>
+      <c r="DJ2" s="124"/>
+      <c r="DK2" s="124"/>
+      <c r="DL2" s="124"/>
+      <c r="DM2" s="124"/>
+      <c r="DN2" s="124"/>
+      <c r="DO2" s="124"/>
+      <c r="DP2" s="124"/>
+      <c r="DQ2" s="124"/>
+      <c r="DR2" s="124"/>
+      <c r="DS2" s="124"/>
+      <c r="DT2" s="124"/>
+      <c r="DU2" s="124"/>
+      <c r="DV2" s="124"/>
+      <c r="DW2" s="124"/>
+      <c r="DX2" s="124"/>
+      <c r="DY2" s="124"/>
+      <c r="DZ2" s="124"/>
+      <c r="EA2" s="124"/>
+      <c r="EB2" s="124"/>
+      <c r="EC2" s="124"/>
+      <c r="ED2" s="124"/>
+      <c r="EE2" s="124"/>
+      <c r="EF2" s="124"/>
+      <c r="EG2" s="124"/>
+      <c r="EH2" s="125"/>
+      <c r="EI2" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="EJ2" s="122"/>
-      <c r="EK2" s="122"/>
-      <c r="EL2" s="122"/>
-      <c r="EM2" s="122"/>
-      <c r="EN2" s="122"/>
-      <c r="EO2" s="122"/>
-      <c r="EP2" s="122"/>
-      <c r="EQ2" s="122"/>
-      <c r="ER2" s="122"/>
-      <c r="ES2" s="122"/>
-      <c r="ET2" s="122"/>
-      <c r="EU2" s="122"/>
-      <c r="EV2" s="122"/>
-      <c r="EW2" s="122"/>
-      <c r="EX2" s="122"/>
-      <c r="EY2" s="122"/>
-      <c r="EZ2" s="122"/>
-      <c r="FA2" s="122"/>
-      <c r="FB2" s="122"/>
-      <c r="FC2" s="122"/>
-      <c r="FD2" s="122"/>
-      <c r="FE2" s="122"/>
-      <c r="FF2" s="122"/>
-      <c r="FG2" s="122"/>
-      <c r="FH2" s="122"/>
-      <c r="FI2" s="123"/>
-      <c r="FJ2" s="121" t="s">
+      <c r="EJ2" s="124"/>
+      <c r="EK2" s="124"/>
+      <c r="EL2" s="124"/>
+      <c r="EM2" s="124"/>
+      <c r="EN2" s="124"/>
+      <c r="EO2" s="124"/>
+      <c r="EP2" s="124"/>
+      <c r="EQ2" s="124"/>
+      <c r="ER2" s="124"/>
+      <c r="ES2" s="124"/>
+      <c r="ET2" s="124"/>
+      <c r="EU2" s="124"/>
+      <c r="EV2" s="124"/>
+      <c r="EW2" s="124"/>
+      <c r="EX2" s="124"/>
+      <c r="EY2" s="124"/>
+      <c r="EZ2" s="124"/>
+      <c r="FA2" s="124"/>
+      <c r="FB2" s="124"/>
+      <c r="FC2" s="124"/>
+      <c r="FD2" s="124"/>
+      <c r="FE2" s="124"/>
+      <c r="FF2" s="124"/>
+      <c r="FG2" s="124"/>
+      <c r="FH2" s="124"/>
+      <c r="FI2" s="125"/>
+      <c r="FJ2" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="FK2" s="122"/>
-      <c r="FL2" s="122"/>
-      <c r="FM2" s="122"/>
-      <c r="FN2" s="122"/>
-      <c r="FO2" s="122"/>
-      <c r="FP2" s="122"/>
-      <c r="FQ2" s="122"/>
-      <c r="FR2" s="122"/>
-      <c r="FS2" s="122"/>
-      <c r="FT2" s="122"/>
-      <c r="FU2" s="122"/>
-      <c r="FV2" s="122"/>
-      <c r="FW2" s="122"/>
-      <c r="FX2" s="122"/>
-      <c r="FY2" s="122"/>
-      <c r="FZ2" s="122"/>
-      <c r="GA2" s="122"/>
-      <c r="GB2" s="122"/>
-      <c r="GC2" s="122"/>
-      <c r="GD2" s="122"/>
-      <c r="GE2" s="122"/>
-      <c r="GF2" s="122"/>
-      <c r="GG2" s="122"/>
-      <c r="GH2" s="122"/>
-      <c r="GI2" s="122"/>
-      <c r="GJ2" s="123"/>
-      <c r="GK2" s="121" t="s">
+      <c r="FK2" s="124"/>
+      <c r="FL2" s="124"/>
+      <c r="FM2" s="124"/>
+      <c r="FN2" s="124"/>
+      <c r="FO2" s="124"/>
+      <c r="FP2" s="124"/>
+      <c r="FQ2" s="124"/>
+      <c r="FR2" s="124"/>
+      <c r="FS2" s="124"/>
+      <c r="FT2" s="124"/>
+      <c r="FU2" s="124"/>
+      <c r="FV2" s="124"/>
+      <c r="FW2" s="124"/>
+      <c r="FX2" s="124"/>
+      <c r="FY2" s="124"/>
+      <c r="FZ2" s="124"/>
+      <c r="GA2" s="124"/>
+      <c r="GB2" s="124"/>
+      <c r="GC2" s="124"/>
+      <c r="GD2" s="124"/>
+      <c r="GE2" s="124"/>
+      <c r="GF2" s="124"/>
+      <c r="GG2" s="124"/>
+      <c r="GH2" s="124"/>
+      <c r="GI2" s="124"/>
+      <c r="GJ2" s="125"/>
+      <c r="GK2" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="GL2" s="122"/>
-      <c r="GM2" s="122"/>
-      <c r="GN2" s="122"/>
-      <c r="GO2" s="122"/>
-      <c r="GP2" s="122"/>
-      <c r="GQ2" s="122"/>
-      <c r="GR2" s="122"/>
-      <c r="GS2" s="122"/>
-      <c r="GT2" s="122"/>
-      <c r="GU2" s="122"/>
-      <c r="GV2" s="122"/>
-      <c r="GW2" s="122"/>
-      <c r="GX2" s="122"/>
-      <c r="GY2" s="122"/>
-      <c r="GZ2" s="122"/>
-      <c r="HA2" s="122"/>
-      <c r="HB2" s="122"/>
-      <c r="HC2" s="122"/>
-      <c r="HD2" s="122"/>
-      <c r="HE2" s="122"/>
-      <c r="HF2" s="122"/>
-      <c r="HG2" s="122"/>
-      <c r="HH2" s="122"/>
-      <c r="HI2" s="122"/>
-      <c r="HJ2" s="122"/>
-      <c r="HK2" s="123"/>
-      <c r="HL2" s="121" t="s">
+      <c r="GL2" s="124"/>
+      <c r="GM2" s="124"/>
+      <c r="GN2" s="124"/>
+      <c r="GO2" s="124"/>
+      <c r="GP2" s="124"/>
+      <c r="GQ2" s="124"/>
+      <c r="GR2" s="124"/>
+      <c r="GS2" s="124"/>
+      <c r="GT2" s="124"/>
+      <c r="GU2" s="124"/>
+      <c r="GV2" s="124"/>
+      <c r="GW2" s="124"/>
+      <c r="GX2" s="124"/>
+      <c r="GY2" s="124"/>
+      <c r="GZ2" s="124"/>
+      <c r="HA2" s="124"/>
+      <c r="HB2" s="124"/>
+      <c r="HC2" s="124"/>
+      <c r="HD2" s="124"/>
+      <c r="HE2" s="124"/>
+      <c r="HF2" s="124"/>
+      <c r="HG2" s="124"/>
+      <c r="HH2" s="124"/>
+      <c r="HI2" s="124"/>
+      <c r="HJ2" s="124"/>
+      <c r="HK2" s="125"/>
+      <c r="HL2" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="HM2" s="122"/>
-      <c r="HN2" s="122"/>
-      <c r="HO2" s="122"/>
-      <c r="HP2" s="122"/>
-      <c r="HQ2" s="122"/>
-      <c r="HR2" s="122"/>
-      <c r="HS2" s="122"/>
-      <c r="HT2" s="122"/>
-      <c r="HU2" s="122"/>
-      <c r="HV2" s="122"/>
-      <c r="HW2" s="122"/>
-      <c r="HX2" s="122"/>
-      <c r="HY2" s="122"/>
-      <c r="HZ2" s="122"/>
-      <c r="IA2" s="122"/>
-      <c r="IB2" s="122"/>
-      <c r="IC2" s="122"/>
-      <c r="ID2" s="122"/>
-      <c r="IE2" s="122"/>
-      <c r="IF2" s="122"/>
-      <c r="IG2" s="122"/>
-      <c r="IH2" s="122"/>
-      <c r="II2" s="122"/>
-      <c r="IJ2" s="122"/>
-      <c r="IK2" s="122"/>
-      <c r="IL2" s="123"/>
-      <c r="IM2" s="121" t="s">
+      <c r="HM2" s="124"/>
+      <c r="HN2" s="124"/>
+      <c r="HO2" s="124"/>
+      <c r="HP2" s="124"/>
+      <c r="HQ2" s="124"/>
+      <c r="HR2" s="124"/>
+      <c r="HS2" s="124"/>
+      <c r="HT2" s="124"/>
+      <c r="HU2" s="124"/>
+      <c r="HV2" s="124"/>
+      <c r="HW2" s="124"/>
+      <c r="HX2" s="124"/>
+      <c r="HY2" s="124"/>
+      <c r="HZ2" s="124"/>
+      <c r="IA2" s="124"/>
+      <c r="IB2" s="124"/>
+      <c r="IC2" s="124"/>
+      <c r="ID2" s="124"/>
+      <c r="IE2" s="124"/>
+      <c r="IF2" s="124"/>
+      <c r="IG2" s="124"/>
+      <c r="IH2" s="124"/>
+      <c r="II2" s="124"/>
+      <c r="IJ2" s="124"/>
+      <c r="IK2" s="124"/>
+      <c r="IL2" s="125"/>
+      <c r="IM2" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="IN2" s="122"/>
-      <c r="IO2" s="122"/>
-      <c r="IP2" s="122"/>
-      <c r="IQ2" s="122"/>
-      <c r="IR2" s="122"/>
-      <c r="IS2" s="122"/>
-      <c r="IT2" s="122"/>
-      <c r="IU2" s="122"/>
-      <c r="IV2" s="122"/>
-      <c r="IW2" s="122"/>
-      <c r="IX2" s="122"/>
-      <c r="IY2" s="122"/>
-      <c r="IZ2" s="122"/>
-      <c r="JA2" s="122"/>
-      <c r="JB2" s="122"/>
-      <c r="JC2" s="122"/>
-      <c r="JD2" s="122"/>
-      <c r="JE2" s="122"/>
-      <c r="JF2" s="122"/>
-      <c r="JG2" s="122"/>
-      <c r="JH2" s="122"/>
-      <c r="JI2" s="122"/>
-      <c r="JJ2" s="122"/>
-      <c r="JK2" s="122"/>
-      <c r="JL2" s="122"/>
-      <c r="JM2" s="123"/>
-      <c r="JN2" s="121" t="s">
+      <c r="IN2" s="124"/>
+      <c r="IO2" s="124"/>
+      <c r="IP2" s="124"/>
+      <c r="IQ2" s="124"/>
+      <c r="IR2" s="124"/>
+      <c r="IS2" s="124"/>
+      <c r="IT2" s="124"/>
+      <c r="IU2" s="124"/>
+      <c r="IV2" s="124"/>
+      <c r="IW2" s="124"/>
+      <c r="IX2" s="124"/>
+      <c r="IY2" s="124"/>
+      <c r="IZ2" s="124"/>
+      <c r="JA2" s="124"/>
+      <c r="JB2" s="124"/>
+      <c r="JC2" s="124"/>
+      <c r="JD2" s="124"/>
+      <c r="JE2" s="124"/>
+      <c r="JF2" s="124"/>
+      <c r="JG2" s="124"/>
+      <c r="JH2" s="124"/>
+      <c r="JI2" s="124"/>
+      <c r="JJ2" s="124"/>
+      <c r="JK2" s="124"/>
+      <c r="JL2" s="124"/>
+      <c r="JM2" s="125"/>
+      <c r="JN2" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="JO2" s="122"/>
-      <c r="JP2" s="122"/>
-      <c r="JQ2" s="122"/>
-      <c r="JR2" s="122"/>
-      <c r="JS2" s="122"/>
-      <c r="JT2" s="122"/>
-      <c r="JU2" s="122"/>
-      <c r="JV2" s="122"/>
-      <c r="JW2" s="122"/>
-      <c r="JX2" s="122"/>
-      <c r="JY2" s="122"/>
-      <c r="JZ2" s="122"/>
-      <c r="KA2" s="122"/>
-      <c r="KB2" s="122"/>
-      <c r="KC2" s="122"/>
-      <c r="KD2" s="122"/>
-      <c r="KE2" s="122"/>
-      <c r="KF2" s="122"/>
-      <c r="KG2" s="122"/>
-      <c r="KH2" s="122"/>
-      <c r="KI2" s="122"/>
-      <c r="KJ2" s="122"/>
-      <c r="KK2" s="122"/>
-      <c r="KL2" s="122"/>
-      <c r="KM2" s="122"/>
-      <c r="KN2" s="123"/>
-      <c r="KO2" s="121" t="s">
+      <c r="JO2" s="124"/>
+      <c r="JP2" s="124"/>
+      <c r="JQ2" s="124"/>
+      <c r="JR2" s="124"/>
+      <c r="JS2" s="124"/>
+      <c r="JT2" s="124"/>
+      <c r="JU2" s="124"/>
+      <c r="JV2" s="124"/>
+      <c r="JW2" s="124"/>
+      <c r="JX2" s="124"/>
+      <c r="JY2" s="124"/>
+      <c r="JZ2" s="124"/>
+      <c r="KA2" s="124"/>
+      <c r="KB2" s="124"/>
+      <c r="KC2" s="124"/>
+      <c r="KD2" s="124"/>
+      <c r="KE2" s="124"/>
+      <c r="KF2" s="124"/>
+      <c r="KG2" s="124"/>
+      <c r="KH2" s="124"/>
+      <c r="KI2" s="124"/>
+      <c r="KJ2" s="124"/>
+      <c r="KK2" s="124"/>
+      <c r="KL2" s="124"/>
+      <c r="KM2" s="124"/>
+      <c r="KN2" s="125"/>
+      <c r="KO2" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="KP2" s="122"/>
-      <c r="KQ2" s="122"/>
-      <c r="KR2" s="122"/>
-      <c r="KS2" s="122"/>
-      <c r="KT2" s="122"/>
-      <c r="KU2" s="122"/>
-      <c r="KV2" s="122"/>
-      <c r="KW2" s="122"/>
-      <c r="KX2" s="122"/>
-      <c r="KY2" s="122"/>
-      <c r="KZ2" s="122"/>
-      <c r="LA2" s="122"/>
-      <c r="LB2" s="122"/>
-      <c r="LC2" s="122"/>
-      <c r="LD2" s="122"/>
-      <c r="LE2" s="122"/>
-      <c r="LF2" s="122"/>
-      <c r="LG2" s="122"/>
-      <c r="LH2" s="122"/>
-      <c r="LI2" s="122"/>
-      <c r="LJ2" s="122"/>
-      <c r="LK2" s="122"/>
-      <c r="LL2" s="122"/>
-      <c r="LM2" s="122"/>
-      <c r="LN2" s="122"/>
-      <c r="LO2" s="123"/>
-      <c r="LP2" s="121" t="s">
+      <c r="KP2" s="124"/>
+      <c r="KQ2" s="124"/>
+      <c r="KR2" s="124"/>
+      <c r="KS2" s="124"/>
+      <c r="KT2" s="124"/>
+      <c r="KU2" s="124"/>
+      <c r="KV2" s="124"/>
+      <c r="KW2" s="124"/>
+      <c r="KX2" s="124"/>
+      <c r="KY2" s="124"/>
+      <c r="KZ2" s="124"/>
+      <c r="LA2" s="124"/>
+      <c r="LB2" s="124"/>
+      <c r="LC2" s="124"/>
+      <c r="LD2" s="124"/>
+      <c r="LE2" s="124"/>
+      <c r="LF2" s="124"/>
+      <c r="LG2" s="124"/>
+      <c r="LH2" s="124"/>
+      <c r="LI2" s="124"/>
+      <c r="LJ2" s="124"/>
+      <c r="LK2" s="124"/>
+      <c r="LL2" s="124"/>
+      <c r="LM2" s="124"/>
+      <c r="LN2" s="124"/>
+      <c r="LO2" s="125"/>
+      <c r="LP2" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="LQ2" s="122"/>
-      <c r="LR2" s="122"/>
-      <c r="LS2" s="122"/>
-      <c r="LT2" s="122"/>
-      <c r="LU2" s="122"/>
-      <c r="LV2" s="122"/>
-      <c r="LW2" s="122"/>
-      <c r="LX2" s="122"/>
-      <c r="LY2" s="122"/>
-      <c r="LZ2" s="122"/>
-      <c r="MA2" s="122"/>
-      <c r="MB2" s="122"/>
-      <c r="MC2" s="122"/>
-      <c r="MD2" s="122"/>
-      <c r="ME2" s="122"/>
-      <c r="MF2" s="122"/>
-      <c r="MG2" s="122"/>
-      <c r="MH2" s="122"/>
-      <c r="MI2" s="122"/>
-      <c r="MJ2" s="122"/>
-      <c r="MK2" s="122"/>
-      <c r="ML2" s="122"/>
-      <c r="MM2" s="122"/>
-      <c r="MN2" s="122"/>
-      <c r="MO2" s="122"/>
-      <c r="MP2" s="123"/>
-      <c r="MQ2" s="121" t="s">
+      <c r="LQ2" s="124"/>
+      <c r="LR2" s="124"/>
+      <c r="LS2" s="124"/>
+      <c r="LT2" s="124"/>
+      <c r="LU2" s="124"/>
+      <c r="LV2" s="124"/>
+      <c r="LW2" s="124"/>
+      <c r="LX2" s="124"/>
+      <c r="LY2" s="124"/>
+      <c r="LZ2" s="124"/>
+      <c r="MA2" s="124"/>
+      <c r="MB2" s="124"/>
+      <c r="MC2" s="124"/>
+      <c r="MD2" s="124"/>
+      <c r="ME2" s="124"/>
+      <c r="MF2" s="124"/>
+      <c r="MG2" s="124"/>
+      <c r="MH2" s="124"/>
+      <c r="MI2" s="124"/>
+      <c r="MJ2" s="124"/>
+      <c r="MK2" s="124"/>
+      <c r="ML2" s="124"/>
+      <c r="MM2" s="124"/>
+      <c r="MN2" s="124"/>
+      <c r="MO2" s="124"/>
+      <c r="MP2" s="125"/>
+      <c r="MQ2" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="MR2" s="122"/>
-      <c r="MS2" s="122"/>
-      <c r="MT2" s="122"/>
-      <c r="MU2" s="122"/>
-      <c r="MV2" s="122"/>
-      <c r="MW2" s="122"/>
-      <c r="MX2" s="122"/>
-      <c r="MY2" s="122"/>
-      <c r="MZ2" s="122"/>
-      <c r="NA2" s="122"/>
-      <c r="NB2" s="122"/>
-      <c r="NC2" s="122"/>
-      <c r="ND2" s="122"/>
-      <c r="NE2" s="122"/>
-      <c r="NF2" s="122"/>
-      <c r="NG2" s="122"/>
-      <c r="NH2" s="122"/>
-      <c r="NI2" s="122"/>
-      <c r="NJ2" s="122"/>
-      <c r="NK2" s="122"/>
-      <c r="NL2" s="122"/>
-      <c r="NM2" s="122"/>
-      <c r="NN2" s="122"/>
-      <c r="NO2" s="122"/>
-      <c r="NP2" s="122"/>
-      <c r="NQ2" s="123"/>
-      <c r="NR2" s="121" t="s">
+      <c r="MR2" s="124"/>
+      <c r="MS2" s="124"/>
+      <c r="MT2" s="124"/>
+      <c r="MU2" s="124"/>
+      <c r="MV2" s="124"/>
+      <c r="MW2" s="124"/>
+      <c r="MX2" s="124"/>
+      <c r="MY2" s="124"/>
+      <c r="MZ2" s="124"/>
+      <c r="NA2" s="124"/>
+      <c r="NB2" s="124"/>
+      <c r="NC2" s="124"/>
+      <c r="ND2" s="124"/>
+      <c r="NE2" s="124"/>
+      <c r="NF2" s="124"/>
+      <c r="NG2" s="124"/>
+      <c r="NH2" s="124"/>
+      <c r="NI2" s="124"/>
+      <c r="NJ2" s="124"/>
+      <c r="NK2" s="124"/>
+      <c r="NL2" s="124"/>
+      <c r="NM2" s="124"/>
+      <c r="NN2" s="124"/>
+      <c r="NO2" s="124"/>
+      <c r="NP2" s="124"/>
+      <c r="NQ2" s="125"/>
+      <c r="NR2" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="NS2" s="122"/>
-      <c r="NT2" s="122"/>
-      <c r="NU2" s="122"/>
-      <c r="NV2" s="122"/>
-      <c r="NW2" s="122"/>
-      <c r="NX2" s="122"/>
-      <c r="NY2" s="122"/>
-      <c r="NZ2" s="122"/>
-      <c r="OA2" s="122"/>
-      <c r="OB2" s="122"/>
-      <c r="OC2" s="122"/>
-      <c r="OD2" s="122"/>
-      <c r="OE2" s="122"/>
-      <c r="OF2" s="122"/>
-      <c r="OG2" s="122"/>
-      <c r="OH2" s="122"/>
-      <c r="OI2" s="122"/>
-      <c r="OJ2" s="122"/>
-      <c r="OK2" s="122"/>
-      <c r="OL2" s="122"/>
-      <c r="OM2" s="122"/>
-      <c r="ON2" s="122"/>
-      <c r="OO2" s="122"/>
-      <c r="OP2" s="122"/>
-      <c r="OQ2" s="122"/>
-      <c r="OR2" s="123"/>
-      <c r="OS2" s="121" t="s">
+      <c r="NS2" s="124"/>
+      <c r="NT2" s="124"/>
+      <c r="NU2" s="124"/>
+      <c r="NV2" s="124"/>
+      <c r="NW2" s="124"/>
+      <c r="NX2" s="124"/>
+      <c r="NY2" s="124"/>
+      <c r="NZ2" s="124"/>
+      <c r="OA2" s="124"/>
+      <c r="OB2" s="124"/>
+      <c r="OC2" s="124"/>
+      <c r="OD2" s="124"/>
+      <c r="OE2" s="124"/>
+      <c r="OF2" s="124"/>
+      <c r="OG2" s="124"/>
+      <c r="OH2" s="124"/>
+      <c r="OI2" s="124"/>
+      <c r="OJ2" s="124"/>
+      <c r="OK2" s="124"/>
+      <c r="OL2" s="124"/>
+      <c r="OM2" s="124"/>
+      <c r="ON2" s="124"/>
+      <c r="OO2" s="124"/>
+      <c r="OP2" s="124"/>
+      <c r="OQ2" s="124"/>
+      <c r="OR2" s="125"/>
+      <c r="OS2" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="OT2" s="122"/>
-      <c r="OU2" s="122"/>
-      <c r="OV2" s="122"/>
-      <c r="OW2" s="122"/>
-      <c r="OX2" s="122"/>
-      <c r="OY2" s="122"/>
-      <c r="OZ2" s="122"/>
-      <c r="PA2" s="122"/>
-      <c r="PB2" s="122"/>
-      <c r="PC2" s="122"/>
-      <c r="PD2" s="122"/>
-      <c r="PE2" s="122"/>
-      <c r="PF2" s="122"/>
-      <c r="PG2" s="122"/>
-      <c r="PH2" s="122"/>
-      <c r="PI2" s="122"/>
-      <c r="PJ2" s="122"/>
-      <c r="PK2" s="122"/>
-      <c r="PL2" s="122"/>
-      <c r="PM2" s="122"/>
-      <c r="PN2" s="122"/>
-      <c r="PO2" s="122"/>
-      <c r="PP2" s="122"/>
-      <c r="PQ2" s="122"/>
-      <c r="PR2" s="122"/>
-      <c r="PS2" s="123"/>
+      <c r="OT2" s="124"/>
+      <c r="OU2" s="124"/>
+      <c r="OV2" s="124"/>
+      <c r="OW2" s="124"/>
+      <c r="OX2" s="124"/>
+      <c r="OY2" s="124"/>
+      <c r="OZ2" s="124"/>
+      <c r="PA2" s="124"/>
+      <c r="PB2" s="124"/>
+      <c r="PC2" s="124"/>
+      <c r="PD2" s="124"/>
+      <c r="PE2" s="124"/>
+      <c r="PF2" s="124"/>
+      <c r="PG2" s="124"/>
+      <c r="PH2" s="124"/>
+      <c r="PI2" s="124"/>
+      <c r="PJ2" s="124"/>
+      <c r="PK2" s="124"/>
+      <c r="PL2" s="124"/>
+      <c r="PM2" s="124"/>
+      <c r="PN2" s="124"/>
+      <c r="PO2" s="124"/>
+      <c r="PP2" s="124"/>
+      <c r="PQ2" s="124"/>
+      <c r="PR2" s="124"/>
+      <c r="PS2" s="125"/>
     </row>
     <row r="3" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="85"/>
@@ -5246,7 +5270,7 @@
       <c r="PS5" s="90"/>
     </row>
     <row r="6" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="125"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="97">
         <v>0</v>
       </c>
@@ -5684,7 +5708,7 @@
       <c r="PS6" s="95"/>
     </row>
     <row r="7" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="124" t="str">
+      <c r="B7" s="121" t="str">
         <f>Donnees!$C$22</f>
         <v>Mise en place Trello</v>
       </c>
@@ -6125,7 +6149,7 @@
       <c r="PS7" s="90"/>
     </row>
     <row r="8" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="125"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="97">
         <v>0</v>
       </c>
@@ -6563,7 +6587,7 @@
       <c r="PS8" s="95"/>
     </row>
     <row r="9" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="124" t="str">
+      <c r="B9" s="121" t="str">
         <f>Donnees!$C$23</f>
         <v>Mise en place GitKraken</v>
       </c>
@@ -7004,7 +7028,7 @@
       <c r="PS9" s="90"/>
     </row>
     <row r="10" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="125"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="97">
         <v>0</v>
       </c>
@@ -7442,7 +7466,7 @@
       <c r="PS10" s="95"/>
     </row>
     <row r="11" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="124" t="str">
+      <c r="B11" s="121" t="str">
         <f>Donnees!$C$24</f>
         <v>Mise à jour Trello</v>
       </c>
@@ -7883,7 +7907,7 @@
       <c r="PS11" s="90"/>
     </row>
     <row r="12" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="125"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="97">
         <v>0</v>
       </c>
@@ -8321,7 +8345,7 @@
       <c r="PS12" s="95"/>
     </row>
     <row r="13" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="124" t="str">
+      <c r="B13" s="121" t="str">
         <f>Donnees!$C$25</f>
         <v>Mise à jour GitKraken</v>
       </c>
@@ -8762,7 +8786,7 @@
       <c r="PS13" s="90"/>
     </row>
     <row r="14" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="125"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="97">
         <v>0</v>
       </c>
@@ -9200,7 +9224,7 @@
       <c r="PS14" s="95"/>
     </row>
     <row r="15" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="124" t="str">
+      <c r="B15" s="121" t="str">
         <f>Donnees!$C$26</f>
         <v>Recherches</v>
       </c>
@@ -9642,7 +9666,7 @@
     </row>
     <row r="16" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="104"/>
-      <c r="B16" s="125"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="97">
         <v>0</v>
       </c>
@@ -10080,7 +10104,7 @@
       <c r="PS16" s="95"/>
     </row>
     <row r="17" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="124" t="str">
+      <c r="B17" s="121" t="str">
         <f>Donnees!$C$27</f>
         <v>Création plannif + JDT</v>
       </c>
@@ -10521,7 +10545,7 @@
       <c r="PS17" s="90"/>
     </row>
     <row r="18" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="125"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="97">
         <v>0</v>
       </c>
@@ -10959,7 +10983,7 @@
       <c r="PS18" s="95"/>
     </row>
     <row r="19" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="124" t="str">
+      <c r="B19" s="121" t="str">
         <f>Donnees!$C$28</f>
         <v>Mise à jour du JDT</v>
       </c>
@@ -11400,7 +11424,7 @@
       <c r="PS19" s="90"/>
     </row>
     <row r="20" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="125"/>
+      <c r="B20" s="122"/>
       <c r="C20" s="97">
         <v>0</v>
       </c>
@@ -11838,7 +11862,7 @@
       <c r="PS20" s="95"/>
     </row>
     <row r="21" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="124" t="str">
+      <c r="B21" s="121" t="str">
         <f>Donnees!$C$29</f>
         <v>Daily Scrum</v>
       </c>
@@ -12279,7 +12303,7 @@
       <c r="PS21" s="90"/>
     </row>
     <row r="22" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="125"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="97">
         <v>0</v>
       </c>
@@ -12717,7 +12741,7 @@
       <c r="PS22" s="95"/>
     </row>
     <row r="23" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="124" t="str">
+      <c r="B23" s="121" t="str">
         <f>Donnees!$C$30</f>
         <v>HTML</v>
       </c>
@@ -13158,7 +13182,7 @@
       <c r="PS23" s="90"/>
     </row>
     <row r="24" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="125"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="97">
         <v>0</v>
       </c>
@@ -13596,7 +13620,7 @@
       <c r="PS24" s="95"/>
     </row>
     <row r="25" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="124" t="str">
+      <c r="B25" s="121" t="str">
         <f>Donnees!$C$31</f>
         <v>Base de donnée</v>
       </c>
@@ -14037,7 +14061,7 @@
       <c r="PS25" s="90"/>
     </row>
     <row r="26" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="125"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="97">
         <v>0</v>
       </c>
@@ -14475,7 +14499,7 @@
       <c r="PS26" s="95"/>
     </row>
     <row r="27" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="124" t="str">
+      <c r="B27" s="121" t="str">
         <f>Donnees!$C$32</f>
         <v>PHP</v>
       </c>
@@ -14916,7 +14940,7 @@
       <c r="PS27" s="90"/>
     </row>
     <row r="28" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="125"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="97">
         <v>0</v>
       </c>
@@ -15354,7 +15378,7 @@
       <c r="PS28" s="95"/>
     </row>
     <row r="29" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="124" t="str">
+      <c r="B29" s="121" t="str">
         <f>Donnees!$C$33</f>
         <v>Typo3</v>
       </c>
@@ -15795,7 +15819,7 @@
       <c r="PS29" s="90"/>
     </row>
     <row r="30" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="125"/>
+      <c r="B30" s="122"/>
       <c r="C30" s="97">
         <v>0</v>
       </c>
@@ -16233,7 +16257,7 @@
       <c r="PS30" s="95"/>
     </row>
     <row r="31" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="124" t="str">
+      <c r="B31" s="121" t="str">
         <f>Donnees!$C$34</f>
         <v>Création jeu flash</v>
       </c>
@@ -16674,7 +16698,7 @@
       <c r="PS31" s="90"/>
     </row>
     <row r="32" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="125"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="97">
         <v>0</v>
       </c>
@@ -17996,14 +18020,13 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" selectLockedCells="1"/>
   <mergeCells count="31">
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="HL2:IL2"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="CG2:DG2"/>
-    <mergeCell ref="DH2:EH2"/>
-    <mergeCell ref="EI2:FI2"/>
-    <mergeCell ref="FJ2:GJ2"/>
-    <mergeCell ref="GK2:HK2"/>
+    <mergeCell ref="OS2:PS2"/>
+    <mergeCell ref="IM2:JM2"/>
+    <mergeCell ref="JN2:KN2"/>
+    <mergeCell ref="KO2:LO2"/>
+    <mergeCell ref="LP2:MP2"/>
+    <mergeCell ref="MQ2:NQ2"/>
+    <mergeCell ref="NR2:OR2"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="D2:AD2"/>
@@ -18020,13 +18043,14 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="OS2:PS2"/>
-    <mergeCell ref="IM2:JM2"/>
-    <mergeCell ref="JN2:KN2"/>
-    <mergeCell ref="KO2:LO2"/>
-    <mergeCell ref="LP2:MP2"/>
-    <mergeCell ref="MQ2:NQ2"/>
-    <mergeCell ref="NR2:OR2"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="HL2:IL2"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="CG2:DG2"/>
+    <mergeCell ref="DH2:EH2"/>
+    <mergeCell ref="EI2:FI2"/>
+    <mergeCell ref="FJ2:GJ2"/>
+    <mergeCell ref="GK2:HK2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="DureeTropLongue" error="Cette durée est invalide: ce n'est pas un chiffre entier positif ou elle dépasse la &quot;Durée totale&quot; définie plus haut ..." sqref="C33">
@@ -20695,8 +20719,8 @@
   </sheetPr>
   <dimension ref="A1:I307"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A91" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A123" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21430,7 +21454,7 @@
         <v>95</v>
       </c>
       <c r="D67" s="108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
@@ -21591,7 +21615,7 @@
         <v>98</v>
       </c>
       <c r="D84" s="108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
@@ -21605,7 +21629,7 @@
         <v>96</v>
       </c>
       <c r="D85" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
@@ -21708,7 +21732,7 @@
         <v>23</v>
       </c>
       <c r="D98" s="82">
-        <v>42919</v>
+        <v>42893</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -21774,7 +21798,7 @@
         <v>101</v>
       </c>
       <c r="D103" s="108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
@@ -21796,7 +21820,7 @@
         <v>100</v>
       </c>
       <c r="D105" s="108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
@@ -21807,7 +21831,7 @@
         <v>3</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D106" s="108" t="s">
         <v>79</v>
@@ -21821,7 +21845,7 @@
         <v>3</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D107" s="14"/>
     </row>
@@ -21843,7 +21867,7 @@
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="14" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D109" s="14"/>
     </row>
@@ -21861,7 +21885,7 @@
         <v>3</v>
       </c>
       <c r="C111" s="118" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D111" s="14"/>
     </row>
@@ -21913,7 +21937,7 @@
         <v>23</v>
       </c>
       <c r="D117" s="82">
-        <v>42926</v>
+        <v>42895</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -21931,51 +21955,97 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="9"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-    </row>
-    <row r="120" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="5"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="14"/>
+      <c r="A119" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="8">
+        <v>1</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D119" s="109" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B120" s="6">
+        <v>2</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="D120" s="14"/>
     </row>
-    <row r="121" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="5"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="14"/>
+    <row r="121" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B121" s="111">
+        <v>12</v>
+      </c>
+      <c r="C121" s="112" t="s">
+        <v>111</v>
+      </c>
       <c r="D121" s="14"/>
     </row>
     <row r="122" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="5"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="14"/>
+      <c r="A122" s="113"/>
+      <c r="B122" s="114"/>
+      <c r="C122" s="115" t="s">
+        <v>78</v>
+      </c>
       <c r="D122" s="14"/>
     </row>
-    <row r="123" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="5"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-    </row>
-    <row r="124" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="5"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="14"/>
+    <row r="123" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="B123" s="117">
+        <v>6</v>
+      </c>
+      <c r="C123" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="D123" s="108" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B124" s="6">
+        <v>2</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="D124" s="14"/>
     </row>
     <row r="125" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="5"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="14"/>
+      <c r="A125" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B125" s="6">
+        <v>1</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="D125" s="14"/>
     </row>
     <row r="126" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="5"/>
+      <c r="A126" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="B126" s="6"/>
-      <c r="C126" s="14"/>
+      <c r="C126" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="D126" s="14"/>
     </row>
     <row r="127" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
@@ -22003,8 +22073,12 @@
       <c r="D130" s="14"/>
     </row>
     <row r="131" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="79"/>
-      <c r="B131" s="79"/>
+      <c r="A131" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B131" s="79">
+        <v>3</v>
+      </c>
       <c r="C131" s="80"/>
       <c r="D131" s="80"/>
     </row>
@@ -22026,7 +22100,7 @@
       </c>
       <c r="B134" s="76">
         <f>SUM(B119:B133)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C134" s="107" t="s">
         <v>45</v>
@@ -22050,7 +22124,7 @@
         <v>23</v>
       </c>
       <c r="D136" s="82">
-        <v>42933</v>
+        <v>42898</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -22187,7 +22261,7 @@
         <v>23</v>
       </c>
       <c r="D155" s="82">
-        <v>42940</v>
+        <v>42899</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -22324,7 +22398,7 @@
         <v>23</v>
       </c>
       <c r="D174" s="82">
-        <v>42947</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -22461,7 +22535,7 @@
         <v>23</v>
       </c>
       <c r="D193" s="82">
-        <v>42954</v>
+        <v>42902</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -22598,7 +22672,7 @@
         <v>23</v>
       </c>
       <c r="D212" s="82">
-        <v>42961</v>
+        <v>42912</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -23316,21 +23390,23 @@
     <hyperlink ref="D84" r:id="rId19"/>
     <hyperlink ref="D85" r:id="rId20"/>
     <hyperlink ref="D67" r:id="rId21"/>
+    <hyperlink ref="D119" r:id="rId22"/>
+    <hyperlink ref="D123" r:id="rId23"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" cellComments="atEnd" r:id="rId22"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" cellComments="atEnd" r:id="rId24"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ETML L,Normal"&amp;24ETML</oddHeader>
     <oddFooter>&amp;C&amp;F&amp;L&amp;D</oddFooter>
   </headerFooter>
-  <drawing r:id="rId23"/>
-  <legacyDrawing r:id="rId24"/>
+  <drawing r:id="rId25"/>
+  <legacyDrawing r:id="rId26"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="44033" r:id="rId25" name="btnImportRealisation">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId26">
+        <control shapeId="44033" r:id="rId27" name="btnImportRealisation">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId28">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -23349,7 +23425,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="44033" r:id="rId25" name="btnImportRealisation"/>
+        <control shapeId="44033" r:id="rId27" name="btnImportRealisation"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/doc/DemoMotJDT-pittierfa.xlsx
+++ b/doc/DemoMotJDT-pittierfa.xlsx
@@ -36,7 +36,7 @@
     <definedName name="objRealizedWeek" localSheetId="7">JNLTRAV!$A$1:$D$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Diagramme!$A$1:$PT$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Donnees!$A$1:$G$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">JNLTRAV!$A$1:$D$306</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">JNLTRAV!$A$1:$D$309</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Planning!$A$1:$D$224</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="129">
   <si>
     <t>Module :</t>
   </si>
@@ -418,6 +418,42 @@
   </si>
   <si>
     <t>Commit modifications du jour (Site + JDT + mise à jour daily scrum)</t>
+  </si>
+  <si>
+    <t>Push de la branche dev car le dernier commit était uniquement en local (checkout de la branche pour pouvoir faire le push), Jimmy récupère site mais il lui manque bdd -&gt; passe sur K du groupe</t>
+  </si>
+  <si>
+    <t>que 4 périodes lundi matin</t>
+  </si>
+  <si>
+    <t>https://github.com/FriendsOfTYPO3/extension_builder/tree/8.6</t>
+  </si>
+  <si>
+    <t>https://github.com/TYPO3-extensions/extension_builder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Met en place une extension mais avant de la sauvegarder remarque que nous avons extension builder pour une version trop vieille de typo3 (On a téléchargé sur mauvais depo). </t>
+  </si>
+  <si>
+    <t>On va demander à mme hardeger qui nous montre que nous avons mauvaise version et où télécharger la dernière version (depot github)</t>
+  </si>
+  <si>
+    <t>On n'avait pas très bien compris s'il fallait mettre en place un frontend et quelle cardinalité il fallait mettre -&gt; montre un bon doccument à lire pour nous aider</t>
+  </si>
+  <si>
+    <t>Avec Jimmy regarde quels propriétés nous avons besoin pour notre extension et recommence à créer notre extension</t>
+  </si>
+  <si>
+    <t>Terminé création de l'extension</t>
+  </si>
+  <si>
+    <t>Règle un petit bogue: Lorsqu'on est connecté, doit plus voir la page "connexion" dans le nav</t>
+  </si>
+  <si>
+    <t>(Commit pour les branches FPR02 et DEV01 mais checkout entre les branches long car DEV01 contient tout typo3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise au propre du doccument </t>
   </si>
 </sst>
 </file>
@@ -1592,12 +1628,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1606,6 +1636,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -3375,27 +3411,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId4" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId4" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId4" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId4" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3425,27 +3461,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId8" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId8" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId8" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId8" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3483,470 +3519,470 @@
       <c r="C2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="123" t="s">
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="124"/>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
-      <c r="AL2" s="124"/>
-      <c r="AM2" s="124"/>
-      <c r="AN2" s="124"/>
-      <c r="AO2" s="124"/>
-      <c r="AP2" s="124"/>
-      <c r="AQ2" s="124"/>
-      <c r="AR2" s="124"/>
-      <c r="AS2" s="124"/>
-      <c r="AT2" s="124"/>
-      <c r="AU2" s="124"/>
-      <c r="AV2" s="124"/>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="124"/>
-      <c r="AY2" s="124"/>
-      <c r="AZ2" s="124"/>
-      <c r="BA2" s="124"/>
-      <c r="BB2" s="124"/>
-      <c r="BC2" s="124"/>
-      <c r="BD2" s="124"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="123" t="s">
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122"/>
+      <c r="AQ2" s="122"/>
+      <c r="AR2" s="122"/>
+      <c r="AS2" s="122"/>
+      <c r="AT2" s="122"/>
+      <c r="AU2" s="122"/>
+      <c r="AV2" s="122"/>
+      <c r="AW2" s="122"/>
+      <c r="AX2" s="122"/>
+      <c r="AY2" s="122"/>
+      <c r="AZ2" s="122"/>
+      <c r="BA2" s="122"/>
+      <c r="BB2" s="122"/>
+      <c r="BC2" s="122"/>
+      <c r="BD2" s="122"/>
+      <c r="BE2" s="123"/>
+      <c r="BF2" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="BG2" s="124"/>
-      <c r="BH2" s="124"/>
-      <c r="BI2" s="124"/>
-      <c r="BJ2" s="124"/>
-      <c r="BK2" s="124"/>
-      <c r="BL2" s="124"/>
-      <c r="BM2" s="124"/>
-      <c r="BN2" s="124"/>
-      <c r="BO2" s="124"/>
-      <c r="BP2" s="124"/>
-      <c r="BQ2" s="124"/>
-      <c r="BR2" s="124"/>
-      <c r="BS2" s="124"/>
-      <c r="BT2" s="124"/>
-      <c r="BU2" s="124"/>
-      <c r="BV2" s="124"/>
-      <c r="BW2" s="124"/>
-      <c r="BX2" s="124"/>
-      <c r="BY2" s="124"/>
-      <c r="BZ2" s="124"/>
-      <c r="CA2" s="124"/>
-      <c r="CB2" s="124"/>
-      <c r="CC2" s="124"/>
-      <c r="CD2" s="124"/>
-      <c r="CE2" s="124"/>
-      <c r="CF2" s="125"/>
-      <c r="CG2" s="123" t="s">
+      <c r="BG2" s="122"/>
+      <c r="BH2" s="122"/>
+      <c r="BI2" s="122"/>
+      <c r="BJ2" s="122"/>
+      <c r="BK2" s="122"/>
+      <c r="BL2" s="122"/>
+      <c r="BM2" s="122"/>
+      <c r="BN2" s="122"/>
+      <c r="BO2" s="122"/>
+      <c r="BP2" s="122"/>
+      <c r="BQ2" s="122"/>
+      <c r="BR2" s="122"/>
+      <c r="BS2" s="122"/>
+      <c r="BT2" s="122"/>
+      <c r="BU2" s="122"/>
+      <c r="BV2" s="122"/>
+      <c r="BW2" s="122"/>
+      <c r="BX2" s="122"/>
+      <c r="BY2" s="122"/>
+      <c r="BZ2" s="122"/>
+      <c r="CA2" s="122"/>
+      <c r="CB2" s="122"/>
+      <c r="CC2" s="122"/>
+      <c r="CD2" s="122"/>
+      <c r="CE2" s="122"/>
+      <c r="CF2" s="123"/>
+      <c r="CG2" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="CH2" s="124"/>
-      <c r="CI2" s="124"/>
-      <c r="CJ2" s="124"/>
-      <c r="CK2" s="124"/>
-      <c r="CL2" s="124"/>
-      <c r="CM2" s="124"/>
-      <c r="CN2" s="124"/>
-      <c r="CO2" s="124"/>
-      <c r="CP2" s="124"/>
-      <c r="CQ2" s="124"/>
-      <c r="CR2" s="124"/>
-      <c r="CS2" s="124"/>
-      <c r="CT2" s="124"/>
-      <c r="CU2" s="124"/>
-      <c r="CV2" s="124"/>
-      <c r="CW2" s="124"/>
-      <c r="CX2" s="124"/>
-      <c r="CY2" s="124"/>
-      <c r="CZ2" s="124"/>
-      <c r="DA2" s="124"/>
-      <c r="DB2" s="124"/>
-      <c r="DC2" s="124"/>
-      <c r="DD2" s="124"/>
-      <c r="DE2" s="124"/>
-      <c r="DF2" s="124"/>
-      <c r="DG2" s="125"/>
-      <c r="DH2" s="123" t="s">
+      <c r="CH2" s="122"/>
+      <c r="CI2" s="122"/>
+      <c r="CJ2" s="122"/>
+      <c r="CK2" s="122"/>
+      <c r="CL2" s="122"/>
+      <c r="CM2" s="122"/>
+      <c r="CN2" s="122"/>
+      <c r="CO2" s="122"/>
+      <c r="CP2" s="122"/>
+      <c r="CQ2" s="122"/>
+      <c r="CR2" s="122"/>
+      <c r="CS2" s="122"/>
+      <c r="CT2" s="122"/>
+      <c r="CU2" s="122"/>
+      <c r="CV2" s="122"/>
+      <c r="CW2" s="122"/>
+      <c r="CX2" s="122"/>
+      <c r="CY2" s="122"/>
+      <c r="CZ2" s="122"/>
+      <c r="DA2" s="122"/>
+      <c r="DB2" s="122"/>
+      <c r="DC2" s="122"/>
+      <c r="DD2" s="122"/>
+      <c r="DE2" s="122"/>
+      <c r="DF2" s="122"/>
+      <c r="DG2" s="123"/>
+      <c r="DH2" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="DI2" s="124"/>
-      <c r="DJ2" s="124"/>
-      <c r="DK2" s="124"/>
-      <c r="DL2" s="124"/>
-      <c r="DM2" s="124"/>
-      <c r="DN2" s="124"/>
-      <c r="DO2" s="124"/>
-      <c r="DP2" s="124"/>
-      <c r="DQ2" s="124"/>
-      <c r="DR2" s="124"/>
-      <c r="DS2" s="124"/>
-      <c r="DT2" s="124"/>
-      <c r="DU2" s="124"/>
-      <c r="DV2" s="124"/>
-      <c r="DW2" s="124"/>
-      <c r="DX2" s="124"/>
-      <c r="DY2" s="124"/>
-      <c r="DZ2" s="124"/>
-      <c r="EA2" s="124"/>
-      <c r="EB2" s="124"/>
-      <c r="EC2" s="124"/>
-      <c r="ED2" s="124"/>
-      <c r="EE2" s="124"/>
-      <c r="EF2" s="124"/>
-      <c r="EG2" s="124"/>
-      <c r="EH2" s="125"/>
-      <c r="EI2" s="123" t="s">
+      <c r="DI2" s="122"/>
+      <c r="DJ2" s="122"/>
+      <c r="DK2" s="122"/>
+      <c r="DL2" s="122"/>
+      <c r="DM2" s="122"/>
+      <c r="DN2" s="122"/>
+      <c r="DO2" s="122"/>
+      <c r="DP2" s="122"/>
+      <c r="DQ2" s="122"/>
+      <c r="DR2" s="122"/>
+      <c r="DS2" s="122"/>
+      <c r="DT2" s="122"/>
+      <c r="DU2" s="122"/>
+      <c r="DV2" s="122"/>
+      <c r="DW2" s="122"/>
+      <c r="DX2" s="122"/>
+      <c r="DY2" s="122"/>
+      <c r="DZ2" s="122"/>
+      <c r="EA2" s="122"/>
+      <c r="EB2" s="122"/>
+      <c r="EC2" s="122"/>
+      <c r="ED2" s="122"/>
+      <c r="EE2" s="122"/>
+      <c r="EF2" s="122"/>
+      <c r="EG2" s="122"/>
+      <c r="EH2" s="123"/>
+      <c r="EI2" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="EJ2" s="124"/>
-      <c r="EK2" s="124"/>
-      <c r="EL2" s="124"/>
-      <c r="EM2" s="124"/>
-      <c r="EN2" s="124"/>
-      <c r="EO2" s="124"/>
-      <c r="EP2" s="124"/>
-      <c r="EQ2" s="124"/>
-      <c r="ER2" s="124"/>
-      <c r="ES2" s="124"/>
-      <c r="ET2" s="124"/>
-      <c r="EU2" s="124"/>
-      <c r="EV2" s="124"/>
-      <c r="EW2" s="124"/>
-      <c r="EX2" s="124"/>
-      <c r="EY2" s="124"/>
-      <c r="EZ2" s="124"/>
-      <c r="FA2" s="124"/>
-      <c r="FB2" s="124"/>
-      <c r="FC2" s="124"/>
-      <c r="FD2" s="124"/>
-      <c r="FE2" s="124"/>
-      <c r="FF2" s="124"/>
-      <c r="FG2" s="124"/>
-      <c r="FH2" s="124"/>
-      <c r="FI2" s="125"/>
-      <c r="FJ2" s="123" t="s">
+      <c r="EJ2" s="122"/>
+      <c r="EK2" s="122"/>
+      <c r="EL2" s="122"/>
+      <c r="EM2" s="122"/>
+      <c r="EN2" s="122"/>
+      <c r="EO2" s="122"/>
+      <c r="EP2" s="122"/>
+      <c r="EQ2" s="122"/>
+      <c r="ER2" s="122"/>
+      <c r="ES2" s="122"/>
+      <c r="ET2" s="122"/>
+      <c r="EU2" s="122"/>
+      <c r="EV2" s="122"/>
+      <c r="EW2" s="122"/>
+      <c r="EX2" s="122"/>
+      <c r="EY2" s="122"/>
+      <c r="EZ2" s="122"/>
+      <c r="FA2" s="122"/>
+      <c r="FB2" s="122"/>
+      <c r="FC2" s="122"/>
+      <c r="FD2" s="122"/>
+      <c r="FE2" s="122"/>
+      <c r="FF2" s="122"/>
+      <c r="FG2" s="122"/>
+      <c r="FH2" s="122"/>
+      <c r="FI2" s="123"/>
+      <c r="FJ2" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="FK2" s="124"/>
-      <c r="FL2" s="124"/>
-      <c r="FM2" s="124"/>
-      <c r="FN2" s="124"/>
-      <c r="FO2" s="124"/>
-      <c r="FP2" s="124"/>
-      <c r="FQ2" s="124"/>
-      <c r="FR2" s="124"/>
-      <c r="FS2" s="124"/>
-      <c r="FT2" s="124"/>
-      <c r="FU2" s="124"/>
-      <c r="FV2" s="124"/>
-      <c r="FW2" s="124"/>
-      <c r="FX2" s="124"/>
-      <c r="FY2" s="124"/>
-      <c r="FZ2" s="124"/>
-      <c r="GA2" s="124"/>
-      <c r="GB2" s="124"/>
-      <c r="GC2" s="124"/>
-      <c r="GD2" s="124"/>
-      <c r="GE2" s="124"/>
-      <c r="GF2" s="124"/>
-      <c r="GG2" s="124"/>
-      <c r="GH2" s="124"/>
-      <c r="GI2" s="124"/>
-      <c r="GJ2" s="125"/>
-      <c r="GK2" s="123" t="s">
+      <c r="FK2" s="122"/>
+      <c r="FL2" s="122"/>
+      <c r="FM2" s="122"/>
+      <c r="FN2" s="122"/>
+      <c r="FO2" s="122"/>
+      <c r="FP2" s="122"/>
+      <c r="FQ2" s="122"/>
+      <c r="FR2" s="122"/>
+      <c r="FS2" s="122"/>
+      <c r="FT2" s="122"/>
+      <c r="FU2" s="122"/>
+      <c r="FV2" s="122"/>
+      <c r="FW2" s="122"/>
+      <c r="FX2" s="122"/>
+      <c r="FY2" s="122"/>
+      <c r="FZ2" s="122"/>
+      <c r="GA2" s="122"/>
+      <c r="GB2" s="122"/>
+      <c r="GC2" s="122"/>
+      <c r="GD2" s="122"/>
+      <c r="GE2" s="122"/>
+      <c r="GF2" s="122"/>
+      <c r="GG2" s="122"/>
+      <c r="GH2" s="122"/>
+      <c r="GI2" s="122"/>
+      <c r="GJ2" s="123"/>
+      <c r="GK2" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="GL2" s="124"/>
-      <c r="GM2" s="124"/>
-      <c r="GN2" s="124"/>
-      <c r="GO2" s="124"/>
-      <c r="GP2" s="124"/>
-      <c r="GQ2" s="124"/>
-      <c r="GR2" s="124"/>
-      <c r="GS2" s="124"/>
-      <c r="GT2" s="124"/>
-      <c r="GU2" s="124"/>
-      <c r="GV2" s="124"/>
-      <c r="GW2" s="124"/>
-      <c r="GX2" s="124"/>
-      <c r="GY2" s="124"/>
-      <c r="GZ2" s="124"/>
-      <c r="HA2" s="124"/>
-      <c r="HB2" s="124"/>
-      <c r="HC2" s="124"/>
-      <c r="HD2" s="124"/>
-      <c r="HE2" s="124"/>
-      <c r="HF2" s="124"/>
-      <c r="HG2" s="124"/>
-      <c r="HH2" s="124"/>
-      <c r="HI2" s="124"/>
-      <c r="HJ2" s="124"/>
-      <c r="HK2" s="125"/>
-      <c r="HL2" s="123" t="s">
+      <c r="GL2" s="122"/>
+      <c r="GM2" s="122"/>
+      <c r="GN2" s="122"/>
+      <c r="GO2" s="122"/>
+      <c r="GP2" s="122"/>
+      <c r="GQ2" s="122"/>
+      <c r="GR2" s="122"/>
+      <c r="GS2" s="122"/>
+      <c r="GT2" s="122"/>
+      <c r="GU2" s="122"/>
+      <c r="GV2" s="122"/>
+      <c r="GW2" s="122"/>
+      <c r="GX2" s="122"/>
+      <c r="GY2" s="122"/>
+      <c r="GZ2" s="122"/>
+      <c r="HA2" s="122"/>
+      <c r="HB2" s="122"/>
+      <c r="HC2" s="122"/>
+      <c r="HD2" s="122"/>
+      <c r="HE2" s="122"/>
+      <c r="HF2" s="122"/>
+      <c r="HG2" s="122"/>
+      <c r="HH2" s="122"/>
+      <c r="HI2" s="122"/>
+      <c r="HJ2" s="122"/>
+      <c r="HK2" s="123"/>
+      <c r="HL2" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="HM2" s="124"/>
-      <c r="HN2" s="124"/>
-      <c r="HO2" s="124"/>
-      <c r="HP2" s="124"/>
-      <c r="HQ2" s="124"/>
-      <c r="HR2" s="124"/>
-      <c r="HS2" s="124"/>
-      <c r="HT2" s="124"/>
-      <c r="HU2" s="124"/>
-      <c r="HV2" s="124"/>
-      <c r="HW2" s="124"/>
-      <c r="HX2" s="124"/>
-      <c r="HY2" s="124"/>
-      <c r="HZ2" s="124"/>
-      <c r="IA2" s="124"/>
-      <c r="IB2" s="124"/>
-      <c r="IC2" s="124"/>
-      <c r="ID2" s="124"/>
-      <c r="IE2" s="124"/>
-      <c r="IF2" s="124"/>
-      <c r="IG2" s="124"/>
-      <c r="IH2" s="124"/>
-      <c r="II2" s="124"/>
-      <c r="IJ2" s="124"/>
-      <c r="IK2" s="124"/>
-      <c r="IL2" s="125"/>
-      <c r="IM2" s="123" t="s">
+      <c r="HM2" s="122"/>
+      <c r="HN2" s="122"/>
+      <c r="HO2" s="122"/>
+      <c r="HP2" s="122"/>
+      <c r="HQ2" s="122"/>
+      <c r="HR2" s="122"/>
+      <c r="HS2" s="122"/>
+      <c r="HT2" s="122"/>
+      <c r="HU2" s="122"/>
+      <c r="HV2" s="122"/>
+      <c r="HW2" s="122"/>
+      <c r="HX2" s="122"/>
+      <c r="HY2" s="122"/>
+      <c r="HZ2" s="122"/>
+      <c r="IA2" s="122"/>
+      <c r="IB2" s="122"/>
+      <c r="IC2" s="122"/>
+      <c r="ID2" s="122"/>
+      <c r="IE2" s="122"/>
+      <c r="IF2" s="122"/>
+      <c r="IG2" s="122"/>
+      <c r="IH2" s="122"/>
+      <c r="II2" s="122"/>
+      <c r="IJ2" s="122"/>
+      <c r="IK2" s="122"/>
+      <c r="IL2" s="123"/>
+      <c r="IM2" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="IN2" s="124"/>
-      <c r="IO2" s="124"/>
-      <c r="IP2" s="124"/>
-      <c r="IQ2" s="124"/>
-      <c r="IR2" s="124"/>
-      <c r="IS2" s="124"/>
-      <c r="IT2" s="124"/>
-      <c r="IU2" s="124"/>
-      <c r="IV2" s="124"/>
-      <c r="IW2" s="124"/>
-      <c r="IX2" s="124"/>
-      <c r="IY2" s="124"/>
-      <c r="IZ2" s="124"/>
-      <c r="JA2" s="124"/>
-      <c r="JB2" s="124"/>
-      <c r="JC2" s="124"/>
-      <c r="JD2" s="124"/>
-      <c r="JE2" s="124"/>
-      <c r="JF2" s="124"/>
-      <c r="JG2" s="124"/>
-      <c r="JH2" s="124"/>
-      <c r="JI2" s="124"/>
-      <c r="JJ2" s="124"/>
-      <c r="JK2" s="124"/>
-      <c r="JL2" s="124"/>
-      <c r="JM2" s="125"/>
-      <c r="JN2" s="123" t="s">
+      <c r="IN2" s="122"/>
+      <c r="IO2" s="122"/>
+      <c r="IP2" s="122"/>
+      <c r="IQ2" s="122"/>
+      <c r="IR2" s="122"/>
+      <c r="IS2" s="122"/>
+      <c r="IT2" s="122"/>
+      <c r="IU2" s="122"/>
+      <c r="IV2" s="122"/>
+      <c r="IW2" s="122"/>
+      <c r="IX2" s="122"/>
+      <c r="IY2" s="122"/>
+      <c r="IZ2" s="122"/>
+      <c r="JA2" s="122"/>
+      <c r="JB2" s="122"/>
+      <c r="JC2" s="122"/>
+      <c r="JD2" s="122"/>
+      <c r="JE2" s="122"/>
+      <c r="JF2" s="122"/>
+      <c r="JG2" s="122"/>
+      <c r="JH2" s="122"/>
+      <c r="JI2" s="122"/>
+      <c r="JJ2" s="122"/>
+      <c r="JK2" s="122"/>
+      <c r="JL2" s="122"/>
+      <c r="JM2" s="123"/>
+      <c r="JN2" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="JO2" s="124"/>
-      <c r="JP2" s="124"/>
-      <c r="JQ2" s="124"/>
-      <c r="JR2" s="124"/>
-      <c r="JS2" s="124"/>
-      <c r="JT2" s="124"/>
-      <c r="JU2" s="124"/>
-      <c r="JV2" s="124"/>
-      <c r="JW2" s="124"/>
-      <c r="JX2" s="124"/>
-      <c r="JY2" s="124"/>
-      <c r="JZ2" s="124"/>
-      <c r="KA2" s="124"/>
-      <c r="KB2" s="124"/>
-      <c r="KC2" s="124"/>
-      <c r="KD2" s="124"/>
-      <c r="KE2" s="124"/>
-      <c r="KF2" s="124"/>
-      <c r="KG2" s="124"/>
-      <c r="KH2" s="124"/>
-      <c r="KI2" s="124"/>
-      <c r="KJ2" s="124"/>
-      <c r="KK2" s="124"/>
-      <c r="KL2" s="124"/>
-      <c r="KM2" s="124"/>
-      <c r="KN2" s="125"/>
-      <c r="KO2" s="123" t="s">
+      <c r="JO2" s="122"/>
+      <c r="JP2" s="122"/>
+      <c r="JQ2" s="122"/>
+      <c r="JR2" s="122"/>
+      <c r="JS2" s="122"/>
+      <c r="JT2" s="122"/>
+      <c r="JU2" s="122"/>
+      <c r="JV2" s="122"/>
+      <c r="JW2" s="122"/>
+      <c r="JX2" s="122"/>
+      <c r="JY2" s="122"/>
+      <c r="JZ2" s="122"/>
+      <c r="KA2" s="122"/>
+      <c r="KB2" s="122"/>
+      <c r="KC2" s="122"/>
+      <c r="KD2" s="122"/>
+      <c r="KE2" s="122"/>
+      <c r="KF2" s="122"/>
+      <c r="KG2" s="122"/>
+      <c r="KH2" s="122"/>
+      <c r="KI2" s="122"/>
+      <c r="KJ2" s="122"/>
+      <c r="KK2" s="122"/>
+      <c r="KL2" s="122"/>
+      <c r="KM2" s="122"/>
+      <c r="KN2" s="123"/>
+      <c r="KO2" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="KP2" s="124"/>
-      <c r="KQ2" s="124"/>
-      <c r="KR2" s="124"/>
-      <c r="KS2" s="124"/>
-      <c r="KT2" s="124"/>
-      <c r="KU2" s="124"/>
-      <c r="KV2" s="124"/>
-      <c r="KW2" s="124"/>
-      <c r="KX2" s="124"/>
-      <c r="KY2" s="124"/>
-      <c r="KZ2" s="124"/>
-      <c r="LA2" s="124"/>
-      <c r="LB2" s="124"/>
-      <c r="LC2" s="124"/>
-      <c r="LD2" s="124"/>
-      <c r="LE2" s="124"/>
-      <c r="LF2" s="124"/>
-      <c r="LG2" s="124"/>
-      <c r="LH2" s="124"/>
-      <c r="LI2" s="124"/>
-      <c r="LJ2" s="124"/>
-      <c r="LK2" s="124"/>
-      <c r="LL2" s="124"/>
-      <c r="LM2" s="124"/>
-      <c r="LN2" s="124"/>
-      <c r="LO2" s="125"/>
-      <c r="LP2" s="123" t="s">
+      <c r="KP2" s="122"/>
+      <c r="KQ2" s="122"/>
+      <c r="KR2" s="122"/>
+      <c r="KS2" s="122"/>
+      <c r="KT2" s="122"/>
+      <c r="KU2" s="122"/>
+      <c r="KV2" s="122"/>
+      <c r="KW2" s="122"/>
+      <c r="KX2" s="122"/>
+      <c r="KY2" s="122"/>
+      <c r="KZ2" s="122"/>
+      <c r="LA2" s="122"/>
+      <c r="LB2" s="122"/>
+      <c r="LC2" s="122"/>
+      <c r="LD2" s="122"/>
+      <c r="LE2" s="122"/>
+      <c r="LF2" s="122"/>
+      <c r="LG2" s="122"/>
+      <c r="LH2" s="122"/>
+      <c r="LI2" s="122"/>
+      <c r="LJ2" s="122"/>
+      <c r="LK2" s="122"/>
+      <c r="LL2" s="122"/>
+      <c r="LM2" s="122"/>
+      <c r="LN2" s="122"/>
+      <c r="LO2" s="123"/>
+      <c r="LP2" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="LQ2" s="124"/>
-      <c r="LR2" s="124"/>
-      <c r="LS2" s="124"/>
-      <c r="LT2" s="124"/>
-      <c r="LU2" s="124"/>
-      <c r="LV2" s="124"/>
-      <c r="LW2" s="124"/>
-      <c r="LX2" s="124"/>
-      <c r="LY2" s="124"/>
-      <c r="LZ2" s="124"/>
-      <c r="MA2" s="124"/>
-      <c r="MB2" s="124"/>
-      <c r="MC2" s="124"/>
-      <c r="MD2" s="124"/>
-      <c r="ME2" s="124"/>
-      <c r="MF2" s="124"/>
-      <c r="MG2" s="124"/>
-      <c r="MH2" s="124"/>
-      <c r="MI2" s="124"/>
-      <c r="MJ2" s="124"/>
-      <c r="MK2" s="124"/>
-      <c r="ML2" s="124"/>
-      <c r="MM2" s="124"/>
-      <c r="MN2" s="124"/>
-      <c r="MO2" s="124"/>
-      <c r="MP2" s="125"/>
-      <c r="MQ2" s="123" t="s">
+      <c r="LQ2" s="122"/>
+      <c r="LR2" s="122"/>
+      <c r="LS2" s="122"/>
+      <c r="LT2" s="122"/>
+      <c r="LU2" s="122"/>
+      <c r="LV2" s="122"/>
+      <c r="LW2" s="122"/>
+      <c r="LX2" s="122"/>
+      <c r="LY2" s="122"/>
+      <c r="LZ2" s="122"/>
+      <c r="MA2" s="122"/>
+      <c r="MB2" s="122"/>
+      <c r="MC2" s="122"/>
+      <c r="MD2" s="122"/>
+      <c r="ME2" s="122"/>
+      <c r="MF2" s="122"/>
+      <c r="MG2" s="122"/>
+      <c r="MH2" s="122"/>
+      <c r="MI2" s="122"/>
+      <c r="MJ2" s="122"/>
+      <c r="MK2" s="122"/>
+      <c r="ML2" s="122"/>
+      <c r="MM2" s="122"/>
+      <c r="MN2" s="122"/>
+      <c r="MO2" s="122"/>
+      <c r="MP2" s="123"/>
+      <c r="MQ2" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="MR2" s="124"/>
-      <c r="MS2" s="124"/>
-      <c r="MT2" s="124"/>
-      <c r="MU2" s="124"/>
-      <c r="MV2" s="124"/>
-      <c r="MW2" s="124"/>
-      <c r="MX2" s="124"/>
-      <c r="MY2" s="124"/>
-      <c r="MZ2" s="124"/>
-      <c r="NA2" s="124"/>
-      <c r="NB2" s="124"/>
-      <c r="NC2" s="124"/>
-      <c r="ND2" s="124"/>
-      <c r="NE2" s="124"/>
-      <c r="NF2" s="124"/>
-      <c r="NG2" s="124"/>
-      <c r="NH2" s="124"/>
-      <c r="NI2" s="124"/>
-      <c r="NJ2" s="124"/>
-      <c r="NK2" s="124"/>
-      <c r="NL2" s="124"/>
-      <c r="NM2" s="124"/>
-      <c r="NN2" s="124"/>
-      <c r="NO2" s="124"/>
-      <c r="NP2" s="124"/>
-      <c r="NQ2" s="125"/>
-      <c r="NR2" s="123" t="s">
+      <c r="MR2" s="122"/>
+      <c r="MS2" s="122"/>
+      <c r="MT2" s="122"/>
+      <c r="MU2" s="122"/>
+      <c r="MV2" s="122"/>
+      <c r="MW2" s="122"/>
+      <c r="MX2" s="122"/>
+      <c r="MY2" s="122"/>
+      <c r="MZ2" s="122"/>
+      <c r="NA2" s="122"/>
+      <c r="NB2" s="122"/>
+      <c r="NC2" s="122"/>
+      <c r="ND2" s="122"/>
+      <c r="NE2" s="122"/>
+      <c r="NF2" s="122"/>
+      <c r="NG2" s="122"/>
+      <c r="NH2" s="122"/>
+      <c r="NI2" s="122"/>
+      <c r="NJ2" s="122"/>
+      <c r="NK2" s="122"/>
+      <c r="NL2" s="122"/>
+      <c r="NM2" s="122"/>
+      <c r="NN2" s="122"/>
+      <c r="NO2" s="122"/>
+      <c r="NP2" s="122"/>
+      <c r="NQ2" s="123"/>
+      <c r="NR2" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="NS2" s="124"/>
-      <c r="NT2" s="124"/>
-      <c r="NU2" s="124"/>
-      <c r="NV2" s="124"/>
-      <c r="NW2" s="124"/>
-      <c r="NX2" s="124"/>
-      <c r="NY2" s="124"/>
-      <c r="NZ2" s="124"/>
-      <c r="OA2" s="124"/>
-      <c r="OB2" s="124"/>
-      <c r="OC2" s="124"/>
-      <c r="OD2" s="124"/>
-      <c r="OE2" s="124"/>
-      <c r="OF2" s="124"/>
-      <c r="OG2" s="124"/>
-      <c r="OH2" s="124"/>
-      <c r="OI2" s="124"/>
-      <c r="OJ2" s="124"/>
-      <c r="OK2" s="124"/>
-      <c r="OL2" s="124"/>
-      <c r="OM2" s="124"/>
-      <c r="ON2" s="124"/>
-      <c r="OO2" s="124"/>
-      <c r="OP2" s="124"/>
-      <c r="OQ2" s="124"/>
-      <c r="OR2" s="125"/>
-      <c r="OS2" s="123" t="s">
+      <c r="NS2" s="122"/>
+      <c r="NT2" s="122"/>
+      <c r="NU2" s="122"/>
+      <c r="NV2" s="122"/>
+      <c r="NW2" s="122"/>
+      <c r="NX2" s="122"/>
+      <c r="NY2" s="122"/>
+      <c r="NZ2" s="122"/>
+      <c r="OA2" s="122"/>
+      <c r="OB2" s="122"/>
+      <c r="OC2" s="122"/>
+      <c r="OD2" s="122"/>
+      <c r="OE2" s="122"/>
+      <c r="OF2" s="122"/>
+      <c r="OG2" s="122"/>
+      <c r="OH2" s="122"/>
+      <c r="OI2" s="122"/>
+      <c r="OJ2" s="122"/>
+      <c r="OK2" s="122"/>
+      <c r="OL2" s="122"/>
+      <c r="OM2" s="122"/>
+      <c r="ON2" s="122"/>
+      <c r="OO2" s="122"/>
+      <c r="OP2" s="122"/>
+      <c r="OQ2" s="122"/>
+      <c r="OR2" s="123"/>
+      <c r="OS2" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="OT2" s="124"/>
-      <c r="OU2" s="124"/>
-      <c r="OV2" s="124"/>
-      <c r="OW2" s="124"/>
-      <c r="OX2" s="124"/>
-      <c r="OY2" s="124"/>
-      <c r="OZ2" s="124"/>
-      <c r="PA2" s="124"/>
-      <c r="PB2" s="124"/>
-      <c r="PC2" s="124"/>
-      <c r="PD2" s="124"/>
-      <c r="PE2" s="124"/>
-      <c r="PF2" s="124"/>
-      <c r="PG2" s="124"/>
-      <c r="PH2" s="124"/>
-      <c r="PI2" s="124"/>
-      <c r="PJ2" s="124"/>
-      <c r="PK2" s="124"/>
-      <c r="PL2" s="124"/>
-      <c r="PM2" s="124"/>
-      <c r="PN2" s="124"/>
-      <c r="PO2" s="124"/>
-      <c r="PP2" s="124"/>
-      <c r="PQ2" s="124"/>
-      <c r="PR2" s="124"/>
-      <c r="PS2" s="125"/>
+      <c r="OT2" s="122"/>
+      <c r="OU2" s="122"/>
+      <c r="OV2" s="122"/>
+      <c r="OW2" s="122"/>
+      <c r="OX2" s="122"/>
+      <c r="OY2" s="122"/>
+      <c r="OZ2" s="122"/>
+      <c r="PA2" s="122"/>
+      <c r="PB2" s="122"/>
+      <c r="PC2" s="122"/>
+      <c r="PD2" s="122"/>
+      <c r="PE2" s="122"/>
+      <c r="PF2" s="122"/>
+      <c r="PG2" s="122"/>
+      <c r="PH2" s="122"/>
+      <c r="PI2" s="122"/>
+      <c r="PJ2" s="122"/>
+      <c r="PK2" s="122"/>
+      <c r="PL2" s="122"/>
+      <c r="PM2" s="122"/>
+      <c r="PN2" s="122"/>
+      <c r="PO2" s="122"/>
+      <c r="PP2" s="122"/>
+      <c r="PQ2" s="122"/>
+      <c r="PR2" s="122"/>
+      <c r="PS2" s="123"/>
     </row>
     <row r="3" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="85"/>
@@ -5270,7 +5306,7 @@
       <c r="PS5" s="90"/>
     </row>
     <row r="6" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="122"/>
+      <c r="B6" s="125"/>
       <c r="C6" s="97">
         <v>0</v>
       </c>
@@ -5708,7 +5744,7 @@
       <c r="PS6" s="95"/>
     </row>
     <row r="7" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="121" t="str">
+      <c r="B7" s="124" t="str">
         <f>Donnees!$C$22</f>
         <v>Mise en place Trello</v>
       </c>
@@ -6149,7 +6185,7 @@
       <c r="PS7" s="90"/>
     </row>
     <row r="8" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="122"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="97">
         <v>0</v>
       </c>
@@ -6587,7 +6623,7 @@
       <c r="PS8" s="95"/>
     </row>
     <row r="9" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="121" t="str">
+      <c r="B9" s="124" t="str">
         <f>Donnees!$C$23</f>
         <v>Mise en place GitKraken</v>
       </c>
@@ -7028,7 +7064,7 @@
       <c r="PS9" s="90"/>
     </row>
     <row r="10" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="122"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="97">
         <v>0</v>
       </c>
@@ -7466,7 +7502,7 @@
       <c r="PS10" s="95"/>
     </row>
     <row r="11" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="121" t="str">
+      <c r="B11" s="124" t="str">
         <f>Donnees!$C$24</f>
         <v>Mise à jour Trello</v>
       </c>
@@ -7907,7 +7943,7 @@
       <c r="PS11" s="90"/>
     </row>
     <row r="12" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="122"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="97">
         <v>0</v>
       </c>
@@ -8345,7 +8381,7 @@
       <c r="PS12" s="95"/>
     </row>
     <row r="13" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="121" t="str">
+      <c r="B13" s="124" t="str">
         <f>Donnees!$C$25</f>
         <v>Mise à jour GitKraken</v>
       </c>
@@ -8786,7 +8822,7 @@
       <c r="PS13" s="90"/>
     </row>
     <row r="14" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="122"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="97">
         <v>0</v>
       </c>
@@ -9224,7 +9260,7 @@
       <c r="PS14" s="95"/>
     </row>
     <row r="15" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="121" t="str">
+      <c r="B15" s="124" t="str">
         <f>Donnees!$C$26</f>
         <v>Recherches</v>
       </c>
@@ -9666,7 +9702,7 @@
     </row>
     <row r="16" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="104"/>
-      <c r="B16" s="122"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="97">
         <v>0</v>
       </c>
@@ -10104,7 +10140,7 @@
       <c r="PS16" s="95"/>
     </row>
     <row r="17" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="121" t="str">
+      <c r="B17" s="124" t="str">
         <f>Donnees!$C$27</f>
         <v>Création plannif + JDT</v>
       </c>
@@ -10545,7 +10581,7 @@
       <c r="PS17" s="90"/>
     </row>
     <row r="18" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="122"/>
+      <c r="B18" s="125"/>
       <c r="C18" s="97">
         <v>0</v>
       </c>
@@ -10983,7 +11019,7 @@
       <c r="PS18" s="95"/>
     </row>
     <row r="19" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="121" t="str">
+      <c r="B19" s="124" t="str">
         <f>Donnees!$C$28</f>
         <v>Mise à jour du JDT</v>
       </c>
@@ -11424,7 +11460,7 @@
       <c r="PS19" s="90"/>
     </row>
     <row r="20" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="122"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="97">
         <v>0</v>
       </c>
@@ -11862,7 +11898,7 @@
       <c r="PS20" s="95"/>
     </row>
     <row r="21" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="121" t="str">
+      <c r="B21" s="124" t="str">
         <f>Donnees!$C$29</f>
         <v>Daily Scrum</v>
       </c>
@@ -12303,7 +12339,7 @@
       <c r="PS21" s="90"/>
     </row>
     <row r="22" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="122"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="97">
         <v>0</v>
       </c>
@@ -12741,7 +12777,7 @@
       <c r="PS22" s="95"/>
     </row>
     <row r="23" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="121" t="str">
+      <c r="B23" s="124" t="str">
         <f>Donnees!$C$30</f>
         <v>HTML</v>
       </c>
@@ -13182,7 +13218,7 @@
       <c r="PS23" s="90"/>
     </row>
     <row r="24" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="122"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="97">
         <v>0</v>
       </c>
@@ -13620,7 +13656,7 @@
       <c r="PS24" s="95"/>
     </row>
     <row r="25" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="121" t="str">
+      <c r="B25" s="124" t="str">
         <f>Donnees!$C$31</f>
         <v>Base de donnée</v>
       </c>
@@ -14061,7 +14097,7 @@
       <c r="PS25" s="90"/>
     </row>
     <row r="26" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="122"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="97">
         <v>0</v>
       </c>
@@ -14499,7 +14535,7 @@
       <c r="PS26" s="95"/>
     </row>
     <row r="27" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="121" t="str">
+      <c r="B27" s="124" t="str">
         <f>Donnees!$C$32</f>
         <v>PHP</v>
       </c>
@@ -14940,7 +14976,7 @@
       <c r="PS27" s="90"/>
     </row>
     <row r="28" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="122"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="97">
         <v>0</v>
       </c>
@@ -15378,7 +15414,7 @@
       <c r="PS28" s="95"/>
     </row>
     <row r="29" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="121" t="str">
+      <c r="B29" s="124" t="str">
         <f>Donnees!$C$33</f>
         <v>Typo3</v>
       </c>
@@ -15819,7 +15855,7 @@
       <c r="PS29" s="90"/>
     </row>
     <row r="30" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="122"/>
+      <c r="B30" s="125"/>
       <c r="C30" s="97">
         <v>0</v>
       </c>
@@ -16257,7 +16293,7 @@
       <c r="PS30" s="95"/>
     </row>
     <row r="31" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="121" t="str">
+      <c r="B31" s="124" t="str">
         <f>Donnees!$C$34</f>
         <v>Création jeu flash</v>
       </c>
@@ -16698,7 +16734,7 @@
       <c r="PS31" s="90"/>
     </row>
     <row r="32" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="122"/>
+      <c r="B32" s="125"/>
       <c r="C32" s="97">
         <v>0</v>
       </c>
@@ -18020,13 +18056,14 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" selectLockedCells="1"/>
   <mergeCells count="31">
-    <mergeCell ref="OS2:PS2"/>
-    <mergeCell ref="IM2:JM2"/>
-    <mergeCell ref="JN2:KN2"/>
-    <mergeCell ref="KO2:LO2"/>
-    <mergeCell ref="LP2:MP2"/>
-    <mergeCell ref="MQ2:NQ2"/>
-    <mergeCell ref="NR2:OR2"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="HL2:IL2"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="CG2:DG2"/>
+    <mergeCell ref="DH2:EH2"/>
+    <mergeCell ref="EI2:FI2"/>
+    <mergeCell ref="FJ2:GJ2"/>
+    <mergeCell ref="GK2:HK2"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="D2:AD2"/>
@@ -18043,14 +18080,13 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="HL2:IL2"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="CG2:DG2"/>
-    <mergeCell ref="DH2:EH2"/>
-    <mergeCell ref="EI2:FI2"/>
-    <mergeCell ref="FJ2:GJ2"/>
-    <mergeCell ref="GK2:HK2"/>
+    <mergeCell ref="OS2:PS2"/>
+    <mergeCell ref="IM2:JM2"/>
+    <mergeCell ref="JN2:KN2"/>
+    <mergeCell ref="KO2:LO2"/>
+    <mergeCell ref="LP2:MP2"/>
+    <mergeCell ref="MQ2:NQ2"/>
+    <mergeCell ref="NR2:OR2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="DureeTropLongue" error="Cette durée est invalide: ce n'est pas un chiffre entier positif ou elle dépasse la &quot;Durée totale&quot; définie plus haut ..." sqref="C33">
@@ -20717,10 +20753,10 @@
   <sheetPr codeName="Feuil9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I307"/>
+  <dimension ref="A1:I310"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A123" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A138" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22079,7 +22115,9 @@
       <c r="B131" s="79">
         <v>3</v>
       </c>
-      <c r="C131" s="80"/>
+      <c r="C131" s="80" t="s">
+        <v>106</v>
+      </c>
       <c r="D131" s="80"/>
     </row>
     <row r="132" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
@@ -22142,165 +22180,249 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="9"/>
-      <c r="B138" s="8"/>
+      <c r="A138" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B138" s="8">
+        <v>1</v>
+      </c>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
     </row>
-    <row r="139" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="5"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="14"/>
+    <row r="139" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B139" s="6">
+        <v>2</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="D139" s="14"/>
     </row>
-    <row r="140" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A140" s="5"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-    </row>
-    <row r="141" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="5"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-    </row>
-    <row r="142" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="5"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-    </row>
-    <row r="143" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="5"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
+    <row r="140" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A140" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B140" s="6">
+        <v>5</v>
+      </c>
+      <c r="C140" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D140" s="108" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A141" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B141" s="6">
+        <v>1</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D141" s="108" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A142" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B142" s="6">
+        <v>1</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D142" s="108" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A143" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B143" s="6">
+        <v>2</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D143" s="108"/>
     </row>
     <row r="144" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="5"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="14"/>
+      <c r="A144" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" s="6">
+        <v>3</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="D144" s="14"/>
     </row>
     <row r="145" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
-      <c r="C145" s="14"/>
+      <c r="C145" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="D145" s="14"/>
     </row>
     <row r="146" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="5"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="14"/>
+      <c r="A146" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B146" s="6">
+        <v>4</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="D146" s="14"/>
     </row>
-    <row r="147" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="14"/>
+    <row r="147" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A147" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B147" s="6">
+        <v>2</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>126</v>
+      </c>
       <c r="D147" s="14"/>
     </row>
     <row r="148" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="14"/>
+      <c r="A148" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B148" s="6">
+        <v>1</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="D148" s="14"/>
     </row>
     <row r="149" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="14"/>
+      <c r="A149" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B149" s="6">
+        <v>1</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="D149" s="14"/>
     </row>
-    <row r="150" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="79"/>
-      <c r="B150" s="79"/>
-      <c r="C150" s="80"/>
-      <c r="D150" s="80"/>
+    <row r="150" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B150" s="6">
+        <v>1</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D150" s="14"/>
     </row>
     <row r="151" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="79"/>
-      <c r="B151" s="79"/>
-      <c r="C151" s="80"/>
-      <c r="D151" s="80"/>
-    </row>
-    <row r="152" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="7"/>
-      <c r="B152" s="7"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-    </row>
-    <row r="153" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="76" t="s">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+    </row>
+    <row r="152" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B152" s="6">
+        <v>3</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D152" s="14"/>
+    </row>
+    <row r="153" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="79"/>
+      <c r="B153" s="79"/>
+      <c r="C153" s="80"/>
+      <c r="D153" s="80"/>
+    </row>
+    <row r="154" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A154" s="79"/>
+      <c r="B154" s="79"/>
+      <c r="C154" s="80"/>
+      <c r="D154" s="80"/>
+    </row>
+    <row r="155" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="7"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+    </row>
+    <row r="156" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B153" s="76">
-        <f>SUM(B138:B152)</f>
-        <v>0</v>
-      </c>
-      <c r="C153" s="107" t="s">
+      <c r="B156" s="76">
+        <f>SUM(B138:B155)</f>
+        <v>27</v>
+      </c>
+      <c r="C156" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D153" s="77"/>
-    </row>
-    <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="78"/>
-      <c r="B154" s="78"/>
-      <c r="C154" s="78"/>
-      <c r="D154" s="78"/>
-    </row>
-    <row r="155" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="71" t="s">
+      <c r="D156" s="77"/>
+    </row>
+    <row r="157" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="78"/>
+      <c r="B157" s="78"/>
+      <c r="C157" s="78"/>
+      <c r="D157" s="78"/>
+    </row>
+    <row r="158" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B155" s="72">
+      <c r="B158" s="72">
         <v>9</v>
       </c>
-      <c r="C155" s="73" t="s">
+      <c r="C158" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D155" s="82">
+      <c r="D158" s="82">
         <v>42899</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="74" t="s">
+    <row r="159" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B156" s="75" t="s">
+      <c r="B159" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C156" s="74" t="s">
+      <c r="C159" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D156" s="74" t="s">
+      <c r="D159" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="9"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="13"/>
-    </row>
-    <row r="158" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="5"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
-    </row>
-    <row r="159" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="5"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="14"/>
-    </row>
     <row r="160" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="5"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="14"/>
+      <c r="A160" s="9"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
     </row>
     <row r="161" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
@@ -22333,115 +22455,123 @@
       <c r="D165" s="14"/>
     </row>
     <row r="166" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="6"/>
+      <c r="A166" s="5"/>
       <c r="B166" s="6"/>
       <c r="C166" s="14"/>
       <c r="D166" s="14"/>
     </row>
     <row r="167" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="6"/>
+      <c r="A167" s="5"/>
       <c r="B167" s="6"/>
       <c r="C167" s="14"/>
       <c r="D167" s="14"/>
     </row>
     <row r="168" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="6"/>
+      <c r="A168" s="5"/>
       <c r="B168" s="6"/>
       <c r="C168" s="14"/>
       <c r="D168" s="14"/>
     </row>
     <row r="169" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="79"/>
-      <c r="B169" s="79"/>
-      <c r="C169" s="80"/>
-      <c r="D169" s="80"/>
+      <c r="A169" s="6"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="14"/>
     </row>
     <row r="170" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="79"/>
-      <c r="B170" s="79"/>
-      <c r="C170" s="80"/>
-      <c r="D170" s="80"/>
-    </row>
-    <row r="171" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
-    </row>
-    <row r="172" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="76" t="s">
+      <c r="A170" s="6"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="14"/>
+    </row>
+    <row r="171" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A171" s="6"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="14"/>
+    </row>
+    <row r="172" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A172" s="79"/>
+      <c r="B172" s="79"/>
+      <c r="C172" s="80"/>
+      <c r="D172" s="80"/>
+    </row>
+    <row r="173" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A173" s="79"/>
+      <c r="B173" s="79"/>
+      <c r="C173" s="80"/>
+      <c r="D173" s="80"/>
+    </row>
+    <row r="174" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="7"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
+    </row>
+    <row r="175" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B172" s="76">
-        <f>SUM(B157:B171)</f>
+      <c r="B175" s="76">
+        <f>SUM(B160:B174)</f>
         <v>0</v>
       </c>
-      <c r="C172" s="107" t="s">
+      <c r="C175" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D172" s="77"/>
-    </row>
-    <row r="173" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="78"/>
-      <c r="B173" s="78"/>
-      <c r="C173" s="78"/>
-      <c r="D173" s="78"/>
-    </row>
-    <row r="174" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="71" t="s">
+      <c r="D175" s="77"/>
+    </row>
+    <row r="176" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="78"/>
+      <c r="B176" s="78"/>
+      <c r="C176" s="78"/>
+      <c r="D176" s="78"/>
+    </row>
+    <row r="177" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B174" s="72">
+      <c r="B177" s="72">
         <v>10</v>
       </c>
-      <c r="C174" s="73" t="s">
+      <c r="C177" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D174" s="82">
+      <c r="D177" s="82">
         <v>42900</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="74" t="s">
+    <row r="178" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B175" s="75" t="s">
+      <c r="B178" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C175" s="74" t="s">
+      <c r="C178" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D175" s="74" t="s">
+      <c r="D178" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="9"/>
-      <c r="B176" s="8"/>
-      <c r="C176" s="13"/>
-      <c r="D176" s="13"/>
-    </row>
-    <row r="177" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="5"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="14"/>
-    </row>
-    <row r="178" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="5"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
-    </row>
     <row r="179" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="5"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="14"/>
-      <c r="D179" s="14"/>
+      <c r="A179" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B179" s="8">
+        <v>1</v>
+      </c>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
     </row>
     <row r="180" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="5"/>
-      <c r="B180" s="6"/>
+      <c r="A180" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B180" s="6">
+        <v>2</v>
+      </c>
       <c r="C180" s="14"/>
       <c r="D180" s="14"/>
     </row>
@@ -22470,111 +22600,111 @@
       <c r="D184" s="14"/>
     </row>
     <row r="185" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A185" s="6"/>
+      <c r="A185" s="5"/>
       <c r="B185" s="6"/>
       <c r="C185" s="14"/>
       <c r="D185" s="14"/>
     </row>
     <row r="186" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="6"/>
+      <c r="A186" s="5"/>
       <c r="B186" s="6"/>
       <c r="C186" s="14"/>
       <c r="D186" s="14"/>
     </row>
     <row r="187" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A187" s="6"/>
+      <c r="A187" s="5"/>
       <c r="B187" s="6"/>
       <c r="C187" s="14"/>
       <c r="D187" s="14"/>
     </row>
     <row r="188" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A188" s="79"/>
-      <c r="B188" s="79"/>
-      <c r="C188" s="80"/>
-      <c r="D188" s="80"/>
+      <c r="A188" s="6"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
     </row>
     <row r="189" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A189" s="79"/>
-      <c r="B189" s="79"/>
-      <c r="C189" s="80"/>
-      <c r="D189" s="80"/>
-    </row>
-    <row r="190" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="7"/>
-      <c r="B190" s="7"/>
-      <c r="C190" s="15"/>
-      <c r="D190" s="15"/>
-    </row>
-    <row r="191" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="76" t="s">
+      <c r="A189" s="6"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+    </row>
+    <row r="190" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A190" s="6"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+    </row>
+    <row r="191" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A191" s="79"/>
+      <c r="B191" s="79"/>
+      <c r="C191" s="80"/>
+      <c r="D191" s="80"/>
+    </row>
+    <row r="192" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A192" s="79"/>
+      <c r="B192" s="79"/>
+      <c r="C192" s="80"/>
+      <c r="D192" s="80"/>
+    </row>
+    <row r="193" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="7"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="15"/>
+      <c r="D193" s="15"/>
+    </row>
+    <row r="194" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B191" s="76">
-        <f>SUM(B176:B190)</f>
-        <v>0</v>
-      </c>
-      <c r="C191" s="107" t="s">
+      <c r="B194" s="76">
+        <f>SUM(B179:B193)</f>
+        <v>3</v>
+      </c>
+      <c r="C194" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D191" s="77"/>
-    </row>
-    <row r="192" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="78"/>
-      <c r="B192" s="78"/>
-      <c r="C192" s="78"/>
-      <c r="D192" s="78"/>
-    </row>
-    <row r="193" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="71" t="s">
+      <c r="D194" s="77"/>
+    </row>
+    <row r="195" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="78"/>
+      <c r="B195" s="78"/>
+      <c r="C195" s="78"/>
+      <c r="D195" s="78"/>
+    </row>
+    <row r="196" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B193" s="72">
+      <c r="B196" s="72">
         <v>11</v>
       </c>
-      <c r="C193" s="73" t="s">
+      <c r="C196" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D193" s="82">
+      <c r="D196" s="82">
         <v>42902</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="74" t="s">
+    <row r="197" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B194" s="75" t="s">
+      <c r="B197" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C194" s="74" t="s">
+      <c r="C197" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D194" s="74" t="s">
+      <c r="D197" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="9"/>
-      <c r="B195" s="8"/>
-      <c r="C195" s="13"/>
-      <c r="D195" s="13"/>
-    </row>
-    <row r="196" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A196" s="5"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="14"/>
-      <c r="D196" s="14"/>
-    </row>
-    <row r="197" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A197" s="5"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="14"/>
-      <c r="D197" s="14"/>
-    </row>
     <row r="198" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A198" s="5"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="14"/>
-      <c r="D198" s="14"/>
+      <c r="A198" s="9"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13"/>
     </row>
     <row r="199" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
@@ -22607,111 +22737,111 @@
       <c r="D203" s="14"/>
     </row>
     <row r="204" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A204" s="6"/>
+      <c r="A204" s="5"/>
       <c r="B204" s="6"/>
       <c r="C204" s="14"/>
       <c r="D204" s="14"/>
     </row>
     <row r="205" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A205" s="6"/>
+      <c r="A205" s="5"/>
       <c r="B205" s="6"/>
       <c r="C205" s="14"/>
       <c r="D205" s="14"/>
     </row>
     <row r="206" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A206" s="6"/>
+      <c r="A206" s="5"/>
       <c r="B206" s="6"/>
       <c r="C206" s="14"/>
       <c r="D206" s="14"/>
     </row>
     <row r="207" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A207" s="79"/>
-      <c r="B207" s="79"/>
-      <c r="C207" s="80"/>
-      <c r="D207" s="80"/>
+      <c r="A207" s="6"/>
+      <c r="B207" s="6"/>
+      <c r="C207" s="14"/>
+      <c r="D207" s="14"/>
     </row>
     <row r="208" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A208" s="79"/>
-      <c r="B208" s="79"/>
-      <c r="C208" s="80"/>
-      <c r="D208" s="80"/>
-    </row>
-    <row r="209" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="7"/>
-      <c r="B209" s="7"/>
-      <c r="C209" s="15"/>
-      <c r="D209" s="15"/>
-    </row>
-    <row r="210" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="76" t="s">
+      <c r="A208" s="6"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="14"/>
+      <c r="D208" s="14"/>
+    </row>
+    <row r="209" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A209" s="6"/>
+      <c r="B209" s="6"/>
+      <c r="C209" s="14"/>
+      <c r="D209" s="14"/>
+    </row>
+    <row r="210" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A210" s="79"/>
+      <c r="B210" s="79"/>
+      <c r="C210" s="80"/>
+      <c r="D210" s="80"/>
+    </row>
+    <row r="211" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A211" s="79"/>
+      <c r="B211" s="79"/>
+      <c r="C211" s="80"/>
+      <c r="D211" s="80"/>
+    </row>
+    <row r="212" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="7"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="15"/>
+      <c r="D212" s="15"/>
+    </row>
+    <row r="213" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B210" s="76">
-        <f>SUM(B195:B209)</f>
+      <c r="B213" s="76">
+        <f>SUM(B198:B212)</f>
         <v>0</v>
       </c>
-      <c r="C210" s="107" t="s">
+      <c r="C213" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D210" s="77"/>
-    </row>
-    <row r="211" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="78"/>
-      <c r="B211" s="78"/>
-      <c r="C211" s="78"/>
-      <c r="D211" s="78"/>
-    </row>
-    <row r="212" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="71" t="s">
+      <c r="D213" s="77"/>
+    </row>
+    <row r="214" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="78"/>
+      <c r="B214" s="78"/>
+      <c r="C214" s="78"/>
+      <c r="D214" s="78"/>
+    </row>
+    <row r="215" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B212" s="72">
+      <c r="B215" s="72">
         <v>12</v>
       </c>
-      <c r="C212" s="73" t="s">
+      <c r="C215" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D212" s="82">
+      <c r="D215" s="82">
         <v>42912</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="74" t="s">
+    <row r="216" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B213" s="75" t="s">
+      <c r="B216" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C213" s="74" t="s">
+      <c r="C216" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D213" s="74" t="s">
+      <c r="D216" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A214" s="9"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="13"/>
-      <c r="D214" s="13"/>
-    </row>
-    <row r="215" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A215" s="5"/>
-      <c r="B215" s="6"/>
-      <c r="C215" s="14"/>
-      <c r="D215" s="14"/>
-    </row>
-    <row r="216" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A216" s="5"/>
-      <c r="B216" s="6"/>
-      <c r="C216" s="14"/>
-      <c r="D216" s="14"/>
-    </row>
     <row r="217" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A217" s="5"/>
-      <c r="B217" s="6"/>
-      <c r="C217" s="14"/>
-      <c r="D217" s="14"/>
+      <c r="A217" s="9"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="13"/>
     </row>
     <row r="218" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
@@ -22744,111 +22874,111 @@
       <c r="D222" s="14"/>
     </row>
     <row r="223" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A223" s="6"/>
+      <c r="A223" s="5"/>
       <c r="B223" s="6"/>
       <c r="C223" s="14"/>
       <c r="D223" s="14"/>
     </row>
     <row r="224" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A224" s="6"/>
+      <c r="A224" s="5"/>
       <c r="B224" s="6"/>
       <c r="C224" s="14"/>
       <c r="D224" s="14"/>
     </row>
     <row r="225" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A225" s="6"/>
+      <c r="A225" s="5"/>
       <c r="B225" s="6"/>
       <c r="C225" s="14"/>
       <c r="D225" s="14"/>
     </row>
     <row r="226" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A226" s="79"/>
-      <c r="B226" s="79"/>
-      <c r="C226" s="80"/>
-      <c r="D226" s="80"/>
+      <c r="A226" s="6"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="14"/>
+      <c r="D226" s="14"/>
     </row>
     <row r="227" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A227" s="79"/>
-      <c r="B227" s="79"/>
-      <c r="C227" s="80"/>
-      <c r="D227" s="80"/>
-    </row>
-    <row r="228" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
-      <c r="C228" s="15"/>
-      <c r="D228" s="15"/>
-    </row>
-    <row r="229" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="76" t="s">
+      <c r="A227" s="6"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="14"/>
+      <c r="D227" s="14"/>
+    </row>
+    <row r="228" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A228" s="6"/>
+      <c r="B228" s="6"/>
+      <c r="C228" s="14"/>
+      <c r="D228" s="14"/>
+    </row>
+    <row r="229" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A229" s="79"/>
+      <c r="B229" s="79"/>
+      <c r="C229" s="80"/>
+      <c r="D229" s="80"/>
+    </row>
+    <row r="230" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A230" s="79"/>
+      <c r="B230" s="79"/>
+      <c r="C230" s="80"/>
+      <c r="D230" s="80"/>
+    </row>
+    <row r="231" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="7"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="15"/>
+      <c r="D231" s="15"/>
+    </row>
+    <row r="232" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B229" s="76">
-        <f>SUM(B214:B228)</f>
+      <c r="B232" s="76">
+        <f>SUM(B217:B231)</f>
         <v>0</v>
       </c>
-      <c r="C229" s="107" t="s">
+      <c r="C232" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D229" s="77"/>
-    </row>
-    <row r="230" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="78"/>
-      <c r="B230" s="78"/>
-      <c r="C230" s="78"/>
-      <c r="D230" s="78"/>
-    </row>
-    <row r="231" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="71" t="s">
+      <c r="D232" s="77"/>
+    </row>
+    <row r="233" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="78"/>
+      <c r="B233" s="78"/>
+      <c r="C233" s="78"/>
+      <c r="D233" s="78"/>
+    </row>
+    <row r="234" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B231" s="72">
+      <c r="B234" s="72">
         <v>13</v>
       </c>
-      <c r="C231" s="73" t="s">
+      <c r="C234" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D231" s="82">
+      <c r="D234" s="82">
         <v>42968</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="74" t="s">
+    <row r="235" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B232" s="75" t="s">
+      <c r="B235" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C232" s="74" t="s">
+      <c r="C235" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D232" s="74" t="s">
+      <c r="D235" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A233" s="9"/>
-      <c r="B233" s="8"/>
-      <c r="C233" s="13"/>
-      <c r="D233" s="13"/>
-    </row>
-    <row r="234" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A234" s="5"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="14"/>
-      <c r="D234" s="14"/>
-    </row>
-    <row r="235" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A235" s="5"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="14"/>
-      <c r="D235" s="14"/>
-    </row>
     <row r="236" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A236" s="5"/>
-      <c r="B236" s="6"/>
-      <c r="C236" s="14"/>
-      <c r="D236" s="14"/>
+      <c r="A236" s="9"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
     </row>
     <row r="237" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
@@ -22881,111 +23011,111 @@
       <c r="D241" s="14"/>
     </row>
     <row r="242" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A242" s="6"/>
+      <c r="A242" s="5"/>
       <c r="B242" s="6"/>
       <c r="C242" s="14"/>
       <c r="D242" s="14"/>
     </row>
     <row r="243" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A243" s="6"/>
+      <c r="A243" s="5"/>
       <c r="B243" s="6"/>
       <c r="C243" s="14"/>
       <c r="D243" s="14"/>
     </row>
     <row r="244" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A244" s="6"/>
+      <c r="A244" s="5"/>
       <c r="B244" s="6"/>
       <c r="C244" s="14"/>
       <c r="D244" s="14"/>
     </row>
     <row r="245" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A245" s="79"/>
-      <c r="B245" s="79"/>
-      <c r="C245" s="80"/>
-      <c r="D245" s="80"/>
+      <c r="A245" s="6"/>
+      <c r="B245" s="6"/>
+      <c r="C245" s="14"/>
+      <c r="D245" s="14"/>
     </row>
     <row r="246" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A246" s="79"/>
-      <c r="B246" s="79"/>
-      <c r="C246" s="80"/>
-      <c r="D246" s="80"/>
-    </row>
-    <row r="247" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
-      <c r="C247" s="15"/>
-      <c r="D247" s="15"/>
-    </row>
-    <row r="248" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="76" t="s">
+      <c r="A246" s="6"/>
+      <c r="B246" s="6"/>
+      <c r="C246" s="14"/>
+      <c r="D246" s="14"/>
+    </row>
+    <row r="247" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A247" s="6"/>
+      <c r="B247" s="6"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14"/>
+    </row>
+    <row r="248" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A248" s="79"/>
+      <c r="B248" s="79"/>
+      <c r="C248" s="80"/>
+      <c r="D248" s="80"/>
+    </row>
+    <row r="249" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A249" s="79"/>
+      <c r="B249" s="79"/>
+      <c r="C249" s="80"/>
+      <c r="D249" s="80"/>
+    </row>
+    <row r="250" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="7"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="15"/>
+      <c r="D250" s="15"/>
+    </row>
+    <row r="251" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B248" s="76">
-        <f>SUM(B233:B247)</f>
+      <c r="B251" s="76">
+        <f>SUM(B236:B250)</f>
         <v>0</v>
       </c>
-      <c r="C248" s="107" t="s">
+      <c r="C251" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D248" s="77"/>
-    </row>
-    <row r="249" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="78"/>
-      <c r="B249" s="78"/>
-      <c r="C249" s="78"/>
-      <c r="D249" s="78"/>
-    </row>
-    <row r="250" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="71" t="s">
+      <c r="D251" s="77"/>
+    </row>
+    <row r="252" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="78"/>
+      <c r="B252" s="78"/>
+      <c r="C252" s="78"/>
+      <c r="D252" s="78"/>
+    </row>
+    <row r="253" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B250" s="72">
+      <c r="B253" s="72">
         <v>14</v>
       </c>
-      <c r="C250" s="73" t="s">
+      <c r="C253" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D250" s="82">
+      <c r="D253" s="82">
         <v>42975</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="74" t="s">
+    <row r="254" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B251" s="75" t="s">
+      <c r="B254" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C251" s="74" t="s">
+      <c r="C254" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D251" s="74" t="s">
+      <c r="D254" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A252" s="9"/>
-      <c r="B252" s="8"/>
-      <c r="C252" s="13"/>
-      <c r="D252" s="13"/>
-    </row>
-    <row r="253" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A253" s="5"/>
-      <c r="B253" s="6"/>
-      <c r="C253" s="14"/>
-      <c r="D253" s="14"/>
-    </row>
-    <row r="254" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A254" s="5"/>
-      <c r="B254" s="6"/>
-      <c r="C254" s="14"/>
-      <c r="D254" s="14"/>
-    </row>
     <row r="255" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A255" s="5"/>
-      <c r="B255" s="6"/>
-      <c r="C255" s="14"/>
-      <c r="D255" s="14"/>
+      <c r="A255" s="9"/>
+      <c r="B255" s="8"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="13"/>
     </row>
     <row r="256" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
@@ -23018,111 +23148,111 @@
       <c r="D260" s="14"/>
     </row>
     <row r="261" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="6"/>
+      <c r="A261" s="5"/>
       <c r="B261" s="6"/>
       <c r="C261" s="14"/>
       <c r="D261" s="14"/>
     </row>
     <row r="262" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A262" s="6"/>
+      <c r="A262" s="5"/>
       <c r="B262" s="6"/>
       <c r="C262" s="14"/>
       <c r="D262" s="14"/>
     </row>
     <row r="263" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A263" s="6"/>
+      <c r="A263" s="5"/>
       <c r="B263" s="6"/>
       <c r="C263" s="14"/>
       <c r="D263" s="14"/>
     </row>
     <row r="264" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="79"/>
-      <c r="B264" s="79"/>
-      <c r="C264" s="80"/>
-      <c r="D264" s="80"/>
+      <c r="A264" s="6"/>
+      <c r="B264" s="6"/>
+      <c r="C264" s="14"/>
+      <c r="D264" s="14"/>
     </row>
     <row r="265" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="79"/>
-      <c r="B265" s="79"/>
-      <c r="C265" s="80"/>
-      <c r="D265" s="80"/>
-    </row>
-    <row r="266" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="7"/>
-      <c r="B266" s="7"/>
-      <c r="C266" s="15"/>
-      <c r="D266" s="15"/>
-    </row>
-    <row r="267" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="76" t="s">
+      <c r="A265" s="6"/>
+      <c r="B265" s="6"/>
+      <c r="C265" s="14"/>
+      <c r="D265" s="14"/>
+    </row>
+    <row r="266" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="6"/>
+      <c r="B266" s="6"/>
+      <c r="C266" s="14"/>
+      <c r="D266" s="14"/>
+    </row>
+    <row r="267" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="79"/>
+      <c r="B267" s="79"/>
+      <c r="C267" s="80"/>
+      <c r="D267" s="80"/>
+    </row>
+    <row r="268" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="79"/>
+      <c r="B268" s="79"/>
+      <c r="C268" s="80"/>
+      <c r="D268" s="80"/>
+    </row>
+    <row r="269" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="7"/>
+      <c r="B269" s="7"/>
+      <c r="C269" s="15"/>
+      <c r="D269" s="15"/>
+    </row>
+    <row r="270" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B267" s="76">
-        <f>SUM(B252:B266)</f>
+      <c r="B270" s="76">
+        <f>SUM(B255:B269)</f>
         <v>0</v>
       </c>
-      <c r="C267" s="107" t="s">
+      <c r="C270" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D267" s="77"/>
-    </row>
-    <row r="268" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="78"/>
-      <c r="B268" s="78"/>
-      <c r="C268" s="78"/>
-      <c r="D268" s="78"/>
-    </row>
-    <row r="269" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="71" t="s">
+      <c r="D270" s="77"/>
+    </row>
+    <row r="271" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="78"/>
+      <c r="B271" s="78"/>
+      <c r="C271" s="78"/>
+      <c r="D271" s="78"/>
+    </row>
+    <row r="272" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B269" s="72">
+      <c r="B272" s="72">
         <v>15</v>
       </c>
-      <c r="C269" s="73" t="s">
+      <c r="C272" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D269" s="82">
+      <c r="D272" s="82">
         <v>42982</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="74" t="s">
+    <row r="273" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B270" s="75" t="s">
+      <c r="B273" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C270" s="74" t="s">
+      <c r="C273" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D270" s="74" t="s">
+      <c r="D273" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A271" s="9"/>
-      <c r="B271" s="8"/>
-      <c r="C271" s="13"/>
-      <c r="D271" s="13"/>
-    </row>
-    <row r="272" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A272" s="5"/>
-      <c r="B272" s="6"/>
-      <c r="C272" s="14"/>
-      <c r="D272" s="14"/>
-    </row>
-    <row r="273" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="5"/>
-      <c r="B273" s="6"/>
-      <c r="C273" s="14"/>
-      <c r="D273" s="14"/>
-    </row>
     <row r="274" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A274" s="5"/>
-      <c r="B274" s="6"/>
-      <c r="C274" s="14"/>
-      <c r="D274" s="14"/>
+      <c r="A274" s="9"/>
+      <c r="B274" s="8"/>
+      <c r="C274" s="13"/>
+      <c r="D274" s="13"/>
     </row>
     <row r="275" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
@@ -23155,111 +23285,111 @@
       <c r="D279" s="14"/>
     </row>
     <row r="280" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A280" s="6"/>
+      <c r="A280" s="5"/>
       <c r="B280" s="6"/>
       <c r="C280" s="14"/>
       <c r="D280" s="14"/>
     </row>
     <row r="281" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="6"/>
+      <c r="A281" s="5"/>
       <c r="B281" s="6"/>
       <c r="C281" s="14"/>
       <c r="D281" s="14"/>
     </row>
     <row r="282" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="6"/>
+      <c r="A282" s="5"/>
       <c r="B282" s="6"/>
       <c r="C282" s="14"/>
       <c r="D282" s="14"/>
     </row>
     <row r="283" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A283" s="79"/>
-      <c r="B283" s="79"/>
-      <c r="C283" s="80"/>
-      <c r="D283" s="80"/>
+      <c r="A283" s="6"/>
+      <c r="B283" s="6"/>
+      <c r="C283" s="14"/>
+      <c r="D283" s="14"/>
     </row>
     <row r="284" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A284" s="79"/>
-      <c r="B284" s="79"/>
-      <c r="C284" s="80"/>
-      <c r="D284" s="80"/>
-    </row>
-    <row r="285" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="7"/>
-      <c r="B285" s="7"/>
-      <c r="C285" s="15"/>
-      <c r="D285" s="15"/>
-    </row>
-    <row r="286" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="76" t="s">
+      <c r="A284" s="6"/>
+      <c r="B284" s="6"/>
+      <c r="C284" s="14"/>
+      <c r="D284" s="14"/>
+    </row>
+    <row r="285" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="6"/>
+      <c r="B285" s="6"/>
+      <c r="C285" s="14"/>
+      <c r="D285" s="14"/>
+    </row>
+    <row r="286" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="79"/>
+      <c r="B286" s="79"/>
+      <c r="C286" s="80"/>
+      <c r="D286" s="80"/>
+    </row>
+    <row r="287" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A287" s="79"/>
+      <c r="B287" s="79"/>
+      <c r="C287" s="80"/>
+      <c r="D287" s="80"/>
+    </row>
+    <row r="288" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="7"/>
+      <c r="B288" s="7"/>
+      <c r="C288" s="15"/>
+      <c r="D288" s="15"/>
+    </row>
+    <row r="289" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B286" s="76">
-        <f>SUM(B271:B285)</f>
+      <c r="B289" s="76">
+        <f>SUM(B274:B288)</f>
         <v>0</v>
       </c>
-      <c r="C286" s="107" t="s">
+      <c r="C289" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D286" s="77"/>
-    </row>
-    <row r="287" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="78"/>
-      <c r="B287" s="78"/>
-      <c r="C287" s="78"/>
-      <c r="D287" s="78"/>
-    </row>
-    <row r="288" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="71" t="s">
+      <c r="D289" s="77"/>
+    </row>
+    <row r="290" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="78"/>
+      <c r="B290" s="78"/>
+      <c r="C290" s="78"/>
+      <c r="D290" s="78"/>
+    </row>
+    <row r="291" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B288" s="72">
+      <c r="B291" s="72">
         <v>16</v>
       </c>
-      <c r="C288" s="73" t="s">
+      <c r="C291" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D288" s="82">
+      <c r="D291" s="82">
         <v>42989</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="74" t="s">
+    <row r="292" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B289" s="75" t="s">
+      <c r="B292" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C289" s="74" t="s">
+      <c r="C292" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D289" s="74" t="s">
+      <c r="D292" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="9"/>
-      <c r="B290" s="8"/>
-      <c r="C290" s="13"/>
-      <c r="D290" s="13"/>
-    </row>
-    <row r="291" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A291" s="5"/>
-      <c r="B291" s="6"/>
-      <c r="C291" s="14"/>
-      <c r="D291" s="14"/>
-    </row>
-    <row r="292" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="5"/>
-      <c r="B292" s="6"/>
-      <c r="C292" s="14"/>
-      <c r="D292" s="14"/>
-    </row>
     <row r="293" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A293" s="5"/>
-      <c r="B293" s="6"/>
-      <c r="C293" s="14"/>
-      <c r="D293" s="14"/>
+      <c r="A293" s="9"/>
+      <c r="B293" s="8"/>
+      <c r="C293" s="13"/>
+      <c r="D293" s="13"/>
     </row>
     <row r="294" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
@@ -23292,62 +23422,80 @@
       <c r="D298" s="14"/>
     </row>
     <row r="299" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A299" s="6"/>
+      <c r="A299" s="5"/>
       <c r="B299" s="6"/>
       <c r="C299" s="14"/>
       <c r="D299" s="14"/>
     </row>
     <row r="300" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="6"/>
+      <c r="A300" s="5"/>
       <c r="B300" s="6"/>
       <c r="C300" s="14"/>
       <c r="D300" s="14"/>
     </row>
     <row r="301" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="6"/>
+      <c r="A301" s="5"/>
       <c r="B301" s="6"/>
       <c r="C301" s="14"/>
       <c r="D301" s="14"/>
     </row>
     <row r="302" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A302" s="79"/>
-      <c r="B302" s="79"/>
-      <c r="C302" s="80"/>
-      <c r="D302" s="80"/>
+      <c r="A302" s="6"/>
+      <c r="B302" s="6"/>
+      <c r="C302" s="14"/>
+      <c r="D302" s="14"/>
     </row>
     <row r="303" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A303" s="79"/>
-      <c r="B303" s="79"/>
-      <c r="C303" s="80"/>
-      <c r="D303" s="80"/>
-    </row>
-    <row r="304" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="7"/>
-      <c r="B304" s="7"/>
-      <c r="C304" s="15"/>
-      <c r="D304" s="15"/>
-    </row>
-    <row r="305" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="76" t="s">
+      <c r="A303" s="6"/>
+      <c r="B303" s="6"/>
+      <c r="C303" s="14"/>
+      <c r="D303" s="14"/>
+    </row>
+    <row r="304" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="6"/>
+      <c r="B304" s="6"/>
+      <c r="C304" s="14"/>
+      <c r="D304" s="14"/>
+    </row>
+    <row r="305" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="79"/>
+      <c r="B305" s="79"/>
+      <c r="C305" s="80"/>
+      <c r="D305" s="80"/>
+    </row>
+    <row r="306" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A306" s="79"/>
+      <c r="B306" s="79"/>
+      <c r="C306" s="80"/>
+      <c r="D306" s="80"/>
+    </row>
+    <row r="307" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="7"/>
+      <c r="B307" s="7"/>
+      <c r="C307" s="15"/>
+      <c r="D307" s="15"/>
+    </row>
+    <row r="308" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B305" s="76">
-        <f>SUM(B290:B304)</f>
+      <c r="B308" s="76">
+        <f>SUM(B293:B307)</f>
         <v>0</v>
       </c>
-      <c r="C305" s="107" t="s">
+      <c r="C308" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D305" s="77"/>
-    </row>
-    <row r="306" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A306" s="78"/>
-      <c r="B306" s="78"/>
-      <c r="C306" s="78"/>
-      <c r="D306" s="78"/>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="106" t="s">
+      <c r="D308" s="77"/>
+    </row>
+    <row r="309" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A309" s="78"/>
+      <c r="B309" s="78"/>
+      <c r="C309" s="78"/>
+      <c r="D309" s="78"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="106" t="s">
         <v>46</v>
       </c>
     </row>
@@ -23357,14 +23505,14 @@
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B3:B17 B22:B36 B41:B56 B61:B75 B80:B95 B100:B114 B119:B133 B138:B152 B157:B171 B176:B190 B195:B209 B214:B228 B233:B247 B252:B266 B271:B285 B290:B304">
+    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B3:B17 B22:B36 B41:B56 B61:B75 B80:B95 B100:B114 B119:B133 B138:B155 B160:B174 B179:B193 B198:B212 B217:B231 B236:B250 B255:B269 B274:B288 B293:B307">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B18 B37 B57 B76 B96 B115 B134 B153 B172 B191 B210 B229 B248 B267 B286 B305">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B18 B37 B57 B76 B96 B115 B134 B156 B175 B194 B213 B232 B251 B270 B289 B308">
       <formula1>0</formula1>
       <formula2>NbPerWeek * NbQuartPer</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A17 A22:A36 A41:A56 A61:A75 A80:A95 A100:A114 A119:A133 A138:A152 A157:A171 A176:A190 A195:A209 A214:A228 A233:A247 A252:A266 A271:A285 A290:A304">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A17 A22:A36 A41:A56 A61:A75 A80:A95 A100:A114 A119:A133 A138:A155 A160:A174 A179:A193 A198:A212 A217:A231 A236:A250 A255:A269 A274:A288 A293:A307">
       <formula1>lstTasks</formula1>
     </dataValidation>
   </dataValidations>
@@ -23392,21 +23540,24 @@
     <hyperlink ref="D67" r:id="rId21"/>
     <hyperlink ref="D119" r:id="rId22"/>
     <hyperlink ref="D123" r:id="rId23"/>
+    <hyperlink ref="D141" r:id="rId24"/>
+    <hyperlink ref="D140" r:id="rId25"/>
+    <hyperlink ref="D142" r:id="rId26"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" cellComments="atEnd" r:id="rId24"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" cellComments="atEnd" r:id="rId27"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ETML L,Normal"&amp;24ETML</oddHeader>
     <oddFooter>&amp;C&amp;F&amp;L&amp;D</oddFooter>
   </headerFooter>
-  <drawing r:id="rId25"/>
-  <legacyDrawing r:id="rId26"/>
+  <drawing r:id="rId28"/>
+  <legacyDrawing r:id="rId29"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="44033" r:id="rId27" name="btnImportRealisation">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId28">
+        <control shapeId="44033" r:id="rId30" name="btnImportRealisation">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -23425,7 +23576,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="44033" r:id="rId27" name="btnImportRealisation"/>
+        <control shapeId="44033" r:id="rId30" name="btnImportRealisation"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/doc/DemoMotJDT-pittierfa.xlsx
+++ b/doc/DemoMotJDT-pittierfa.xlsx
@@ -36,7 +36,7 @@
     <definedName name="objRealizedWeek" localSheetId="7">JNLTRAV!$A$1:$D$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Diagramme!$A$1:$PT$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Donnees!$A$1:$G$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">JNLTRAV!$A$1:$D$309</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">JNLTRAV!$A$1:$D$297</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Planning!$A$1:$D$224</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="134">
   <si>
     <t>Module :</t>
   </si>
@@ -453,7 +453,22 @@
     <t>(Commit pour les branches FPR02 et DEV01 mais checkout entre les branches long car DEV01 contient tout typo3)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mise au propre du doccument </t>
+    <t>Examens d'allemand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise au propre du document </t>
+  </si>
+  <si>
+    <t>Problème: Recherche comment utiliser sur notre site l'extension que nous avons crée. (Problème 4)</t>
+  </si>
+  <si>
+    <t>Rédaction du problème 4</t>
+  </si>
+  <si>
+    <t>Avec jimmy on essaie plusieurs façons pour que l'utilisateur puisse publier un jeu depuis le site et que les jeux crées s'affichent dans la page d'accueil (l'utilisateur peut pour le moment juste créer le post mais le jeu et l'user ne sont pas repris)</t>
+  </si>
+  <si>
+    <t>Commit du jour</t>
   </si>
 </sst>
 </file>
@@ -670,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1299,6 +1314,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1309,7 +1337,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1651,6 +1679,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -20753,10 +20805,10 @@
   <sheetPr codeName="Feuil9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I310"/>
+  <dimension ref="A1:I298"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A138" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A157" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22186,8 +22238,12 @@
       <c r="B138" s="8">
         <v>1</v>
       </c>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
+      <c r="C138" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D138" s="109" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="139" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
@@ -22256,33 +22312,33 @@
       <c r="D143" s="108"/>
     </row>
     <row r="144" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B144" s="6">
+      <c r="B144" s="111">
         <v>3</v>
       </c>
-      <c r="C144" s="14" t="s">
+      <c r="C144" s="112" t="s">
         <v>118</v>
       </c>
       <c r="D144" s="14"/>
     </row>
     <row r="145" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="5"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="14" t="s">
+      <c r="A145" s="113"/>
+      <c r="B145" s="114"/>
+      <c r="C145" s="115" t="s">
         <v>78</v>
       </c>
       <c r="D145" s="14"/>
     </row>
     <row r="146" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="B146" s="6">
+      <c r="B146" s="117">
         <v>4</v>
       </c>
-      <c r="C146" s="14" t="s">
+      <c r="C146" s="118" t="s">
         <v>125</v>
       </c>
       <c r="D146" s="14"/>
@@ -22307,9 +22363,11 @@
         <v>1</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D148" s="14"/>
+        <v>129</v>
+      </c>
+      <c r="D148" s="108" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="149" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
@@ -22324,21 +22382,21 @@
       <c r="D149" s="14"/>
     </row>
     <row r="150" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B150" s="6">
+      <c r="B150" s="79">
         <v>1</v>
       </c>
-      <c r="C150" s="14" t="s">
+      <c r="C150" s="80" t="s">
         <v>127</v>
       </c>
       <c r="D150" s="14"/>
     </row>
     <row r="151" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="14"/>
+      <c r="A151" s="117"/>
+      <c r="B151" s="117"/>
+      <c r="C151" s="118"/>
       <c r="D151" s="14"/>
     </row>
     <row r="152" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
@@ -22419,9 +22477,15 @@
       </c>
     </row>
     <row r="160" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="9"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="13"/>
+      <c r="A160" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B160" s="8">
+        <v>27</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="D160" s="13"/>
     </row>
     <row r="161" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
@@ -22430,186 +22494,249 @@
       <c r="C161" s="14"/>
       <c r="D161" s="14"/>
     </row>
-    <row r="162" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="B162" s="6"/>
       <c r="C162" s="14"/>
       <c r="D162" s="14"/>
     </row>
-    <row r="163" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="5"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="14"/>
-      <c r="D163" s="14"/>
-    </row>
-    <row r="164" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="5"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
-    </row>
-    <row r="165" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="5"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
-    </row>
-    <row r="166" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="5"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
+    <row r="163" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B163" s="76">
+        <f>SUM(B160:B162)</f>
+        <v>27</v>
+      </c>
+      <c r="C163" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D163" s="77"/>
+    </row>
+    <row r="164" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="78"/>
+      <c r="B164" s="78"/>
+      <c r="C164" s="78"/>
+      <c r="D164" s="78"/>
+    </row>
+    <row r="165" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" s="72">
+        <v>10</v>
+      </c>
+      <c r="C165" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D165" s="82">
+        <v>42900</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" s="74" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="167" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="5"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
+      <c r="A167" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B167" s="8">
+        <v>1</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D167" s="109" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="168" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="5"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-    </row>
-    <row r="169" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="6"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="14"/>
+      <c r="A168" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B168" s="6">
+        <v>2</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D168" s="108" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A169" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B169" s="111">
+        <v>12</v>
+      </c>
+      <c r="C169" s="112" t="s">
+        <v>130</v>
+      </c>
       <c r="D169" s="14"/>
     </row>
     <row r="170" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="6"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="14"/>
+      <c r="A170" s="133"/>
+      <c r="B170" s="134"/>
+      <c r="C170" s="135" t="s">
+        <v>78</v>
+      </c>
       <c r="D170" s="14"/>
     </row>
     <row r="171" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="6"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
-    </row>
-    <row r="172" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A172" s="79"/>
-      <c r="B172" s="79"/>
-      <c r="C172" s="80"/>
-      <c r="D172" s="80"/>
+      <c r="A171" s="130" t="s">
+        <v>103</v>
+      </c>
+      <c r="B171" s="131">
+        <v>2</v>
+      </c>
+      <c r="C171" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="D171" s="108" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A172" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B172" s="6">
+        <v>9</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D172" s="14"/>
     </row>
     <row r="173" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A173" s="79"/>
-      <c r="B173" s="79"/>
-      <c r="C173" s="80"/>
-      <c r="D173" s="80"/>
-    </row>
-    <row r="174" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
-      <c r="C174" s="15"/>
-      <c r="D174" s="15"/>
-    </row>
-    <row r="175" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="76" t="s">
+      <c r="A173" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B173" s="6">
+        <v>1</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D173" s="14"/>
+    </row>
+    <row r="174" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A174" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B174" s="6"/>
+      <c r="C174" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D174" s="14"/>
+    </row>
+    <row r="175" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A175" s="5"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="14"/>
+    </row>
+    <row r="176" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A176" s="6"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="14"/>
+    </row>
+    <row r="177" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A177" s="6"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="14"/>
+    </row>
+    <row r="178" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A178" s="6"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+    </row>
+    <row r="179" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A179" s="79"/>
+      <c r="B179" s="79"/>
+      <c r="C179" s="80"/>
+      <c r="D179" s="80"/>
+    </row>
+    <row r="180" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A180" s="79"/>
+      <c r="B180" s="79"/>
+      <c r="C180" s="80"/>
+      <c r="D180" s="80"/>
+    </row>
+    <row r="181" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="7"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+    </row>
+    <row r="182" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B175" s="76">
-        <f>SUM(B160:B174)</f>
-        <v>0</v>
-      </c>
-      <c r="C175" s="107" t="s">
+      <c r="B182" s="76">
+        <f>SUM(B167:B181)</f>
+        <v>27</v>
+      </c>
+      <c r="C182" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D175" s="77"/>
-    </row>
-    <row r="176" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="78"/>
-      <c r="B176" s="78"/>
-      <c r="C176" s="78"/>
-      <c r="D176" s="78"/>
-    </row>
-    <row r="177" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="71" t="s">
+      <c r="D182" s="77"/>
+    </row>
+    <row r="183" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="78"/>
+      <c r="B183" s="78"/>
+      <c r="C183" s="78"/>
+      <c r="D183" s="78"/>
+    </row>
+    <row r="184" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B177" s="72">
-        <v>10</v>
-      </c>
-      <c r="C177" s="73" t="s">
+      <c r="B184" s="72">
+        <v>11</v>
+      </c>
+      <c r="C184" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D177" s="82">
-        <v>42900</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="74" t="s">
+      <c r="D184" s="82">
+        <v>42902</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B178" s="75" t="s">
+      <c r="B185" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C178" s="74" t="s">
+      <c r="C185" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D178" s="74" t="s">
+      <c r="D185" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B179" s="8">
-        <v>1</v>
-      </c>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-    </row>
-    <row r="180" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B180" s="6">
-        <v>2</v>
-      </c>
-      <c r="C180" s="14"/>
-      <c r="D180" s="14"/>
-    </row>
-    <row r="181" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="5"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
-    </row>
-    <row r="182" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="5"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
-    </row>
-    <row r="183" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="5"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
-    </row>
-    <row r="184" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A184" s="5"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="14"/>
-      <c r="D184" s="14"/>
-    </row>
-    <row r="185" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A185" s="5"/>
-      <c r="B185" s="6"/>
-      <c r="C185" s="14"/>
-      <c r="D185" s="14"/>
-    </row>
     <row r="186" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="5"/>
-      <c r="B186" s="6"/>
-      <c r="C186" s="14"/>
-      <c r="D186" s="14"/>
+      <c r="A186" s="9"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="13"/>
     </row>
     <row r="187" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
@@ -22618,135 +22745,135 @@
       <c r="D187" s="14"/>
     </row>
     <row r="188" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A188" s="6"/>
+      <c r="A188" s="5"/>
       <c r="B188" s="6"/>
       <c r="C188" s="14"/>
       <c r="D188" s="14"/>
     </row>
     <row r="189" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A189" s="6"/>
+      <c r="A189" s="5"/>
       <c r="B189" s="6"/>
       <c r="C189" s="14"/>
       <c r="D189" s="14"/>
     </row>
     <row r="190" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="6"/>
+      <c r="A190" s="5"/>
       <c r="B190" s="6"/>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
     </row>
     <row r="191" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A191" s="79"/>
-      <c r="B191" s="79"/>
-      <c r="C191" s="80"/>
-      <c r="D191" s="80"/>
+      <c r="A191" s="5"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
     </row>
     <row r="192" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A192" s="79"/>
-      <c r="B192" s="79"/>
-      <c r="C192" s="80"/>
-      <c r="D192" s="80"/>
-    </row>
-    <row r="193" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="7"/>
-      <c r="B193" s="7"/>
-      <c r="C193" s="15"/>
-      <c r="D193" s="15"/>
-    </row>
-    <row r="194" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="76" t="s">
+      <c r="A192" s="5"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+    </row>
+    <row r="193" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A193" s="5"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+    </row>
+    <row r="194" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A194" s="5"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+    </row>
+    <row r="195" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A195" s="6"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="14"/>
+      <c r="D195" s="14"/>
+    </row>
+    <row r="196" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A196" s="6"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+    </row>
+    <row r="197" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A197" s="6"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
+    </row>
+    <row r="198" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A198" s="79"/>
+      <c r="B198" s="79"/>
+      <c r="C198" s="80"/>
+      <c r="D198" s="80"/>
+    </row>
+    <row r="199" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A199" s="79"/>
+      <c r="B199" s="79"/>
+      <c r="C199" s="80"/>
+      <c r="D199" s="80"/>
+    </row>
+    <row r="200" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="7"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="15"/>
+      <c r="D200" s="15"/>
+    </row>
+    <row r="201" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B194" s="76">
-        <f>SUM(B179:B193)</f>
+      <c r="B201" s="76">
+        <f>SUM(B186:B200)</f>
+        <v>0</v>
+      </c>
+      <c r="C201" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D201" s="77"/>
+    </row>
+    <row r="202" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="78"/>
+      <c r="B202" s="78"/>
+      <c r="C202" s="78"/>
+      <c r="D202" s="78"/>
+    </row>
+    <row r="203" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B203" s="72">
+        <v>12</v>
+      </c>
+      <c r="C203" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D203" s="82">
+        <v>42912</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C194" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="D194" s="77"/>
-    </row>
-    <row r="195" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="78"/>
-      <c r="B195" s="78"/>
-      <c r="C195" s="78"/>
-      <c r="D195" s="78"/>
-    </row>
-    <row r="196" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B196" s="72">
-        <v>11</v>
-      </c>
-      <c r="C196" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D196" s="82">
-        <v>42902</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B197" s="75" t="s">
+      <c r="B204" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C197" s="74" t="s">
+      <c r="C204" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D197" s="74" t="s">
+      <c r="D204" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A198" s="9"/>
-      <c r="B198" s="8"/>
-      <c r="C198" s="13"/>
-      <c r="D198" s="13"/>
-    </row>
-    <row r="199" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A199" s="5"/>
-      <c r="B199" s="6"/>
-      <c r="C199" s="14"/>
-      <c r="D199" s="14"/>
-    </row>
-    <row r="200" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A200" s="5"/>
-      <c r="B200" s="6"/>
-      <c r="C200" s="14"/>
-      <c r="D200" s="14"/>
-    </row>
-    <row r="201" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A201" s="5"/>
-      <c r="B201" s="6"/>
-      <c r="C201" s="14"/>
-      <c r="D201" s="14"/>
-    </row>
-    <row r="202" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A202" s="5"/>
-      <c r="B202" s="6"/>
-      <c r="C202" s="14"/>
-      <c r="D202" s="14"/>
-    </row>
-    <row r="203" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A203" s="5"/>
-      <c r="B203" s="6"/>
-      <c r="C203" s="14"/>
-      <c r="D203" s="14"/>
-    </row>
-    <row r="204" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A204" s="5"/>
-      <c r="B204" s="6"/>
-      <c r="C204" s="14"/>
-      <c r="D204" s="14"/>
-    </row>
     <row r="205" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A205" s="5"/>
-      <c r="B205" s="6"/>
-      <c r="C205" s="14"/>
-      <c r="D205" s="14"/>
+      <c r="A205" s="9"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="13"/>
     </row>
     <row r="206" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
@@ -22755,135 +22882,135 @@
       <c r="D206" s="14"/>
     </row>
     <row r="207" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A207" s="6"/>
+      <c r="A207" s="5"/>
       <c r="B207" s="6"/>
       <c r="C207" s="14"/>
       <c r="D207" s="14"/>
     </row>
     <row r="208" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A208" s="6"/>
+      <c r="A208" s="5"/>
       <c r="B208" s="6"/>
       <c r="C208" s="14"/>
       <c r="D208" s="14"/>
     </row>
     <row r="209" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A209" s="6"/>
+      <c r="A209" s="5"/>
       <c r="B209" s="6"/>
       <c r="C209" s="14"/>
       <c r="D209" s="14"/>
     </row>
     <row r="210" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A210" s="79"/>
-      <c r="B210" s="79"/>
-      <c r="C210" s="80"/>
-      <c r="D210" s="80"/>
+      <c r="A210" s="5"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="14"/>
+      <c r="D210" s="14"/>
     </row>
     <row r="211" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A211" s="79"/>
-      <c r="B211" s="79"/>
-      <c r="C211" s="80"/>
-      <c r="D211" s="80"/>
-    </row>
-    <row r="212" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="7"/>
-      <c r="B212" s="7"/>
-      <c r="C212" s="15"/>
-      <c r="D212" s="15"/>
-    </row>
-    <row r="213" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="76" t="s">
+      <c r="A211" s="5"/>
+      <c r="B211" s="6"/>
+      <c r="C211" s="14"/>
+      <c r="D211" s="14"/>
+    </row>
+    <row r="212" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A212" s="5"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="14"/>
+      <c r="D212" s="14"/>
+    </row>
+    <row r="213" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A213" s="5"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="14"/>
+      <c r="D213" s="14"/>
+    </row>
+    <row r="214" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A214" s="6"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="14"/>
+      <c r="D214" s="14"/>
+    </row>
+    <row r="215" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A215" s="6"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="14"/>
+      <c r="D215" s="14"/>
+    </row>
+    <row r="216" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A216" s="6"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="14"/>
+      <c r="D216" s="14"/>
+    </row>
+    <row r="217" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A217" s="79"/>
+      <c r="B217" s="79"/>
+      <c r="C217" s="80"/>
+      <c r="D217" s="80"/>
+    </row>
+    <row r="218" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A218" s="79"/>
+      <c r="B218" s="79"/>
+      <c r="C218" s="80"/>
+      <c r="D218" s="80"/>
+    </row>
+    <row r="219" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="7"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="15"/>
+      <c r="D219" s="15"/>
+    </row>
+    <row r="220" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B213" s="76">
-        <f>SUM(B198:B212)</f>
+      <c r="B220" s="76">
+        <f>SUM(B205:B219)</f>
         <v>0</v>
       </c>
-      <c r="C213" s="107" t="s">
+      <c r="C220" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D213" s="77"/>
-    </row>
-    <row r="214" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="78"/>
-      <c r="B214" s="78"/>
-      <c r="C214" s="78"/>
-      <c r="D214" s="78"/>
-    </row>
-    <row r="215" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="71" t="s">
+      <c r="D220" s="77"/>
+    </row>
+    <row r="221" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="78"/>
+      <c r="B221" s="78"/>
+      <c r="C221" s="78"/>
+      <c r="D221" s="78"/>
+    </row>
+    <row r="222" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B215" s="72">
-        <v>12</v>
-      </c>
-      <c r="C215" s="73" t="s">
+      <c r="B222" s="72">
+        <v>13</v>
+      </c>
+      <c r="C222" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D215" s="82">
-        <v>42912</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="74" t="s">
+      <c r="D222" s="82">
+        <v>42968</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B216" s="75" t="s">
+      <c r="B223" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C216" s="74" t="s">
+      <c r="C223" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D216" s="74" t="s">
+      <c r="D223" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A217" s="9"/>
-      <c r="B217" s="8"/>
-      <c r="C217" s="13"/>
-      <c r="D217" s="13"/>
-    </row>
-    <row r="218" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="5"/>
-      <c r="B218" s="6"/>
-      <c r="C218" s="14"/>
-      <c r="D218" s="14"/>
-    </row>
-    <row r="219" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A219" s="5"/>
-      <c r="B219" s="6"/>
-      <c r="C219" s="14"/>
-      <c r="D219" s="14"/>
-    </row>
-    <row r="220" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A220" s="5"/>
-      <c r="B220" s="6"/>
-      <c r="C220" s="14"/>
-      <c r="D220" s="14"/>
-    </row>
-    <row r="221" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A221" s="5"/>
-      <c r="B221" s="6"/>
-      <c r="C221" s="14"/>
-      <c r="D221" s="14"/>
-    </row>
-    <row r="222" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A222" s="5"/>
-      <c r="B222" s="6"/>
-      <c r="C222" s="14"/>
-      <c r="D222" s="14"/>
-    </row>
-    <row r="223" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A223" s="5"/>
-      <c r="B223" s="6"/>
-      <c r="C223" s="14"/>
-      <c r="D223" s="14"/>
-    </row>
     <row r="224" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A224" s="5"/>
-      <c r="B224" s="6"/>
-      <c r="C224" s="14"/>
-      <c r="D224" s="14"/>
+      <c r="A224" s="9"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="13"/>
     </row>
     <row r="225" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
@@ -22892,135 +23019,135 @@
       <c r="D225" s="14"/>
     </row>
     <row r="226" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A226" s="6"/>
+      <c r="A226" s="5"/>
       <c r="B226" s="6"/>
       <c r="C226" s="14"/>
       <c r="D226" s="14"/>
     </row>
     <row r="227" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A227" s="6"/>
+      <c r="A227" s="5"/>
       <c r="B227" s="6"/>
       <c r="C227" s="14"/>
       <c r="D227" s="14"/>
     </row>
     <row r="228" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A228" s="6"/>
+      <c r="A228" s="5"/>
       <c r="B228" s="6"/>
       <c r="C228" s="14"/>
       <c r="D228" s="14"/>
     </row>
     <row r="229" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A229" s="79"/>
-      <c r="B229" s="79"/>
-      <c r="C229" s="80"/>
-      <c r="D229" s="80"/>
+      <c r="A229" s="5"/>
+      <c r="B229" s="6"/>
+      <c r="C229" s="14"/>
+      <c r="D229" s="14"/>
     </row>
     <row r="230" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A230" s="79"/>
-      <c r="B230" s="79"/>
-      <c r="C230" s="80"/>
-      <c r="D230" s="80"/>
-    </row>
-    <row r="231" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="7"/>
-      <c r="B231" s="7"/>
-      <c r="C231" s="15"/>
-      <c r="D231" s="15"/>
-    </row>
-    <row r="232" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="76" t="s">
+      <c r="A230" s="5"/>
+      <c r="B230" s="6"/>
+      <c r="C230" s="14"/>
+      <c r="D230" s="14"/>
+    </row>
+    <row r="231" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A231" s="5"/>
+      <c r="B231" s="6"/>
+      <c r="C231" s="14"/>
+      <c r="D231" s="14"/>
+    </row>
+    <row r="232" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A232" s="5"/>
+      <c r="B232" s="6"/>
+      <c r="C232" s="14"/>
+      <c r="D232" s="14"/>
+    </row>
+    <row r="233" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A233" s="6"/>
+      <c r="B233" s="6"/>
+      <c r="C233" s="14"/>
+      <c r="D233" s="14"/>
+    </row>
+    <row r="234" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A234" s="6"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="14"/>
+      <c r="D234" s="14"/>
+    </row>
+    <row r="235" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A235" s="6"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="14"/>
+      <c r="D235" s="14"/>
+    </row>
+    <row r="236" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A236" s="79"/>
+      <c r="B236" s="79"/>
+      <c r="C236" s="80"/>
+      <c r="D236" s="80"/>
+    </row>
+    <row r="237" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A237" s="79"/>
+      <c r="B237" s="79"/>
+      <c r="C237" s="80"/>
+      <c r="D237" s="80"/>
+    </row>
+    <row r="238" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="7"/>
+      <c r="B238" s="7"/>
+      <c r="C238" s="15"/>
+      <c r="D238" s="15"/>
+    </row>
+    <row r="239" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B232" s="76">
-        <f>SUM(B217:B231)</f>
+      <c r="B239" s="76">
+        <f>SUM(B224:B238)</f>
         <v>0</v>
       </c>
-      <c r="C232" s="107" t="s">
+      <c r="C239" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D232" s="77"/>
-    </row>
-    <row r="233" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="78"/>
-      <c r="B233" s="78"/>
-      <c r="C233" s="78"/>
-      <c r="D233" s="78"/>
-    </row>
-    <row r="234" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="71" t="s">
+      <c r="D239" s="77"/>
+    </row>
+    <row r="240" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="78"/>
+      <c r="B240" s="78"/>
+      <c r="C240" s="78"/>
+      <c r="D240" s="78"/>
+    </row>
+    <row r="241" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B234" s="72">
+      <c r="B241" s="72">
+        <v>14</v>
+      </c>
+      <c r="C241" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D241" s="82">
+        <v>42975</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B242" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C242" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D242" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C234" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D234" s="82">
-        <v>42968</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B235" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C235" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D235" s="74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A236" s="9"/>
-      <c r="B236" s="8"/>
-      <c r="C236" s="13"/>
-      <c r="D236" s="13"/>
-    </row>
-    <row r="237" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="5"/>
-      <c r="B237" s="6"/>
-      <c r="C237" s="14"/>
-      <c r="D237" s="14"/>
-    </row>
-    <row r="238" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A238" s="5"/>
-      <c r="B238" s="6"/>
-      <c r="C238" s="14"/>
-      <c r="D238" s="14"/>
-    </row>
-    <row r="239" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A239" s="5"/>
-      <c r="B239" s="6"/>
-      <c r="C239" s="14"/>
-      <c r="D239" s="14"/>
-    </row>
-    <row r="240" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A240" s="5"/>
-      <c r="B240" s="6"/>
-      <c r="C240" s="14"/>
-      <c r="D240" s="14"/>
-    </row>
-    <row r="241" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A241" s="5"/>
-      <c r="B241" s="6"/>
-      <c r="C241" s="14"/>
-      <c r="D241" s="14"/>
-    </row>
-    <row r="242" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A242" s="5"/>
-      <c r="B242" s="6"/>
-      <c r="C242" s="14"/>
-      <c r="D242" s="14"/>
     </row>
     <row r="243" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A243" s="5"/>
-      <c r="B243" s="6"/>
-      <c r="C243" s="14"/>
-      <c r="D243" s="14"/>
+      <c r="A243" s="9"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="13"/>
     </row>
     <row r="244" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
@@ -23029,135 +23156,135 @@
       <c r="D244" s="14"/>
     </row>
     <row r="245" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A245" s="6"/>
+      <c r="A245" s="5"/>
       <c r="B245" s="6"/>
       <c r="C245" s="14"/>
       <c r="D245" s="14"/>
     </row>
     <row r="246" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A246" s="6"/>
+      <c r="A246" s="5"/>
       <c r="B246" s="6"/>
       <c r="C246" s="14"/>
       <c r="D246" s="14"/>
     </row>
     <row r="247" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A247" s="6"/>
+      <c r="A247" s="5"/>
       <c r="B247" s="6"/>
       <c r="C247" s="14"/>
       <c r="D247" s="14"/>
     </row>
     <row r="248" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A248" s="79"/>
-      <c r="B248" s="79"/>
-      <c r="C248" s="80"/>
-      <c r="D248" s="80"/>
+      <c r="A248" s="5"/>
+      <c r="B248" s="6"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="14"/>
     </row>
     <row r="249" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A249" s="79"/>
-      <c r="B249" s="79"/>
-      <c r="C249" s="80"/>
-      <c r="D249" s="80"/>
-    </row>
-    <row r="250" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="7"/>
-      <c r="B250" s="7"/>
-      <c r="C250" s="15"/>
-      <c r="D250" s="15"/>
-    </row>
-    <row r="251" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="76" t="s">
+      <c r="A249" s="5"/>
+      <c r="B249" s="6"/>
+      <c r="C249" s="14"/>
+      <c r="D249" s="14"/>
+    </row>
+    <row r="250" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A250" s="5"/>
+      <c r="B250" s="6"/>
+      <c r="C250" s="14"/>
+      <c r="D250" s="14"/>
+    </row>
+    <row r="251" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A251" s="5"/>
+      <c r="B251" s="6"/>
+      <c r="C251" s="14"/>
+      <c r="D251" s="14"/>
+    </row>
+    <row r="252" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A252" s="6"/>
+      <c r="B252" s="6"/>
+      <c r="C252" s="14"/>
+      <c r="D252" s="14"/>
+    </row>
+    <row r="253" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A253" s="6"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="14"/>
+      <c r="D253" s="14"/>
+    </row>
+    <row r="254" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="6"/>
+      <c r="B254" s="6"/>
+      <c r="C254" s="14"/>
+      <c r="D254" s="14"/>
+    </row>
+    <row r="255" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A255" s="79"/>
+      <c r="B255" s="79"/>
+      <c r="C255" s="80"/>
+      <c r="D255" s="80"/>
+    </row>
+    <row r="256" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A256" s="79"/>
+      <c r="B256" s="79"/>
+      <c r="C256" s="80"/>
+      <c r="D256" s="80"/>
+    </row>
+    <row r="257" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="7"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="15"/>
+      <c r="D257" s="15"/>
+    </row>
+    <row r="258" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B251" s="76">
-        <f>SUM(B236:B250)</f>
+      <c r="B258" s="76">
+        <f>SUM(B243:B257)</f>
         <v>0</v>
       </c>
-      <c r="C251" s="107" t="s">
+      <c r="C258" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D251" s="77"/>
-    </row>
-    <row r="252" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="78"/>
-      <c r="B252" s="78"/>
-      <c r="C252" s="78"/>
-      <c r="D252" s="78"/>
-    </row>
-    <row r="253" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="71" t="s">
+      <c r="D258" s="77"/>
+    </row>
+    <row r="259" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="78"/>
+      <c r="B259" s="78"/>
+      <c r="C259" s="78"/>
+      <c r="D259" s="78"/>
+    </row>
+    <row r="260" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B253" s="72">
-        <v>14</v>
-      </c>
-      <c r="C253" s="73" t="s">
+      <c r="B260" s="72">
+        <v>15</v>
+      </c>
+      <c r="C260" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D253" s="82">
-        <v>42975</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="74" t="s">
+      <c r="D260" s="82">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B254" s="75" t="s">
+      <c r="B261" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C254" s="74" t="s">
+      <c r="C261" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D254" s="74" t="s">
+      <c r="D261" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A255" s="9"/>
-      <c r="B255" s="8"/>
-      <c r="C255" s="13"/>
-      <c r="D255" s="13"/>
-    </row>
-    <row r="256" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A256" s="5"/>
-      <c r="B256" s="6"/>
-      <c r="C256" s="14"/>
-      <c r="D256" s="14"/>
-    </row>
-    <row r="257" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="5"/>
-      <c r="B257" s="6"/>
-      <c r="C257" s="14"/>
-      <c r="D257" s="14"/>
-    </row>
-    <row r="258" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="5"/>
-      <c r="B258" s="6"/>
-      <c r="C258" s="14"/>
-      <c r="D258" s="14"/>
-    </row>
-    <row r="259" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A259" s="5"/>
-      <c r="B259" s="6"/>
-      <c r="C259" s="14"/>
-      <c r="D259" s="14"/>
-    </row>
-    <row r="260" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="5"/>
-      <c r="B260" s="6"/>
-      <c r="C260" s="14"/>
-      <c r="D260" s="14"/>
-    </row>
-    <row r="261" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="5"/>
-      <c r="B261" s="6"/>
-      <c r="C261" s="14"/>
-      <c r="D261" s="14"/>
-    </row>
     <row r="262" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A262" s="5"/>
-      <c r="B262" s="6"/>
-      <c r="C262" s="14"/>
-      <c r="D262" s="14"/>
+      <c r="A262" s="9"/>
+      <c r="B262" s="8"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="13"/>
     </row>
     <row r="263" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
@@ -23166,135 +23293,135 @@
       <c r="D263" s="14"/>
     </row>
     <row r="264" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="6"/>
+      <c r="A264" s="5"/>
       <c r="B264" s="6"/>
       <c r="C264" s="14"/>
       <c r="D264" s="14"/>
     </row>
     <row r="265" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="6"/>
+      <c r="A265" s="5"/>
       <c r="B265" s="6"/>
       <c r="C265" s="14"/>
       <c r="D265" s="14"/>
     </row>
     <row r="266" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A266" s="6"/>
+      <c r="A266" s="5"/>
       <c r="B266" s="6"/>
       <c r="C266" s="14"/>
       <c r="D266" s="14"/>
     </row>
     <row r="267" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="79"/>
-      <c r="B267" s="79"/>
-      <c r="C267" s="80"/>
-      <c r="D267" s="80"/>
+      <c r="A267" s="5"/>
+      <c r="B267" s="6"/>
+      <c r="C267" s="14"/>
+      <c r="D267" s="14"/>
     </row>
     <row r="268" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A268" s="79"/>
-      <c r="B268" s="79"/>
-      <c r="C268" s="80"/>
-      <c r="D268" s="80"/>
-    </row>
-    <row r="269" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="7"/>
-      <c r="B269" s="7"/>
-      <c r="C269" s="15"/>
-      <c r="D269" s="15"/>
-    </row>
-    <row r="270" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="76" t="s">
+      <c r="A268" s="5"/>
+      <c r="B268" s="6"/>
+      <c r="C268" s="14"/>
+      <c r="D268" s="14"/>
+    </row>
+    <row r="269" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="5"/>
+      <c r="B269" s="6"/>
+      <c r="C269" s="14"/>
+      <c r="D269" s="14"/>
+    </row>
+    <row r="270" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A270" s="5"/>
+      <c r="B270" s="6"/>
+      <c r="C270" s="14"/>
+      <c r="D270" s="14"/>
+    </row>
+    <row r="271" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A271" s="6"/>
+      <c r="B271" s="6"/>
+      <c r="C271" s="14"/>
+      <c r="D271" s="14"/>
+    </row>
+    <row r="272" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A272" s="6"/>
+      <c r="B272" s="6"/>
+      <c r="C272" s="14"/>
+      <c r="D272" s="14"/>
+    </row>
+    <row r="273" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A273" s="6"/>
+      <c r="B273" s="6"/>
+      <c r="C273" s="14"/>
+      <c r="D273" s="14"/>
+    </row>
+    <row r="274" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A274" s="79"/>
+      <c r="B274" s="79"/>
+      <c r="C274" s="80"/>
+      <c r="D274" s="80"/>
+    </row>
+    <row r="275" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A275" s="79"/>
+      <c r="B275" s="79"/>
+      <c r="C275" s="80"/>
+      <c r="D275" s="80"/>
+    </row>
+    <row r="276" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="7"/>
+      <c r="B276" s="7"/>
+      <c r="C276" s="15"/>
+      <c r="D276" s="15"/>
+    </row>
+    <row r="277" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B270" s="76">
-        <f>SUM(B255:B269)</f>
+      <c r="B277" s="76">
+        <f>SUM(B262:B276)</f>
         <v>0</v>
       </c>
-      <c r="C270" s="107" t="s">
+      <c r="C277" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D270" s="77"/>
-    </row>
-    <row r="271" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="78"/>
-      <c r="B271" s="78"/>
-      <c r="C271" s="78"/>
-      <c r="D271" s="78"/>
-    </row>
-    <row r="272" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="71" t="s">
+      <c r="D277" s="77"/>
+    </row>
+    <row r="278" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="78"/>
+      <c r="B278" s="78"/>
+      <c r="C278" s="78"/>
+      <c r="D278" s="78"/>
+    </row>
+    <row r="279" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B272" s="72">
+      <c r="B279" s="72">
+        <v>16</v>
+      </c>
+      <c r="C279" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D279" s="82">
+        <v>42989</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B280" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C272" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D272" s="82">
-        <v>42982</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B273" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C273" s="74" t="s">
+      <c r="C280" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D273" s="74" t="s">
+      <c r="D280" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A274" s="9"/>
-      <c r="B274" s="8"/>
-      <c r="C274" s="13"/>
-      <c r="D274" s="13"/>
-    </row>
-    <row r="275" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A275" s="5"/>
-      <c r="B275" s="6"/>
-      <c r="C275" s="14"/>
-      <c r="D275" s="14"/>
-    </row>
-    <row r="276" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="5"/>
-      <c r="B276" s="6"/>
-      <c r="C276" s="14"/>
-      <c r="D276" s="14"/>
-    </row>
-    <row r="277" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A277" s="5"/>
-      <c r="B277" s="6"/>
-      <c r="C277" s="14"/>
-      <c r="D277" s="14"/>
-    </row>
-    <row r="278" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="5"/>
-      <c r="B278" s="6"/>
-      <c r="C278" s="14"/>
-      <c r="D278" s="14"/>
-    </row>
-    <row r="279" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A279" s="5"/>
-      <c r="B279" s="6"/>
-      <c r="C279" s="14"/>
-      <c r="D279" s="14"/>
-    </row>
-    <row r="280" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A280" s="5"/>
-      <c r="B280" s="6"/>
-      <c r="C280" s="14"/>
-      <c r="D280" s="14"/>
-    </row>
     <row r="281" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="5"/>
-      <c r="B281" s="6"/>
-      <c r="C281" s="14"/>
-      <c r="D281" s="14"/>
+      <c r="A281" s="9"/>
+      <c r="B281" s="8"/>
+      <c r="C281" s="13"/>
+      <c r="D281" s="13"/>
     </row>
     <row r="282" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
@@ -23303,199 +23430,104 @@
       <c r="D282" s="14"/>
     </row>
     <row r="283" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A283" s="6"/>
+      <c r="A283" s="5"/>
       <c r="B283" s="6"/>
       <c r="C283" s="14"/>
       <c r="D283" s="14"/>
     </row>
     <row r="284" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A284" s="6"/>
+      <c r="A284" s="5"/>
       <c r="B284" s="6"/>
       <c r="C284" s="14"/>
       <c r="D284" s="14"/>
     </row>
     <row r="285" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="6"/>
+      <c r="A285" s="5"/>
       <c r="B285" s="6"/>
       <c r="C285" s="14"/>
       <c r="D285" s="14"/>
     </row>
     <row r="286" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A286" s="79"/>
-      <c r="B286" s="79"/>
-      <c r="C286" s="80"/>
-      <c r="D286" s="80"/>
+      <c r="A286" s="5"/>
+      <c r="B286" s="6"/>
+      <c r="C286" s="14"/>
+      <c r="D286" s="14"/>
     </row>
     <row r="287" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A287" s="79"/>
-      <c r="B287" s="79"/>
-      <c r="C287" s="80"/>
-      <c r="D287" s="80"/>
-    </row>
-    <row r="288" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="7"/>
-      <c r="B288" s="7"/>
-      <c r="C288" s="15"/>
-      <c r="D288" s="15"/>
-    </row>
-    <row r="289" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="76" t="s">
+      <c r="A287" s="5"/>
+      <c r="B287" s="6"/>
+      <c r="C287" s="14"/>
+      <c r="D287" s="14"/>
+    </row>
+    <row r="288" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A288" s="5"/>
+      <c r="B288" s="6"/>
+      <c r="C288" s="14"/>
+      <c r="D288" s="14"/>
+    </row>
+    <row r="289" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A289" s="5"/>
+      <c r="B289" s="6"/>
+      <c r="C289" s="14"/>
+      <c r="D289" s="14"/>
+    </row>
+    <row r="290" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="6"/>
+      <c r="B290" s="6"/>
+      <c r="C290" s="14"/>
+      <c r="D290" s="14"/>
+    </row>
+    <row r="291" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="6"/>
+      <c r="B291" s="6"/>
+      <c r="C291" s="14"/>
+      <c r="D291" s="14"/>
+    </row>
+    <row r="292" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A292" s="6"/>
+      <c r="B292" s="6"/>
+      <c r="C292" s="14"/>
+      <c r="D292" s="14"/>
+    </row>
+    <row r="293" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A293" s="79"/>
+      <c r="B293" s="79"/>
+      <c r="C293" s="80"/>
+      <c r="D293" s="80"/>
+    </row>
+    <row r="294" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A294" s="79"/>
+      <c r="B294" s="79"/>
+      <c r="C294" s="80"/>
+      <c r="D294" s="80"/>
+    </row>
+    <row r="295" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="7"/>
+      <c r="B295" s="7"/>
+      <c r="C295" s="15"/>
+      <c r="D295" s="15"/>
+    </row>
+    <row r="296" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B289" s="76">
-        <f>SUM(B274:B288)</f>
+      <c r="B296" s="76">
+        <f>SUM(B281:B295)</f>
         <v>0</v>
       </c>
-      <c r="C289" s="107" t="s">
+      <c r="C296" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D289" s="77"/>
-    </row>
-    <row r="290" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A290" s="78"/>
-      <c r="B290" s="78"/>
-      <c r="C290" s="78"/>
-      <c r="D290" s="78"/>
-    </row>
-    <row r="291" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B291" s="72">
-        <v>16</v>
-      </c>
-      <c r="C291" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D291" s="82">
-        <v>42989</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B292" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C292" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D292" s="74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A293" s="9"/>
-      <c r="B293" s="8"/>
-      <c r="C293" s="13"/>
-      <c r="D293" s="13"/>
-    </row>
-    <row r="294" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A294" s="5"/>
-      <c r="B294" s="6"/>
-      <c r="C294" s="14"/>
-      <c r="D294" s="14"/>
-    </row>
-    <row r="295" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A295" s="5"/>
-      <c r="B295" s="6"/>
-      <c r="C295" s="14"/>
-      <c r="D295" s="14"/>
-    </row>
-    <row r="296" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A296" s="5"/>
-      <c r="B296" s="6"/>
-      <c r="C296" s="14"/>
-      <c r="D296" s="14"/>
-    </row>
-    <row r="297" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="5"/>
-      <c r="B297" s="6"/>
-      <c r="C297" s="14"/>
-      <c r="D297" s="14"/>
-    </row>
-    <row r="298" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A298" s="5"/>
-      <c r="B298" s="6"/>
-      <c r="C298" s="14"/>
-      <c r="D298" s="14"/>
-    </row>
-    <row r="299" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A299" s="5"/>
-      <c r="B299" s="6"/>
-      <c r="C299" s="14"/>
-      <c r="D299" s="14"/>
-    </row>
-    <row r="300" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="5"/>
-      <c r="B300" s="6"/>
-      <c r="C300" s="14"/>
-      <c r="D300" s="14"/>
-    </row>
-    <row r="301" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="5"/>
-      <c r="B301" s="6"/>
-      <c r="C301" s="14"/>
-      <c r="D301" s="14"/>
-    </row>
-    <row r="302" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A302" s="6"/>
-      <c r="B302" s="6"/>
-      <c r="C302" s="14"/>
-      <c r="D302" s="14"/>
-    </row>
-    <row r="303" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A303" s="6"/>
-      <c r="B303" s="6"/>
-      <c r="C303" s="14"/>
-      <c r="D303" s="14"/>
-    </row>
-    <row r="304" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A304" s="6"/>
-      <c r="B304" s="6"/>
-      <c r="C304" s="14"/>
-      <c r="D304" s="14"/>
-    </row>
-    <row r="305" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A305" s="79"/>
-      <c r="B305" s="79"/>
-      <c r="C305" s="80"/>
-      <c r="D305" s="80"/>
-    </row>
-    <row r="306" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A306" s="79"/>
-      <c r="B306" s="79"/>
-      <c r="C306" s="80"/>
-      <c r="D306" s="80"/>
-    </row>
-    <row r="307" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="7"/>
-      <c r="B307" s="7"/>
-      <c r="C307" s="15"/>
-      <c r="D307" s="15"/>
-    </row>
-    <row r="308" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B308" s="76">
-        <f>SUM(B293:B307)</f>
-        <v>0</v>
-      </c>
-      <c r="C308" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="D308" s="77"/>
-    </row>
-    <row r="309" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A309" s="78"/>
-      <c r="B309" s="78"/>
-      <c r="C309" s="78"/>
-      <c r="D309" s="78"/>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="106" t="s">
+      <c r="D296" s="77"/>
+    </row>
+    <row r="297" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A297" s="78"/>
+      <c r="B297" s="78"/>
+      <c r="C297" s="78"/>
+      <c r="D297" s="78"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="106" t="s">
         <v>46</v>
       </c>
     </row>
@@ -23505,14 +23537,14 @@
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B3:B17 B22:B36 B41:B56 B61:B75 B80:B95 B100:B114 B119:B133 B138:B155 B160:B174 B179:B193 B198:B212 B217:B231 B236:B250 B255:B269 B274:B288 B293:B307">
+    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B3:B17 B22:B36 B41:B56 B61:B75 B80:B95 B100:B114 B119:B133 B138:B155 B160:B162 B167:B181 B186:B200 B205:B219 B224:B238 B243:B257 B262:B276 B281:B295">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B18 B37 B57 B76 B96 B115 B134 B156 B175 B194 B213 B232 B251 B270 B289 B308">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B18 B37 B57 B76 B96 B115 B134 B156 B163 B182 B201 B220 B239 B258 B277 B296">
       <formula1>0</formula1>
       <formula2>NbPerWeek * NbQuartPer</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A17 A22:A36 A41:A56 A61:A75 A80:A95 A100:A114 A119:A133 A138:A155 A160:A174 A179:A193 A198:A212 A217:A231 A236:A250 A255:A269 A274:A288 A293:A307">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A17 A22:A36 A41:A56 A61:A75 A80:A95 A100:A114 A119:A133 A138:A155 A160:A162 A167:A181 A186:A200 A205:A219 A224:A238 A243:A257 A262:A276 A281:A295">
       <formula1>lstTasks</formula1>
     </dataValidation>
   </dataValidations>
@@ -23543,21 +23575,26 @@
     <hyperlink ref="D141" r:id="rId24"/>
     <hyperlink ref="D140" r:id="rId25"/>
     <hyperlink ref="D142" r:id="rId26"/>
+    <hyperlink ref="D138" r:id="rId27"/>
+    <hyperlink ref="D148" r:id="rId28"/>
+    <hyperlink ref="D167" r:id="rId29"/>
+    <hyperlink ref="D168" r:id="rId30"/>
+    <hyperlink ref="D171" r:id="rId31"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" cellComments="atEnd" r:id="rId27"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" cellComments="atEnd" r:id="rId32"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ETML L,Normal"&amp;24ETML</oddHeader>
     <oddFooter>&amp;C&amp;F&amp;L&amp;D</oddFooter>
   </headerFooter>
-  <drawing r:id="rId28"/>
-  <legacyDrawing r:id="rId29"/>
+  <drawing r:id="rId33"/>
+  <legacyDrawing r:id="rId34"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="44033" r:id="rId30" name="btnImportRealisation">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
+        <control shapeId="44033" r:id="rId35" name="btnImportRealisation">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId36">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -23576,7 +23613,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="44033" r:id="rId30" name="btnImportRealisation"/>
+        <control shapeId="44033" r:id="rId35" name="btnImportRealisation"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/doc/DemoMotJDT-pittierfa.xlsx
+++ b/doc/DemoMotJDT-pittierfa.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="139">
   <si>
     <t>Module :</t>
   </si>
@@ -469,6 +469,21 @@
   </si>
   <si>
     <t>Commit du jour</t>
+  </si>
+  <si>
+    <t>Prof parle</t>
+  </si>
+  <si>
+    <t>change l'affichage par défaut des jeux publiés. Téléchargement du Jeux quand cliqué sur son nom, traduction en français</t>
+  </si>
+  <si>
+    <t>Pause midi</t>
+  </si>
+  <si>
+    <t>ajoute bouton d'upload dans formulaire création d'un jeu, path du jeu (chemin du jeu) généré automatiquement mais il y a une erreur qui est cachée car logs désactivé sur easy php -&gt; télécharge et install xdebug mais pas de changements</t>
+  </si>
+  <si>
+    <t>Apéro de section</t>
   </si>
 </sst>
 </file>
@@ -1650,6 +1665,30 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1679,30 +1718,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2610,10 +2625,10 @@
     </row>
     <row r="19" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52"/>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="120"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
@@ -3571,474 +3586,474 @@
       <c r="C2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="121" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="122"/>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
-      <c r="AX2" s="122"/>
-      <c r="AY2" s="122"/>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="122"/>
-      <c r="BB2" s="122"/>
-      <c r="BC2" s="122"/>
-      <c r="BD2" s="122"/>
-      <c r="BE2" s="123"/>
-      <c r="BF2" s="121" t="s">
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="128"/>
+      <c r="AS2" s="128"/>
+      <c r="AT2" s="128"/>
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="128"/>
+      <c r="AW2" s="128"/>
+      <c r="AX2" s="128"/>
+      <c r="AY2" s="128"/>
+      <c r="AZ2" s="128"/>
+      <c r="BA2" s="128"/>
+      <c r="BB2" s="128"/>
+      <c r="BC2" s="128"/>
+      <c r="BD2" s="128"/>
+      <c r="BE2" s="129"/>
+      <c r="BF2" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="BG2" s="122"/>
-      <c r="BH2" s="122"/>
-      <c r="BI2" s="122"/>
-      <c r="BJ2" s="122"/>
-      <c r="BK2" s="122"/>
-      <c r="BL2" s="122"/>
-      <c r="BM2" s="122"/>
-      <c r="BN2" s="122"/>
-      <c r="BO2" s="122"/>
-      <c r="BP2" s="122"/>
-      <c r="BQ2" s="122"/>
-      <c r="BR2" s="122"/>
-      <c r="BS2" s="122"/>
-      <c r="BT2" s="122"/>
-      <c r="BU2" s="122"/>
-      <c r="BV2" s="122"/>
-      <c r="BW2" s="122"/>
-      <c r="BX2" s="122"/>
-      <c r="BY2" s="122"/>
-      <c r="BZ2" s="122"/>
-      <c r="CA2" s="122"/>
-      <c r="CB2" s="122"/>
-      <c r="CC2" s="122"/>
-      <c r="CD2" s="122"/>
-      <c r="CE2" s="122"/>
-      <c r="CF2" s="123"/>
-      <c r="CG2" s="121" t="s">
+      <c r="BG2" s="128"/>
+      <c r="BH2" s="128"/>
+      <c r="BI2" s="128"/>
+      <c r="BJ2" s="128"/>
+      <c r="BK2" s="128"/>
+      <c r="BL2" s="128"/>
+      <c r="BM2" s="128"/>
+      <c r="BN2" s="128"/>
+      <c r="BO2" s="128"/>
+      <c r="BP2" s="128"/>
+      <c r="BQ2" s="128"/>
+      <c r="BR2" s="128"/>
+      <c r="BS2" s="128"/>
+      <c r="BT2" s="128"/>
+      <c r="BU2" s="128"/>
+      <c r="BV2" s="128"/>
+      <c r="BW2" s="128"/>
+      <c r="BX2" s="128"/>
+      <c r="BY2" s="128"/>
+      <c r="BZ2" s="128"/>
+      <c r="CA2" s="128"/>
+      <c r="CB2" s="128"/>
+      <c r="CC2" s="128"/>
+      <c r="CD2" s="128"/>
+      <c r="CE2" s="128"/>
+      <c r="CF2" s="129"/>
+      <c r="CG2" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="CH2" s="122"/>
-      <c r="CI2" s="122"/>
-      <c r="CJ2" s="122"/>
-      <c r="CK2" s="122"/>
-      <c r="CL2" s="122"/>
-      <c r="CM2" s="122"/>
-      <c r="CN2" s="122"/>
-      <c r="CO2" s="122"/>
-      <c r="CP2" s="122"/>
-      <c r="CQ2" s="122"/>
-      <c r="CR2" s="122"/>
-      <c r="CS2" s="122"/>
-      <c r="CT2" s="122"/>
-      <c r="CU2" s="122"/>
-      <c r="CV2" s="122"/>
-      <c r="CW2" s="122"/>
-      <c r="CX2" s="122"/>
-      <c r="CY2" s="122"/>
-      <c r="CZ2" s="122"/>
-      <c r="DA2" s="122"/>
-      <c r="DB2" s="122"/>
-      <c r="DC2" s="122"/>
-      <c r="DD2" s="122"/>
-      <c r="DE2" s="122"/>
-      <c r="DF2" s="122"/>
-      <c r="DG2" s="123"/>
-      <c r="DH2" s="121" t="s">
+      <c r="CH2" s="128"/>
+      <c r="CI2" s="128"/>
+      <c r="CJ2" s="128"/>
+      <c r="CK2" s="128"/>
+      <c r="CL2" s="128"/>
+      <c r="CM2" s="128"/>
+      <c r="CN2" s="128"/>
+      <c r="CO2" s="128"/>
+      <c r="CP2" s="128"/>
+      <c r="CQ2" s="128"/>
+      <c r="CR2" s="128"/>
+      <c r="CS2" s="128"/>
+      <c r="CT2" s="128"/>
+      <c r="CU2" s="128"/>
+      <c r="CV2" s="128"/>
+      <c r="CW2" s="128"/>
+      <c r="CX2" s="128"/>
+      <c r="CY2" s="128"/>
+      <c r="CZ2" s="128"/>
+      <c r="DA2" s="128"/>
+      <c r="DB2" s="128"/>
+      <c r="DC2" s="128"/>
+      <c r="DD2" s="128"/>
+      <c r="DE2" s="128"/>
+      <c r="DF2" s="128"/>
+      <c r="DG2" s="129"/>
+      <c r="DH2" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="DI2" s="122"/>
-      <c r="DJ2" s="122"/>
-      <c r="DK2" s="122"/>
-      <c r="DL2" s="122"/>
-      <c r="DM2" s="122"/>
-      <c r="DN2" s="122"/>
-      <c r="DO2" s="122"/>
-      <c r="DP2" s="122"/>
-      <c r="DQ2" s="122"/>
-      <c r="DR2" s="122"/>
-      <c r="DS2" s="122"/>
-      <c r="DT2" s="122"/>
-      <c r="DU2" s="122"/>
-      <c r="DV2" s="122"/>
-      <c r="DW2" s="122"/>
-      <c r="DX2" s="122"/>
-      <c r="DY2" s="122"/>
-      <c r="DZ2" s="122"/>
-      <c r="EA2" s="122"/>
-      <c r="EB2" s="122"/>
-      <c r="EC2" s="122"/>
-      <c r="ED2" s="122"/>
-      <c r="EE2" s="122"/>
-      <c r="EF2" s="122"/>
-      <c r="EG2" s="122"/>
-      <c r="EH2" s="123"/>
-      <c r="EI2" s="121" t="s">
+      <c r="DI2" s="128"/>
+      <c r="DJ2" s="128"/>
+      <c r="DK2" s="128"/>
+      <c r="DL2" s="128"/>
+      <c r="DM2" s="128"/>
+      <c r="DN2" s="128"/>
+      <c r="DO2" s="128"/>
+      <c r="DP2" s="128"/>
+      <c r="DQ2" s="128"/>
+      <c r="DR2" s="128"/>
+      <c r="DS2" s="128"/>
+      <c r="DT2" s="128"/>
+      <c r="DU2" s="128"/>
+      <c r="DV2" s="128"/>
+      <c r="DW2" s="128"/>
+      <c r="DX2" s="128"/>
+      <c r="DY2" s="128"/>
+      <c r="DZ2" s="128"/>
+      <c r="EA2" s="128"/>
+      <c r="EB2" s="128"/>
+      <c r="EC2" s="128"/>
+      <c r="ED2" s="128"/>
+      <c r="EE2" s="128"/>
+      <c r="EF2" s="128"/>
+      <c r="EG2" s="128"/>
+      <c r="EH2" s="129"/>
+      <c r="EI2" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="EJ2" s="122"/>
-      <c r="EK2" s="122"/>
-      <c r="EL2" s="122"/>
-      <c r="EM2" s="122"/>
-      <c r="EN2" s="122"/>
-      <c r="EO2" s="122"/>
-      <c r="EP2" s="122"/>
-      <c r="EQ2" s="122"/>
-      <c r="ER2" s="122"/>
-      <c r="ES2" s="122"/>
-      <c r="ET2" s="122"/>
-      <c r="EU2" s="122"/>
-      <c r="EV2" s="122"/>
-      <c r="EW2" s="122"/>
-      <c r="EX2" s="122"/>
-      <c r="EY2" s="122"/>
-      <c r="EZ2" s="122"/>
-      <c r="FA2" s="122"/>
-      <c r="FB2" s="122"/>
-      <c r="FC2" s="122"/>
-      <c r="FD2" s="122"/>
-      <c r="FE2" s="122"/>
-      <c r="FF2" s="122"/>
-      <c r="FG2" s="122"/>
-      <c r="FH2" s="122"/>
-      <c r="FI2" s="123"/>
-      <c r="FJ2" s="121" t="s">
+      <c r="EJ2" s="128"/>
+      <c r="EK2" s="128"/>
+      <c r="EL2" s="128"/>
+      <c r="EM2" s="128"/>
+      <c r="EN2" s="128"/>
+      <c r="EO2" s="128"/>
+      <c r="EP2" s="128"/>
+      <c r="EQ2" s="128"/>
+      <c r="ER2" s="128"/>
+      <c r="ES2" s="128"/>
+      <c r="ET2" s="128"/>
+      <c r="EU2" s="128"/>
+      <c r="EV2" s="128"/>
+      <c r="EW2" s="128"/>
+      <c r="EX2" s="128"/>
+      <c r="EY2" s="128"/>
+      <c r="EZ2" s="128"/>
+      <c r="FA2" s="128"/>
+      <c r="FB2" s="128"/>
+      <c r="FC2" s="128"/>
+      <c r="FD2" s="128"/>
+      <c r="FE2" s="128"/>
+      <c r="FF2" s="128"/>
+      <c r="FG2" s="128"/>
+      <c r="FH2" s="128"/>
+      <c r="FI2" s="129"/>
+      <c r="FJ2" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="FK2" s="122"/>
-      <c r="FL2" s="122"/>
-      <c r="FM2" s="122"/>
-      <c r="FN2" s="122"/>
-      <c r="FO2" s="122"/>
-      <c r="FP2" s="122"/>
-      <c r="FQ2" s="122"/>
-      <c r="FR2" s="122"/>
-      <c r="FS2" s="122"/>
-      <c r="FT2" s="122"/>
-      <c r="FU2" s="122"/>
-      <c r="FV2" s="122"/>
-      <c r="FW2" s="122"/>
-      <c r="FX2" s="122"/>
-      <c r="FY2" s="122"/>
-      <c r="FZ2" s="122"/>
-      <c r="GA2" s="122"/>
-      <c r="GB2" s="122"/>
-      <c r="GC2" s="122"/>
-      <c r="GD2" s="122"/>
-      <c r="GE2" s="122"/>
-      <c r="GF2" s="122"/>
-      <c r="GG2" s="122"/>
-      <c r="GH2" s="122"/>
-      <c r="GI2" s="122"/>
-      <c r="GJ2" s="123"/>
-      <c r="GK2" s="121" t="s">
+      <c r="FK2" s="128"/>
+      <c r="FL2" s="128"/>
+      <c r="FM2" s="128"/>
+      <c r="FN2" s="128"/>
+      <c r="FO2" s="128"/>
+      <c r="FP2" s="128"/>
+      <c r="FQ2" s="128"/>
+      <c r="FR2" s="128"/>
+      <c r="FS2" s="128"/>
+      <c r="FT2" s="128"/>
+      <c r="FU2" s="128"/>
+      <c r="FV2" s="128"/>
+      <c r="FW2" s="128"/>
+      <c r="FX2" s="128"/>
+      <c r="FY2" s="128"/>
+      <c r="FZ2" s="128"/>
+      <c r="GA2" s="128"/>
+      <c r="GB2" s="128"/>
+      <c r="GC2" s="128"/>
+      <c r="GD2" s="128"/>
+      <c r="GE2" s="128"/>
+      <c r="GF2" s="128"/>
+      <c r="GG2" s="128"/>
+      <c r="GH2" s="128"/>
+      <c r="GI2" s="128"/>
+      <c r="GJ2" s="129"/>
+      <c r="GK2" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="GL2" s="122"/>
-      <c r="GM2" s="122"/>
-      <c r="GN2" s="122"/>
-      <c r="GO2" s="122"/>
-      <c r="GP2" s="122"/>
-      <c r="GQ2" s="122"/>
-      <c r="GR2" s="122"/>
-      <c r="GS2" s="122"/>
-      <c r="GT2" s="122"/>
-      <c r="GU2" s="122"/>
-      <c r="GV2" s="122"/>
-      <c r="GW2" s="122"/>
-      <c r="GX2" s="122"/>
-      <c r="GY2" s="122"/>
-      <c r="GZ2" s="122"/>
-      <c r="HA2" s="122"/>
-      <c r="HB2" s="122"/>
-      <c r="HC2" s="122"/>
-      <c r="HD2" s="122"/>
-      <c r="HE2" s="122"/>
-      <c r="HF2" s="122"/>
-      <c r="HG2" s="122"/>
-      <c r="HH2" s="122"/>
-      <c r="HI2" s="122"/>
-      <c r="HJ2" s="122"/>
-      <c r="HK2" s="123"/>
-      <c r="HL2" s="121" t="s">
+      <c r="GL2" s="128"/>
+      <c r="GM2" s="128"/>
+      <c r="GN2" s="128"/>
+      <c r="GO2" s="128"/>
+      <c r="GP2" s="128"/>
+      <c r="GQ2" s="128"/>
+      <c r="GR2" s="128"/>
+      <c r="GS2" s="128"/>
+      <c r="GT2" s="128"/>
+      <c r="GU2" s="128"/>
+      <c r="GV2" s="128"/>
+      <c r="GW2" s="128"/>
+      <c r="GX2" s="128"/>
+      <c r="GY2" s="128"/>
+      <c r="GZ2" s="128"/>
+      <c r="HA2" s="128"/>
+      <c r="HB2" s="128"/>
+      <c r="HC2" s="128"/>
+      <c r="HD2" s="128"/>
+      <c r="HE2" s="128"/>
+      <c r="HF2" s="128"/>
+      <c r="HG2" s="128"/>
+      <c r="HH2" s="128"/>
+      <c r="HI2" s="128"/>
+      <c r="HJ2" s="128"/>
+      <c r="HK2" s="129"/>
+      <c r="HL2" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="HM2" s="122"/>
-      <c r="HN2" s="122"/>
-      <c r="HO2" s="122"/>
-      <c r="HP2" s="122"/>
-      <c r="HQ2" s="122"/>
-      <c r="HR2" s="122"/>
-      <c r="HS2" s="122"/>
-      <c r="HT2" s="122"/>
-      <c r="HU2" s="122"/>
-      <c r="HV2" s="122"/>
-      <c r="HW2" s="122"/>
-      <c r="HX2" s="122"/>
-      <c r="HY2" s="122"/>
-      <c r="HZ2" s="122"/>
-      <c r="IA2" s="122"/>
-      <c r="IB2" s="122"/>
-      <c r="IC2" s="122"/>
-      <c r="ID2" s="122"/>
-      <c r="IE2" s="122"/>
-      <c r="IF2" s="122"/>
-      <c r="IG2" s="122"/>
-      <c r="IH2" s="122"/>
-      <c r="II2" s="122"/>
-      <c r="IJ2" s="122"/>
-      <c r="IK2" s="122"/>
-      <c r="IL2" s="123"/>
-      <c r="IM2" s="121" t="s">
+      <c r="HM2" s="128"/>
+      <c r="HN2" s="128"/>
+      <c r="HO2" s="128"/>
+      <c r="HP2" s="128"/>
+      <c r="HQ2" s="128"/>
+      <c r="HR2" s="128"/>
+      <c r="HS2" s="128"/>
+      <c r="HT2" s="128"/>
+      <c r="HU2" s="128"/>
+      <c r="HV2" s="128"/>
+      <c r="HW2" s="128"/>
+      <c r="HX2" s="128"/>
+      <c r="HY2" s="128"/>
+      <c r="HZ2" s="128"/>
+      <c r="IA2" s="128"/>
+      <c r="IB2" s="128"/>
+      <c r="IC2" s="128"/>
+      <c r="ID2" s="128"/>
+      <c r="IE2" s="128"/>
+      <c r="IF2" s="128"/>
+      <c r="IG2" s="128"/>
+      <c r="IH2" s="128"/>
+      <c r="II2" s="128"/>
+      <c r="IJ2" s="128"/>
+      <c r="IK2" s="128"/>
+      <c r="IL2" s="129"/>
+      <c r="IM2" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="IN2" s="122"/>
-      <c r="IO2" s="122"/>
-      <c r="IP2" s="122"/>
-      <c r="IQ2" s="122"/>
-      <c r="IR2" s="122"/>
-      <c r="IS2" s="122"/>
-      <c r="IT2" s="122"/>
-      <c r="IU2" s="122"/>
-      <c r="IV2" s="122"/>
-      <c r="IW2" s="122"/>
-      <c r="IX2" s="122"/>
-      <c r="IY2" s="122"/>
-      <c r="IZ2" s="122"/>
-      <c r="JA2" s="122"/>
-      <c r="JB2" s="122"/>
-      <c r="JC2" s="122"/>
-      <c r="JD2" s="122"/>
-      <c r="JE2" s="122"/>
-      <c r="JF2" s="122"/>
-      <c r="JG2" s="122"/>
-      <c r="JH2" s="122"/>
-      <c r="JI2" s="122"/>
-      <c r="JJ2" s="122"/>
-      <c r="JK2" s="122"/>
-      <c r="JL2" s="122"/>
-      <c r="JM2" s="123"/>
-      <c r="JN2" s="121" t="s">
+      <c r="IN2" s="128"/>
+      <c r="IO2" s="128"/>
+      <c r="IP2" s="128"/>
+      <c r="IQ2" s="128"/>
+      <c r="IR2" s="128"/>
+      <c r="IS2" s="128"/>
+      <c r="IT2" s="128"/>
+      <c r="IU2" s="128"/>
+      <c r="IV2" s="128"/>
+      <c r="IW2" s="128"/>
+      <c r="IX2" s="128"/>
+      <c r="IY2" s="128"/>
+      <c r="IZ2" s="128"/>
+      <c r="JA2" s="128"/>
+      <c r="JB2" s="128"/>
+      <c r="JC2" s="128"/>
+      <c r="JD2" s="128"/>
+      <c r="JE2" s="128"/>
+      <c r="JF2" s="128"/>
+      <c r="JG2" s="128"/>
+      <c r="JH2" s="128"/>
+      <c r="JI2" s="128"/>
+      <c r="JJ2" s="128"/>
+      <c r="JK2" s="128"/>
+      <c r="JL2" s="128"/>
+      <c r="JM2" s="129"/>
+      <c r="JN2" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="JO2" s="122"/>
-      <c r="JP2" s="122"/>
-      <c r="JQ2" s="122"/>
-      <c r="JR2" s="122"/>
-      <c r="JS2" s="122"/>
-      <c r="JT2" s="122"/>
-      <c r="JU2" s="122"/>
-      <c r="JV2" s="122"/>
-      <c r="JW2" s="122"/>
-      <c r="JX2" s="122"/>
-      <c r="JY2" s="122"/>
-      <c r="JZ2" s="122"/>
-      <c r="KA2" s="122"/>
-      <c r="KB2" s="122"/>
-      <c r="KC2" s="122"/>
-      <c r="KD2" s="122"/>
-      <c r="KE2" s="122"/>
-      <c r="KF2" s="122"/>
-      <c r="KG2" s="122"/>
-      <c r="KH2" s="122"/>
-      <c r="KI2" s="122"/>
-      <c r="KJ2" s="122"/>
-      <c r="KK2" s="122"/>
-      <c r="KL2" s="122"/>
-      <c r="KM2" s="122"/>
-      <c r="KN2" s="123"/>
-      <c r="KO2" s="121" t="s">
+      <c r="JO2" s="128"/>
+      <c r="JP2" s="128"/>
+      <c r="JQ2" s="128"/>
+      <c r="JR2" s="128"/>
+      <c r="JS2" s="128"/>
+      <c r="JT2" s="128"/>
+      <c r="JU2" s="128"/>
+      <c r="JV2" s="128"/>
+      <c r="JW2" s="128"/>
+      <c r="JX2" s="128"/>
+      <c r="JY2" s="128"/>
+      <c r="JZ2" s="128"/>
+      <c r="KA2" s="128"/>
+      <c r="KB2" s="128"/>
+      <c r="KC2" s="128"/>
+      <c r="KD2" s="128"/>
+      <c r="KE2" s="128"/>
+      <c r="KF2" s="128"/>
+      <c r="KG2" s="128"/>
+      <c r="KH2" s="128"/>
+      <c r="KI2" s="128"/>
+      <c r="KJ2" s="128"/>
+      <c r="KK2" s="128"/>
+      <c r="KL2" s="128"/>
+      <c r="KM2" s="128"/>
+      <c r="KN2" s="129"/>
+      <c r="KO2" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="KP2" s="122"/>
-      <c r="KQ2" s="122"/>
-      <c r="KR2" s="122"/>
-      <c r="KS2" s="122"/>
-      <c r="KT2" s="122"/>
-      <c r="KU2" s="122"/>
-      <c r="KV2" s="122"/>
-      <c r="KW2" s="122"/>
-      <c r="KX2" s="122"/>
-      <c r="KY2" s="122"/>
-      <c r="KZ2" s="122"/>
-      <c r="LA2" s="122"/>
-      <c r="LB2" s="122"/>
-      <c r="LC2" s="122"/>
-      <c r="LD2" s="122"/>
-      <c r="LE2" s="122"/>
-      <c r="LF2" s="122"/>
-      <c r="LG2" s="122"/>
-      <c r="LH2" s="122"/>
-      <c r="LI2" s="122"/>
-      <c r="LJ2" s="122"/>
-      <c r="LK2" s="122"/>
-      <c r="LL2" s="122"/>
-      <c r="LM2" s="122"/>
-      <c r="LN2" s="122"/>
-      <c r="LO2" s="123"/>
-      <c r="LP2" s="121" t="s">
+      <c r="KP2" s="128"/>
+      <c r="KQ2" s="128"/>
+      <c r="KR2" s="128"/>
+      <c r="KS2" s="128"/>
+      <c r="KT2" s="128"/>
+      <c r="KU2" s="128"/>
+      <c r="KV2" s="128"/>
+      <c r="KW2" s="128"/>
+      <c r="KX2" s="128"/>
+      <c r="KY2" s="128"/>
+      <c r="KZ2" s="128"/>
+      <c r="LA2" s="128"/>
+      <c r="LB2" s="128"/>
+      <c r="LC2" s="128"/>
+      <c r="LD2" s="128"/>
+      <c r="LE2" s="128"/>
+      <c r="LF2" s="128"/>
+      <c r="LG2" s="128"/>
+      <c r="LH2" s="128"/>
+      <c r="LI2" s="128"/>
+      <c r="LJ2" s="128"/>
+      <c r="LK2" s="128"/>
+      <c r="LL2" s="128"/>
+      <c r="LM2" s="128"/>
+      <c r="LN2" s="128"/>
+      <c r="LO2" s="129"/>
+      <c r="LP2" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="LQ2" s="122"/>
-      <c r="LR2" s="122"/>
-      <c r="LS2" s="122"/>
-      <c r="LT2" s="122"/>
-      <c r="LU2" s="122"/>
-      <c r="LV2" s="122"/>
-      <c r="LW2" s="122"/>
-      <c r="LX2" s="122"/>
-      <c r="LY2" s="122"/>
-      <c r="LZ2" s="122"/>
-      <c r="MA2" s="122"/>
-      <c r="MB2" s="122"/>
-      <c r="MC2" s="122"/>
-      <c r="MD2" s="122"/>
-      <c r="ME2" s="122"/>
-      <c r="MF2" s="122"/>
-      <c r="MG2" s="122"/>
-      <c r="MH2" s="122"/>
-      <c r="MI2" s="122"/>
-      <c r="MJ2" s="122"/>
-      <c r="MK2" s="122"/>
-      <c r="ML2" s="122"/>
-      <c r="MM2" s="122"/>
-      <c r="MN2" s="122"/>
-      <c r="MO2" s="122"/>
-      <c r="MP2" s="123"/>
-      <c r="MQ2" s="121" t="s">
+      <c r="LQ2" s="128"/>
+      <c r="LR2" s="128"/>
+      <c r="LS2" s="128"/>
+      <c r="LT2" s="128"/>
+      <c r="LU2" s="128"/>
+      <c r="LV2" s="128"/>
+      <c r="LW2" s="128"/>
+      <c r="LX2" s="128"/>
+      <c r="LY2" s="128"/>
+      <c r="LZ2" s="128"/>
+      <c r="MA2" s="128"/>
+      <c r="MB2" s="128"/>
+      <c r="MC2" s="128"/>
+      <c r="MD2" s="128"/>
+      <c r="ME2" s="128"/>
+      <c r="MF2" s="128"/>
+      <c r="MG2" s="128"/>
+      <c r="MH2" s="128"/>
+      <c r="MI2" s="128"/>
+      <c r="MJ2" s="128"/>
+      <c r="MK2" s="128"/>
+      <c r="ML2" s="128"/>
+      <c r="MM2" s="128"/>
+      <c r="MN2" s="128"/>
+      <c r="MO2" s="128"/>
+      <c r="MP2" s="129"/>
+      <c r="MQ2" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="MR2" s="122"/>
-      <c r="MS2" s="122"/>
-      <c r="MT2" s="122"/>
-      <c r="MU2" s="122"/>
-      <c r="MV2" s="122"/>
-      <c r="MW2" s="122"/>
-      <c r="MX2" s="122"/>
-      <c r="MY2" s="122"/>
-      <c r="MZ2" s="122"/>
-      <c r="NA2" s="122"/>
-      <c r="NB2" s="122"/>
-      <c r="NC2" s="122"/>
-      <c r="ND2" s="122"/>
-      <c r="NE2" s="122"/>
-      <c r="NF2" s="122"/>
-      <c r="NG2" s="122"/>
-      <c r="NH2" s="122"/>
-      <c r="NI2" s="122"/>
-      <c r="NJ2" s="122"/>
-      <c r="NK2" s="122"/>
-      <c r="NL2" s="122"/>
-      <c r="NM2" s="122"/>
-      <c r="NN2" s="122"/>
-      <c r="NO2" s="122"/>
-      <c r="NP2" s="122"/>
-      <c r="NQ2" s="123"/>
-      <c r="NR2" s="121" t="s">
+      <c r="MR2" s="128"/>
+      <c r="MS2" s="128"/>
+      <c r="MT2" s="128"/>
+      <c r="MU2" s="128"/>
+      <c r="MV2" s="128"/>
+      <c r="MW2" s="128"/>
+      <c r="MX2" s="128"/>
+      <c r="MY2" s="128"/>
+      <c r="MZ2" s="128"/>
+      <c r="NA2" s="128"/>
+      <c r="NB2" s="128"/>
+      <c r="NC2" s="128"/>
+      <c r="ND2" s="128"/>
+      <c r="NE2" s="128"/>
+      <c r="NF2" s="128"/>
+      <c r="NG2" s="128"/>
+      <c r="NH2" s="128"/>
+      <c r="NI2" s="128"/>
+      <c r="NJ2" s="128"/>
+      <c r="NK2" s="128"/>
+      <c r="NL2" s="128"/>
+      <c r="NM2" s="128"/>
+      <c r="NN2" s="128"/>
+      <c r="NO2" s="128"/>
+      <c r="NP2" s="128"/>
+      <c r="NQ2" s="129"/>
+      <c r="NR2" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="NS2" s="122"/>
-      <c r="NT2" s="122"/>
-      <c r="NU2" s="122"/>
-      <c r="NV2" s="122"/>
-      <c r="NW2" s="122"/>
-      <c r="NX2" s="122"/>
-      <c r="NY2" s="122"/>
-      <c r="NZ2" s="122"/>
-      <c r="OA2" s="122"/>
-      <c r="OB2" s="122"/>
-      <c r="OC2" s="122"/>
-      <c r="OD2" s="122"/>
-      <c r="OE2" s="122"/>
-      <c r="OF2" s="122"/>
-      <c r="OG2" s="122"/>
-      <c r="OH2" s="122"/>
-      <c r="OI2" s="122"/>
-      <c r="OJ2" s="122"/>
-      <c r="OK2" s="122"/>
-      <c r="OL2" s="122"/>
-      <c r="OM2" s="122"/>
-      <c r="ON2" s="122"/>
-      <c r="OO2" s="122"/>
-      <c r="OP2" s="122"/>
-      <c r="OQ2" s="122"/>
-      <c r="OR2" s="123"/>
-      <c r="OS2" s="121" t="s">
+      <c r="NS2" s="128"/>
+      <c r="NT2" s="128"/>
+      <c r="NU2" s="128"/>
+      <c r="NV2" s="128"/>
+      <c r="NW2" s="128"/>
+      <c r="NX2" s="128"/>
+      <c r="NY2" s="128"/>
+      <c r="NZ2" s="128"/>
+      <c r="OA2" s="128"/>
+      <c r="OB2" s="128"/>
+      <c r="OC2" s="128"/>
+      <c r="OD2" s="128"/>
+      <c r="OE2" s="128"/>
+      <c r="OF2" s="128"/>
+      <c r="OG2" s="128"/>
+      <c r="OH2" s="128"/>
+      <c r="OI2" s="128"/>
+      <c r="OJ2" s="128"/>
+      <c r="OK2" s="128"/>
+      <c r="OL2" s="128"/>
+      <c r="OM2" s="128"/>
+      <c r="ON2" s="128"/>
+      <c r="OO2" s="128"/>
+      <c r="OP2" s="128"/>
+      <c r="OQ2" s="128"/>
+      <c r="OR2" s="129"/>
+      <c r="OS2" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="OT2" s="122"/>
-      <c r="OU2" s="122"/>
-      <c r="OV2" s="122"/>
-      <c r="OW2" s="122"/>
-      <c r="OX2" s="122"/>
-      <c r="OY2" s="122"/>
-      <c r="OZ2" s="122"/>
-      <c r="PA2" s="122"/>
-      <c r="PB2" s="122"/>
-      <c r="PC2" s="122"/>
-      <c r="PD2" s="122"/>
-      <c r="PE2" s="122"/>
-      <c r="PF2" s="122"/>
-      <c r="PG2" s="122"/>
-      <c r="PH2" s="122"/>
-      <c r="PI2" s="122"/>
-      <c r="PJ2" s="122"/>
-      <c r="PK2" s="122"/>
-      <c r="PL2" s="122"/>
-      <c r="PM2" s="122"/>
-      <c r="PN2" s="122"/>
-      <c r="PO2" s="122"/>
-      <c r="PP2" s="122"/>
-      <c r="PQ2" s="122"/>
-      <c r="PR2" s="122"/>
-      <c r="PS2" s="123"/>
+      <c r="OT2" s="128"/>
+      <c r="OU2" s="128"/>
+      <c r="OV2" s="128"/>
+      <c r="OW2" s="128"/>
+      <c r="OX2" s="128"/>
+      <c r="OY2" s="128"/>
+      <c r="OZ2" s="128"/>
+      <c r="PA2" s="128"/>
+      <c r="PB2" s="128"/>
+      <c r="PC2" s="128"/>
+      <c r="PD2" s="128"/>
+      <c r="PE2" s="128"/>
+      <c r="PF2" s="128"/>
+      <c r="PG2" s="128"/>
+      <c r="PH2" s="128"/>
+      <c r="PI2" s="128"/>
+      <c r="PJ2" s="128"/>
+      <c r="PK2" s="128"/>
+      <c r="PL2" s="128"/>
+      <c r="PM2" s="128"/>
+      <c r="PN2" s="128"/>
+      <c r="PO2" s="128"/>
+      <c r="PP2" s="128"/>
+      <c r="PQ2" s="128"/>
+      <c r="PR2" s="128"/>
+      <c r="PS2" s="129"/>
     </row>
     <row r="3" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="85"/>
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="132" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="30">
@@ -4479,7 +4494,7 @@
     </row>
     <row r="4" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="85"/>
-      <c r="B4" s="127"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="44">
         <v>0</v>
       </c>
@@ -4917,7 +4932,7 @@
       <c r="PS4" s="95"/>
     </row>
     <row r="5" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="128" t="str">
+      <c r="B5" s="134" t="str">
         <f>Donnees!$C$21</f>
         <v>Rédaction CDC</v>
       </c>
@@ -5358,7 +5373,7 @@
       <c r="PS5" s="90"/>
     </row>
     <row r="6" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="125"/>
+      <c r="B6" s="131"/>
       <c r="C6" s="97">
         <v>0</v>
       </c>
@@ -5796,7 +5811,7 @@
       <c r="PS6" s="95"/>
     </row>
     <row r="7" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="124" t="str">
+      <c r="B7" s="130" t="str">
         <f>Donnees!$C$22</f>
         <v>Mise en place Trello</v>
       </c>
@@ -6237,7 +6252,7 @@
       <c r="PS7" s="90"/>
     </row>
     <row r="8" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="125"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="97">
         <v>0</v>
       </c>
@@ -6675,7 +6690,7 @@
       <c r="PS8" s="95"/>
     </row>
     <row r="9" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="124" t="str">
+      <c r="B9" s="130" t="str">
         <f>Donnees!$C$23</f>
         <v>Mise en place GitKraken</v>
       </c>
@@ -7116,7 +7131,7 @@
       <c r="PS9" s="90"/>
     </row>
     <row r="10" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="125"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="97">
         <v>0</v>
       </c>
@@ -7554,7 +7569,7 @@
       <c r="PS10" s="95"/>
     </row>
     <row r="11" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="124" t="str">
+      <c r="B11" s="130" t="str">
         <f>Donnees!$C$24</f>
         <v>Mise à jour Trello</v>
       </c>
@@ -7995,7 +8010,7 @@
       <c r="PS11" s="90"/>
     </row>
     <row r="12" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="125"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="97">
         <v>0</v>
       </c>
@@ -8433,7 +8448,7 @@
       <c r="PS12" s="95"/>
     </row>
     <row r="13" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="124" t="str">
+      <c r="B13" s="130" t="str">
         <f>Donnees!$C$25</f>
         <v>Mise à jour GitKraken</v>
       </c>
@@ -8874,7 +8889,7 @@
       <c r="PS13" s="90"/>
     </row>
     <row r="14" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="125"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="97">
         <v>0</v>
       </c>
@@ -9312,7 +9327,7 @@
       <c r="PS14" s="95"/>
     </row>
     <row r="15" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="124" t="str">
+      <c r="B15" s="130" t="str">
         <f>Donnees!$C$26</f>
         <v>Recherches</v>
       </c>
@@ -9754,7 +9769,7 @@
     </row>
     <row r="16" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="104"/>
-      <c r="B16" s="125"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="97">
         <v>0</v>
       </c>
@@ -10192,7 +10207,7 @@
       <c r="PS16" s="95"/>
     </row>
     <row r="17" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="124" t="str">
+      <c r="B17" s="130" t="str">
         <f>Donnees!$C$27</f>
         <v>Création plannif + JDT</v>
       </c>
@@ -10633,7 +10648,7 @@
       <c r="PS17" s="90"/>
     </row>
     <row r="18" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="125"/>
+      <c r="B18" s="131"/>
       <c r="C18" s="97">
         <v>0</v>
       </c>
@@ -11071,7 +11086,7 @@
       <c r="PS18" s="95"/>
     </row>
     <row r="19" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="124" t="str">
+      <c r="B19" s="130" t="str">
         <f>Donnees!$C$28</f>
         <v>Mise à jour du JDT</v>
       </c>
@@ -11512,7 +11527,7 @@
       <c r="PS19" s="90"/>
     </row>
     <row r="20" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="125"/>
+      <c r="B20" s="131"/>
       <c r="C20" s="97">
         <v>0</v>
       </c>
@@ -11950,7 +11965,7 @@
       <c r="PS20" s="95"/>
     </row>
     <row r="21" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="124" t="str">
+      <c r="B21" s="130" t="str">
         <f>Donnees!$C$29</f>
         <v>Daily Scrum</v>
       </c>
@@ -12391,7 +12406,7 @@
       <c r="PS21" s="90"/>
     </row>
     <row r="22" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="125"/>
+      <c r="B22" s="131"/>
       <c r="C22" s="97">
         <v>0</v>
       </c>
@@ -12829,7 +12844,7 @@
       <c r="PS22" s="95"/>
     </row>
     <row r="23" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="124" t="str">
+      <c r="B23" s="130" t="str">
         <f>Donnees!$C$30</f>
         <v>HTML</v>
       </c>
@@ -13270,7 +13285,7 @@
       <c r="PS23" s="90"/>
     </row>
     <row r="24" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="125"/>
+      <c r="B24" s="131"/>
       <c r="C24" s="97">
         <v>0</v>
       </c>
@@ -13708,7 +13723,7 @@
       <c r="PS24" s="95"/>
     </row>
     <row r="25" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="124" t="str">
+      <c r="B25" s="130" t="str">
         <f>Donnees!$C$31</f>
         <v>Base de donnée</v>
       </c>
@@ -14149,7 +14164,7 @@
       <c r="PS25" s="90"/>
     </row>
     <row r="26" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="125"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="97">
         <v>0</v>
       </c>
@@ -14587,7 +14602,7 @@
       <c r="PS26" s="95"/>
     </row>
     <row r="27" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="124" t="str">
+      <c r="B27" s="130" t="str">
         <f>Donnees!$C$32</f>
         <v>PHP</v>
       </c>
@@ -15028,7 +15043,7 @@
       <c r="PS27" s="90"/>
     </row>
     <row r="28" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="125"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="97">
         <v>0</v>
       </c>
@@ -15466,7 +15481,7 @@
       <c r="PS28" s="95"/>
     </row>
     <row r="29" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="124" t="str">
+      <c r="B29" s="130" t="str">
         <f>Donnees!$C$33</f>
         <v>Typo3</v>
       </c>
@@ -15907,7 +15922,7 @@
       <c r="PS29" s="90"/>
     </row>
     <row r="30" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="125"/>
+      <c r="B30" s="131"/>
       <c r="C30" s="97">
         <v>0</v>
       </c>
@@ -16345,7 +16360,7 @@
       <c r="PS30" s="95"/>
     </row>
     <row r="31" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="124" t="str">
+      <c r="B31" s="130" t="str">
         <f>Donnees!$C$34</f>
         <v>Création jeu flash</v>
       </c>
@@ -16786,7 +16801,7 @@
       <c r="PS31" s="90"/>
     </row>
     <row r="32" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="125"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="97">
         <v>0</v>
       </c>
@@ -18188,7 +18203,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="132" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="30">
@@ -18197,7 +18212,7 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
-      <c r="B4" s="129"/>
+      <c r="B4" s="135"/>
       <c r="C4" s="44">
         <v>0</v>
       </c>
@@ -20807,8 +20822,8 @@
   </sheetPr>
   <dimension ref="A1:I298"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A157" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A175" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22588,21 +22603,21 @@
       <c r="D169" s="14"/>
     </row>
     <row r="170" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="133"/>
-      <c r="B170" s="134"/>
-      <c r="C170" s="135" t="s">
+      <c r="A170" s="122"/>
+      <c r="B170" s="123"/>
+      <c r="C170" s="124" t="s">
         <v>78</v>
       </c>
       <c r="D170" s="14"/>
     </row>
     <row r="171" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="130" t="s">
+      <c r="A171" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="B171" s="131">
+      <c r="B171" s="120">
         <v>2</v>
       </c>
-      <c r="C171" s="132" t="s">
+      <c r="C171" s="121" t="s">
         <v>131</v>
       </c>
       <c r="D171" s="108" t="s">
@@ -22733,39 +22748,71 @@
       </c>
     </row>
     <row r="186" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="9"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="13"/>
+      <c r="A186" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B186" s="8">
+        <v>1</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="D186" s="13"/>
     </row>
-    <row r="187" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A187" s="5"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="14"/>
+    <row r="187" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A187" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B187" s="6">
+        <v>13</v>
+      </c>
+      <c r="C187" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="D187" s="14"/>
     </row>
     <row r="188" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A188" s="5"/>
-      <c r="B188" s="6"/>
-      <c r="C188" s="14"/>
+      <c r="A188" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188" s="6">
+        <v>1</v>
+      </c>
+      <c r="C188" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="D188" s="14"/>
     </row>
     <row r="189" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="6"/>
-      <c r="C189" s="14"/>
+      <c r="C189" s="14" t="s">
+        <v>136</v>
+      </c>
       <c r="D189" s="14"/>
     </row>
-    <row r="190" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="5"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="14"/>
+    <row r="190" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A190" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B190" s="6">
+        <v>5</v>
+      </c>
+      <c r="C190" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="D190" s="14"/>
     </row>
     <row r="191" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A191" s="5"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="14"/>
+      <c r="A191" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B191" s="6">
+        <v>7</v>
+      </c>
+      <c r="C191" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="D191" s="14"/>
     </row>
     <row r="192" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
@@ -22828,7 +22875,7 @@
       </c>
       <c r="B201" s="76">
         <f>SUM(B186:B200)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C201" s="107" t="s">
         <v>45</v>
@@ -22989,7 +23036,7 @@
         <v>23</v>
       </c>
       <c r="D222" s="82">
-        <v>42968</v>
+        <v>42913</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">

--- a/doc/DemoMotJDT-pittierfa.xlsx
+++ b/doc/DemoMotJDT-pittierfa.xlsx
@@ -33,10 +33,10 @@
     <definedName name="objPlanifWeek" localSheetId="5">Planning!$A$1:$D$14</definedName>
     <definedName name="objPlanifWeek">PlanificationWeek!$A$1:$D$14</definedName>
     <definedName name="objRealizedWeek" localSheetId="6">achievementWeek!$A$1:$D$19</definedName>
-    <definedName name="objRealizedWeek" localSheetId="7">JNLTRAV!$A$1:$D$19</definedName>
+    <definedName name="objRealizedWeek" localSheetId="7">JNLTRAV!$A$1:$D$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Diagramme!$A$1:$PT$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Donnees!$A$1:$G$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">JNLTRAV!$A$1:$D$297</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">JNLTRAV!$A$1:$D$189</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Planning!$A$1:$D$224</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="145">
   <si>
     <t>Module :</t>
   </si>
@@ -477,13 +477,31 @@
     <t>change l'affichage par défaut des jeux publiés. Téléchargement du Jeux quand cliqué sur son nom, traduction en français</t>
   </si>
   <si>
-    <t>Pause midi</t>
-  </si>
-  <si>
     <t>ajoute bouton d'upload dans formulaire création d'un jeu, path du jeu (chemin du jeu) généré automatiquement mais il y a une erreur qui est cachée car logs désactivé sur easy php -&gt; télécharge et install xdebug mais pas de changements</t>
   </si>
   <si>
     <t>Apéro de section</t>
+  </si>
+  <si>
+    <t>Pause à 11h25</t>
+  </si>
+  <si>
+    <t>Récupère backup -&gt; Version du 15.06.17</t>
+  </si>
+  <si>
+    <t>Change l'affichage par défaut des jeux publiés. Téléchargement du Jeux quand clique sur son nom, traduction en français des labels/titres générés automatiquement par typo3</t>
+  </si>
+  <si>
+    <t>Présentation</t>
+  </si>
+  <si>
+    <t>Continue la présentation que jimmy a commencé ce matin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commit final du projet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tous les groupes présentent leur projet </t>
   </si>
 </sst>
 </file>
@@ -614,7 +632,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -696,6 +714,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1352,7 +1376,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1641,10 +1665,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1677,23 +1697,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1704,12 +1718,6 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1718,6 +1726,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2413,8 +2457,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2625,10 +2669,10 @@
     </row>
     <row r="19" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52"/>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="126"/>
+      <c r="C19" s="122"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
@@ -2915,7 +2959,9 @@
       <c r="B38" s="67">
         <v>18</v>
       </c>
-      <c r="C38" s="28"/>
+      <c r="C38" s="28" t="s">
+        <v>141</v>
+      </c>
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
@@ -3478,27 +3524,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId4" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId4" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId4" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId4" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3528,27 +3574,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId8" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId8" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId8" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId8" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3586,474 +3632,474 @@
       <c r="C2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="127" t="s">
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="128"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="128"/>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="128"/>
-      <c r="AO2" s="128"/>
-      <c r="AP2" s="128"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="128"/>
-      <c r="AS2" s="128"/>
-      <c r="AT2" s="128"/>
-      <c r="AU2" s="128"/>
-      <c r="AV2" s="128"/>
-      <c r="AW2" s="128"/>
-      <c r="AX2" s="128"/>
-      <c r="AY2" s="128"/>
-      <c r="AZ2" s="128"/>
-      <c r="BA2" s="128"/>
-      <c r="BB2" s="128"/>
-      <c r="BC2" s="128"/>
-      <c r="BD2" s="128"/>
-      <c r="BE2" s="129"/>
-      <c r="BF2" s="127" t="s">
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="126"/>
+      <c r="AL2" s="126"/>
+      <c r="AM2" s="126"/>
+      <c r="AN2" s="126"/>
+      <c r="AO2" s="126"/>
+      <c r="AP2" s="126"/>
+      <c r="AQ2" s="126"/>
+      <c r="AR2" s="126"/>
+      <c r="AS2" s="126"/>
+      <c r="AT2" s="126"/>
+      <c r="AU2" s="126"/>
+      <c r="AV2" s="126"/>
+      <c r="AW2" s="126"/>
+      <c r="AX2" s="126"/>
+      <c r="AY2" s="126"/>
+      <c r="AZ2" s="126"/>
+      <c r="BA2" s="126"/>
+      <c r="BB2" s="126"/>
+      <c r="BC2" s="126"/>
+      <c r="BD2" s="126"/>
+      <c r="BE2" s="127"/>
+      <c r="BF2" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="BG2" s="128"/>
-      <c r="BH2" s="128"/>
-      <c r="BI2" s="128"/>
-      <c r="BJ2" s="128"/>
-      <c r="BK2" s="128"/>
-      <c r="BL2" s="128"/>
-      <c r="BM2" s="128"/>
-      <c r="BN2" s="128"/>
-      <c r="BO2" s="128"/>
-      <c r="BP2" s="128"/>
-      <c r="BQ2" s="128"/>
-      <c r="BR2" s="128"/>
-      <c r="BS2" s="128"/>
-      <c r="BT2" s="128"/>
-      <c r="BU2" s="128"/>
-      <c r="BV2" s="128"/>
-      <c r="BW2" s="128"/>
-      <c r="BX2" s="128"/>
-      <c r="BY2" s="128"/>
-      <c r="BZ2" s="128"/>
-      <c r="CA2" s="128"/>
-      <c r="CB2" s="128"/>
-      <c r="CC2" s="128"/>
-      <c r="CD2" s="128"/>
-      <c r="CE2" s="128"/>
-      <c r="CF2" s="129"/>
-      <c r="CG2" s="127" t="s">
+      <c r="BG2" s="126"/>
+      <c r="BH2" s="126"/>
+      <c r="BI2" s="126"/>
+      <c r="BJ2" s="126"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="126"/>
+      <c r="BN2" s="126"/>
+      <c r="BO2" s="126"/>
+      <c r="BP2" s="126"/>
+      <c r="BQ2" s="126"/>
+      <c r="BR2" s="126"/>
+      <c r="BS2" s="126"/>
+      <c r="BT2" s="126"/>
+      <c r="BU2" s="126"/>
+      <c r="BV2" s="126"/>
+      <c r="BW2" s="126"/>
+      <c r="BX2" s="126"/>
+      <c r="BY2" s="126"/>
+      <c r="BZ2" s="126"/>
+      <c r="CA2" s="126"/>
+      <c r="CB2" s="126"/>
+      <c r="CC2" s="126"/>
+      <c r="CD2" s="126"/>
+      <c r="CE2" s="126"/>
+      <c r="CF2" s="127"/>
+      <c r="CG2" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="CH2" s="128"/>
-      <c r="CI2" s="128"/>
-      <c r="CJ2" s="128"/>
-      <c r="CK2" s="128"/>
-      <c r="CL2" s="128"/>
-      <c r="CM2" s="128"/>
-      <c r="CN2" s="128"/>
-      <c r="CO2" s="128"/>
-      <c r="CP2" s="128"/>
-      <c r="CQ2" s="128"/>
-      <c r="CR2" s="128"/>
-      <c r="CS2" s="128"/>
-      <c r="CT2" s="128"/>
-      <c r="CU2" s="128"/>
-      <c r="CV2" s="128"/>
-      <c r="CW2" s="128"/>
-      <c r="CX2" s="128"/>
-      <c r="CY2" s="128"/>
-      <c r="CZ2" s="128"/>
-      <c r="DA2" s="128"/>
-      <c r="DB2" s="128"/>
-      <c r="DC2" s="128"/>
-      <c r="DD2" s="128"/>
-      <c r="DE2" s="128"/>
-      <c r="DF2" s="128"/>
-      <c r="DG2" s="129"/>
-      <c r="DH2" s="127" t="s">
+      <c r="CH2" s="126"/>
+      <c r="CI2" s="126"/>
+      <c r="CJ2" s="126"/>
+      <c r="CK2" s="126"/>
+      <c r="CL2" s="126"/>
+      <c r="CM2" s="126"/>
+      <c r="CN2" s="126"/>
+      <c r="CO2" s="126"/>
+      <c r="CP2" s="126"/>
+      <c r="CQ2" s="126"/>
+      <c r="CR2" s="126"/>
+      <c r="CS2" s="126"/>
+      <c r="CT2" s="126"/>
+      <c r="CU2" s="126"/>
+      <c r="CV2" s="126"/>
+      <c r="CW2" s="126"/>
+      <c r="CX2" s="126"/>
+      <c r="CY2" s="126"/>
+      <c r="CZ2" s="126"/>
+      <c r="DA2" s="126"/>
+      <c r="DB2" s="126"/>
+      <c r="DC2" s="126"/>
+      <c r="DD2" s="126"/>
+      <c r="DE2" s="126"/>
+      <c r="DF2" s="126"/>
+      <c r="DG2" s="127"/>
+      <c r="DH2" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="DI2" s="128"/>
-      <c r="DJ2" s="128"/>
-      <c r="DK2" s="128"/>
-      <c r="DL2" s="128"/>
-      <c r="DM2" s="128"/>
-      <c r="DN2" s="128"/>
-      <c r="DO2" s="128"/>
-      <c r="DP2" s="128"/>
-      <c r="DQ2" s="128"/>
-      <c r="DR2" s="128"/>
-      <c r="DS2" s="128"/>
-      <c r="DT2" s="128"/>
-      <c r="DU2" s="128"/>
-      <c r="DV2" s="128"/>
-      <c r="DW2" s="128"/>
-      <c r="DX2" s="128"/>
-      <c r="DY2" s="128"/>
-      <c r="DZ2" s="128"/>
-      <c r="EA2" s="128"/>
-      <c r="EB2" s="128"/>
-      <c r="EC2" s="128"/>
-      <c r="ED2" s="128"/>
-      <c r="EE2" s="128"/>
-      <c r="EF2" s="128"/>
-      <c r="EG2" s="128"/>
-      <c r="EH2" s="129"/>
-      <c r="EI2" s="127" t="s">
+      <c r="DI2" s="126"/>
+      <c r="DJ2" s="126"/>
+      <c r="DK2" s="126"/>
+      <c r="DL2" s="126"/>
+      <c r="DM2" s="126"/>
+      <c r="DN2" s="126"/>
+      <c r="DO2" s="126"/>
+      <c r="DP2" s="126"/>
+      <c r="DQ2" s="126"/>
+      <c r="DR2" s="126"/>
+      <c r="DS2" s="126"/>
+      <c r="DT2" s="126"/>
+      <c r="DU2" s="126"/>
+      <c r="DV2" s="126"/>
+      <c r="DW2" s="126"/>
+      <c r="DX2" s="126"/>
+      <c r="DY2" s="126"/>
+      <c r="DZ2" s="126"/>
+      <c r="EA2" s="126"/>
+      <c r="EB2" s="126"/>
+      <c r="EC2" s="126"/>
+      <c r="ED2" s="126"/>
+      <c r="EE2" s="126"/>
+      <c r="EF2" s="126"/>
+      <c r="EG2" s="126"/>
+      <c r="EH2" s="127"/>
+      <c r="EI2" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="EJ2" s="128"/>
-      <c r="EK2" s="128"/>
-      <c r="EL2" s="128"/>
-      <c r="EM2" s="128"/>
-      <c r="EN2" s="128"/>
-      <c r="EO2" s="128"/>
-      <c r="EP2" s="128"/>
-      <c r="EQ2" s="128"/>
-      <c r="ER2" s="128"/>
-      <c r="ES2" s="128"/>
-      <c r="ET2" s="128"/>
-      <c r="EU2" s="128"/>
-      <c r="EV2" s="128"/>
-      <c r="EW2" s="128"/>
-      <c r="EX2" s="128"/>
-      <c r="EY2" s="128"/>
-      <c r="EZ2" s="128"/>
-      <c r="FA2" s="128"/>
-      <c r="FB2" s="128"/>
-      <c r="FC2" s="128"/>
-      <c r="FD2" s="128"/>
-      <c r="FE2" s="128"/>
-      <c r="FF2" s="128"/>
-      <c r="FG2" s="128"/>
-      <c r="FH2" s="128"/>
-      <c r="FI2" s="129"/>
-      <c r="FJ2" s="127" t="s">
+      <c r="EJ2" s="126"/>
+      <c r="EK2" s="126"/>
+      <c r="EL2" s="126"/>
+      <c r="EM2" s="126"/>
+      <c r="EN2" s="126"/>
+      <c r="EO2" s="126"/>
+      <c r="EP2" s="126"/>
+      <c r="EQ2" s="126"/>
+      <c r="ER2" s="126"/>
+      <c r="ES2" s="126"/>
+      <c r="ET2" s="126"/>
+      <c r="EU2" s="126"/>
+      <c r="EV2" s="126"/>
+      <c r="EW2" s="126"/>
+      <c r="EX2" s="126"/>
+      <c r="EY2" s="126"/>
+      <c r="EZ2" s="126"/>
+      <c r="FA2" s="126"/>
+      <c r="FB2" s="126"/>
+      <c r="FC2" s="126"/>
+      <c r="FD2" s="126"/>
+      <c r="FE2" s="126"/>
+      <c r="FF2" s="126"/>
+      <c r="FG2" s="126"/>
+      <c r="FH2" s="126"/>
+      <c r="FI2" s="127"/>
+      <c r="FJ2" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="FK2" s="128"/>
-      <c r="FL2" s="128"/>
-      <c r="FM2" s="128"/>
-      <c r="FN2" s="128"/>
-      <c r="FO2" s="128"/>
-      <c r="FP2" s="128"/>
-      <c r="FQ2" s="128"/>
-      <c r="FR2" s="128"/>
-      <c r="FS2" s="128"/>
-      <c r="FT2" s="128"/>
-      <c r="FU2" s="128"/>
-      <c r="FV2" s="128"/>
-      <c r="FW2" s="128"/>
-      <c r="FX2" s="128"/>
-      <c r="FY2" s="128"/>
-      <c r="FZ2" s="128"/>
-      <c r="GA2" s="128"/>
-      <c r="GB2" s="128"/>
-      <c r="GC2" s="128"/>
-      <c r="GD2" s="128"/>
-      <c r="GE2" s="128"/>
-      <c r="GF2" s="128"/>
-      <c r="GG2" s="128"/>
-      <c r="GH2" s="128"/>
-      <c r="GI2" s="128"/>
-      <c r="GJ2" s="129"/>
-      <c r="GK2" s="127" t="s">
+      <c r="FK2" s="126"/>
+      <c r="FL2" s="126"/>
+      <c r="FM2" s="126"/>
+      <c r="FN2" s="126"/>
+      <c r="FO2" s="126"/>
+      <c r="FP2" s="126"/>
+      <c r="FQ2" s="126"/>
+      <c r="FR2" s="126"/>
+      <c r="FS2" s="126"/>
+      <c r="FT2" s="126"/>
+      <c r="FU2" s="126"/>
+      <c r="FV2" s="126"/>
+      <c r="FW2" s="126"/>
+      <c r="FX2" s="126"/>
+      <c r="FY2" s="126"/>
+      <c r="FZ2" s="126"/>
+      <c r="GA2" s="126"/>
+      <c r="GB2" s="126"/>
+      <c r="GC2" s="126"/>
+      <c r="GD2" s="126"/>
+      <c r="GE2" s="126"/>
+      <c r="GF2" s="126"/>
+      <c r="GG2" s="126"/>
+      <c r="GH2" s="126"/>
+      <c r="GI2" s="126"/>
+      <c r="GJ2" s="127"/>
+      <c r="GK2" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="GL2" s="128"/>
-      <c r="GM2" s="128"/>
-      <c r="GN2" s="128"/>
-      <c r="GO2" s="128"/>
-      <c r="GP2" s="128"/>
-      <c r="GQ2" s="128"/>
-      <c r="GR2" s="128"/>
-      <c r="GS2" s="128"/>
-      <c r="GT2" s="128"/>
-      <c r="GU2" s="128"/>
-      <c r="GV2" s="128"/>
-      <c r="GW2" s="128"/>
-      <c r="GX2" s="128"/>
-      <c r="GY2" s="128"/>
-      <c r="GZ2" s="128"/>
-      <c r="HA2" s="128"/>
-      <c r="HB2" s="128"/>
-      <c r="HC2" s="128"/>
-      <c r="HD2" s="128"/>
-      <c r="HE2" s="128"/>
-      <c r="HF2" s="128"/>
-      <c r="HG2" s="128"/>
-      <c r="HH2" s="128"/>
-      <c r="HI2" s="128"/>
-      <c r="HJ2" s="128"/>
-      <c r="HK2" s="129"/>
-      <c r="HL2" s="127" t="s">
+      <c r="GL2" s="126"/>
+      <c r="GM2" s="126"/>
+      <c r="GN2" s="126"/>
+      <c r="GO2" s="126"/>
+      <c r="GP2" s="126"/>
+      <c r="GQ2" s="126"/>
+      <c r="GR2" s="126"/>
+      <c r="GS2" s="126"/>
+      <c r="GT2" s="126"/>
+      <c r="GU2" s="126"/>
+      <c r="GV2" s="126"/>
+      <c r="GW2" s="126"/>
+      <c r="GX2" s="126"/>
+      <c r="GY2" s="126"/>
+      <c r="GZ2" s="126"/>
+      <c r="HA2" s="126"/>
+      <c r="HB2" s="126"/>
+      <c r="HC2" s="126"/>
+      <c r="HD2" s="126"/>
+      <c r="HE2" s="126"/>
+      <c r="HF2" s="126"/>
+      <c r="HG2" s="126"/>
+      <c r="HH2" s="126"/>
+      <c r="HI2" s="126"/>
+      <c r="HJ2" s="126"/>
+      <c r="HK2" s="127"/>
+      <c r="HL2" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="HM2" s="128"/>
-      <c r="HN2" s="128"/>
-      <c r="HO2" s="128"/>
-      <c r="HP2" s="128"/>
-      <c r="HQ2" s="128"/>
-      <c r="HR2" s="128"/>
-      <c r="HS2" s="128"/>
-      <c r="HT2" s="128"/>
-      <c r="HU2" s="128"/>
-      <c r="HV2" s="128"/>
-      <c r="HW2" s="128"/>
-      <c r="HX2" s="128"/>
-      <c r="HY2" s="128"/>
-      <c r="HZ2" s="128"/>
-      <c r="IA2" s="128"/>
-      <c r="IB2" s="128"/>
-      <c r="IC2" s="128"/>
-      <c r="ID2" s="128"/>
-      <c r="IE2" s="128"/>
-      <c r="IF2" s="128"/>
-      <c r="IG2" s="128"/>
-      <c r="IH2" s="128"/>
-      <c r="II2" s="128"/>
-      <c r="IJ2" s="128"/>
-      <c r="IK2" s="128"/>
-      <c r="IL2" s="129"/>
-      <c r="IM2" s="127" t="s">
+      <c r="HM2" s="126"/>
+      <c r="HN2" s="126"/>
+      <c r="HO2" s="126"/>
+      <c r="HP2" s="126"/>
+      <c r="HQ2" s="126"/>
+      <c r="HR2" s="126"/>
+      <c r="HS2" s="126"/>
+      <c r="HT2" s="126"/>
+      <c r="HU2" s="126"/>
+      <c r="HV2" s="126"/>
+      <c r="HW2" s="126"/>
+      <c r="HX2" s="126"/>
+      <c r="HY2" s="126"/>
+      <c r="HZ2" s="126"/>
+      <c r="IA2" s="126"/>
+      <c r="IB2" s="126"/>
+      <c r="IC2" s="126"/>
+      <c r="ID2" s="126"/>
+      <c r="IE2" s="126"/>
+      <c r="IF2" s="126"/>
+      <c r="IG2" s="126"/>
+      <c r="IH2" s="126"/>
+      <c r="II2" s="126"/>
+      <c r="IJ2" s="126"/>
+      <c r="IK2" s="126"/>
+      <c r="IL2" s="127"/>
+      <c r="IM2" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="IN2" s="128"/>
-      <c r="IO2" s="128"/>
-      <c r="IP2" s="128"/>
-      <c r="IQ2" s="128"/>
-      <c r="IR2" s="128"/>
-      <c r="IS2" s="128"/>
-      <c r="IT2" s="128"/>
-      <c r="IU2" s="128"/>
-      <c r="IV2" s="128"/>
-      <c r="IW2" s="128"/>
-      <c r="IX2" s="128"/>
-      <c r="IY2" s="128"/>
-      <c r="IZ2" s="128"/>
-      <c r="JA2" s="128"/>
-      <c r="JB2" s="128"/>
-      <c r="JC2" s="128"/>
-      <c r="JD2" s="128"/>
-      <c r="JE2" s="128"/>
-      <c r="JF2" s="128"/>
-      <c r="JG2" s="128"/>
-      <c r="JH2" s="128"/>
-      <c r="JI2" s="128"/>
-      <c r="JJ2" s="128"/>
-      <c r="JK2" s="128"/>
-      <c r="JL2" s="128"/>
-      <c r="JM2" s="129"/>
-      <c r="JN2" s="127" t="s">
+      <c r="IN2" s="126"/>
+      <c r="IO2" s="126"/>
+      <c r="IP2" s="126"/>
+      <c r="IQ2" s="126"/>
+      <c r="IR2" s="126"/>
+      <c r="IS2" s="126"/>
+      <c r="IT2" s="126"/>
+      <c r="IU2" s="126"/>
+      <c r="IV2" s="126"/>
+      <c r="IW2" s="126"/>
+      <c r="IX2" s="126"/>
+      <c r="IY2" s="126"/>
+      <c r="IZ2" s="126"/>
+      <c r="JA2" s="126"/>
+      <c r="JB2" s="126"/>
+      <c r="JC2" s="126"/>
+      <c r="JD2" s="126"/>
+      <c r="JE2" s="126"/>
+      <c r="JF2" s="126"/>
+      <c r="JG2" s="126"/>
+      <c r="JH2" s="126"/>
+      <c r="JI2" s="126"/>
+      <c r="JJ2" s="126"/>
+      <c r="JK2" s="126"/>
+      <c r="JL2" s="126"/>
+      <c r="JM2" s="127"/>
+      <c r="JN2" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="JO2" s="128"/>
-      <c r="JP2" s="128"/>
-      <c r="JQ2" s="128"/>
-      <c r="JR2" s="128"/>
-      <c r="JS2" s="128"/>
-      <c r="JT2" s="128"/>
-      <c r="JU2" s="128"/>
-      <c r="JV2" s="128"/>
-      <c r="JW2" s="128"/>
-      <c r="JX2" s="128"/>
-      <c r="JY2" s="128"/>
-      <c r="JZ2" s="128"/>
-      <c r="KA2" s="128"/>
-      <c r="KB2" s="128"/>
-      <c r="KC2" s="128"/>
-      <c r="KD2" s="128"/>
-      <c r="KE2" s="128"/>
-      <c r="KF2" s="128"/>
-      <c r="KG2" s="128"/>
-      <c r="KH2" s="128"/>
-      <c r="KI2" s="128"/>
-      <c r="KJ2" s="128"/>
-      <c r="KK2" s="128"/>
-      <c r="KL2" s="128"/>
-      <c r="KM2" s="128"/>
-      <c r="KN2" s="129"/>
-      <c r="KO2" s="127" t="s">
+      <c r="JO2" s="126"/>
+      <c r="JP2" s="126"/>
+      <c r="JQ2" s="126"/>
+      <c r="JR2" s="126"/>
+      <c r="JS2" s="126"/>
+      <c r="JT2" s="126"/>
+      <c r="JU2" s="126"/>
+      <c r="JV2" s="126"/>
+      <c r="JW2" s="126"/>
+      <c r="JX2" s="126"/>
+      <c r="JY2" s="126"/>
+      <c r="JZ2" s="126"/>
+      <c r="KA2" s="126"/>
+      <c r="KB2" s="126"/>
+      <c r="KC2" s="126"/>
+      <c r="KD2" s="126"/>
+      <c r="KE2" s="126"/>
+      <c r="KF2" s="126"/>
+      <c r="KG2" s="126"/>
+      <c r="KH2" s="126"/>
+      <c r="KI2" s="126"/>
+      <c r="KJ2" s="126"/>
+      <c r="KK2" s="126"/>
+      <c r="KL2" s="126"/>
+      <c r="KM2" s="126"/>
+      <c r="KN2" s="127"/>
+      <c r="KO2" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="KP2" s="128"/>
-      <c r="KQ2" s="128"/>
-      <c r="KR2" s="128"/>
-      <c r="KS2" s="128"/>
-      <c r="KT2" s="128"/>
-      <c r="KU2" s="128"/>
-      <c r="KV2" s="128"/>
-      <c r="KW2" s="128"/>
-      <c r="KX2" s="128"/>
-      <c r="KY2" s="128"/>
-      <c r="KZ2" s="128"/>
-      <c r="LA2" s="128"/>
-      <c r="LB2" s="128"/>
-      <c r="LC2" s="128"/>
-      <c r="LD2" s="128"/>
-      <c r="LE2" s="128"/>
-      <c r="LF2" s="128"/>
-      <c r="LG2" s="128"/>
-      <c r="LH2" s="128"/>
-      <c r="LI2" s="128"/>
-      <c r="LJ2" s="128"/>
-      <c r="LK2" s="128"/>
-      <c r="LL2" s="128"/>
-      <c r="LM2" s="128"/>
-      <c r="LN2" s="128"/>
-      <c r="LO2" s="129"/>
-      <c r="LP2" s="127" t="s">
+      <c r="KP2" s="126"/>
+      <c r="KQ2" s="126"/>
+      <c r="KR2" s="126"/>
+      <c r="KS2" s="126"/>
+      <c r="KT2" s="126"/>
+      <c r="KU2" s="126"/>
+      <c r="KV2" s="126"/>
+      <c r="KW2" s="126"/>
+      <c r="KX2" s="126"/>
+      <c r="KY2" s="126"/>
+      <c r="KZ2" s="126"/>
+      <c r="LA2" s="126"/>
+      <c r="LB2" s="126"/>
+      <c r="LC2" s="126"/>
+      <c r="LD2" s="126"/>
+      <c r="LE2" s="126"/>
+      <c r="LF2" s="126"/>
+      <c r="LG2" s="126"/>
+      <c r="LH2" s="126"/>
+      <c r="LI2" s="126"/>
+      <c r="LJ2" s="126"/>
+      <c r="LK2" s="126"/>
+      <c r="LL2" s="126"/>
+      <c r="LM2" s="126"/>
+      <c r="LN2" s="126"/>
+      <c r="LO2" s="127"/>
+      <c r="LP2" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="LQ2" s="128"/>
-      <c r="LR2" s="128"/>
-      <c r="LS2" s="128"/>
-      <c r="LT2" s="128"/>
-      <c r="LU2" s="128"/>
-      <c r="LV2" s="128"/>
-      <c r="LW2" s="128"/>
-      <c r="LX2" s="128"/>
-      <c r="LY2" s="128"/>
-      <c r="LZ2" s="128"/>
-      <c r="MA2" s="128"/>
-      <c r="MB2" s="128"/>
-      <c r="MC2" s="128"/>
-      <c r="MD2" s="128"/>
-      <c r="ME2" s="128"/>
-      <c r="MF2" s="128"/>
-      <c r="MG2" s="128"/>
-      <c r="MH2" s="128"/>
-      <c r="MI2" s="128"/>
-      <c r="MJ2" s="128"/>
-      <c r="MK2" s="128"/>
-      <c r="ML2" s="128"/>
-      <c r="MM2" s="128"/>
-      <c r="MN2" s="128"/>
-      <c r="MO2" s="128"/>
-      <c r="MP2" s="129"/>
-      <c r="MQ2" s="127" t="s">
+      <c r="LQ2" s="126"/>
+      <c r="LR2" s="126"/>
+      <c r="LS2" s="126"/>
+      <c r="LT2" s="126"/>
+      <c r="LU2" s="126"/>
+      <c r="LV2" s="126"/>
+      <c r="LW2" s="126"/>
+      <c r="LX2" s="126"/>
+      <c r="LY2" s="126"/>
+      <c r="LZ2" s="126"/>
+      <c r="MA2" s="126"/>
+      <c r="MB2" s="126"/>
+      <c r="MC2" s="126"/>
+      <c r="MD2" s="126"/>
+      <c r="ME2" s="126"/>
+      <c r="MF2" s="126"/>
+      <c r="MG2" s="126"/>
+      <c r="MH2" s="126"/>
+      <c r="MI2" s="126"/>
+      <c r="MJ2" s="126"/>
+      <c r="MK2" s="126"/>
+      <c r="ML2" s="126"/>
+      <c r="MM2" s="126"/>
+      <c r="MN2" s="126"/>
+      <c r="MO2" s="126"/>
+      <c r="MP2" s="127"/>
+      <c r="MQ2" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="MR2" s="128"/>
-      <c r="MS2" s="128"/>
-      <c r="MT2" s="128"/>
-      <c r="MU2" s="128"/>
-      <c r="MV2" s="128"/>
-      <c r="MW2" s="128"/>
-      <c r="MX2" s="128"/>
-      <c r="MY2" s="128"/>
-      <c r="MZ2" s="128"/>
-      <c r="NA2" s="128"/>
-      <c r="NB2" s="128"/>
-      <c r="NC2" s="128"/>
-      <c r="ND2" s="128"/>
-      <c r="NE2" s="128"/>
-      <c r="NF2" s="128"/>
-      <c r="NG2" s="128"/>
-      <c r="NH2" s="128"/>
-      <c r="NI2" s="128"/>
-      <c r="NJ2" s="128"/>
-      <c r="NK2" s="128"/>
-      <c r="NL2" s="128"/>
-      <c r="NM2" s="128"/>
-      <c r="NN2" s="128"/>
-      <c r="NO2" s="128"/>
-      <c r="NP2" s="128"/>
-      <c r="NQ2" s="129"/>
-      <c r="NR2" s="127" t="s">
+      <c r="MR2" s="126"/>
+      <c r="MS2" s="126"/>
+      <c r="MT2" s="126"/>
+      <c r="MU2" s="126"/>
+      <c r="MV2" s="126"/>
+      <c r="MW2" s="126"/>
+      <c r="MX2" s="126"/>
+      <c r="MY2" s="126"/>
+      <c r="MZ2" s="126"/>
+      <c r="NA2" s="126"/>
+      <c r="NB2" s="126"/>
+      <c r="NC2" s="126"/>
+      <c r="ND2" s="126"/>
+      <c r="NE2" s="126"/>
+      <c r="NF2" s="126"/>
+      <c r="NG2" s="126"/>
+      <c r="NH2" s="126"/>
+      <c r="NI2" s="126"/>
+      <c r="NJ2" s="126"/>
+      <c r="NK2" s="126"/>
+      <c r="NL2" s="126"/>
+      <c r="NM2" s="126"/>
+      <c r="NN2" s="126"/>
+      <c r="NO2" s="126"/>
+      <c r="NP2" s="126"/>
+      <c r="NQ2" s="127"/>
+      <c r="NR2" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="NS2" s="128"/>
-      <c r="NT2" s="128"/>
-      <c r="NU2" s="128"/>
-      <c r="NV2" s="128"/>
-      <c r="NW2" s="128"/>
-      <c r="NX2" s="128"/>
-      <c r="NY2" s="128"/>
-      <c r="NZ2" s="128"/>
-      <c r="OA2" s="128"/>
-      <c r="OB2" s="128"/>
-      <c r="OC2" s="128"/>
-      <c r="OD2" s="128"/>
-      <c r="OE2" s="128"/>
-      <c r="OF2" s="128"/>
-      <c r="OG2" s="128"/>
-      <c r="OH2" s="128"/>
-      <c r="OI2" s="128"/>
-      <c r="OJ2" s="128"/>
-      <c r="OK2" s="128"/>
-      <c r="OL2" s="128"/>
-      <c r="OM2" s="128"/>
-      <c r="ON2" s="128"/>
-      <c r="OO2" s="128"/>
-      <c r="OP2" s="128"/>
-      <c r="OQ2" s="128"/>
-      <c r="OR2" s="129"/>
-      <c r="OS2" s="127" t="s">
+      <c r="NS2" s="126"/>
+      <c r="NT2" s="126"/>
+      <c r="NU2" s="126"/>
+      <c r="NV2" s="126"/>
+      <c r="NW2" s="126"/>
+      <c r="NX2" s="126"/>
+      <c r="NY2" s="126"/>
+      <c r="NZ2" s="126"/>
+      <c r="OA2" s="126"/>
+      <c r="OB2" s="126"/>
+      <c r="OC2" s="126"/>
+      <c r="OD2" s="126"/>
+      <c r="OE2" s="126"/>
+      <c r="OF2" s="126"/>
+      <c r="OG2" s="126"/>
+      <c r="OH2" s="126"/>
+      <c r="OI2" s="126"/>
+      <c r="OJ2" s="126"/>
+      <c r="OK2" s="126"/>
+      <c r="OL2" s="126"/>
+      <c r="OM2" s="126"/>
+      <c r="ON2" s="126"/>
+      <c r="OO2" s="126"/>
+      <c r="OP2" s="126"/>
+      <c r="OQ2" s="126"/>
+      <c r="OR2" s="127"/>
+      <c r="OS2" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="OT2" s="128"/>
-      <c r="OU2" s="128"/>
-      <c r="OV2" s="128"/>
-      <c r="OW2" s="128"/>
-      <c r="OX2" s="128"/>
-      <c r="OY2" s="128"/>
-      <c r="OZ2" s="128"/>
-      <c r="PA2" s="128"/>
-      <c r="PB2" s="128"/>
-      <c r="PC2" s="128"/>
-      <c r="PD2" s="128"/>
-      <c r="PE2" s="128"/>
-      <c r="PF2" s="128"/>
-      <c r="PG2" s="128"/>
-      <c r="PH2" s="128"/>
-      <c r="PI2" s="128"/>
-      <c r="PJ2" s="128"/>
-      <c r="PK2" s="128"/>
-      <c r="PL2" s="128"/>
-      <c r="PM2" s="128"/>
-      <c r="PN2" s="128"/>
-      <c r="PO2" s="128"/>
-      <c r="PP2" s="128"/>
-      <c r="PQ2" s="128"/>
-      <c r="PR2" s="128"/>
-      <c r="PS2" s="129"/>
+      <c r="OT2" s="126"/>
+      <c r="OU2" s="126"/>
+      <c r="OV2" s="126"/>
+      <c r="OW2" s="126"/>
+      <c r="OX2" s="126"/>
+      <c r="OY2" s="126"/>
+      <c r="OZ2" s="126"/>
+      <c r="PA2" s="126"/>
+      <c r="PB2" s="126"/>
+      <c r="PC2" s="126"/>
+      <c r="PD2" s="126"/>
+      <c r="PE2" s="126"/>
+      <c r="PF2" s="126"/>
+      <c r="PG2" s="126"/>
+      <c r="PH2" s="126"/>
+      <c r="PI2" s="126"/>
+      <c r="PJ2" s="126"/>
+      <c r="PK2" s="126"/>
+      <c r="PL2" s="126"/>
+      <c r="PM2" s="126"/>
+      <c r="PN2" s="126"/>
+      <c r="PO2" s="126"/>
+      <c r="PP2" s="126"/>
+      <c r="PQ2" s="126"/>
+      <c r="PR2" s="126"/>
+      <c r="PS2" s="127"/>
     </row>
     <row r="3" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="85"/>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="128" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="30">
@@ -4494,7 +4540,7 @@
     </row>
     <row r="4" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="85"/>
-      <c r="B4" s="133"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="44">
         <v>0</v>
       </c>
@@ -4932,7 +4978,7 @@
       <c r="PS4" s="95"/>
     </row>
     <row r="5" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="134" t="str">
+      <c r="B5" s="130" t="str">
         <f>Donnees!$C$21</f>
         <v>Rédaction CDC</v>
       </c>
@@ -5373,7 +5419,7 @@
       <c r="PS5" s="90"/>
     </row>
     <row r="6" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="131"/>
+      <c r="B6" s="124"/>
       <c r="C6" s="97">
         <v>0</v>
       </c>
@@ -5811,7 +5857,7 @@
       <c r="PS6" s="95"/>
     </row>
     <row r="7" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="130" t="str">
+      <c r="B7" s="123" t="str">
         <f>Donnees!$C$22</f>
         <v>Mise en place Trello</v>
       </c>
@@ -6252,7 +6298,7 @@
       <c r="PS7" s="90"/>
     </row>
     <row r="8" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="131"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="97">
         <v>0</v>
       </c>
@@ -6690,7 +6736,7 @@
       <c r="PS8" s="95"/>
     </row>
     <row r="9" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="130" t="str">
+      <c r="B9" s="123" t="str">
         <f>Donnees!$C$23</f>
         <v>Mise en place GitKraken</v>
       </c>
@@ -7131,7 +7177,7 @@
       <c r="PS9" s="90"/>
     </row>
     <row r="10" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="131"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="97">
         <v>0</v>
       </c>
@@ -7569,7 +7615,7 @@
       <c r="PS10" s="95"/>
     </row>
     <row r="11" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="130" t="str">
+      <c r="B11" s="123" t="str">
         <f>Donnees!$C$24</f>
         <v>Mise à jour Trello</v>
       </c>
@@ -8010,7 +8056,7 @@
       <c r="PS11" s="90"/>
     </row>
     <row r="12" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="131"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="97">
         <v>0</v>
       </c>
@@ -8448,7 +8494,7 @@
       <c r="PS12" s="95"/>
     </row>
     <row r="13" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="130" t="str">
+      <c r="B13" s="123" t="str">
         <f>Donnees!$C$25</f>
         <v>Mise à jour GitKraken</v>
       </c>
@@ -8889,7 +8935,7 @@
       <c r="PS13" s="90"/>
     </row>
     <row r="14" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="131"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="97">
         <v>0</v>
       </c>
@@ -9327,7 +9373,7 @@
       <c r="PS14" s="95"/>
     </row>
     <row r="15" spans="1:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="130" t="str">
+      <c r="B15" s="123" t="str">
         <f>Donnees!$C$26</f>
         <v>Recherches</v>
       </c>
@@ -9769,7 +9815,7 @@
     </row>
     <row r="16" spans="1:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="104"/>
-      <c r="B16" s="131"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="97">
         <v>0</v>
       </c>
@@ -10207,7 +10253,7 @@
       <c r="PS16" s="95"/>
     </row>
     <row r="17" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="130" t="str">
+      <c r="B17" s="123" t="str">
         <f>Donnees!$C$27</f>
         <v>Création plannif + JDT</v>
       </c>
@@ -10648,7 +10694,7 @@
       <c r="PS17" s="90"/>
     </row>
     <row r="18" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="131"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="97">
         <v>0</v>
       </c>
@@ -11086,7 +11132,7 @@
       <c r="PS18" s="95"/>
     </row>
     <row r="19" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="130" t="str">
+      <c r="B19" s="123" t="str">
         <f>Donnees!$C$28</f>
         <v>Mise à jour du JDT</v>
       </c>
@@ -11527,7 +11573,7 @@
       <c r="PS19" s="90"/>
     </row>
     <row r="20" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="131"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="97">
         <v>0</v>
       </c>
@@ -11965,7 +12011,7 @@
       <c r="PS20" s="95"/>
     </row>
     <row r="21" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="130" t="str">
+      <c r="B21" s="123" t="str">
         <f>Donnees!$C$29</f>
         <v>Daily Scrum</v>
       </c>
@@ -12406,7 +12452,7 @@
       <c r="PS21" s="90"/>
     </row>
     <row r="22" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="131"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="97">
         <v>0</v>
       </c>
@@ -12844,7 +12890,7 @@
       <c r="PS22" s="95"/>
     </row>
     <row r="23" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="130" t="str">
+      <c r="B23" s="123" t="str">
         <f>Donnees!$C$30</f>
         <v>HTML</v>
       </c>
@@ -13285,7 +13331,7 @@
       <c r="PS23" s="90"/>
     </row>
     <row r="24" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="131"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="97">
         <v>0</v>
       </c>
@@ -13723,7 +13769,7 @@
       <c r="PS24" s="95"/>
     </row>
     <row r="25" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="130" t="str">
+      <c r="B25" s="123" t="str">
         <f>Donnees!$C$31</f>
         <v>Base de donnée</v>
       </c>
@@ -14164,7 +14210,7 @@
       <c r="PS25" s="90"/>
     </row>
     <row r="26" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="131"/>
+      <c r="B26" s="124"/>
       <c r="C26" s="97">
         <v>0</v>
       </c>
@@ -14602,7 +14648,7 @@
       <c r="PS26" s="95"/>
     </row>
     <row r="27" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="130" t="str">
+      <c r="B27" s="123" t="str">
         <f>Donnees!$C$32</f>
         <v>PHP</v>
       </c>
@@ -15043,7 +15089,7 @@
       <c r="PS27" s="90"/>
     </row>
     <row r="28" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="131"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="97">
         <v>0</v>
       </c>
@@ -15481,7 +15527,7 @@
       <c r="PS28" s="95"/>
     </row>
     <row r="29" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="130" t="str">
+      <c r="B29" s="123" t="str">
         <f>Donnees!$C$33</f>
         <v>Typo3</v>
       </c>
@@ -15922,7 +15968,7 @@
       <c r="PS29" s="90"/>
     </row>
     <row r="30" spans="2:435" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="131"/>
+      <c r="B30" s="124"/>
       <c r="C30" s="97">
         <v>0</v>
       </c>
@@ -16360,7 +16406,7 @@
       <c r="PS30" s="95"/>
     </row>
     <row r="31" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="130" t="str">
+      <c r="B31" s="123" t="str">
         <f>Donnees!$C$34</f>
         <v>Création jeu flash</v>
       </c>
@@ -16801,7 +16847,7 @@
       <c r="PS31" s="90"/>
     </row>
     <row r="32" spans="2:435" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="131"/>
+      <c r="B32" s="124"/>
       <c r="C32" s="97">
         <v>0</v>
       </c>
@@ -18123,14 +18169,13 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" selectLockedCells="1"/>
   <mergeCells count="31">
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="HL2:IL2"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="CG2:DG2"/>
-    <mergeCell ref="DH2:EH2"/>
-    <mergeCell ref="EI2:FI2"/>
-    <mergeCell ref="FJ2:GJ2"/>
-    <mergeCell ref="GK2:HK2"/>
+    <mergeCell ref="OS2:PS2"/>
+    <mergeCell ref="IM2:JM2"/>
+    <mergeCell ref="JN2:KN2"/>
+    <mergeCell ref="KO2:LO2"/>
+    <mergeCell ref="LP2:MP2"/>
+    <mergeCell ref="MQ2:NQ2"/>
+    <mergeCell ref="NR2:OR2"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="D2:AD2"/>
@@ -18147,13 +18192,14 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="OS2:PS2"/>
-    <mergeCell ref="IM2:JM2"/>
-    <mergeCell ref="JN2:KN2"/>
-    <mergeCell ref="KO2:LO2"/>
-    <mergeCell ref="LP2:MP2"/>
-    <mergeCell ref="MQ2:NQ2"/>
-    <mergeCell ref="NR2:OR2"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="HL2:IL2"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="CG2:DG2"/>
+    <mergeCell ref="DH2:EH2"/>
+    <mergeCell ref="EI2:FI2"/>
+    <mergeCell ref="FJ2:GJ2"/>
+    <mergeCell ref="GK2:HK2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="DureeTropLongue" error="Cette durée est invalide: ce n'est pas un chiffre entier positif ou elle dépasse la &quot;Durée totale&quot; définie plus haut ..." sqref="C33">
@@ -18203,7 +18249,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="128" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="30">
@@ -18212,7 +18258,7 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
-      <c r="B4" s="135"/>
+      <c r="B4" s="131"/>
       <c r="C4" s="44">
         <v>0</v>
       </c>
@@ -20820,10 +20866,10 @@
   <sheetPr codeName="Feuil9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I298"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A175" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A145" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20835,7 +20881,7 @@
     <col min="5" max="16384" width="11.42578125" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>14</v>
       </c>
@@ -20849,7 +20895,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>3</v>
       </c>
@@ -20863,7 +20909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="81" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="81" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>28</v>
       </c>
@@ -20875,1336 +20921,1529 @@
       </c>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:4" s="81" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="81" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:4" s="81" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="81" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
     </row>
-    <row r="6" spans="1:4" s="81" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" s="81" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:4" s="81" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:4" s="81" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" s="81" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" s="81" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" s="81" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="14"/>
+    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="76">
+        <f>SUM(B3:B5)</f>
+        <v>27</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="77"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="72">
+        <v>2</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="82">
+        <v>42885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="8">
+        <v>15</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="136"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" s="81" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="14"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:4" s="81" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" s="81" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-    </row>
-    <row r="16" spans="1:4" s="81" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-    </row>
-    <row r="17" spans="1:9" s="81" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76" t="s">
+      <c r="E13" s="37"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="37"/>
+    </row>
+    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="37"/>
+    </row>
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="37"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="37"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="37"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="76">
-        <f>SUM(B3:B17)</f>
+      <c r="B21" s="76">
+        <f>SUM(B10:B20)</f>
         <v>27</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C21" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="77"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+      <c r="D21" s="77"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="78"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="72">
-        <v>2</v>
-      </c>
-      <c r="C20" s="73" t="s">
+      <c r="B23" s="72">
+        <v>3</v>
+      </c>
+      <c r="C23" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="82">
-        <v>42885</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74" t="s">
+      <c r="D23" s="82">
+        <v>42886</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B24" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C24" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D24" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="8">
-        <v>15</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="6">
-        <v>3</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="37"/>
-    </row>
-    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="109" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B26" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="37"/>
+        <v>80</v>
+      </c>
+      <c r="D26" s="108" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="6">
-        <v>2</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>65</v>
+      <c r="A27" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="111">
+        <v>9</v>
+      </c>
+      <c r="C27" s="112" t="s">
+        <v>77</v>
       </c>
       <c r="D27" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="37"/>
-    </row>
-    <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="6">
-        <v>5</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="108" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="37"/>
-    </row>
-    <row r="29" spans="1:9" ht="27" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="14" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="132"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="135"/>
+    </row>
+    <row r="29" spans="1:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="A29" s="115" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="116">
+        <v>4</v>
+      </c>
+      <c r="C29" s="117" t="s">
+        <v>81</v>
       </c>
       <c r="D29" s="108" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="37"/>
-    </row>
-    <row r="30" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="B30" s="6">
+        <v>6</v>
+      </c>
       <c r="C30" s="14" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="37"/>
-    </row>
-    <row r="31" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>53</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="37"/>
+        <v>85</v>
+      </c>
+      <c r="D31" s="108" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="14"/>
+      <c r="A32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="D32" s="14"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="37"/>
-    </row>
-    <row r="33" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
+    </row>
+    <row r="33" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="37"/>
-    </row>
-    <row r="34" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="37"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="37"/>
-    </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="37"/>
-    </row>
-    <row r="37" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="76" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="76">
-        <f>SUM(B22:B36)</f>
+      <c r="B35" s="76">
+        <f>SUM(B25:B34)</f>
         <v>27</v>
       </c>
-      <c r="C37" s="107" t="s">
+      <c r="C35" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="77"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-    </row>
-    <row r="39" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="71" t="s">
+      <c r="D35" s="77"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="78"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="72">
+      <c r="B37" s="72">
+        <v>4</v>
+      </c>
+      <c r="C37" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="82">
+        <v>42888</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="82">
-        <v>42886</v>
-      </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-    </row>
-    <row r="40" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="74" t="s">
+      <c r="B38" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="109" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="6">
+        <v>5</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="6">
+        <v>6</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="108" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A42" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="111">
         <v>3</v>
       </c>
-      <c r="B40" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="8">
+      <c r="C42" s="112" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="132"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="135"/>
+    </row>
+    <row r="44" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A44" s="115" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="116">
+        <v>8</v>
+      </c>
+      <c r="C44" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="6">
+        <v>3</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="108" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="6">
         <v>1</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="109" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="54" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="6">
-        <v>5</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="108" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="27" x14ac:dyDescent="0.2">
-      <c r="A43" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="111">
-        <v>9</v>
-      </c>
-      <c r="C43" s="112" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="108" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="113"/>
-      <c r="B44" s="114"/>
-      <c r="C44" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="14"/>
-    </row>
-    <row r="45" spans="1:9" ht="54" x14ac:dyDescent="0.2">
-      <c r="A45" s="116" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="117">
-        <v>4</v>
-      </c>
-      <c r="C45" s="118" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="108" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="6">
-        <v>6</v>
-      </c>
       <c r="C46" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="108" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="6">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B47" s="6"/>
       <c r="C47" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="108" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="6">
-        <v>1</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>82</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
+    <row r="49" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-    </row>
-    <row r="51" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-    </row>
-    <row r="52" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-    </row>
-    <row r="53" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
+    <row r="50" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="76">
+        <f>SUM(B39:B49)</f>
+        <v>27</v>
+      </c>
+      <c r="C50" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="77"/>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="78"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="72">
+        <v>5</v>
+      </c>
+      <c r="C52" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="82">
+        <v>42892</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="74" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="79"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
+      <c r="A54" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="8">
+        <v>15</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="109"/>
     </row>
     <row r="55" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="79"/>
-      <c r="B55" s="79"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-    </row>
-    <row r="56" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-    </row>
-    <row r="57" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="76" t="s">
+      <c r="A55" s="136"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="135"/>
+    </row>
+    <row r="56" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="6">
+        <v>1</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="108" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="6">
+        <v>9</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="108" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="108" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="6">
+        <v>1</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="6">
+        <v>1</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="76">
-        <f>SUM(B41:B56)</f>
+      <c r="B64" s="76">
+        <f>SUM(B54:B63)</f>
         <v>27</v>
       </c>
-      <c r="C57" s="107" t="s">
+      <c r="C64" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="77"/>
-    </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="78"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-    </row>
-    <row r="59" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="71" t="s">
+      <c r="D64" s="77"/>
+    </row>
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="78"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+    </row>
+    <row r="66" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="72">
-        <v>4</v>
-      </c>
-      <c r="C59" s="73" t="s">
+      <c r="B66" s="72">
+        <v>6</v>
+      </c>
+      <c r="C66" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="82">
-        <v>42888</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="74" t="s">
+      <c r="D66" s="82">
+        <v>42893</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="75" t="s">
+      <c r="B67" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="74" t="s">
+      <c r="C67" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="74" t="s">
+      <c r="D67" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
+    <row r="68" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B68" s="8">
         <v>1</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="109" t="s">
+      <c r="D68" s="109" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="6">
-        <v>5</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" s="14"/>
-    </row>
-    <row r="63" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="6">
-        <v>6</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D63" s="108" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A64" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="111">
-        <v>3</v>
-      </c>
-      <c r="C64" s="112" t="s">
-        <v>89</v>
-      </c>
-      <c r="D64" s="14"/>
-    </row>
-    <row r="65" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="113"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="14"/>
-    </row>
-    <row r="66" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A66" s="116" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="117">
-        <v>8</v>
-      </c>
-      <c r="C66" s="118" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" s="14"/>
-    </row>
-    <row r="67" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" s="6">
-        <v>3</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D67" s="108" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" s="6">
-        <v>1</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" s="14"/>
-    </row>
-    <row r="69" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B69" s="6"/>
+      <c r="B69" s="6">
+        <v>3</v>
+      </c>
       <c r="C69" s="14" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D69" s="14"/>
     </row>
-    <row r="70" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="14"/>
+    <row r="70" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="6">
+        <v>6</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="D70" s="14"/>
     </row>
-    <row r="71" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
+    <row r="71" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A71" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" s="111">
+        <v>5</v>
+      </c>
+      <c r="C71" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" s="108" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-    </row>
-    <row r="73" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="79"/>
-      <c r="B73" s="79"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
+      <c r="A72" s="132"/>
+      <c r="B72" s="133"/>
+      <c r="C72" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="135"/>
+    </row>
+    <row r="73" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A73" s="115" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" s="116">
+        <v>2</v>
+      </c>
+      <c r="C73" s="117" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="108" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="79"/>
-      <c r="B74" s="79"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="80"/>
-    </row>
-    <row r="75" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-    </row>
-    <row r="76" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="76" t="s">
+      <c r="A74" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="6">
+        <v>3</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="108" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" s="6">
+        <v>3</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="6">
+        <v>1</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="79"/>
+      <c r="B78" s="79"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="116">
+        <v>3</v>
+      </c>
+      <c r="C79" s="117" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="76">
-        <f>SUM(B61:B75)</f>
+      <c r="B80" s="76">
+        <f>SUM(B68:B79)</f>
         <v>27</v>
       </c>
-      <c r="C76" s="107" t="s">
+      <c r="C80" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D76" s="77"/>
-    </row>
-    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="78"/>
-      <c r="B77" s="78"/>
-      <c r="C77" s="78"/>
-      <c r="D77" s="78"/>
-    </row>
-    <row r="78" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="71" t="s">
+      <c r="D80" s="77"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="78"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="78"/>
+    </row>
+    <row r="82" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="72">
+      <c r="B82" s="72">
+        <v>7</v>
+      </c>
+      <c r="C82" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="82">
+        <v>42895</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="8">
+        <v>1</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" s="109" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" s="6">
+        <v>2</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" s="111">
+        <v>12</v>
+      </c>
+      <c r="C86" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" s="14"/>
+    </row>
+    <row r="87" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="132"/>
+      <c r="B87" s="133"/>
+      <c r="C87" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="135"/>
+    </row>
+    <row r="88" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="115" t="s">
+        <v>58</v>
+      </c>
+      <c r="B88" s="116">
+        <v>6</v>
+      </c>
+      <c r="C88" s="117" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88" s="108" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" s="6">
+        <v>2</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D89" s="14"/>
+    </row>
+    <row r="90" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" s="6">
+        <v>1</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" s="14"/>
+    </row>
+    <row r="91" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" s="14"/>
+    </row>
+    <row r="92" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="110"/>
+      <c r="B92" s="111"/>
+      <c r="C92" s="112"/>
+      <c r="D92" s="14"/>
+    </row>
+    <row r="93" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="113">
+        <v>3</v>
+      </c>
+      <c r="C93" s="114" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" s="80"/>
+    </row>
+    <row r="94" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" s="76">
+        <f>SUM(B84:B93)</f>
+        <v>27</v>
+      </c>
+      <c r="C94" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" s="77"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="78"/>
+      <c r="B95" s="78"/>
+      <c r="C95" s="78"/>
+      <c r="D95" s="78"/>
+    </row>
+    <row r="96" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="72">
+        <v>8</v>
+      </c>
+      <c r="C96" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="82">
+        <v>42898</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" s="8">
+        <v>1</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D98" s="109" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" s="6">
+        <v>2</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D99" s="14"/>
+    </row>
+    <row r="100" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B100" s="6">
         <v>5</v>
       </c>
-      <c r="C78" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" s="82">
-        <v>42892</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B80" s="8">
-        <v>15</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D80" s="109"/>
-    </row>
-    <row r="81" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-    </row>
-    <row r="82" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B82" s="6">
+      <c r="C100" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" s="108" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B101" s="6">
         <v>1</v>
       </c>
-      <c r="C82" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D82" s="108" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B83" s="6">
-        <v>9</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="108" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D84" s="108" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" s="6">
-        <v>1</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D85" s="108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B86" s="6">
-        <v>1</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D86" s="14"/>
-    </row>
-    <row r="87" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D87" s="14"/>
-    </row>
-    <row r="88" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-    </row>
-    <row r="89" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="5"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-    </row>
-    <row r="90" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-    </row>
-    <row r="91" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-    </row>
-    <row r="92" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-    </row>
-    <row r="93" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="79"/>
-      <c r="B93" s="79"/>
-      <c r="C93" s="80"/>
-      <c r="D93" s="80"/>
-    </row>
-    <row r="94" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="79"/>
-      <c r="B94" s="79"/>
-      <c r="C94" s="80"/>
-      <c r="D94" s="80"/>
-    </row>
-    <row r="95" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-    </row>
-    <row r="96" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B96" s="76">
-        <f>SUM(B80:B95)</f>
-        <v>27</v>
-      </c>
-      <c r="C96" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="D96" s="77"/>
-    </row>
-    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="78"/>
-      <c r="B97" s="78"/>
-      <c r="C97" s="78"/>
-      <c r="D97" s="78"/>
-    </row>
-    <row r="98" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B98" s="72">
-        <v>6</v>
-      </c>
-      <c r="C98" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" s="82">
-        <v>42893</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B100" s="8">
-        <v>1</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D100" s="109" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B101" s="6">
-        <v>3</v>
-      </c>
       <c r="C101" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D101" s="14"/>
+        <v>122</v>
+      </c>
+      <c r="D101" s="108" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="102" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B102" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D102" s="14"/>
+        <v>123</v>
+      </c>
+      <c r="D102" s="108" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="103" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A103" s="110" t="s">
+      <c r="A103" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B103" s="111">
-        <v>5</v>
-      </c>
-      <c r="C103" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="D103" s="108" t="s">
-        <v>108</v>
-      </c>
+      <c r="B103" s="6">
+        <v>2</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D103" s="108"/>
     </row>
     <row r="104" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="113"/>
-      <c r="B104" s="114"/>
-      <c r="C104" s="115" t="s">
+      <c r="A104" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="111">
+        <v>3</v>
+      </c>
+      <c r="C104" s="112" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104" s="14"/>
+    </row>
+    <row r="105" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="132"/>
+      <c r="B105" s="133"/>
+      <c r="C105" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="D104" s="14"/>
-    </row>
-    <row r="105" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A105" s="116" t="s">
+      <c r="D105" s="135"/>
+    </row>
+    <row r="106" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="B105" s="117">
-        <v>2</v>
-      </c>
-      <c r="C105" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="D105" s="108" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" s="6">
-        <v>3</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D106" s="108" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B106" s="116">
+        <v>4</v>
+      </c>
+      <c r="C106" s="117" t="s">
+        <v>125</v>
+      </c>
+      <c r="D106" s="14"/>
+    </row>
+    <row r="107" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B107" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="B108" s="6">
         <v>1</v>
       </c>
       <c r="C108" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D108" s="108" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109" s="6">
+        <v>1</v>
+      </c>
+      <c r="C109" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D108" s="14"/>
-    </row>
-    <row r="109" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
+      <c r="D109" s="14"/>
+    </row>
+    <row r="110" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A110" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B109" s="6"/>
-      <c r="C109" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D109" s="14"/>
-    </row>
-    <row r="110" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="79"/>
-      <c r="B110" s="79"/>
-      <c r="C110" s="80"/>
+      <c r="B110" s="79">
+        <v>1</v>
+      </c>
+      <c r="C110" s="80" t="s">
+        <v>127</v>
+      </c>
       <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="117" t="s">
+      <c r="A111" s="116"/>
+      <c r="B111" s="116"/>
+      <c r="C111" s="117"/>
+      <c r="D111" s="14"/>
+    </row>
+    <row r="112" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B111" s="117">
+      <c r="B112" s="6">
         <v>3</v>
       </c>
-      <c r="C111" s="118" t="s">
+      <c r="C112" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D111" s="14"/>
-    </row>
-    <row r="112" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="79"/>
-      <c r="B112" s="79"/>
-      <c r="C112" s="80"/>
-      <c r="D112" s="80"/>
-    </row>
-    <row r="113" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="79"/>
-      <c r="B113" s="79"/>
-      <c r="C113" s="80"/>
-      <c r="D113" s="80"/>
-    </row>
-    <row r="114" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-    </row>
-    <row r="115" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="76" t="s">
+      <c r="D112" s="14"/>
+    </row>
+    <row r="113" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B115" s="76">
-        <f>SUM(B100:B114)</f>
+      <c r="B113" s="76">
+        <f>SUM(B98:B112)</f>
         <v>27</v>
       </c>
-      <c r="C115" s="107" t="s">
+      <c r="C113" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D115" s="77"/>
-    </row>
-    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="78"/>
-      <c r="B116" s="78"/>
-      <c r="C116" s="78"/>
-      <c r="D116" s="78"/>
-    </row>
-    <row r="117" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="71" t="s">
+      <c r="D113" s="77"/>
+    </row>
+    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="78"/>
+      <c r="B114" s="78"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="78"/>
+    </row>
+    <row r="115" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B117" s="72">
+      <c r="B115" s="72">
+        <v>9</v>
+      </c>
+      <c r="C115" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" s="82">
+        <v>42899</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C117" s="73" t="s">
+      <c r="D116" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B117" s="8">
+        <v>27</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D117" s="13"/>
+    </row>
+    <row r="118" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="5"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+    </row>
+    <row r="119" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+    </row>
+    <row r="120" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B120" s="76">
+        <f>SUM(B117:B119)</f>
+        <v>27</v>
+      </c>
+      <c r="C120" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D120" s="77"/>
+    </row>
+    <row r="121" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="78"/>
+      <c r="B121" s="78"/>
+      <c r="C121" s="78"/>
+      <c r="D121" s="78"/>
+    </row>
+    <row r="122" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="72">
+        <v>10</v>
+      </c>
+      <c r="C122" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D117" s="82">
-        <v>42895</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="74" t="s">
+      <c r="D122" s="82">
+        <v>42900</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="75" t="s">
+      <c r="B123" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C118" s="74" t="s">
+      <c r="C123" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D118" s="74" t="s">
+      <c r="D123" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="9" t="s">
+    <row r="124" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B119" s="8">
+      <c r="B124" s="8">
         <v>1</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="C124" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D119" s="109" t="s">
+      <c r="D124" s="109" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A120" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B120" s="6">
-        <v>2</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D120" s="14"/>
-    </row>
-    <row r="121" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="B121" s="111">
-        <v>12</v>
-      </c>
-      <c r="C121" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="D121" s="14"/>
-    </row>
-    <row r="122" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="113"/>
-      <c r="B122" s="114"/>
-      <c r="C122" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="D122" s="14"/>
-    </row>
-    <row r="123" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="116" t="s">
-        <v>58</v>
-      </c>
-      <c r="B123" s="117">
-        <v>6</v>
-      </c>
-      <c r="C123" s="118" t="s">
-        <v>113</v>
-      </c>
-      <c r="D123" s="108" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B124" s="6">
-        <v>2</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D124" s="14"/>
     </row>
     <row r="125" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B125" s="6">
+        <v>2</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D125" s="108" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A126" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B126" s="111">
+        <v>12</v>
+      </c>
+      <c r="C126" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="D126" s="14"/>
+    </row>
+    <row r="127" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="138"/>
+      <c r="B127" s="139"/>
+      <c r="C127" s="140" t="s">
+        <v>78</v>
+      </c>
+      <c r="D127" s="135"/>
+    </row>
+    <row r="128" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="B128" s="119">
+        <v>2</v>
+      </c>
+      <c r="C128" s="120" t="s">
+        <v>131</v>
+      </c>
+      <c r="D128" s="108" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B129" s="6">
+        <v>9</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D129" s="14"/>
+    </row>
+    <row r="130" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B130" s="6">
         <v>1</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C130" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D125" s="14"/>
-    </row>
-    <row r="126" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="5" t="s">
+      <c r="D130" s="14"/>
+    </row>
+    <row r="131" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B126" s="6"/>
-      <c r="C126" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D126" s="14"/>
-    </row>
-    <row r="127" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="5"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-    </row>
-    <row r="128" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-    </row>
-    <row r="129" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-    </row>
-    <row r="130" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-    </row>
-    <row r="131" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="B131" s="79">
-        <v>3</v>
-      </c>
-      <c r="C131" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="D131" s="80"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D131" s="14"/>
     </row>
     <row r="132" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="79"/>
-      <c r="B132" s="79"/>
-      <c r="C132" s="80"/>
-      <c r="D132" s="80"/>
+      <c r="A132" s="5"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
     </row>
     <row r="133" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
     </row>
     <row r="134" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="76" t="s">
         <v>22</v>
       </c>
       <c r="B134" s="76">
-        <f>SUM(B119:B133)</f>
+        <f>SUM(B124:B133)</f>
         <v>27</v>
       </c>
       <c r="C134" s="107" t="s">
@@ -22223,13 +22462,13 @@
         <v>14</v>
       </c>
       <c r="B136" s="72">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C136" s="73" t="s">
         <v>23</v>
       </c>
       <c r="D136" s="82">
-        <v>42898</v>
+        <v>42902</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -22256,1392 +22495,580 @@
       <c r="C138" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D138" s="109" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="D138" s="13"/>
+    </row>
+    <row r="139" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B139" s="6">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D139" s="14"/>
     </row>
-    <row r="140" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B140" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D140" s="108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A141" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B141" s="6">
-        <v>1</v>
-      </c>
-      <c r="C141" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D141" s="108" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="D140" s="14"/>
+    </row>
+    <row r="141" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="136"/>
+      <c r="B141" s="137"/>
+      <c r="C141" s="135" t="s">
+        <v>78</v>
+      </c>
+      <c r="D141" s="135"/>
+    </row>
+    <row r="142" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B142" s="6">
+        <v>5</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D142" s="14"/>
+    </row>
+    <row r="143" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A143" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" s="6">
+        <v>7</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D143" s="14"/>
+    </row>
+    <row r="144" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A144" s="5"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+    </row>
+    <row r="145" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+    </row>
+    <row r="146" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B146" s="76">
+        <f>SUM(B138:B145)</f>
+        <v>27</v>
+      </c>
+      <c r="C146" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D146" s="77"/>
+    </row>
+    <row r="147" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="78"/>
+      <c r="B147" s="78"/>
+      <c r="C147" s="78"/>
+      <c r="D147" s="78"/>
+    </row>
+    <row r="148" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" s="72">
+        <v>12</v>
+      </c>
+      <c r="C148" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D148" s="82">
+        <v>42912</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B150" s="8">
         <v>1</v>
       </c>
-      <c r="C142" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D142" s="108" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A143" s="5" t="s">
+      <c r="C150" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D150" s="109" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A151" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151" s="6">
+        <v>1</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D151" s="14"/>
+    </row>
+    <row r="152" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A152" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B143" s="6">
+      <c r="B152" s="6">
+        <v>10</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D152" s="14"/>
+    </row>
+    <row r="153" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" s="6">
+        <v>3</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D153" s="14"/>
+    </row>
+    <row r="154" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A154" s="136"/>
+      <c r="B154" s="137"/>
+      <c r="C154" s="135" t="s">
+        <v>78</v>
+      </c>
+      <c r="D154" s="135"/>
+    </row>
+    <row r="155" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A155" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B155" s="6">
+        <v>9</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D155" s="14"/>
+    </row>
+    <row r="156" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A156" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B156" s="6">
+        <v>1</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D156" s="14"/>
+    </row>
+    <row r="157" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A157" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B157" s="6">
         <v>2</v>
       </c>
-      <c r="C143" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D143" s="108"/>
-    </row>
-    <row r="144" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="B144" s="111">
+      <c r="C157" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D157" s="14"/>
+    </row>
+    <row r="158" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A158" s="5"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+    </row>
+    <row r="159" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="6"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+    </row>
+    <row r="160" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B160" s="76">
+        <f>SUM(B150:B159)</f>
+        <v>27</v>
+      </c>
+      <c r="C160" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D160" s="77"/>
+    </row>
+    <row r="161" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="78"/>
+      <c r="B161" s="78"/>
+      <c r="C161" s="78"/>
+      <c r="D161" s="78"/>
+    </row>
+    <row r="162" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" s="72">
+        <v>13</v>
+      </c>
+      <c r="C162" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D162" s="82">
+        <v>42913</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C144" s="112" t="s">
-        <v>118</v>
-      </c>
-      <c r="D144" s="14"/>
-    </row>
-    <row r="145" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="113"/>
-      <c r="B145" s="114"/>
-      <c r="C145" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="D145" s="14"/>
-    </row>
-    <row r="146" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="116" t="s">
-        <v>58</v>
-      </c>
-      <c r="B146" s="117">
-        <v>4</v>
-      </c>
-      <c r="C146" s="118" t="s">
-        <v>125</v>
-      </c>
-      <c r="D146" s="14"/>
-    </row>
-    <row r="147" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A147" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B147" s="6">
-        <v>2</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D147" s="14"/>
-    </row>
-    <row r="148" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B148" s="6">
-        <v>1</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D148" s="108" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B149" s="6">
-        <v>1</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D149" s="14"/>
-    </row>
-    <row r="150" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A150" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="B150" s="79">
-        <v>1</v>
-      </c>
-      <c r="C150" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="D150" s="14"/>
-    </row>
-    <row r="151" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="117"/>
-      <c r="B151" s="117"/>
-      <c r="C151" s="118"/>
-      <c r="D151" s="14"/>
-    </row>
-    <row r="152" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B152" s="6">
+      <c r="B163" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B164" s="8">
+        <v>27</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D164" s="13"/>
+    </row>
+    <row r="165" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="5"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+    </row>
+    <row r="166" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="5"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+    </row>
+    <row r="167" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B167" s="76">
+        <f>SUM(B164:B166)</f>
+        <v>27</v>
+      </c>
+      <c r="C167" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D167" s="77"/>
+    </row>
+    <row r="168" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="78"/>
+      <c r="B168" s="78"/>
+      <c r="C168" s="78"/>
+      <c r="D168" s="78"/>
+    </row>
+    <row r="169" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169" s="72">
+        <v>14</v>
+      </c>
+      <c r="C169" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" s="82">
+        <v>42914</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D152" s="14"/>
-    </row>
-    <row r="153" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="79"/>
-      <c r="B153" s="79"/>
-      <c r="C153" s="80"/>
-      <c r="D153" s="80"/>
-    </row>
-    <row r="154" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="79"/>
-      <c r="B154" s="79"/>
-      <c r="C154" s="80"/>
-      <c r="D154" s="80"/>
-    </row>
-    <row r="155" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
-    </row>
-    <row r="156" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="76" t="s">
+      <c r="B170" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A171" s="9"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+    </row>
+    <row r="172" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A172" s="5"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
+    </row>
+    <row r="173" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
+    </row>
+    <row r="174" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B156" s="76">
-        <f>SUM(B138:B155)</f>
-        <v>27</v>
-      </c>
-      <c r="C156" s="107" t="s">
+      <c r="B174" s="76">
+        <f>SUM(B171:B173)</f>
+        <v>0</v>
+      </c>
+      <c r="C174" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D156" s="77"/>
-    </row>
-    <row r="157" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="78"/>
-      <c r="B157" s="78"/>
-      <c r="C157" s="78"/>
-      <c r="D157" s="78"/>
-    </row>
-    <row r="158" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="71" t="s">
+      <c r="D174" s="77"/>
+    </row>
+    <row r="175" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="78"/>
+      <c r="B175" s="78"/>
+      <c r="C175" s="78"/>
+      <c r="D175" s="78"/>
+    </row>
+    <row r="176" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B158" s="72">
-        <v>9</v>
-      </c>
-      <c r="C158" s="73" t="s">
+      <c r="B176" s="72">
+        <v>15</v>
+      </c>
+      <c r="C176" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D158" s="82">
-        <v>42899</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="74" t="s">
+      <c r="D176" s="82">
+        <v>42915</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B159" s="75" t="s">
+      <c r="B177" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C159" s="74" t="s">
+      <c r="C177" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D159" s="74" t="s">
+      <c r="D177" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B160" s="8">
-        <v>27</v>
-      </c>
-      <c r="C160" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D160" s="13"/>
-    </row>
-    <row r="161" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="5"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
-    </row>
-    <row r="162" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="5"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
-    </row>
-    <row r="163" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="76" t="s">
+    <row r="178" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A178" s="9"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+    </row>
+    <row r="179" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A179" s="5"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="14"/>
+    </row>
+    <row r="180" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="5"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+    </row>
+    <row r="181" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B163" s="76">
-        <f>SUM(B160:B162)</f>
-        <v>27</v>
-      </c>
-      <c r="C163" s="107" t="s">
+      <c r="B181" s="76">
+        <f>SUM(B178:B180)</f>
+        <v>0</v>
+      </c>
+      <c r="C181" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D163" s="77"/>
-    </row>
-    <row r="164" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="78"/>
-      <c r="B164" s="78"/>
-      <c r="C164" s="78"/>
-      <c r="D164" s="78"/>
-    </row>
-    <row r="165" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="71" t="s">
+      <c r="D181" s="77"/>
+    </row>
+    <row r="182" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="78"/>
+      <c r="B182" s="78"/>
+      <c r="C182" s="78"/>
+      <c r="D182" s="78"/>
+    </row>
+    <row r="183" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B165" s="72">
-        <v>10</v>
-      </c>
-      <c r="C165" s="73" t="s">
+      <c r="B183" s="72">
+        <v>16</v>
+      </c>
+      <c r="C183" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D165" s="82">
-        <v>42900</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="74" t="s">
+      <c r="D183" s="82">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B166" s="75" t="s">
+      <c r="B184" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C166" s="74" t="s">
+      <c r="C184" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D166" s="74" t="s">
+      <c r="D184" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B167" s="8">
-        <v>1</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D167" s="109" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B168" s="6">
-        <v>2</v>
-      </c>
-      <c r="C168" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D168" s="108" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A169" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="B169" s="111">
-        <v>12</v>
-      </c>
-      <c r="C169" s="112" t="s">
-        <v>130</v>
-      </c>
-      <c r="D169" s="14"/>
-    </row>
-    <row r="170" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="122"/>
-      <c r="B170" s="123"/>
-      <c r="C170" s="124" t="s">
-        <v>78</v>
-      </c>
-      <c r="D170" s="14"/>
-    </row>
-    <row r="171" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="119" t="s">
-        <v>103</v>
-      </c>
-      <c r="B171" s="120">
-        <v>2</v>
-      </c>
-      <c r="C171" s="121" t="s">
-        <v>131</v>
-      </c>
-      <c r="D171" s="108" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A172" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B172" s="6">
-        <v>9</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D172" s="14"/>
-    </row>
-    <row r="173" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A173" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B173" s="6">
-        <v>1</v>
-      </c>
-      <c r="C173" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D173" s="14"/>
-    </row>
-    <row r="174" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B174" s="6"/>
-      <c r="C174" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D174" s="14"/>
-    </row>
-    <row r="175" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="5"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="14"/>
-    </row>
-    <row r="176" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="6"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="14"/>
-    </row>
-    <row r="177" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="14"/>
-    </row>
-    <row r="178" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="6"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
-    </row>
-    <row r="179" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="79"/>
-      <c r="B179" s="79"/>
-      <c r="C179" s="80"/>
-      <c r="D179" s="80"/>
-    </row>
-    <row r="180" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="79"/>
-      <c r="B180" s="79"/>
-      <c r="C180" s="80"/>
-      <c r="D180" s="80"/>
-    </row>
-    <row r="181" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="7"/>
-      <c r="B181" s="7"/>
-      <c r="C181" s="15"/>
-      <c r="D181" s="15"/>
-    </row>
-    <row r="182" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="76" t="s">
+    <row r="185" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A185" s="9"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="13"/>
+    </row>
+    <row r="186" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A186" s="5"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+    </row>
+    <row r="187" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="5"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+    </row>
+    <row r="188" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B182" s="76">
-        <f>SUM(B167:B181)</f>
-        <v>27</v>
-      </c>
-      <c r="C182" s="107" t="s">
+      <c r="B188" s="76">
+        <f>SUM(B185:B187)</f>
+        <v>0</v>
+      </c>
+      <c r="C188" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D182" s="77"/>
-    </row>
-    <row r="183" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="78"/>
-      <c r="B183" s="78"/>
-      <c r="C183" s="78"/>
-      <c r="D183" s="78"/>
-    </row>
-    <row r="184" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B184" s="72">
-        <v>11</v>
-      </c>
-      <c r="C184" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D184" s="82">
-        <v>42902</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B185" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C185" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D185" s="74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B186" s="8">
-        <v>1</v>
-      </c>
-      <c r="C186" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D186" s="13"/>
-    </row>
-    <row r="187" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A187" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B187" s="6">
-        <v>13</v>
-      </c>
-      <c r="C187" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D187" s="14"/>
-    </row>
-    <row r="188" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A188" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B188" s="6">
-        <v>1</v>
-      </c>
-      <c r="C188" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D188" s="14"/>
-    </row>
-    <row r="189" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A189" s="5"/>
-      <c r="B189" s="6"/>
-      <c r="C189" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D189" s="14"/>
-    </row>
-    <row r="190" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B190" s="6">
-        <v>5</v>
-      </c>
-      <c r="C190" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D190" s="14"/>
-    </row>
-    <row r="191" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A191" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B191" s="6">
-        <v>7</v>
-      </c>
-      <c r="C191" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D191" s="14"/>
-    </row>
-    <row r="192" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A192" s="5"/>
-      <c r="B192" s="6"/>
-      <c r="C192" s="14"/>
-      <c r="D192" s="14"/>
-    </row>
-    <row r="193" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A193" s="5"/>
-      <c r="B193" s="6"/>
-      <c r="C193" s="14"/>
-      <c r="D193" s="14"/>
-    </row>
-    <row r="194" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A194" s="5"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="14"/>
-      <c r="D194" s="14"/>
-    </row>
-    <row r="195" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="6"/>
-      <c r="B195" s="6"/>
-      <c r="C195" s="14"/>
-      <c r="D195" s="14"/>
-    </row>
-    <row r="196" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A196" s="6"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="14"/>
-      <c r="D196" s="14"/>
-    </row>
-    <row r="197" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A197" s="6"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="14"/>
-      <c r="D197" s="14"/>
-    </row>
-    <row r="198" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A198" s="79"/>
-      <c r="B198" s="79"/>
-      <c r="C198" s="80"/>
-      <c r="D198" s="80"/>
-    </row>
-    <row r="199" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A199" s="79"/>
-      <c r="B199" s="79"/>
-      <c r="C199" s="80"/>
-      <c r="D199" s="80"/>
-    </row>
-    <row r="200" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="7"/>
-      <c r="B200" s="7"/>
-      <c r="C200" s="15"/>
-      <c r="D200" s="15"/>
-    </row>
-    <row r="201" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B201" s="76">
-        <f>SUM(B186:B200)</f>
-        <v>27</v>
-      </c>
-      <c r="C201" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="D201" s="77"/>
-    </row>
-    <row r="202" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="78"/>
-      <c r="B202" s="78"/>
-      <c r="C202" s="78"/>
-      <c r="D202" s="78"/>
-    </row>
-    <row r="203" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B203" s="72">
-        <v>12</v>
-      </c>
-      <c r="C203" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D203" s="82">
-        <v>42912</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B204" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C204" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D204" s="74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A205" s="9"/>
-      <c r="B205" s="8"/>
-      <c r="C205" s="13"/>
-      <c r="D205" s="13"/>
-    </row>
-    <row r="206" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A206" s="5"/>
-      <c r="B206" s="6"/>
-      <c r="C206" s="14"/>
-      <c r="D206" s="14"/>
-    </row>
-    <row r="207" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A207" s="5"/>
-      <c r="B207" s="6"/>
-      <c r="C207" s="14"/>
-      <c r="D207" s="14"/>
-    </row>
-    <row r="208" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A208" s="5"/>
-      <c r="B208" s="6"/>
-      <c r="C208" s="14"/>
-      <c r="D208" s="14"/>
-    </row>
-    <row r="209" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A209" s="5"/>
-      <c r="B209" s="6"/>
-      <c r="C209" s="14"/>
-      <c r="D209" s="14"/>
-    </row>
-    <row r="210" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A210" s="5"/>
-      <c r="B210" s="6"/>
-      <c r="C210" s="14"/>
-      <c r="D210" s="14"/>
-    </row>
-    <row r="211" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A211" s="5"/>
-      <c r="B211" s="6"/>
-      <c r="C211" s="14"/>
-      <c r="D211" s="14"/>
-    </row>
-    <row r="212" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="5"/>
-      <c r="B212" s="6"/>
-      <c r="C212" s="14"/>
-      <c r="D212" s="14"/>
-    </row>
-    <row r="213" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A213" s="5"/>
-      <c r="B213" s="6"/>
-      <c r="C213" s="14"/>
-      <c r="D213" s="14"/>
-    </row>
-    <row r="214" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A214" s="6"/>
-      <c r="B214" s="6"/>
-      <c r="C214" s="14"/>
-      <c r="D214" s="14"/>
-    </row>
-    <row r="215" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A215" s="6"/>
-      <c r="B215" s="6"/>
-      <c r="C215" s="14"/>
-      <c r="D215" s="14"/>
-    </row>
-    <row r="216" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A216" s="6"/>
-      <c r="B216" s="6"/>
-      <c r="C216" s="14"/>
-      <c r="D216" s="14"/>
-    </row>
-    <row r="217" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A217" s="79"/>
-      <c r="B217" s="79"/>
-      <c r="C217" s="80"/>
-      <c r="D217" s="80"/>
-    </row>
-    <row r="218" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="79"/>
-      <c r="B218" s="79"/>
-      <c r="C218" s="80"/>
-      <c r="D218" s="80"/>
-    </row>
-    <row r="219" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="7"/>
-      <c r="B219" s="7"/>
-      <c r="C219" s="15"/>
-      <c r="D219" s="15"/>
-    </row>
-    <row r="220" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B220" s="76">
-        <f>SUM(B205:B219)</f>
-        <v>0</v>
-      </c>
-      <c r="C220" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="D220" s="77"/>
-    </row>
-    <row r="221" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="78"/>
-      <c r="B221" s="78"/>
-      <c r="C221" s="78"/>
-      <c r="D221" s="78"/>
-    </row>
-    <row r="222" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B222" s="72">
-        <v>13</v>
-      </c>
-      <c r="C222" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D222" s="82">
-        <v>42913</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B223" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C223" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D223" s="74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A224" s="9"/>
-      <c r="B224" s="8"/>
-      <c r="C224" s="13"/>
-      <c r="D224" s="13"/>
-    </row>
-    <row r="225" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A225" s="5"/>
-      <c r="B225" s="6"/>
-      <c r="C225" s="14"/>
-      <c r="D225" s="14"/>
-    </row>
-    <row r="226" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A226" s="5"/>
-      <c r="B226" s="6"/>
-      <c r="C226" s="14"/>
-      <c r="D226" s="14"/>
-    </row>
-    <row r="227" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A227" s="5"/>
-      <c r="B227" s="6"/>
-      <c r="C227" s="14"/>
-      <c r="D227" s="14"/>
-    </row>
-    <row r="228" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A228" s="5"/>
-      <c r="B228" s="6"/>
-      <c r="C228" s="14"/>
-      <c r="D228" s="14"/>
-    </row>
-    <row r="229" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A229" s="5"/>
-      <c r="B229" s="6"/>
-      <c r="C229" s="14"/>
-      <c r="D229" s="14"/>
-    </row>
-    <row r="230" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A230" s="5"/>
-      <c r="B230" s="6"/>
-      <c r="C230" s="14"/>
-      <c r="D230" s="14"/>
-    </row>
-    <row r="231" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A231" s="5"/>
-      <c r="B231" s="6"/>
-      <c r="C231" s="14"/>
-      <c r="D231" s="14"/>
-    </row>
-    <row r="232" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A232" s="5"/>
-      <c r="B232" s="6"/>
-      <c r="C232" s="14"/>
-      <c r="D232" s="14"/>
-    </row>
-    <row r="233" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A233" s="6"/>
-      <c r="B233" s="6"/>
-      <c r="C233" s="14"/>
-      <c r="D233" s="14"/>
-    </row>
-    <row r="234" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A234" s="6"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="14"/>
-      <c r="D234" s="14"/>
-    </row>
-    <row r="235" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A235" s="6"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="14"/>
-      <c r="D235" s="14"/>
-    </row>
-    <row r="236" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A236" s="79"/>
-      <c r="B236" s="79"/>
-      <c r="C236" s="80"/>
-      <c r="D236" s="80"/>
-    </row>
-    <row r="237" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="79"/>
-      <c r="B237" s="79"/>
-      <c r="C237" s="80"/>
-      <c r="D237" s="80"/>
-    </row>
-    <row r="238" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="7"/>
-      <c r="B238" s="7"/>
-      <c r="C238" s="15"/>
-      <c r="D238" s="15"/>
-    </row>
-    <row r="239" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B239" s="76">
-        <f>SUM(B224:B238)</f>
-        <v>0</v>
-      </c>
-      <c r="C239" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="D239" s="77"/>
-    </row>
-    <row r="240" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="78"/>
-      <c r="B240" s="78"/>
-      <c r="C240" s="78"/>
-      <c r="D240" s="78"/>
-    </row>
-    <row r="241" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B241" s="72">
-        <v>14</v>
-      </c>
-      <c r="C241" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D241" s="82">
-        <v>42975</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B242" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C242" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D242" s="74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A243" s="9"/>
-      <c r="B243" s="8"/>
-      <c r="C243" s="13"/>
-      <c r="D243" s="13"/>
-    </row>
-    <row r="244" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A244" s="5"/>
-      <c r="B244" s="6"/>
-      <c r="C244" s="14"/>
-      <c r="D244" s="14"/>
-    </row>
-    <row r="245" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A245" s="5"/>
-      <c r="B245" s="6"/>
-      <c r="C245" s="14"/>
-      <c r="D245" s="14"/>
-    </row>
-    <row r="246" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A246" s="5"/>
-      <c r="B246" s="6"/>
-      <c r="C246" s="14"/>
-      <c r="D246" s="14"/>
-    </row>
-    <row r="247" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A247" s="5"/>
-      <c r="B247" s="6"/>
-      <c r="C247" s="14"/>
-      <c r="D247" s="14"/>
-    </row>
-    <row r="248" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A248" s="5"/>
-      <c r="B248" s="6"/>
-      <c r="C248" s="14"/>
-      <c r="D248" s="14"/>
-    </row>
-    <row r="249" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A249" s="5"/>
-      <c r="B249" s="6"/>
-      <c r="C249" s="14"/>
-      <c r="D249" s="14"/>
-    </row>
-    <row r="250" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A250" s="5"/>
-      <c r="B250" s="6"/>
-      <c r="C250" s="14"/>
-      <c r="D250" s="14"/>
-    </row>
-    <row r="251" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A251" s="5"/>
-      <c r="B251" s="6"/>
-      <c r="C251" s="14"/>
-      <c r="D251" s="14"/>
-    </row>
-    <row r="252" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A252" s="6"/>
-      <c r="B252" s="6"/>
-      <c r="C252" s="14"/>
-      <c r="D252" s="14"/>
-    </row>
-    <row r="253" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A253" s="6"/>
-      <c r="B253" s="6"/>
-      <c r="C253" s="14"/>
-      <c r="D253" s="14"/>
-    </row>
-    <row r="254" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A254" s="6"/>
-      <c r="B254" s="6"/>
-      <c r="C254" s="14"/>
-      <c r="D254" s="14"/>
-    </row>
-    <row r="255" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A255" s="79"/>
-      <c r="B255" s="79"/>
-      <c r="C255" s="80"/>
-      <c r="D255" s="80"/>
-    </row>
-    <row r="256" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A256" s="79"/>
-      <c r="B256" s="79"/>
-      <c r="C256" s="80"/>
-      <c r="D256" s="80"/>
-    </row>
-    <row r="257" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="7"/>
-      <c r="B257" s="7"/>
-      <c r="C257" s="15"/>
-      <c r="D257" s="15"/>
-    </row>
-    <row r="258" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B258" s="76">
-        <f>SUM(B243:B257)</f>
-        <v>0</v>
-      </c>
-      <c r="C258" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="D258" s="77"/>
-    </row>
-    <row r="259" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="78"/>
-      <c r="B259" s="78"/>
-      <c r="C259" s="78"/>
-      <c r="D259" s="78"/>
-    </row>
-    <row r="260" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B260" s="72">
-        <v>15</v>
-      </c>
-      <c r="C260" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D260" s="82">
-        <v>42982</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B261" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C261" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D261" s="74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A262" s="9"/>
-      <c r="B262" s="8"/>
-      <c r="C262" s="13"/>
-      <c r="D262" s="13"/>
-    </row>
-    <row r="263" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A263" s="5"/>
-      <c r="B263" s="6"/>
-      <c r="C263" s="14"/>
-      <c r="D263" s="14"/>
-    </row>
-    <row r="264" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="5"/>
-      <c r="B264" s="6"/>
-      <c r="C264" s="14"/>
-      <c r="D264" s="14"/>
-    </row>
-    <row r="265" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="5"/>
-      <c r="B265" s="6"/>
-      <c r="C265" s="14"/>
-      <c r="D265" s="14"/>
-    </row>
-    <row r="266" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A266" s="5"/>
-      <c r="B266" s="6"/>
-      <c r="C266" s="14"/>
-      <c r="D266" s="14"/>
-    </row>
-    <row r="267" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="5"/>
-      <c r="B267" s="6"/>
-      <c r="C267" s="14"/>
-      <c r="D267" s="14"/>
-    </row>
-    <row r="268" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A268" s="5"/>
-      <c r="B268" s="6"/>
-      <c r="C268" s="14"/>
-      <c r="D268" s="14"/>
-    </row>
-    <row r="269" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A269" s="5"/>
-      <c r="B269" s="6"/>
-      <c r="C269" s="14"/>
-      <c r="D269" s="14"/>
-    </row>
-    <row r="270" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="5"/>
-      <c r="B270" s="6"/>
-      <c r="C270" s="14"/>
-      <c r="D270" s="14"/>
-    </row>
-    <row r="271" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A271" s="6"/>
-      <c r="B271" s="6"/>
-      <c r="C271" s="14"/>
-      <c r="D271" s="14"/>
-    </row>
-    <row r="272" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A272" s="6"/>
-      <c r="B272" s="6"/>
-      <c r="C272" s="14"/>
-      <c r="D272" s="14"/>
-    </row>
-    <row r="273" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="6"/>
-      <c r="B273" s="6"/>
-      <c r="C273" s="14"/>
-      <c r="D273" s="14"/>
-    </row>
-    <row r="274" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A274" s="79"/>
-      <c r="B274" s="79"/>
-      <c r="C274" s="80"/>
-      <c r="D274" s="80"/>
-    </row>
-    <row r="275" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A275" s="79"/>
-      <c r="B275" s="79"/>
-      <c r="C275" s="80"/>
-      <c r="D275" s="80"/>
-    </row>
-    <row r="276" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="7"/>
-      <c r="B276" s="7"/>
-      <c r="C276" s="15"/>
-      <c r="D276" s="15"/>
-    </row>
-    <row r="277" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B277" s="76">
-        <f>SUM(B262:B276)</f>
-        <v>0</v>
-      </c>
-      <c r="C277" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="D277" s="77"/>
-    </row>
-    <row r="278" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="78"/>
-      <c r="B278" s="78"/>
-      <c r="C278" s="78"/>
-      <c r="D278" s="78"/>
-    </row>
-    <row r="279" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B279" s="72">
-        <v>16</v>
-      </c>
-      <c r="C279" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D279" s="82">
-        <v>42989</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B280" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C280" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D280" s="74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="9"/>
-      <c r="B281" s="8"/>
-      <c r="C281" s="13"/>
-      <c r="D281" s="13"/>
-    </row>
-    <row r="282" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="5"/>
-      <c r="B282" s="6"/>
-      <c r="C282" s="14"/>
-      <c r="D282" s="14"/>
-    </row>
-    <row r="283" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A283" s="5"/>
-      <c r="B283" s="6"/>
-      <c r="C283" s="14"/>
-      <c r="D283" s="14"/>
-    </row>
-    <row r="284" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A284" s="5"/>
-      <c r="B284" s="6"/>
-      <c r="C284" s="14"/>
-      <c r="D284" s="14"/>
-    </row>
-    <row r="285" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="5"/>
-      <c r="B285" s="6"/>
-      <c r="C285" s="14"/>
-      <c r="D285" s="14"/>
-    </row>
-    <row r="286" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A286" s="5"/>
-      <c r="B286" s="6"/>
-      <c r="C286" s="14"/>
-      <c r="D286" s="14"/>
-    </row>
-    <row r="287" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A287" s="5"/>
-      <c r="B287" s="6"/>
-      <c r="C287" s="14"/>
-      <c r="D287" s="14"/>
-    </row>
-    <row r="288" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A288" s="5"/>
-      <c r="B288" s="6"/>
-      <c r="C288" s="14"/>
-      <c r="D288" s="14"/>
-    </row>
-    <row r="289" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A289" s="5"/>
-      <c r="B289" s="6"/>
-      <c r="C289" s="14"/>
-      <c r="D289" s="14"/>
-    </row>
-    <row r="290" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="6"/>
-      <c r="B290" s="6"/>
-      <c r="C290" s="14"/>
-      <c r="D290" s="14"/>
-    </row>
-    <row r="291" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A291" s="6"/>
-      <c r="B291" s="6"/>
-      <c r="C291" s="14"/>
-      <c r="D291" s="14"/>
-    </row>
-    <row r="292" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="6"/>
-      <c r="B292" s="6"/>
-      <c r="C292" s="14"/>
-      <c r="D292" s="14"/>
-    </row>
-    <row r="293" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A293" s="79"/>
-      <c r="B293" s="79"/>
-      <c r="C293" s="80"/>
-      <c r="D293" s="80"/>
-    </row>
-    <row r="294" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A294" s="79"/>
-      <c r="B294" s="79"/>
-      <c r="C294" s="80"/>
-      <c r="D294" s="80"/>
-    </row>
-    <row r="295" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="7"/>
-      <c r="B295" s="7"/>
-      <c r="C295" s="15"/>
-      <c r="D295" s="15"/>
-    </row>
-    <row r="296" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B296" s="76">
-        <f>SUM(B281:B295)</f>
-        <v>0</v>
-      </c>
-      <c r="C296" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="D296" s="77"/>
-    </row>
-    <row r="297" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A297" s="78"/>
-      <c r="B297" s="78"/>
-      <c r="C297" s="78"/>
-      <c r="D297" s="78"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="106" t="s">
+      <c r="D188" s="77"/>
+    </row>
+    <row r="189" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A189" s="78"/>
+      <c r="B189" s="78"/>
+      <c r="C189" s="78"/>
+      <c r="D189" s="78"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="106" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="F35">
-      <formula1>0</formula1>
-      <formula2>DureePeriode-1</formula2>
-    </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B3:B17 B22:B36 B41:B56 B61:B75 B80:B95 B100:B114 B119:B133 B138:B155 B160:B162 B167:B181 B186:B200 B205:B219 B224:B238 B243:B257 B262:B276 B281:B295">
+  <dataValidations count="3">
+    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F14:F20 B3:B5 B25:B34 B39:B49 B54:B63 B68:B79 B98:B112 B117:B119 B124:B133 B138:B145 B150:B159 B164:B166 B171:B173 B178:B180 B185:B187 B10:B20 B84:B93">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B18 B37 B57 B76 B96 B115 B134 B156 B163 B182 B201 B220 B239 B258 B277 B296">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B6 B21 B35 B50 B64 B80 B94 B113 B120 B134 B146 B160 B167 B174 B181 B188">
       <formula1>0</formula1>
       <formula2>NbPerWeek * NbQuartPer</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A17 A22:A36 A41:A56 A61:A75 A80:A95 A100:A114 A119:A133 A138:A155 A160:A162 A167:A181 A186:A200 A205:A219 A224:A238 A243:A257 A262:A276 A281:A295">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A5 A25:A34 A39:A49 A54:A63 A68:A79 A98:A112 A117:A119 A124:A133 A138:A145 A150:A159 A164:A166 A171:A173 A178:A180 A185:A187 A10:A20 A84:A93">
       <formula1>lstTasks</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D27" r:id="rId1"/>
-    <hyperlink ref="D28" r:id="rId2"/>
-    <hyperlink ref="D29" r:id="rId3"/>
-    <hyperlink ref="D30" r:id="rId4"/>
-    <hyperlink ref="D42" r:id="rId5"/>
-    <hyperlink ref="D41" r:id="rId6"/>
-    <hyperlink ref="D43" r:id="rId7"/>
-    <hyperlink ref="D45" r:id="rId8"/>
-    <hyperlink ref="D46" r:id="rId9"/>
-    <hyperlink ref="D47" r:id="rId10"/>
-    <hyperlink ref="D61" r:id="rId11"/>
-    <hyperlink ref="D63" r:id="rId12"/>
-    <hyperlink ref="D83" r:id="rId13"/>
-    <hyperlink ref="D82" r:id="rId14"/>
-    <hyperlink ref="D100" r:id="rId15"/>
-    <hyperlink ref="D103" r:id="rId16"/>
-    <hyperlink ref="D105" r:id="rId17"/>
-    <hyperlink ref="D106" r:id="rId18"/>
-    <hyperlink ref="D84" r:id="rId19"/>
-    <hyperlink ref="D85" r:id="rId20"/>
-    <hyperlink ref="D67" r:id="rId21"/>
-    <hyperlink ref="D119" r:id="rId22"/>
-    <hyperlink ref="D123" r:id="rId23"/>
-    <hyperlink ref="D141" r:id="rId24"/>
-    <hyperlink ref="D140" r:id="rId25"/>
-    <hyperlink ref="D142" r:id="rId26"/>
-    <hyperlink ref="D138" r:id="rId27"/>
-    <hyperlink ref="D148" r:id="rId28"/>
-    <hyperlink ref="D167" r:id="rId29"/>
-    <hyperlink ref="D168" r:id="rId30"/>
-    <hyperlink ref="D171" r:id="rId31"/>
+    <hyperlink ref="D14" r:id="rId1"/>
+    <hyperlink ref="D15" r:id="rId2"/>
+    <hyperlink ref="D16" r:id="rId3"/>
+    <hyperlink ref="D17" r:id="rId4"/>
+    <hyperlink ref="D26" r:id="rId5"/>
+    <hyperlink ref="D25" r:id="rId6"/>
+    <hyperlink ref="D27" r:id="rId7"/>
+    <hyperlink ref="D29" r:id="rId8"/>
+    <hyperlink ref="D30" r:id="rId9"/>
+    <hyperlink ref="D31" r:id="rId10"/>
+    <hyperlink ref="D39" r:id="rId11"/>
+    <hyperlink ref="D41" r:id="rId12"/>
+    <hyperlink ref="D57" r:id="rId13"/>
+    <hyperlink ref="D56" r:id="rId14"/>
+    <hyperlink ref="D68" r:id="rId15"/>
+    <hyperlink ref="D71" r:id="rId16"/>
+    <hyperlink ref="D73" r:id="rId17"/>
+    <hyperlink ref="D74" r:id="rId18"/>
+    <hyperlink ref="D58" r:id="rId19"/>
+    <hyperlink ref="D59" r:id="rId20"/>
+    <hyperlink ref="D45" r:id="rId21"/>
+    <hyperlink ref="D84" r:id="rId22"/>
+    <hyperlink ref="D88" r:id="rId23"/>
+    <hyperlink ref="D101" r:id="rId24"/>
+    <hyperlink ref="D100" r:id="rId25"/>
+    <hyperlink ref="D102" r:id="rId26"/>
+    <hyperlink ref="D98" r:id="rId27"/>
+    <hyperlink ref="D108" r:id="rId28"/>
+    <hyperlink ref="D124" r:id="rId29"/>
+    <hyperlink ref="D125" r:id="rId30"/>
+    <hyperlink ref="D128" r:id="rId31"/>
+    <hyperlink ref="D150" r:id="rId32"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" cellComments="atEnd" r:id="rId32"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" cellComments="atEnd" r:id="rId33"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ETML L,Normal"&amp;24ETML</oddHeader>
     <oddFooter>&amp;C&amp;F&amp;L&amp;D</oddFooter>
   </headerFooter>
-  <drawing r:id="rId33"/>
-  <legacyDrawing r:id="rId34"/>
+  <drawing r:id="rId34"/>
+  <legacyDrawing r:id="rId35"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="44033" r:id="rId35" name="btnImportRealisation">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId36">
+        <control shapeId="44033" r:id="rId36" name="btnImportRealisation">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId37">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -23660,7 +23087,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="44033" r:id="rId35" name="btnImportRealisation"/>
+        <control shapeId="44033" r:id="rId36" name="btnImportRealisation"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
